--- a/AggrFiles/STARR.xlsx
+++ b/AggrFiles/STARR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -840,10 +840,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="1" sqref="10:11 E2"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -2789,15 +2789,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="10:11"/>
+      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="11.52"/>
@@ -7536,10 +7536,10 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="10:11 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.08"/>
@@ -8628,10 +8628,10 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="10:11 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -9774,17 +9774,17 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="10:11 A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="8.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.81"/>

--- a/AggrFiles/STARR.xlsx
+++ b/AggrFiles/STARR.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Final_22_2nd" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$174</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$182</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="191">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -551,6 +551,54 @@
     <t xml:space="preserve">STARR_060_3_combine_force15976</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_051_3rd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_051_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_051_3_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_051_3_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_073_3rd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_087_1st)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_087_1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_093_1st)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_093_1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_097_1st)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_097_1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_098_1st)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_098_1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_099_1st)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_099_1st</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample_id_ori</t>
   </si>
 </sst>
@@ -593,7 +641,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,7 +669,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
   </fills>
@@ -659,7 +713,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -768,27 +822,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -804,11 +838,43 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -824,6 +890,17 @@
   <dxfs count="6">
     <dxf>
       <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
         <b val="1"/>
         <i val="0"/>
         <color rgb="FF000000"/>
@@ -896,22 +973,11 @@
         <diagonal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-      </font>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -949,7 +1015,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
@@ -990,7 +1056,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -2934,14 +3000,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ174"/>
+  <dimension ref="A1:AMJ182"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C146" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A143" activeCellId="0" sqref="A143"/>
-      <selection pane="bottomRight" activeCell="F182" activeCellId="0" sqref="F182"/>
+      <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
+      <selection pane="bottomRight" activeCell="L187" activeCellId="0" sqref="L187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2954,7 +3020,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="5.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="23.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="7.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="15.72"/>
@@ -5385,56 +5451,56 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="n">
+      <c r="A50" s="27" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="27" t="n">
+      <c r="C50" s="28" t="n">
         <v>0.097</v>
       </c>
-      <c r="D50" s="28" t="n">
+      <c r="D50" s="29" t="n">
         <v>65165</v>
       </c>
-      <c r="E50" s="28" t="n">
+      <c r="E50" s="29" t="n">
         <v>28687</v>
       </c>
-      <c r="F50" s="29" t="n">
+      <c r="F50" s="30" t="n">
         <f aca="false">E50/D50</f>
         <v>0.440220977518607</v>
       </c>
-      <c r="G50" s="28" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H50" s="28" t="n">
+      <c r="G50" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H50" s="29" t="n">
         <f aca="false">(G50-E50)/F50</f>
         <v>48414.3216439502</v>
       </c>
-      <c r="I50" s="28" t="n">
+      <c r="I50" s="29" t="n">
         <f aca="false">E50*M50/G50</f>
         <v>5840.6732</v>
       </c>
-      <c r="J50" s="28" t="n">
+      <c r="J50" s="29" t="n">
         <f aca="false">I50-M50</f>
         <v>-4339.3268</v>
       </c>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28" t="n">
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29" t="n">
         <v>10180</v>
       </c>
-      <c r="N50" s="28" t="n">
+      <c r="N50" s="29" t="n">
         <v>65165</v>
       </c>
-      <c r="O50" s="28" t="n">
+      <c r="O50" s="29" t="n">
         <v>3150</v>
       </c>
-      <c r="P50" s="28" t="n">
+      <c r="P50" s="29" t="n">
         <v>663376635</v>
       </c>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
     </row>
     <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
@@ -6625,56 +6691,56 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16" t="n">
+      <c r="A75" s="27" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C75" s="27" t="n">
+      <c r="C75" s="28" t="n">
         <v>0.102</v>
       </c>
-      <c r="D75" s="28" t="n">
+      <c r="D75" s="29" t="n">
         <v>94036</v>
       </c>
-      <c r="E75" s="28" t="n">
+      <c r="E75" s="29" t="n">
         <v>27447</v>
       </c>
-      <c r="F75" s="29" t="n">
+      <c r="F75" s="30" t="n">
         <f aca="false">E75/D75</f>
         <v>0.291877578799609</v>
       </c>
-      <c r="G75" s="28" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H75" s="28" t="n">
+      <c r="G75" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H75" s="29" t="n">
         <f aca="false">(G75-E75)/F75</f>
         <v>77268.6963238241</v>
       </c>
-      <c r="I75" s="28" t="n">
+      <c r="I75" s="29" t="n">
         <f aca="false">E75*M75/G75</f>
         <v>11231.86134</v>
       </c>
-      <c r="J75" s="28" t="n">
+      <c r="J75" s="29" t="n">
         <f aca="false">I75-M75</f>
         <v>-9229.13866</v>
       </c>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28" t="n">
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29" t="n">
         <v>20461</v>
       </c>
-      <c r="N75" s="28" t="n">
+      <c r="N75" s="29" t="n">
         <v>94036</v>
       </c>
-      <c r="O75" s="28" t="n">
+      <c r="O75" s="29" t="n">
         <v>2660</v>
       </c>
-      <c r="P75" s="28" t="n">
+      <c r="P75" s="29" t="n">
         <v>1924060757</v>
       </c>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="n">
@@ -6972,7 +7038,7 @@
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="n">
         <v>81</v>
       </c>
@@ -7072,7 +7138,7 @@
         <v>2518432258</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="n">
         <v>83</v>
       </c>
@@ -7107,6 +7173,8 @@
         <f aca="false">I84-M84</f>
         <v>-8813.6608</v>
       </c>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
       <c r="M84" s="4" t="n">
         <v>12248</v>
       </c>
@@ -7119,6 +7187,8 @@
       <c r="P84" s="4" t="n">
         <v>508658790</v>
       </c>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="n">
@@ -7368,7 +7438,7 @@
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="n">
         <v>89</v>
       </c>
@@ -7403,8 +7473,6 @@
         <f aca="false">I90-M90</f>
         <v>-788.42064</v>
       </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
       <c r="M90" s="4" t="n">
         <v>14252</v>
       </c>
@@ -7417,8 +7485,6 @@
       <c r="P90" s="4" t="n">
         <v>1336986912</v>
       </c>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="n">
@@ -7667,46 +7733,46 @@
       <c r="B96" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="27" t="n">
+      <c r="C96" s="31" t="n">
         <v>0.129</v>
       </c>
-      <c r="D96" s="28" t="n">
+      <c r="D96" s="32" t="n">
         <v>51566</v>
       </c>
-      <c r="E96" s="28" t="n">
+      <c r="E96" s="32" t="n">
         <v>21579</v>
       </c>
-      <c r="F96" s="29" t="n">
+      <c r="F96" s="33" t="n">
         <f aca="false">E96/D96</f>
         <v>0.418473412713804</v>
       </c>
-      <c r="G96" s="28" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H96" s="28" t="n">
+      <c r="G96" s="32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H96" s="32" t="n">
         <f aca="false">(G96-E96)/F96</f>
         <v>67915.9037026739</v>
       </c>
-      <c r="I96" s="28" t="n">
+      <c r="I96" s="32" t="n">
         <f aca="false">E96*M96/G96</f>
         <v>4348.60008</v>
       </c>
-      <c r="J96" s="28" t="n">
+      <c r="J96" s="32" t="n">
         <f aca="false">I96-M96</f>
         <v>-5727.39992</v>
       </c>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28" t="n">
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32" t="n">
         <v>10076</v>
       </c>
-      <c r="N96" s="28" t="n">
+      <c r="N96" s="32" t="n">
         <v>51566</v>
       </c>
-      <c r="O96" s="28" t="n">
+      <c r="O96" s="32" t="n">
         <v>2128</v>
       </c>
-      <c r="P96" s="28" t="n">
+      <c r="P96" s="32" t="n">
         <v>519581313</v>
       </c>
     </row>
@@ -7813,46 +7879,46 @@
       <c r="B99" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="27" t="n">
+      <c r="C99" s="31" t="n">
         <v>0.193</v>
       </c>
-      <c r="D99" s="28" t="n">
+      <c r="D99" s="32" t="n">
         <v>39000</v>
       </c>
-      <c r="E99" s="28" t="n">
+      <c r="E99" s="32" t="n">
         <v>14464</v>
       </c>
-      <c r="F99" s="29" t="n">
+      <c r="F99" s="33" t="n">
         <f aca="false">E99/D99</f>
         <v>0.370871794871795</v>
       </c>
-      <c r="G99" s="28" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H99" s="28" t="n">
+      <c r="G99" s="32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H99" s="32" t="n">
         <f aca="false">(G99-E99)/F99</f>
         <v>95817.4778761062</v>
       </c>
-      <c r="I99" s="28" t="n">
+      <c r="I99" s="32" t="n">
         <f aca="false">E99*M99/G99</f>
         <v>4861.63968</v>
       </c>
-      <c r="J99" s="28" t="n">
+      <c r="J99" s="32" t="n">
         <f aca="false">I99-M99</f>
         <v>-11944.36032</v>
       </c>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28" t="n">
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32" t="n">
         <v>16806</v>
       </c>
-      <c r="N99" s="28" t="n">
+      <c r="N99" s="32" t="n">
         <v>39000</v>
       </c>
-      <c r="O99" s="28" t="n">
+      <c r="O99" s="32" t="n">
         <v>1592</v>
       </c>
-      <c r="P99" s="28" t="n">
+      <c r="P99" s="32" t="n">
         <v>655435984</v>
       </c>
       <c r="Q99" s="16"/>
@@ -10331,7 +10397,7 @@
       <c r="AMI126" s="0"/>
       <c r="AMJ126" s="0"/>
     </row>
-    <row r="127" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="n">
         <v>126</v>
       </c>
@@ -10438,8 +10504,8 @@
       <c r="P128" s="8" t="n">
         <v>1042384328</v>
       </c>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="32" t="s">
+      <c r="Q128" s="35"/>
+      <c r="R128" s="35" t="s">
         <v>143</v>
       </c>
       <c r="S128" s="0"/>
@@ -12566,7 +12632,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>130</v>
       </c>
@@ -12618,7 +12684,7 @@
         <v>432080145</v>
       </c>
       <c r="Q131" s="6"/>
-      <c r="R131" s="32" t="s">
+      <c r="R131" s="35" t="s">
         <v>143</v>
       </c>
     </row>
@@ -12840,7 +12906,7 @@
         <v>877693939</v>
       </c>
       <c r="Q135" s="6"/>
-      <c r="R135" s="32" t="s">
+      <c r="R135" s="35" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13282,8 +13348,8 @@
       <c r="P143" s="8" t="n">
         <v>1902547600</v>
       </c>
-      <c r="Q143" s="32"/>
-      <c r="R143" s="32" t="s">
+      <c r="Q143" s="35"/>
+      <c r="R143" s="35" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13503,7 +13569,7 @@
       <c r="P147" s="8" t="n">
         <v>2542002423</v>
       </c>
-      <c r="R147" s="32" t="s">
+      <c r="R147" s="35" t="s">
         <v>143</v>
       </c>
     </row>
@@ -14113,7 +14179,7 @@
       <c r="P158" s="8" t="n">
         <v>773029050</v>
       </c>
-      <c r="Q158" s="32"/>
+      <c r="Q158" s="35"/>
       <c r="R158" s="6" t="s">
         <v>161</v>
       </c>
@@ -14169,7 +14235,7 @@
       <c r="P159" s="8" t="n">
         <v>706088154</v>
       </c>
-      <c r="Q159" s="32"/>
+      <c r="Q159" s="35"/>
       <c r="R159" s="6" t="s">
         <v>161</v>
       </c>
@@ -14670,7 +14736,7 @@
       <c r="P168" s="8" t="n">
         <v>478908775</v>
       </c>
-      <c r="Q168" s="32"/>
+      <c r="Q168" s="35"/>
       <c r="R168" s="6" t="s">
         <v>161</v>
       </c>
@@ -15738,60 +15804,59 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="30" t="n">
+      <c r="A170" s="3" t="n">
         <v>169</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C170" s="33" t="n">
+      <c r="C170" s="22" t="n">
         <v>0.384</v>
       </c>
-      <c r="D170" s="34" t="n">
+      <c r="D170" s="4" t="n">
         <v>144016</v>
       </c>
-      <c r="E170" s="34" t="n">
+      <c r="E170" s="4" t="n">
         <v>52592</v>
       </c>
-      <c r="F170" s="35" t="n">
+      <c r="F170" s="23" t="n">
         <f aca="false">E170/D170</f>
         <v>0.365181646483724</v>
       </c>
-      <c r="G170" s="34" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H170" s="34" t="n">
+      <c r="G170" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H170" s="4" t="n">
         <f aca="false">(G170-E170)/F170</f>
         <v>-7097.83754183146</v>
       </c>
-      <c r="I170" s="34" t="n">
+      <c r="I170" s="4" t="n">
         <f aca="false">E170*M170/G170</f>
         <v>15976.39776</v>
       </c>
-      <c r="J170" s="34" t="n">
+      <c r="J170" s="4" t="n">
         <f aca="false">I170-M170</f>
         <v>787.39776</v>
       </c>
-      <c r="K170" s="36" t="n">
+      <c r="K170" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="L170" s="36" t="s">
+      <c r="L170" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="M170" s="34" t="n">
+      <c r="M170" s="4" t="n">
         <v>15189</v>
       </c>
-      <c r="N170" s="34" t="n">
+      <c r="N170" s="4" t="n">
         <v>144016</v>
       </c>
-      <c r="O170" s="34" t="n">
+      <c r="O170" s="4" t="n">
         <v>2471</v>
       </c>
-      <c r="P170" s="34" t="n">
+      <c r="P170" s="4" t="n">
         <v>2187458098</v>
       </c>
-      <c r="Q170" s="30"/>
-      <c r="R170" s="30" t="n">
+      <c r="R170" s="3" t="n">
         <v>20220919</v>
       </c>
     </row>
@@ -15887,10 +15952,10 @@
         <f aca="false">I172-M172</f>
         <v>319.696599999999</v>
       </c>
-      <c r="K172" s="32" t="n">
+      <c r="K172" s="35" t="n">
         <v>331</v>
       </c>
-      <c r="L172" s="32" t="s">
+      <c r="L172" s="35" t="s">
         <v>169</v>
       </c>
       <c r="M172" s="25" t="n">
@@ -15966,11 +16031,11 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="174" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="32" t="n">
+    <row r="174" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="35" t="n">
         <v>173</v>
       </c>
-      <c r="B174" s="32" t="s">
+      <c r="B174" s="35" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="7" t="n">
@@ -16001,10 +16066,10 @@
         <f aca="false">I174-M174</f>
         <v>147.61824</v>
       </c>
-      <c r="K174" s="32" t="n">
+      <c r="K174" s="35" t="n">
         <v>340</v>
       </c>
-      <c r="L174" s="32" t="s">
+      <c r="L174" s="35" t="s">
         <v>173</v>
       </c>
       <c r="M174" s="8" t="n">
@@ -16019,60 +16084,489 @@
       <c r="P174" s="8" t="n">
         <v>2187458098</v>
       </c>
-      <c r="Q174" s="32"/>
-      <c r="R174" s="32" t="n">
+      <c r="Q174" s="35"/>
+      <c r="R174" s="35" t="n">
         <v>20220923</v>
       </c>
     </row>
+    <row r="175" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" s="5" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="D175" s="4" t="n">
+        <v>48003</v>
+      </c>
+      <c r="E175" s="4" t="n">
+        <v>21203</v>
+      </c>
+      <c r="F175" s="5" t="n">
+        <f aca="false">E175/D175</f>
+        <v>0.441701560319147</v>
+      </c>
+      <c r="G175" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H175" s="1" t="n">
+        <f aca="false">(G175-E175)/F175</f>
+        <v>65195.6039711362</v>
+      </c>
+      <c r="I175" s="1" t="n">
+        <f aca="false">E175*M175/G175</f>
+        <v>4103.62862</v>
+      </c>
+      <c r="J175" s="1" t="n">
+        <f aca="false">I175-M175</f>
+        <v>-5573.37138</v>
+      </c>
+      <c r="K175" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="L175" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="M175" s="4" t="n">
+        <v>9677</v>
+      </c>
+      <c r="N175" s="4" t="n">
+        <v>48003</v>
+      </c>
+      <c r="O175" s="4" t="n">
+        <v>2859</v>
+      </c>
+      <c r="P175" s="4" t="n">
+        <v>464527763</v>
+      </c>
+      <c r="Q175" s="0"/>
+      <c r="R175" s="0" t="n">
+        <v>20220929</v>
+      </c>
+    </row>
+    <row r="176" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="15" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" s="11" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="D176" s="12" t="n">
+        <v>103796</v>
+      </c>
+      <c r="E176" s="12" t="n">
+        <v>46212</v>
+      </c>
+      <c r="F176" s="11" t="n">
+        <f aca="false">E176/D176</f>
+        <v>0.445219468958341</v>
+      </c>
+      <c r="G176" s="12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H176" s="14" t="n">
+        <f aca="false">(G176-E176)/F176</f>
+        <v>8508.16342075651</v>
+      </c>
+      <c r="I176" s="14" t="n">
+        <f aca="false">E176*M176/G176</f>
+        <v>9998.42832</v>
+      </c>
+      <c r="J176" s="14" t="n">
+        <f aca="false">I176-M176</f>
+        <v>-819.571679999999</v>
+      </c>
+      <c r="K176" s="15" t="n">
+        <v>323</v>
+      </c>
+      <c r="L176" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M176" s="12" t="n">
+        <v>10818</v>
+      </c>
+      <c r="N176" s="12" t="n">
+        <v>103796</v>
+      </c>
+      <c r="O176" s="12" t="n">
+        <v>3407</v>
+      </c>
+      <c r="P176" s="12" t="n">
+        <v>1122863682</v>
+      </c>
+      <c r="Q176" s="15"/>
+      <c r="R176" s="15" t="n">
+        <v>20220929</v>
+      </c>
+    </row>
+    <row r="177" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="37" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" s="38" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="D177" s="39" t="n">
+        <v>95224</v>
+      </c>
+      <c r="E177" s="39" t="n">
+        <v>28158</v>
+      </c>
+      <c r="F177" s="38" t="n">
+        <f aca="false">E177/D177</f>
+        <v>0.295702764009073</v>
+      </c>
+      <c r="G177" s="39" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H177" s="40" t="n">
+        <f aca="false">(G177-E177)/F177</f>
+        <v>73864.7136870516</v>
+      </c>
+      <c r="I177" s="40" t="n">
+        <f aca="false">E177*M177/G177</f>
+        <v>11797.07568</v>
+      </c>
+      <c r="J177" s="40" t="n">
+        <f aca="false">I177-M177</f>
+        <v>-9150.92432</v>
+      </c>
+      <c r="K177" s="37" t="n">
+        <v>304</v>
+      </c>
+      <c r="L177" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M177" s="39" t="n">
+        <v>20948</v>
+      </c>
+      <c r="N177" s="39" t="n">
+        <v>95224</v>
+      </c>
+      <c r="O177" s="39" t="n">
+        <v>2647</v>
+      </c>
+      <c r="P177" s="39" t="n">
+        <v>1994760239</v>
+      </c>
+      <c r="R177" s="37" t="n">
+        <v>20220929</v>
+      </c>
+    </row>
+    <row r="178" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="34" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" s="17" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="D178" s="32" t="n">
+        <v>88333</v>
+      </c>
+      <c r="E178" s="32" t="n">
+        <v>40017</v>
+      </c>
+      <c r="F178" s="17" t="n">
+        <f aca="false">E178/D178</f>
+        <v>0.453024351035287</v>
+      </c>
+      <c r="G178" s="32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H178" s="18" t="n">
+        <f aca="false">(G178-E178)/F178</f>
+        <v>22036.3430292126</v>
+      </c>
+      <c r="I178" s="18" t="n">
+        <f aca="false">E178*M178/G178</f>
+        <v>7680.86298</v>
+      </c>
+      <c r="J178" s="18" t="n">
+        <f aca="false">I178-M178</f>
+        <v>-1916.13702</v>
+      </c>
+      <c r="K178" s="34" t="n">
+        <v>318</v>
+      </c>
+      <c r="L178" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="M178" s="32" t="n">
+        <v>9597</v>
+      </c>
+      <c r="N178" s="32" t="n">
+        <v>88333</v>
+      </c>
+      <c r="O178" s="32" t="n">
+        <v>3133</v>
+      </c>
+      <c r="P178" s="32" t="n">
+        <v>847735375</v>
+      </c>
+      <c r="R178" s="34" t="n">
+        <v>20220929</v>
+      </c>
+    </row>
+    <row r="179" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="34" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179" s="17" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="D179" s="32" t="n">
+        <v>73688</v>
+      </c>
+      <c r="E179" s="32" t="n">
+        <v>24730</v>
+      </c>
+      <c r="F179" s="17" t="n">
+        <f aca="false">E179/D179</f>
+        <v>0.335604168928455</v>
+      </c>
+      <c r="G179" s="32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H179" s="18" t="n">
+        <f aca="false">(G179-E179)/F179</f>
+        <v>75297.0384148807</v>
+      </c>
+      <c r="I179" s="18" t="n">
+        <f aca="false">E179*M179/G179</f>
+        <v>6942.7002</v>
+      </c>
+      <c r="J179" s="18" t="n">
+        <f aca="false">I179-M179</f>
+        <v>-7094.2998</v>
+      </c>
+      <c r="K179" s="34" t="n">
+        <v>322</v>
+      </c>
+      <c r="L179" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="M179" s="32" t="n">
+        <v>14037</v>
+      </c>
+      <c r="N179" s="32" t="n">
+        <v>73688</v>
+      </c>
+      <c r="O179" s="32" t="n">
+        <v>2285</v>
+      </c>
+      <c r="P179" s="32" t="n">
+        <v>1034352102</v>
+      </c>
+      <c r="R179" s="34" t="n">
+        <v>20220929</v>
+      </c>
+    </row>
+    <row r="180" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="15" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180" s="11" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="D180" s="12" t="n">
+        <v>126995</v>
+      </c>
+      <c r="E180" s="12" t="n">
+        <v>28185</v>
+      </c>
+      <c r="F180" s="11" t="n">
+        <f aca="false">E180/D180</f>
+        <v>0.221937871569747</v>
+      </c>
+      <c r="G180" s="12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H180" s="14" t="n">
+        <f aca="false">(G180-E180)/F180</f>
+        <v>98293.2739045592</v>
+      </c>
+      <c r="I180" s="14" t="n">
+        <f aca="false">E180*M180/G180</f>
+        <v>4675.8915</v>
+      </c>
+      <c r="J180" s="14" t="n">
+        <f aca="false">I180-M180</f>
+        <v>-3619.1085</v>
+      </c>
+      <c r="K180" s="15" t="n">
+        <v>321</v>
+      </c>
+      <c r="L180" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="M180" s="12" t="n">
+        <v>8295</v>
+      </c>
+      <c r="N180" s="12" t="n">
+        <v>126995</v>
+      </c>
+      <c r="O180" s="12" t="n">
+        <v>2266</v>
+      </c>
+      <c r="P180" s="12" t="n">
+        <v>1053424567</v>
+      </c>
+      <c r="R180" s="15" t="n">
+        <v>20220929</v>
+      </c>
+    </row>
+    <row r="181" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="34" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181" s="17" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D181" s="32" t="n">
+        <v>81644</v>
+      </c>
+      <c r="E181" s="32" t="n">
+        <v>34944</v>
+      </c>
+      <c r="F181" s="17" t="n">
+        <f aca="false">E181/D181</f>
+        <v>0.428004507373475</v>
+      </c>
+      <c r="G181" s="32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H181" s="18" t="n">
+        <f aca="false">(G181-E181)/F181</f>
+        <v>35177.1996336996</v>
+      </c>
+      <c r="I181" s="18" t="n">
+        <f aca="false">E181*M181/G181</f>
+        <v>7299.10272</v>
+      </c>
+      <c r="J181" s="18" t="n">
+        <f aca="false">I181-M181</f>
+        <v>-3144.89728</v>
+      </c>
+      <c r="K181" s="34" t="n">
+        <v>320</v>
+      </c>
+      <c r="L181" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="M181" s="32" t="n">
+        <v>10444</v>
+      </c>
+      <c r="N181" s="32" t="n">
+        <v>81644</v>
+      </c>
+      <c r="O181" s="32" t="n">
+        <v>2771</v>
+      </c>
+      <c r="P181" s="32" t="n">
+        <v>852690764</v>
+      </c>
+      <c r="R181" s="34" t="n">
+        <v>20220929</v>
+      </c>
+    </row>
+    <row r="182" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="34" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C182" s="17" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="D182" s="32" t="n">
+        <v>87867</v>
+      </c>
+      <c r="E182" s="32" t="n">
+        <v>36712</v>
+      </c>
+      <c r="F182" s="17" t="n">
+        <f aca="false">E182/D182</f>
+        <v>0.417813285989052</v>
+      </c>
+      <c r="G182" s="32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H182" s="18" t="n">
+        <f aca="false">(G182-E182)/F182</f>
+        <v>31803.6798866855</v>
+      </c>
+      <c r="I182" s="18" t="n">
+        <f aca="false">E182*M182/G182</f>
+        <v>9296.21264</v>
+      </c>
+      <c r="J182" s="18" t="n">
+        <f aca="false">I182-M182</f>
+        <v>-3364.78736</v>
+      </c>
+      <c r="K182" s="34" t="n">
+        <v>319</v>
+      </c>
+      <c r="L182" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="M182" s="32" t="n">
+        <v>12661</v>
+      </c>
+      <c r="N182" s="32" t="n">
+        <v>87867</v>
+      </c>
+      <c r="O182" s="32" t="n">
+        <v>2819</v>
+      </c>
+      <c r="P182" s="32" t="n">
+        <v>1112489049</v>
+      </c>
+      <c r="R182" s="34" t="n">
+        <v>20220929</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R174"/>
-  <conditionalFormatting sqref="H1:H1048576">
+  <autoFilter ref="A1:R182"/>
+  <conditionalFormatting sqref="H2:H200">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J104 J175:J1048576 J127:J147 J170:J173">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>100</formula>
+  <conditionalFormatting sqref="F2:F200">
+    <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>30%</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J200">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>0</formula>
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J105:K169">
-    <cfRule type="cellIs" priority="6" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>500</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="8" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>0</formula>
-      <formula>500</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F126:F169">
-    <cfRule type="cellIs" priority="9" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>40%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F174">
-    <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>40%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J174">
-    <cfRule type="cellIs" priority="11" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
       <formula>50</formula>
     </cfRule>
@@ -16099,7 +16593,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.39"/>
@@ -16132,7 +16626,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>96</v>
@@ -16752,7 +17246,7 @@
         <f aca="false">E14/D14</f>
         <v>0.336224045534027</v>
       </c>
-      <c r="G14" s="28" t="n">
+      <c r="G14" s="32" t="n">
         <v>50000</v>
       </c>
       <c r="H14" s="18" t="n">
@@ -17183,13 +17677,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K22">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>500</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
       <formula>500</formula>
     </cfRule>
@@ -17215,7 +17709,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.58"/>
@@ -17250,7 +17744,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>
@@ -18350,19 +18844,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K23">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>500</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18387,7 +18881,7 @@
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.29"/>
@@ -18423,7 +18917,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>
@@ -19523,19 +20017,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K23">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>500</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F23">
-    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AggrFiles/STARR.xlsx
+++ b/AggrFiles/STARR.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Final_22_2nd" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$182</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$185</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="197">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -599,6 +599,24 @@
     <t xml:space="preserve">STARR_099_1st</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_051_3_combine_force9998)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_051_3_combine_force9998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_073_3_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_3_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_097_1_force4676)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_097_1_force4676</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample_id_ori</t>
   </si>
 </sst>
@@ -826,18 +844,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -866,15 +872,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1056,7 +1074,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3000,14 +3018,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ182"/>
+  <dimension ref="A1:AMJ195"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C152" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
-      <selection pane="bottomRight" activeCell="L187" activeCellId="0" sqref="L187"/>
+      <selection pane="bottomLeft" activeCell="A152" activeCellId="0" sqref="A152"/>
+      <selection pane="bottomRight" activeCell="B189" activeCellId="0" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5451,56 +5469,52 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="n">
+      <c r="A50" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="28" t="n">
+      <c r="C50" s="22" t="n">
         <v>0.097</v>
       </c>
-      <c r="D50" s="29" t="n">
+      <c r="D50" s="4" t="n">
         <v>65165</v>
       </c>
-      <c r="E50" s="29" t="n">
+      <c r="E50" s="4" t="n">
         <v>28687</v>
       </c>
-      <c r="F50" s="30" t="n">
+      <c r="F50" s="23" t="n">
         <f aca="false">E50/D50</f>
         <v>0.440220977518607</v>
       </c>
-      <c r="G50" s="29" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H50" s="29" t="n">
+      <c r="G50" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H50" s="4" t="n">
         <f aca="false">(G50-E50)/F50</f>
         <v>48414.3216439502</v>
       </c>
-      <c r="I50" s="29" t="n">
+      <c r="I50" s="4" t="n">
         <f aca="false">E50*M50/G50</f>
         <v>5840.6732</v>
       </c>
-      <c r="J50" s="29" t="n">
+      <c r="J50" s="4" t="n">
         <f aca="false">I50-M50</f>
         <v>-4339.3268</v>
       </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29" t="n">
+      <c r="M50" s="4" t="n">
         <v>10180</v>
       </c>
-      <c r="N50" s="29" t="n">
+      <c r="N50" s="4" t="n">
         <v>65165</v>
       </c>
-      <c r="O50" s="29" t="n">
+      <c r="O50" s="4" t="n">
         <v>3150</v>
       </c>
-      <c r="P50" s="29" t="n">
+      <c r="P50" s="4" t="n">
         <v>663376635</v>
       </c>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
     </row>
     <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
@@ -6691,56 +6705,52 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="27" t="n">
+      <c r="A75" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C75" s="28" t="n">
+      <c r="C75" s="22" t="n">
         <v>0.102</v>
       </c>
-      <c r="D75" s="29" t="n">
+      <c r="D75" s="4" t="n">
         <v>94036</v>
       </c>
-      <c r="E75" s="29" t="n">
+      <c r="E75" s="4" t="n">
         <v>27447</v>
       </c>
-      <c r="F75" s="30" t="n">
+      <c r="F75" s="23" t="n">
         <f aca="false">E75/D75</f>
         <v>0.291877578799609</v>
       </c>
-      <c r="G75" s="29" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H75" s="29" t="n">
+      <c r="G75" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H75" s="4" t="n">
         <f aca="false">(G75-E75)/F75</f>
         <v>77268.6963238241</v>
       </c>
-      <c r="I75" s="29" t="n">
+      <c r="I75" s="4" t="n">
         <f aca="false">E75*M75/G75</f>
         <v>11231.86134</v>
       </c>
-      <c r="J75" s="29" t="n">
+      <c r="J75" s="4" t="n">
         <f aca="false">I75-M75</f>
         <v>-9229.13866</v>
       </c>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29" t="n">
+      <c r="M75" s="4" t="n">
         <v>20461</v>
       </c>
-      <c r="N75" s="29" t="n">
+      <c r="N75" s="4" t="n">
         <v>94036</v>
       </c>
-      <c r="O75" s="29" t="n">
+      <c r="O75" s="4" t="n">
         <v>2660</v>
       </c>
-      <c r="P75" s="29" t="n">
+      <c r="P75" s="4" t="n">
         <v>1924060757</v>
       </c>
-      <c r="Q75" s="27"/>
-      <c r="R75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="n">
@@ -7038,7 +7048,7 @@
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="n">
         <v>81</v>
       </c>
@@ -7090,7 +7100,7 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="n">
         <v>82</v>
       </c>
@@ -7125,6 +7135,8 @@
         <f aca="false">I83-M83</f>
         <v>827.359079999998</v>
       </c>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
       <c r="M83" s="4" t="n">
         <v>15923</v>
       </c>
@@ -7137,8 +7149,10 @@
       <c r="P83" s="4" t="n">
         <v>2518432258</v>
       </c>
-    </row>
-    <row r="84" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="n">
         <v>83</v>
       </c>
@@ -7173,8 +7187,6 @@
         <f aca="false">I84-M84</f>
         <v>-8813.6608</v>
       </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
       <c r="M84" s="4" t="n">
         <v>12248</v>
       </c>
@@ -7187,8 +7199,6 @@
       <c r="P84" s="4" t="n">
         <v>508658790</v>
       </c>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="n">
@@ -7733,46 +7743,46 @@
       <c r="B96" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="31" t="n">
+      <c r="C96" s="28" t="n">
         <v>0.129</v>
       </c>
-      <c r="D96" s="32" t="n">
+      <c r="D96" s="29" t="n">
         <v>51566</v>
       </c>
-      <c r="E96" s="32" t="n">
+      <c r="E96" s="29" t="n">
         <v>21579</v>
       </c>
-      <c r="F96" s="33" t="n">
+      <c r="F96" s="30" t="n">
         <f aca="false">E96/D96</f>
         <v>0.418473412713804</v>
       </c>
-      <c r="G96" s="32" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H96" s="32" t="n">
+      <c r="G96" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H96" s="29" t="n">
         <f aca="false">(G96-E96)/F96</f>
         <v>67915.9037026739</v>
       </c>
-      <c r="I96" s="32" t="n">
+      <c r="I96" s="29" t="n">
         <f aca="false">E96*M96/G96</f>
         <v>4348.60008</v>
       </c>
-      <c r="J96" s="32" t="n">
+      <c r="J96" s="29" t="n">
         <f aca="false">I96-M96</f>
         <v>-5727.39992</v>
       </c>
-      <c r="K96" s="32"/>
-      <c r="L96" s="32"/>
-      <c r="M96" s="32" t="n">
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29" t="n">
         <v>10076</v>
       </c>
-      <c r="N96" s="32" t="n">
+      <c r="N96" s="29" t="n">
         <v>51566</v>
       </c>
-      <c r="O96" s="32" t="n">
+      <c r="O96" s="29" t="n">
         <v>2128</v>
       </c>
-      <c r="P96" s="32" t="n">
+      <c r="P96" s="29" t="n">
         <v>519581313</v>
       </c>
     </row>
@@ -7879,46 +7889,46 @@
       <c r="B99" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="31" t="n">
+      <c r="C99" s="28" t="n">
         <v>0.193</v>
       </c>
-      <c r="D99" s="32" t="n">
+      <c r="D99" s="29" t="n">
         <v>39000</v>
       </c>
-      <c r="E99" s="32" t="n">
+      <c r="E99" s="29" t="n">
         <v>14464</v>
       </c>
-      <c r="F99" s="33" t="n">
+      <c r="F99" s="30" t="n">
         <f aca="false">E99/D99</f>
         <v>0.370871794871795</v>
       </c>
-      <c r="G99" s="32" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H99" s="32" t="n">
+      <c r="G99" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H99" s="29" t="n">
         <f aca="false">(G99-E99)/F99</f>
         <v>95817.4778761062</v>
       </c>
-      <c r="I99" s="32" t="n">
+      <c r="I99" s="29" t="n">
         <f aca="false">E99*M99/G99</f>
         <v>4861.63968</v>
       </c>
-      <c r="J99" s="32" t="n">
+      <c r="J99" s="29" t="n">
         <f aca="false">I99-M99</f>
         <v>-11944.36032</v>
       </c>
-      <c r="K99" s="32"/>
-      <c r="L99" s="32"/>
-      <c r="M99" s="32" t="n">
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29" t="n">
         <v>16806</v>
       </c>
-      <c r="N99" s="32" t="n">
+      <c r="N99" s="29" t="n">
         <v>39000</v>
       </c>
-      <c r="O99" s="32" t="n">
+      <c r="O99" s="29" t="n">
         <v>1592</v>
       </c>
-      <c r="P99" s="32" t="n">
+      <c r="P99" s="29" t="n">
         <v>655435984</v>
       </c>
       <c r="Q99" s="16"/>
@@ -10397,7 +10407,7 @@
       <c r="AMI126" s="0"/>
       <c r="AMJ126" s="0"/>
     </row>
-    <row r="127" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="n">
         <v>126</v>
       </c>
@@ -10504,8 +10514,8 @@
       <c r="P128" s="8" t="n">
         <v>1042384328</v>
       </c>
-      <c r="Q128" s="35"/>
-      <c r="R128" s="35" t="s">
+      <c r="Q128" s="32"/>
+      <c r="R128" s="32" t="s">
         <v>143</v>
       </c>
       <c r="S128" s="0"/>
@@ -12577,7 +12587,7 @@
       <c r="AMI129" s="0"/>
       <c r="AMJ129" s="0"/>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="n">
         <v>129</v>
       </c>
@@ -12628,6 +12638,7 @@
       <c r="P130" s="1" t="n">
         <v>561385615</v>
       </c>
+      <c r="Q130" s="3"/>
       <c r="R130" s="0" t="s">
         <v>143</v>
       </c>
@@ -12684,7 +12695,7 @@
         <v>432080145</v>
       </c>
       <c r="Q131" s="6"/>
-      <c r="R131" s="35" t="s">
+      <c r="R131" s="32" t="s">
         <v>143</v>
       </c>
     </row>
@@ -12906,7 +12917,7 @@
         <v>877693939</v>
       </c>
       <c r="Q135" s="6"/>
-      <c r="R135" s="35" t="s">
+      <c r="R135" s="32" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13348,8 +13359,8 @@
       <c r="P143" s="8" t="n">
         <v>1902547600</v>
       </c>
-      <c r="Q143" s="35"/>
-      <c r="R143" s="35" t="s">
+      <c r="Q143" s="32"/>
+      <c r="R143" s="32" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13569,7 +13580,7 @@
       <c r="P147" s="8" t="n">
         <v>2542002423</v>
       </c>
-      <c r="R147" s="35" t="s">
+      <c r="R147" s="32" t="s">
         <v>143</v>
       </c>
     </row>
@@ -14179,7 +14190,7 @@
       <c r="P158" s="8" t="n">
         <v>773029050</v>
       </c>
-      <c r="Q158" s="35"/>
+      <c r="Q158" s="32"/>
       <c r="R158" s="6" t="s">
         <v>161</v>
       </c>
@@ -14235,7 +14246,7 @@
       <c r="P159" s="8" t="n">
         <v>706088154</v>
       </c>
-      <c r="Q159" s="35"/>
+      <c r="Q159" s="32"/>
       <c r="R159" s="6" t="s">
         <v>161</v>
       </c>
@@ -14736,7 +14747,7 @@
       <c r="P168" s="8" t="n">
         <v>478908775</v>
       </c>
-      <c r="Q168" s="35"/>
+      <c r="Q168" s="32"/>
       <c r="R168" s="6" t="s">
         <v>161</v>
       </c>
@@ -15952,10 +15963,10 @@
         <f aca="false">I172-M172</f>
         <v>319.696599999999</v>
       </c>
-      <c r="K172" s="35" t="n">
+      <c r="K172" s="32" t="n">
         <v>331</v>
       </c>
-      <c r="L172" s="35" t="s">
+      <c r="L172" s="32" t="s">
         <v>169</v>
       </c>
       <c r="M172" s="25" t="n">
@@ -16031,11 +16042,11 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="174" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="35" t="n">
+    <row r="174" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="32" t="n">
         <v>173</v>
       </c>
-      <c r="B174" s="35" t="s">
+      <c r="B174" s="32" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="7" t="n">
@@ -16066,10 +16077,10 @@
         <f aca="false">I174-M174</f>
         <v>147.61824</v>
       </c>
-      <c r="K174" s="35" t="n">
+      <c r="K174" s="32" t="n">
         <v>340</v>
       </c>
-      <c r="L174" s="35" t="s">
+      <c r="L174" s="32" t="s">
         <v>173</v>
       </c>
       <c r="M174" s="8" t="n">
@@ -16084,12 +16095,12 @@
       <c r="P174" s="8" t="n">
         <v>2187458098</v>
       </c>
-      <c r="Q174" s="35"/>
-      <c r="R174" s="35" t="n">
+      <c r="Q174" s="32"/>
+      <c r="R174" s="32" t="n">
         <v>20220923</v>
       </c>
     </row>
-    <row r="175" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>174</v>
       </c>
@@ -16147,142 +16158,143 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="176" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="15" t="n">
+    <row r="176" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="35" t="n">
         <v>175</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="B176" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="C176" s="11" t="n">
+      <c r="C176" s="36" t="n">
         <v>0.362</v>
       </c>
-      <c r="D176" s="12" t="n">
+      <c r="D176" s="37" t="n">
         <v>103796</v>
       </c>
-      <c r="E176" s="12" t="n">
+      <c r="E176" s="37" t="n">
         <v>46212</v>
       </c>
-      <c r="F176" s="11" t="n">
+      <c r="F176" s="36" t="n">
         <f aca="false">E176/D176</f>
         <v>0.445219468958341</v>
       </c>
-      <c r="G176" s="12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H176" s="14" t="n">
+      <c r="G176" s="37" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H176" s="38" t="n">
         <f aca="false">(G176-E176)/F176</f>
         <v>8508.16342075651</v>
       </c>
-      <c r="I176" s="14" t="n">
+      <c r="I176" s="38" t="n">
         <f aca="false">E176*M176/G176</f>
         <v>9998.42832</v>
       </c>
-      <c r="J176" s="14" t="n">
+      <c r="J176" s="38" t="n">
         <f aca="false">I176-M176</f>
         <v>-819.571679999999</v>
       </c>
-      <c r="K176" s="15" t="n">
+      <c r="K176" s="35" t="n">
         <v>323</v>
       </c>
-      <c r="L176" s="15" t="s">
+      <c r="L176" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="M176" s="12" t="n">
+      <c r="M176" s="37" t="n">
         <v>10818</v>
       </c>
-      <c r="N176" s="12" t="n">
+      <c r="N176" s="37" t="n">
         <v>103796</v>
       </c>
-      <c r="O176" s="12" t="n">
+      <c r="O176" s="37" t="n">
         <v>3407</v>
       </c>
-      <c r="P176" s="12" t="n">
+      <c r="P176" s="37" t="n">
         <v>1122863682</v>
       </c>
-      <c r="Q176" s="15"/>
-      <c r="R176" s="15" t="n">
+      <c r="Q176" s="35"/>
+      <c r="R176" s="35" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="177" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="37" t="n">
+    <row r="177" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="35" t="n">
         <v>176</v>
       </c>
-      <c r="B177" s="37" t="s">
+      <c r="B177" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="C177" s="38" t="n">
+      <c r="C177" s="36" t="n">
         <v>0.594</v>
       </c>
-      <c r="D177" s="39" t="n">
+      <c r="D177" s="37" t="n">
         <v>95224</v>
       </c>
-      <c r="E177" s="39" t="n">
+      <c r="E177" s="37" t="n">
         <v>28158</v>
       </c>
-      <c r="F177" s="38" t="n">
+      <c r="F177" s="36" t="n">
         <f aca="false">E177/D177</f>
         <v>0.295702764009073</v>
       </c>
-      <c r="G177" s="39" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H177" s="40" t="n">
+      <c r="G177" s="37" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H177" s="38" t="n">
         <f aca="false">(G177-E177)/F177</f>
         <v>73864.7136870516</v>
       </c>
-      <c r="I177" s="40" t="n">
+      <c r="I177" s="38" t="n">
         <f aca="false">E177*M177/G177</f>
         <v>11797.07568</v>
       </c>
-      <c r="J177" s="40" t="n">
+      <c r="J177" s="38" t="n">
         <f aca="false">I177-M177</f>
         <v>-9150.92432</v>
       </c>
-      <c r="K177" s="37" t="n">
+      <c r="K177" s="35" t="n">
         <v>304</v>
       </c>
-      <c r="L177" s="37" t="s">
+      <c r="L177" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="M177" s="39" t="n">
+      <c r="M177" s="37" t="n">
         <v>20948</v>
       </c>
-      <c r="N177" s="39" t="n">
+      <c r="N177" s="37" t="n">
         <v>95224</v>
       </c>
-      <c r="O177" s="39" t="n">
+      <c r="O177" s="37" t="n">
         <v>2647</v>
       </c>
-      <c r="P177" s="39" t="n">
+      <c r="P177" s="37" t="n">
         <v>1994760239</v>
       </c>
-      <c r="R177" s="37" t="n">
+      <c r="Q177" s="35"/>
+      <c r="R177" s="35" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="178" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="34" t="n">
+    <row r="178" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="31" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="34" t="s">
+      <c r="B178" s="31" t="s">
         <v>180</v>
       </c>
       <c r="C178" s="17" t="n">
         <v>0.418</v>
       </c>
-      <c r="D178" s="32" t="n">
+      <c r="D178" s="29" t="n">
         <v>88333</v>
       </c>
-      <c r="E178" s="32" t="n">
+      <c r="E178" s="29" t="n">
         <v>40017</v>
       </c>
       <c r="F178" s="17" t="n">
         <f aca="false">E178/D178</f>
         <v>0.453024351035287</v>
       </c>
-      <c r="G178" s="32" t="n">
+      <c r="G178" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H178" s="18" t="n">
@@ -16297,49 +16309,49 @@
         <f aca="false">I178-M178</f>
         <v>-1916.13702</v>
       </c>
-      <c r="K178" s="34" t="n">
+      <c r="K178" s="31" t="n">
         <v>318</v>
       </c>
-      <c r="L178" s="34" t="s">
+      <c r="L178" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="M178" s="32" t="n">
+      <c r="M178" s="29" t="n">
         <v>9597</v>
       </c>
-      <c r="N178" s="32" t="n">
+      <c r="N178" s="29" t="n">
         <v>88333</v>
       </c>
-      <c r="O178" s="32" t="n">
+      <c r="O178" s="29" t="n">
         <v>3133</v>
       </c>
-      <c r="P178" s="32" t="n">
+      <c r="P178" s="29" t="n">
         <v>847735375</v>
       </c>
-      <c r="R178" s="34" t="n">
+      <c r="R178" s="31" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="179" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="34" t="n">
+    <row r="179" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="31" t="n">
         <v>178</v>
       </c>
-      <c r="B179" s="34" t="s">
+      <c r="B179" s="31" t="s">
         <v>182</v>
       </c>
       <c r="C179" s="17" t="n">
         <v>0.676</v>
       </c>
-      <c r="D179" s="32" t="n">
+      <c r="D179" s="29" t="n">
         <v>73688</v>
       </c>
-      <c r="E179" s="32" t="n">
+      <c r="E179" s="29" t="n">
         <v>24730</v>
       </c>
       <c r="F179" s="17" t="n">
         <f aca="false">E179/D179</f>
         <v>0.335604168928455</v>
       </c>
-      <c r="G179" s="32" t="n">
+      <c r="G179" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H179" s="18" t="n">
@@ -16354,106 +16366,107 @@
         <f aca="false">I179-M179</f>
         <v>-7094.2998</v>
       </c>
-      <c r="K179" s="34" t="n">
+      <c r="K179" s="31" t="n">
         <v>322</v>
       </c>
-      <c r="L179" s="34" t="s">
+      <c r="L179" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="M179" s="32" t="n">
+      <c r="M179" s="29" t="n">
         <v>14037</v>
       </c>
-      <c r="N179" s="32" t="n">
+      <c r="N179" s="29" t="n">
         <v>73688</v>
       </c>
-      <c r="O179" s="32" t="n">
+      <c r="O179" s="29" t="n">
         <v>2285</v>
       </c>
-      <c r="P179" s="32" t="n">
+      <c r="P179" s="29" t="n">
         <v>1034352102</v>
       </c>
-      <c r="R179" s="34" t="n">
+      <c r="R179" s="31" t="n">
         <v>20220929</v>
       </c>
     </row>
     <row r="180" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="15" t="n">
+      <c r="A180" s="35" t="n">
         <v>179</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="C180" s="11" t="n">
+      <c r="C180" s="36" t="n">
         <v>0.593</v>
       </c>
-      <c r="D180" s="12" t="n">
+      <c r="D180" s="37" t="n">
         <v>126995</v>
       </c>
-      <c r="E180" s="12" t="n">
+      <c r="E180" s="37" t="n">
         <v>28185</v>
       </c>
-      <c r="F180" s="11" t="n">
+      <c r="F180" s="36" t="n">
         <f aca="false">E180/D180</f>
         <v>0.221937871569747</v>
       </c>
-      <c r="G180" s="12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H180" s="14" t="n">
+      <c r="G180" s="37" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H180" s="38" t="n">
         <f aca="false">(G180-E180)/F180</f>
         <v>98293.2739045592</v>
       </c>
-      <c r="I180" s="14" t="n">
+      <c r="I180" s="38" t="n">
         <f aca="false">E180*M180/G180</f>
         <v>4675.8915</v>
       </c>
-      <c r="J180" s="14" t="n">
+      <c r="J180" s="38" t="n">
         <f aca="false">I180-M180</f>
         <v>-3619.1085</v>
       </c>
-      <c r="K180" s="15" t="n">
+      <c r="K180" s="35" t="n">
         <v>321</v>
       </c>
-      <c r="L180" s="15" t="s">
+      <c r="L180" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="M180" s="12" t="n">
+      <c r="M180" s="37" t="n">
         <v>8295</v>
       </c>
-      <c r="N180" s="12" t="n">
+      <c r="N180" s="37" t="n">
         <v>126995</v>
       </c>
-      <c r="O180" s="12" t="n">
+      <c r="O180" s="37" t="n">
         <v>2266</v>
       </c>
-      <c r="P180" s="12" t="n">
+      <c r="P180" s="37" t="n">
         <v>1053424567</v>
       </c>
-      <c r="R180" s="15" t="n">
+      <c r="Q180" s="35"/>
+      <c r="R180" s="35" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="181" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="34" t="n">
+    <row r="181" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="31" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="34" t="s">
+      <c r="B181" s="31" t="s">
         <v>186</v>
       </c>
       <c r="C181" s="17" t="n">
         <v>0.479</v>
       </c>
-      <c r="D181" s="32" t="n">
+      <c r="D181" s="29" t="n">
         <v>81644</v>
       </c>
-      <c r="E181" s="32" t="n">
+      <c r="E181" s="29" t="n">
         <v>34944</v>
       </c>
       <c r="F181" s="17" t="n">
         <f aca="false">E181/D181</f>
         <v>0.428004507373475</v>
       </c>
-      <c r="G181" s="32" t="n">
+      <c r="G181" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H181" s="18" t="n">
@@ -16468,49 +16481,49 @@
         <f aca="false">I181-M181</f>
         <v>-3144.89728</v>
       </c>
-      <c r="K181" s="34" t="n">
+      <c r="K181" s="31" t="n">
         <v>320</v>
       </c>
-      <c r="L181" s="34" t="s">
+      <c r="L181" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="M181" s="32" t="n">
+      <c r="M181" s="29" t="n">
         <v>10444</v>
       </c>
-      <c r="N181" s="32" t="n">
+      <c r="N181" s="29" t="n">
         <v>81644</v>
       </c>
-      <c r="O181" s="32" t="n">
+      <c r="O181" s="29" t="n">
         <v>2771</v>
       </c>
-      <c r="P181" s="32" t="n">
+      <c r="P181" s="29" t="n">
         <v>852690764</v>
       </c>
-      <c r="R181" s="34" t="n">
+      <c r="R181" s="31" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="182" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="34" t="n">
+    <row r="182" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="31" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="34" t="s">
+      <c r="B182" s="31" t="s">
         <v>188</v>
       </c>
       <c r="C182" s="17" t="n">
         <v>0.455</v>
       </c>
-      <c r="D182" s="32" t="n">
+      <c r="D182" s="29" t="n">
         <v>87867</v>
       </c>
-      <c r="E182" s="32" t="n">
+      <c r="E182" s="29" t="n">
         <v>36712</v>
       </c>
       <c r="F182" s="17" t="n">
         <f aca="false">E182/D182</f>
         <v>0.417813285989052</v>
       </c>
-      <c r="G182" s="32" t="n">
+      <c r="G182" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H182" s="18" t="n">
@@ -16525,41 +16538,240 @@
         <f aca="false">I182-M182</f>
         <v>-3364.78736</v>
       </c>
-      <c r="K182" s="34" t="n">
+      <c r="K182" s="31" t="n">
         <v>319</v>
       </c>
-      <c r="L182" s="34" t="s">
+      <c r="L182" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="M182" s="32" t="n">
+      <c r="M182" s="29" t="n">
         <v>12661</v>
       </c>
-      <c r="N182" s="32" t="n">
+      <c r="N182" s="29" t="n">
         <v>87867</v>
       </c>
-      <c r="O182" s="32" t="n">
+      <c r="O182" s="29" t="n">
         <v>2819</v>
       </c>
-      <c r="P182" s="32" t="n">
+      <c r="P182" s="29" t="n">
         <v>1112489049</v>
       </c>
-      <c r="R182" s="34" t="n">
+      <c r="Q182" s="31"/>
+      <c r="R182" s="31" t="n">
         <v>20220929</v>
       </c>
     </row>
+    <row r="183" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="6" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183" s="24" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="D183" s="25" t="n">
+        <v>112309</v>
+      </c>
+      <c r="E183" s="25" t="n">
+        <v>50088</v>
+      </c>
+      <c r="F183" s="7" t="n">
+        <f aca="false">E183/D183</f>
+        <v>0.445983848133275</v>
+      </c>
+      <c r="G183" s="25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H183" s="8" t="n">
+        <f aca="false">(G183-E183)/F183</f>
+        <v>-197.316562849385</v>
+      </c>
+      <c r="I183" s="8" t="n">
+        <f aca="false">E183*M183/G183</f>
+        <v>10015.59648</v>
+      </c>
+      <c r="J183" s="8" t="n">
+        <f aca="false">I183-M183</f>
+        <v>17.5964800000002</v>
+      </c>
+      <c r="K183" s="25" t="n">
+        <v>353</v>
+      </c>
+      <c r="L183" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M183" s="25" t="n">
+        <v>9998</v>
+      </c>
+      <c r="N183" s="25" t="n">
+        <v>112309</v>
+      </c>
+      <c r="O183" s="25" t="n">
+        <v>3582</v>
+      </c>
+      <c r="P183" s="25" t="n">
+        <v>1122863682</v>
+      </c>
+      <c r="Q183" s="25"/>
+      <c r="R183" s="6" t="n">
+        <v>20221005</v>
+      </c>
+    </row>
+    <row r="184" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="10" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C184" s="39" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="D184" s="12" t="n">
+        <v>180491</v>
+      </c>
+      <c r="E184" s="12" t="n">
+        <v>53466</v>
+      </c>
+      <c r="F184" s="11" t="n">
+        <f aca="false">E184/D184</f>
+        <v>0.296225296552183</v>
+      </c>
+      <c r="G184" s="12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H184" s="14" t="n">
+        <f aca="false">(G184-E184)/F184</f>
+        <v>-11700.553735084</v>
+      </c>
+      <c r="I184" s="14" t="n">
+        <f aca="false">E184*M184/G184</f>
+        <v>23217.07584</v>
+      </c>
+      <c r="J184" s="14" t="n">
+        <f aca="false">I184-M184</f>
+        <v>1505.07584</v>
+      </c>
+      <c r="K184" s="12" t="n">
+        <v>325</v>
+      </c>
+      <c r="L184" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="M184" s="12" t="n">
+        <v>21712</v>
+      </c>
+      <c r="N184" s="12" t="n">
+        <v>180491</v>
+      </c>
+      <c r="O184" s="12" t="n">
+        <v>2910</v>
+      </c>
+      <c r="P184" s="12" t="n">
+        <v>3918820996</v>
+      </c>
+      <c r="Q184" s="12"/>
+      <c r="R184" s="10" t="n">
+        <v>20221005</v>
+      </c>
+    </row>
+    <row r="185" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="6" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C185" s="24" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="D185" s="25" t="n">
+        <v>225283</v>
+      </c>
+      <c r="E185" s="25" t="n">
+        <v>44146</v>
+      </c>
+      <c r="F185" s="7" t="n">
+        <f aca="false">E185/D185</f>
+        <v>0.195957972860802</v>
+      </c>
+      <c r="G185" s="25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H185" s="8" t="n">
+        <f aca="false">(G185-E185)/F185</f>
+        <v>29873.7525936665</v>
+      </c>
+      <c r="I185" s="8" t="n">
+        <f aca="false">E185*M185/G185</f>
+        <v>4128.53392</v>
+      </c>
+      <c r="J185" s="8" t="n">
+        <f aca="false">I185-M185</f>
+        <v>-547.46608</v>
+      </c>
+      <c r="K185" s="25" t="n">
+        <v>354</v>
+      </c>
+      <c r="L185" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="M185" s="25" t="n">
+        <v>4676</v>
+      </c>
+      <c r="N185" s="25" t="n">
+        <v>225283</v>
+      </c>
+      <c r="O185" s="25" t="n">
+        <v>3220</v>
+      </c>
+      <c r="P185" s="25" t="n">
+        <v>1053424567</v>
+      </c>
+      <c r="Q185" s="25"/>
+      <c r="R185" s="6" t="n">
+        <v>20221005</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="0"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="0"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="0"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="0"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C192" s="0"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="0"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="0"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="0"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R182"/>
-  <conditionalFormatting sqref="H2:H200">
+  <autoFilter ref="A1:R185"/>
+  <conditionalFormatting sqref="H190:H198 H2:H187">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F200">
+  <conditionalFormatting sqref="F190:F198 F2:F187">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>30%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J200">
+  <conditionalFormatting sqref="J190:J198 J2:J187">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>50</formula>
     </cfRule>
@@ -16593,7 +16805,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.39"/>
@@ -16626,7 +16838,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>96</v>
@@ -17246,7 +17458,7 @@
         <f aca="false">E14/D14</f>
         <v>0.336224045534027</v>
       </c>
-      <c r="G14" s="32" t="n">
+      <c r="G14" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H14" s="18" t="n">
@@ -17709,7 +17921,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.58"/>
@@ -17744,7 +17956,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>
@@ -18881,7 +19093,7 @@
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.29"/>
@@ -18917,7 +19129,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>

--- a/AggrFiles/STARR.xlsx
+++ b/AggrFiles/STARR.xlsx
@@ -731,7 +731,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,10 +840,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -869,22 +865,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1074,7 +1054,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3021,11 +3001,11 @@
   <dimension ref="A1:AMJ195"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A152" activeCellId="0" sqref="A152"/>
-      <selection pane="bottomRight" activeCell="B189" activeCellId="0" sqref="B189"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7100,7 +7080,7 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="n">
         <v>82</v>
       </c>
@@ -7135,8 +7115,6 @@
         <f aca="false">I83-M83</f>
         <v>827.359079999998</v>
       </c>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
       <c r="M83" s="4" t="n">
         <v>15923</v>
       </c>
@@ -7149,8 +7127,6 @@
       <c r="P83" s="4" t="n">
         <v>2518432258</v>
       </c>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="n">
@@ -7743,46 +7719,46 @@
       <c r="B96" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="28" t="n">
+      <c r="C96" s="27" t="n">
         <v>0.129</v>
       </c>
-      <c r="D96" s="29" t="n">
+      <c r="D96" s="28" t="n">
         <v>51566</v>
       </c>
-      <c r="E96" s="29" t="n">
+      <c r="E96" s="28" t="n">
         <v>21579</v>
       </c>
-      <c r="F96" s="30" t="n">
+      <c r="F96" s="29" t="n">
         <f aca="false">E96/D96</f>
         <v>0.418473412713804</v>
       </c>
-      <c r="G96" s="29" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H96" s="29" t="n">
+      <c r="G96" s="28" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H96" s="28" t="n">
         <f aca="false">(G96-E96)/F96</f>
         <v>67915.9037026739</v>
       </c>
-      <c r="I96" s="29" t="n">
+      <c r="I96" s="28" t="n">
         <f aca="false">E96*M96/G96</f>
         <v>4348.60008</v>
       </c>
-      <c r="J96" s="29" t="n">
+      <c r="J96" s="28" t="n">
         <f aca="false">I96-M96</f>
         <v>-5727.39992</v>
       </c>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29" t="n">
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="28" t="n">
         <v>10076</v>
       </c>
-      <c r="N96" s="29" t="n">
+      <c r="N96" s="28" t="n">
         <v>51566</v>
       </c>
-      <c r="O96" s="29" t="n">
+      <c r="O96" s="28" t="n">
         <v>2128</v>
       </c>
-      <c r="P96" s="29" t="n">
+      <c r="P96" s="28" t="n">
         <v>519581313</v>
       </c>
     </row>
@@ -7889,46 +7865,46 @@
       <c r="B99" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="28" t="n">
+      <c r="C99" s="27" t="n">
         <v>0.193</v>
       </c>
-      <c r="D99" s="29" t="n">
+      <c r="D99" s="28" t="n">
         <v>39000</v>
       </c>
-      <c r="E99" s="29" t="n">
+      <c r="E99" s="28" t="n">
         <v>14464</v>
       </c>
-      <c r="F99" s="30" t="n">
+      <c r="F99" s="29" t="n">
         <f aca="false">E99/D99</f>
         <v>0.370871794871795</v>
       </c>
-      <c r="G99" s="29" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H99" s="29" t="n">
+      <c r="G99" s="28" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H99" s="28" t="n">
         <f aca="false">(G99-E99)/F99</f>
         <v>95817.4778761062</v>
       </c>
-      <c r="I99" s="29" t="n">
+      <c r="I99" s="28" t="n">
         <f aca="false">E99*M99/G99</f>
         <v>4861.63968</v>
       </c>
-      <c r="J99" s="29" t="n">
+      <c r="J99" s="28" t="n">
         <f aca="false">I99-M99</f>
         <v>-11944.36032</v>
       </c>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29" t="n">
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28" t="n">
         <v>16806</v>
       </c>
-      <c r="N99" s="29" t="n">
+      <c r="N99" s="28" t="n">
         <v>39000</v>
       </c>
-      <c r="O99" s="29" t="n">
+      <c r="O99" s="28" t="n">
         <v>1592</v>
       </c>
-      <c r="P99" s="29" t="n">
+      <c r="P99" s="28" t="n">
         <v>655435984</v>
       </c>
       <c r="Q99" s="16"/>
@@ -10407,7 +10383,7 @@
       <c r="AMI126" s="0"/>
       <c r="AMJ126" s="0"/>
     </row>
-    <row r="127" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="n">
         <v>126</v>
       </c>
@@ -10514,8 +10490,8 @@
       <c r="P128" s="8" t="n">
         <v>1042384328</v>
       </c>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="32" t="s">
+      <c r="Q128" s="31"/>
+      <c r="R128" s="31" t="s">
         <v>143</v>
       </c>
       <c r="S128" s="0"/>
@@ -12643,7 +12619,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>130</v>
       </c>
@@ -12695,7 +12671,7 @@
         <v>432080145</v>
       </c>
       <c r="Q131" s="6"/>
-      <c r="R131" s="32" t="s">
+      <c r="R131" s="31" t="s">
         <v>143</v>
       </c>
     </row>
@@ -12917,7 +12893,7 @@
         <v>877693939</v>
       </c>
       <c r="Q135" s="6"/>
-      <c r="R135" s="32" t="s">
+      <c r="R135" s="31" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13359,8 +13335,8 @@
       <c r="P143" s="8" t="n">
         <v>1902547600</v>
       </c>
-      <c r="Q143" s="32"/>
-      <c r="R143" s="32" t="s">
+      <c r="Q143" s="31"/>
+      <c r="R143" s="31" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13580,7 +13556,7 @@
       <c r="P147" s="8" t="n">
         <v>2542002423</v>
       </c>
-      <c r="R147" s="32" t="s">
+      <c r="R147" s="31" t="s">
         <v>143</v>
       </c>
     </row>
@@ -14190,7 +14166,7 @@
       <c r="P158" s="8" t="n">
         <v>773029050</v>
       </c>
-      <c r="Q158" s="32"/>
+      <c r="Q158" s="31"/>
       <c r="R158" s="6" t="s">
         <v>161</v>
       </c>
@@ -14246,7 +14222,7 @@
       <c r="P159" s="8" t="n">
         <v>706088154</v>
       </c>
-      <c r="Q159" s="32"/>
+      <c r="Q159" s="31"/>
       <c r="R159" s="6" t="s">
         <v>161</v>
       </c>
@@ -14747,7 +14723,7 @@
       <c r="P168" s="8" t="n">
         <v>478908775</v>
       </c>
-      <c r="Q168" s="32"/>
+      <c r="Q168" s="31"/>
       <c r="R168" s="6" t="s">
         <v>161</v>
       </c>
@@ -15963,10 +15939,10 @@
         <f aca="false">I172-M172</f>
         <v>319.696599999999</v>
       </c>
-      <c r="K172" s="32" t="n">
+      <c r="K172" s="31" t="n">
         <v>331</v>
       </c>
-      <c r="L172" s="32" t="s">
+      <c r="L172" s="31" t="s">
         <v>169</v>
       </c>
       <c r="M172" s="25" t="n">
@@ -16042,11 +16018,11 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="174" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="32" t="n">
+    <row r="174" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="31" t="n">
         <v>173</v>
       </c>
-      <c r="B174" s="32" t="s">
+      <c r="B174" s="31" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="7" t="n">
@@ -16077,10 +16053,10 @@
         <f aca="false">I174-M174</f>
         <v>147.61824</v>
       </c>
-      <c r="K174" s="32" t="n">
+      <c r="K174" s="31" t="n">
         <v>340</v>
       </c>
-      <c r="L174" s="32" t="s">
+      <c r="L174" s="31" t="s">
         <v>173</v>
       </c>
       <c r="M174" s="8" t="n">
@@ -16095,12 +16071,12 @@
       <c r="P174" s="8" t="n">
         <v>2187458098</v>
       </c>
-      <c r="Q174" s="32"/>
-      <c r="R174" s="32" t="n">
+      <c r="Q174" s="31"/>
+      <c r="R174" s="31" t="n">
         <v>20220923</v>
       </c>
     </row>
-    <row r="175" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>174</v>
       </c>
@@ -16158,143 +16134,143 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="176" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="35" t="n">
+    <row r="176" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="B176" s="35" t="s">
+      <c r="B176" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C176" s="36" t="n">
+      <c r="C176" s="5" t="n">
         <v>0.362</v>
       </c>
-      <c r="D176" s="37" t="n">
+      <c r="D176" s="4" t="n">
         <v>103796</v>
       </c>
-      <c r="E176" s="37" t="n">
+      <c r="E176" s="4" t="n">
         <v>46212</v>
       </c>
-      <c r="F176" s="36" t="n">
+      <c r="F176" s="5" t="n">
         <f aca="false">E176/D176</f>
         <v>0.445219468958341</v>
       </c>
-      <c r="G176" s="37" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H176" s="38" t="n">
+      <c r="G176" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H176" s="1" t="n">
         <f aca="false">(G176-E176)/F176</f>
         <v>8508.16342075651</v>
       </c>
-      <c r="I176" s="38" t="n">
+      <c r="I176" s="1" t="n">
         <f aca="false">E176*M176/G176</f>
         <v>9998.42832</v>
       </c>
-      <c r="J176" s="38" t="n">
+      <c r="J176" s="1" t="n">
         <f aca="false">I176-M176</f>
         <v>-819.571679999999</v>
       </c>
-      <c r="K176" s="35" t="n">
+      <c r="K176" s="0" t="n">
         <v>323</v>
       </c>
-      <c r="L176" s="35" t="s">
+      <c r="L176" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="M176" s="37" t="n">
+      <c r="M176" s="4" t="n">
         <v>10818</v>
       </c>
-      <c r="N176" s="37" t="n">
+      <c r="N176" s="4" t="n">
         <v>103796</v>
       </c>
-      <c r="O176" s="37" t="n">
+      <c r="O176" s="4" t="n">
         <v>3407</v>
       </c>
-      <c r="P176" s="37" t="n">
+      <c r="P176" s="4" t="n">
         <v>1122863682</v>
       </c>
-      <c r="Q176" s="35"/>
-      <c r="R176" s="35" t="n">
+      <c r="Q176" s="0"/>
+      <c r="R176" s="0" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="177" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="35" t="n">
+    <row r="177" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="B177" s="35" t="s">
+      <c r="B177" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C177" s="36" t="n">
+      <c r="C177" s="5" t="n">
         <v>0.594</v>
       </c>
-      <c r="D177" s="37" t="n">
+      <c r="D177" s="4" t="n">
         <v>95224</v>
       </c>
-      <c r="E177" s="37" t="n">
+      <c r="E177" s="4" t="n">
         <v>28158</v>
       </c>
-      <c r="F177" s="36" t="n">
+      <c r="F177" s="5" t="n">
         <f aca="false">E177/D177</f>
         <v>0.295702764009073</v>
       </c>
-      <c r="G177" s="37" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H177" s="38" t="n">
+      <c r="G177" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H177" s="1" t="n">
         <f aca="false">(G177-E177)/F177</f>
         <v>73864.7136870516</v>
       </c>
-      <c r="I177" s="38" t="n">
+      <c r="I177" s="1" t="n">
         <f aca="false">E177*M177/G177</f>
         <v>11797.07568</v>
       </c>
-      <c r="J177" s="38" t="n">
+      <c r="J177" s="1" t="n">
         <f aca="false">I177-M177</f>
         <v>-9150.92432</v>
       </c>
-      <c r="K177" s="35" t="n">
+      <c r="K177" s="0" t="n">
         <v>304</v>
       </c>
-      <c r="L177" s="35" t="s">
+      <c r="L177" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="M177" s="37" t="n">
+      <c r="M177" s="4" t="n">
         <v>20948</v>
       </c>
-      <c r="N177" s="37" t="n">
+      <c r="N177" s="4" t="n">
         <v>95224</v>
       </c>
-      <c r="O177" s="37" t="n">
+      <c r="O177" s="4" t="n">
         <v>2647</v>
       </c>
-      <c r="P177" s="37" t="n">
+      <c r="P177" s="4" t="n">
         <v>1994760239</v>
       </c>
-      <c r="Q177" s="35"/>
-      <c r="R177" s="35" t="n">
+      <c r="Q177" s="0"/>
+      <c r="R177" s="0" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="178" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="31" t="n">
+    <row r="178" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="30" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="31" t="s">
+      <c r="B178" s="30" t="s">
         <v>180</v>
       </c>
       <c r="C178" s="17" t="n">
         <v>0.418</v>
       </c>
-      <c r="D178" s="29" t="n">
+      <c r="D178" s="28" t="n">
         <v>88333</v>
       </c>
-      <c r="E178" s="29" t="n">
+      <c r="E178" s="28" t="n">
         <v>40017</v>
       </c>
       <c r="F178" s="17" t="n">
         <f aca="false">E178/D178</f>
         <v>0.453024351035287</v>
       </c>
-      <c r="G178" s="29" t="n">
+      <c r="G178" s="28" t="n">
         <v>50000</v>
       </c>
       <c r="H178" s="18" t="n">
@@ -16309,49 +16285,49 @@
         <f aca="false">I178-M178</f>
         <v>-1916.13702</v>
       </c>
-      <c r="K178" s="31" t="n">
+      <c r="K178" s="30" t="n">
         <v>318</v>
       </c>
-      <c r="L178" s="31" t="s">
+      <c r="L178" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="M178" s="29" t="n">
+      <c r="M178" s="28" t="n">
         <v>9597</v>
       </c>
-      <c r="N178" s="29" t="n">
+      <c r="N178" s="28" t="n">
         <v>88333</v>
       </c>
-      <c r="O178" s="29" t="n">
+      <c r="O178" s="28" t="n">
         <v>3133</v>
       </c>
-      <c r="P178" s="29" t="n">
+      <c r="P178" s="28" t="n">
         <v>847735375</v>
       </c>
-      <c r="R178" s="31" t="n">
+      <c r="R178" s="30" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="179" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="31" t="n">
+    <row r="179" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="30" t="n">
         <v>178</v>
       </c>
-      <c r="B179" s="31" t="s">
+      <c r="B179" s="30" t="s">
         <v>182</v>
       </c>
       <c r="C179" s="17" t="n">
         <v>0.676</v>
       </c>
-      <c r="D179" s="29" t="n">
+      <c r="D179" s="28" t="n">
         <v>73688</v>
       </c>
-      <c r="E179" s="29" t="n">
+      <c r="E179" s="28" t="n">
         <v>24730</v>
       </c>
       <c r="F179" s="17" t="n">
         <f aca="false">E179/D179</f>
         <v>0.335604168928455</v>
       </c>
-      <c r="G179" s="29" t="n">
+      <c r="G179" s="28" t="n">
         <v>50000</v>
       </c>
       <c r="H179" s="18" t="n">
@@ -16366,107 +16342,107 @@
         <f aca="false">I179-M179</f>
         <v>-7094.2998</v>
       </c>
-      <c r="K179" s="31" t="n">
+      <c r="K179" s="30" t="n">
         <v>322</v>
       </c>
-      <c r="L179" s="31" t="s">
+      <c r="L179" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="M179" s="29" t="n">
+      <c r="M179" s="28" t="n">
         <v>14037</v>
       </c>
-      <c r="N179" s="29" t="n">
+      <c r="N179" s="28" t="n">
         <v>73688</v>
       </c>
-      <c r="O179" s="29" t="n">
+      <c r="O179" s="28" t="n">
         <v>2285</v>
       </c>
-      <c r="P179" s="29" t="n">
+      <c r="P179" s="28" t="n">
         <v>1034352102</v>
       </c>
-      <c r="R179" s="31" t="n">
+      <c r="R179" s="30" t="n">
         <v>20220929</v>
       </c>
     </row>
     <row r="180" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="35" t="n">
+      <c r="A180" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="B180" s="35" t="s">
+      <c r="B180" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C180" s="36" t="n">
+      <c r="C180" s="5" t="n">
         <v>0.593</v>
       </c>
-      <c r="D180" s="37" t="n">
+      <c r="D180" s="4" t="n">
         <v>126995</v>
       </c>
-      <c r="E180" s="37" t="n">
+      <c r="E180" s="4" t="n">
         <v>28185</v>
       </c>
-      <c r="F180" s="36" t="n">
+      <c r="F180" s="5" t="n">
         <f aca="false">E180/D180</f>
         <v>0.221937871569747</v>
       </c>
-      <c r="G180" s="37" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H180" s="38" t="n">
+      <c r="G180" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H180" s="1" t="n">
         <f aca="false">(G180-E180)/F180</f>
         <v>98293.2739045592</v>
       </c>
-      <c r="I180" s="38" t="n">
+      <c r="I180" s="1" t="n">
         <f aca="false">E180*M180/G180</f>
         <v>4675.8915</v>
       </c>
-      <c r="J180" s="38" t="n">
+      <c r="J180" s="1" t="n">
         <f aca="false">I180-M180</f>
         <v>-3619.1085</v>
       </c>
-      <c r="K180" s="35" t="n">
+      <c r="K180" s="0" t="n">
         <v>321</v>
       </c>
-      <c r="L180" s="35" t="s">
+      <c r="L180" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="M180" s="37" t="n">
+      <c r="M180" s="4" t="n">
         <v>8295</v>
       </c>
-      <c r="N180" s="37" t="n">
+      <c r="N180" s="4" t="n">
         <v>126995</v>
       </c>
-      <c r="O180" s="37" t="n">
+      <c r="O180" s="4" t="n">
         <v>2266</v>
       </c>
-      <c r="P180" s="37" t="n">
+      <c r="P180" s="4" t="n">
         <v>1053424567</v>
       </c>
-      <c r="Q180" s="35"/>
-      <c r="R180" s="35" t="n">
+      <c r="Q180" s="0"/>
+      <c r="R180" s="0" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="181" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="31" t="n">
+    <row r="181" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="30" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="31" t="s">
+      <c r="B181" s="30" t="s">
         <v>186</v>
       </c>
       <c r="C181" s="17" t="n">
         <v>0.479</v>
       </c>
-      <c r="D181" s="29" t="n">
+      <c r="D181" s="28" t="n">
         <v>81644</v>
       </c>
-      <c r="E181" s="29" t="n">
+      <c r="E181" s="28" t="n">
         <v>34944</v>
       </c>
       <c r="F181" s="17" t="n">
         <f aca="false">E181/D181</f>
         <v>0.428004507373475</v>
       </c>
-      <c r="G181" s="29" t="n">
+      <c r="G181" s="28" t="n">
         <v>50000</v>
       </c>
       <c r="H181" s="18" t="n">
@@ -16481,49 +16457,49 @@
         <f aca="false">I181-M181</f>
         <v>-3144.89728</v>
       </c>
-      <c r="K181" s="31" t="n">
+      <c r="K181" s="30" t="n">
         <v>320</v>
       </c>
-      <c r="L181" s="31" t="s">
+      <c r="L181" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="M181" s="29" t="n">
+      <c r="M181" s="28" t="n">
         <v>10444</v>
       </c>
-      <c r="N181" s="29" t="n">
+      <c r="N181" s="28" t="n">
         <v>81644</v>
       </c>
-      <c r="O181" s="29" t="n">
+      <c r="O181" s="28" t="n">
         <v>2771</v>
       </c>
-      <c r="P181" s="29" t="n">
+      <c r="P181" s="28" t="n">
         <v>852690764</v>
       </c>
-      <c r="R181" s="31" t="n">
+      <c r="R181" s="30" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="182" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="31" t="n">
+    <row r="182" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="30" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="31" t="s">
+      <c r="B182" s="30" t="s">
         <v>188</v>
       </c>
       <c r="C182" s="17" t="n">
         <v>0.455</v>
       </c>
-      <c r="D182" s="29" t="n">
+      <c r="D182" s="28" t="n">
         <v>87867</v>
       </c>
-      <c r="E182" s="29" t="n">
+      <c r="E182" s="28" t="n">
         <v>36712</v>
       </c>
       <c r="F182" s="17" t="n">
         <f aca="false">E182/D182</f>
         <v>0.417813285989052</v>
       </c>
-      <c r="G182" s="29" t="n">
+      <c r="G182" s="28" t="n">
         <v>50000</v>
       </c>
       <c r="H182" s="18" t="n">
@@ -16538,30 +16514,30 @@
         <f aca="false">I182-M182</f>
         <v>-3364.78736</v>
       </c>
-      <c r="K182" s="31" t="n">
+      <c r="K182" s="30" t="n">
         <v>319</v>
       </c>
-      <c r="L182" s="31" t="s">
+      <c r="L182" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="M182" s="29" t="n">
+      <c r="M182" s="28" t="n">
         <v>12661</v>
       </c>
-      <c r="N182" s="29" t="n">
+      <c r="N182" s="28" t="n">
         <v>87867</v>
       </c>
-      <c r="O182" s="29" t="n">
+      <c r="O182" s="28" t="n">
         <v>2819</v>
       </c>
-      <c r="P182" s="29" t="n">
+      <c r="P182" s="28" t="n">
         <v>1112489049</v>
       </c>
-      <c r="Q182" s="31"/>
-      <c r="R182" s="31" t="n">
+      <c r="Q182" s="30"/>
+      <c r="R182" s="30" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="183" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="n">
         <v>182</v>
       </c>
@@ -16619,14 +16595,14 @@
         <v>20221005</v>
       </c>
     </row>
-    <row r="184" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10" t="n">
         <v>183</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C184" s="39" t="n">
+      <c r="C184" s="34" t="n">
         <v>0.799</v>
       </c>
       <c r="D184" s="12" t="n">
@@ -16677,7 +16653,7 @@
         <v>20221005</v>
       </c>
     </row>
-    <row r="185" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
         <v>184</v>
       </c>
@@ -16805,7 +16781,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.39"/>
@@ -17458,7 +17434,7 @@
         <f aca="false">E14/D14</f>
         <v>0.336224045534027</v>
       </c>
-      <c r="G14" s="29" t="n">
+      <c r="G14" s="28" t="n">
         <v>50000</v>
       </c>
       <c r="H14" s="18" t="n">
@@ -17921,7 +17897,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.58"/>
@@ -19093,7 +19069,7 @@
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.29"/>

--- a/AggrFiles/STARR.xlsx
+++ b/AggrFiles/STARR.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Final_22_2nd" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$185</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$190</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="207">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -617,6 +617,36 @@
     <t xml:space="preserve">STARR_097_1_force4676</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_073_3_combine_force23217)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_3_combine_force23217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_081_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_081_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_081_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_081_2_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_083_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_083_2_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_083_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_083_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample_id_ori</t>
   </si>
 </sst>
@@ -731,7 +761,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -828,6 +858,22 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,24 +886,24 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -868,7 +914,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1054,7 +1100,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3001,11 +3047,11 @@
   <dimension ref="A1:AMJ195"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C158" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A158" activeCellId="0" sqref="A158"/>
+      <selection pane="bottomRight" activeCell="B193" activeCellId="0" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3017,7 +3063,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="3" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="23.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="28.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="7.6"/>
@@ -3176,7 +3222,7 @@
         <v>1270199026</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -3211,6 +3257,8 @@
         <f aca="false">I4-M4</f>
         <v>4425.3774</v>
       </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="4" t="n">
         <v>7795</v>
       </c>
@@ -3223,6 +3271,8 @@
       <c r="P4" s="4" t="n">
         <v>1301343516</v>
       </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
@@ -3276,7 +3326,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -3328,7 +3378,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -4065,54 +4115,56 @@
       </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="24" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="24" t="n">
+      <c r="C22" s="25" t="n">
         <v>0.054</v>
       </c>
-      <c r="D22" s="25" t="n">
+      <c r="D22" s="26" t="n">
         <v>216040</v>
       </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="26" t="n">
         <v>51810</v>
       </c>
-      <c r="F22" s="26" t="n">
+      <c r="F22" s="27" t="n">
         <f aca="false">E22/D22</f>
         <v>0.239816700610998</v>
       </c>
-      <c r="G22" s="25" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H22" s="25" t="n">
+      <c r="G22" s="26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H22" s="26" t="n">
         <f aca="false">(G22-E22)/F22</f>
         <v>-7547.43099787686</v>
       </c>
-      <c r="I22" s="25" t="n">
+      <c r="I22" s="26" t="n">
         <f aca="false">E22*M22/G22</f>
         <v>2072.4</v>
       </c>
-      <c r="J22" s="25" t="n">
+      <c r="J22" s="26" t="n">
         <f aca="false">I22-M22</f>
         <v>72.4000000000001</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25" t="n">
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26" t="n">
         <v>2000</v>
       </c>
-      <c r="N22" s="25" t="n">
+      <c r="N22" s="26" t="n">
         <v>216040</v>
       </c>
-      <c r="O22" s="25" t="n">
+      <c r="O22" s="26" t="n">
         <v>2356</v>
       </c>
-      <c r="P22" s="25" t="n">
+      <c r="P22" s="26" t="n">
         <v>432080145</v>
       </c>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
@@ -4221,46 +4273,46 @@
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="24" t="n">
+      <c r="C25" s="28" t="n">
         <v>0.037</v>
       </c>
-      <c r="D25" s="25" t="n">
+      <c r="D25" s="29" t="n">
         <v>222245</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="29" t="n">
         <v>75201</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="30" t="n">
         <f aca="false">E25/D25</f>
         <v>0.338369817093748</v>
       </c>
-      <c r="G25" s="25" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H25" s="25" t="n">
+      <c r="G25" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H25" s="29" t="n">
         <f aca="false">(G25-E25)/F25</f>
         <v>-74477.6830760229</v>
       </c>
-      <c r="I25" s="25" t="n">
+      <c r="I25" s="29" t="n">
         <f aca="false">E25*M25/G25</f>
         <v>3008.04</v>
       </c>
-      <c r="J25" s="25" t="n">
+      <c r="J25" s="29" t="n">
         <f aca="false">I25-M25</f>
         <v>1008.04</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25" t="n">
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29" t="n">
         <v>2000</v>
       </c>
-      <c r="N25" s="25" t="n">
+      <c r="N25" s="29" t="n">
         <v>222245</v>
       </c>
-      <c r="O25" s="25" t="n">
+      <c r="O25" s="29" t="n">
         <v>2010</v>
       </c>
-      <c r="P25" s="25" t="n">
+      <c r="P25" s="29" t="n">
         <v>444489382</v>
       </c>
       <c r="Q25" s="6"/>
@@ -4373,46 +4425,46 @@
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="24" t="n">
+      <c r="C28" s="28" t="n">
         <v>0.018</v>
       </c>
-      <c r="D28" s="25" t="n">
+      <c r="D28" s="29" t="n">
         <v>479310</v>
       </c>
-      <c r="E28" s="25" t="n">
+      <c r="E28" s="29" t="n">
         <v>152280</v>
       </c>
-      <c r="F28" s="26" t="n">
+      <c r="F28" s="30" t="n">
         <f aca="false">E28/D28</f>
         <v>0.317706703386118</v>
       </c>
-      <c r="G28" s="25" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H28" s="25" t="n">
+      <c r="G28" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H28" s="29" t="n">
         <f aca="false">(G28-E28)/F28</f>
         <v>-321932.143420016</v>
       </c>
-      <c r="I28" s="25" t="n">
+      <c r="I28" s="29" t="n">
         <f aca="false">E28*M28/G28</f>
         <v>4568.4</v>
       </c>
-      <c r="J28" s="25" t="n">
+      <c r="J28" s="29" t="n">
         <f aca="false">I28-M28</f>
         <v>3068.4</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25" t="n">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29" t="n">
         <v>1500</v>
       </c>
-      <c r="N28" s="25" t="n">
+      <c r="N28" s="29" t="n">
         <v>479310</v>
       </c>
-      <c r="O28" s="25" t="n">
+      <c r="O28" s="29" t="n">
         <v>1818</v>
       </c>
-      <c r="P28" s="25" t="n">
+      <c r="P28" s="29" t="n">
         <v>718965036</v>
       </c>
     </row>
@@ -7716,51 +7768,53 @@
       <c r="A96" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="27" t="n">
+      <c r="C96" s="22" t="n">
         <v>0.129</v>
       </c>
-      <c r="D96" s="28" t="n">
+      <c r="D96" s="4" t="n">
         <v>51566</v>
       </c>
-      <c r="E96" s="28" t="n">
+      <c r="E96" s="4" t="n">
         <v>21579</v>
       </c>
-      <c r="F96" s="29" t="n">
+      <c r="F96" s="23" t="n">
         <f aca="false">E96/D96</f>
         <v>0.418473412713804</v>
       </c>
-      <c r="G96" s="28" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H96" s="28" t="n">
+      <c r="G96" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H96" s="4" t="n">
         <f aca="false">(G96-E96)/F96</f>
         <v>67915.9037026739</v>
       </c>
-      <c r="I96" s="28" t="n">
+      <c r="I96" s="4" t="n">
         <f aca="false">E96*M96/G96</f>
         <v>4348.60008</v>
       </c>
-      <c r="J96" s="28" t="n">
+      <c r="J96" s="4" t="n">
         <f aca="false">I96-M96</f>
         <v>-5727.39992</v>
       </c>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28" t="n">
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4" t="n">
         <v>10076</v>
       </c>
-      <c r="N96" s="28" t="n">
+      <c r="N96" s="4" t="n">
         <v>51566</v>
       </c>
-      <c r="O96" s="28" t="n">
+      <c r="O96" s="4" t="n">
         <v>2128</v>
       </c>
-      <c r="P96" s="28" t="n">
+      <c r="P96" s="4" t="n">
         <v>519581313</v>
       </c>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="n">
@@ -7862,53 +7916,49 @@
       <c r="A99" s="3" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="27" t="n">
+      <c r="C99" s="22" t="n">
         <v>0.193</v>
       </c>
-      <c r="D99" s="28" t="n">
+      <c r="D99" s="4" t="n">
         <v>39000</v>
       </c>
-      <c r="E99" s="28" t="n">
+      <c r="E99" s="4" t="n">
         <v>14464</v>
       </c>
-      <c r="F99" s="29" t="n">
+      <c r="F99" s="23" t="n">
         <f aca="false">E99/D99</f>
         <v>0.370871794871795</v>
       </c>
-      <c r="G99" s="28" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H99" s="28" t="n">
+      <c r="G99" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H99" s="4" t="n">
         <f aca="false">(G99-E99)/F99</f>
         <v>95817.4778761062</v>
       </c>
-      <c r="I99" s="28" t="n">
+      <c r="I99" s="4" t="n">
         <f aca="false">E99*M99/G99</f>
         <v>4861.63968</v>
       </c>
-      <c r="J99" s="28" t="n">
+      <c r="J99" s="4" t="n">
         <f aca="false">I99-M99</f>
         <v>-11944.36032</v>
       </c>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28" t="n">
+      <c r="M99" s="4" t="n">
         <v>16806</v>
       </c>
-      <c r="N99" s="28" t="n">
+      <c r="N99" s="4" t="n">
         <v>39000</v>
       </c>
-      <c r="O99" s="28" t="n">
+      <c r="O99" s="4" t="n">
         <v>1592</v>
       </c>
-      <c r="P99" s="28" t="n">
+      <c r="P99" s="4" t="n">
         <v>655435984</v>
       </c>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="n">
@@ -8178,7 +8228,7 @@
         <f aca="false">E105/D105</f>
         <v>0.486312164370768</v>
       </c>
-      <c r="G105" s="25" t="n">
+      <c r="G105" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H105" s="8" t="n">
@@ -8344,7 +8394,7 @@
         <f aca="false">E108/D108</f>
         <v>0.469974234074966</v>
       </c>
-      <c r="G108" s="25" t="n">
+      <c r="G108" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H108" s="8" t="n">
@@ -8400,7 +8450,7 @@
         <f aca="false">E109/D109</f>
         <v>0.515599463647442</v>
       </c>
-      <c r="G109" s="25" t="n">
+      <c r="G109" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H109" s="8" t="n">
@@ -8437,58 +8487,57 @@
       </c>
     </row>
     <row r="110" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="6" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C110" s="5" t="n">
+      <c r="C110" s="7" t="n">
         <v>0.917</v>
       </c>
-      <c r="D110" s="4" t="n">
+      <c r="D110" s="29" t="n">
         <v>216040</v>
       </c>
-      <c r="E110" s="4" t="n">
+      <c r="E110" s="29" t="n">
         <v>51810</v>
       </c>
-      <c r="F110" s="2" t="n">
+      <c r="F110" s="9" t="n">
         <f aca="false">E110/D110</f>
         <v>0.239816700610998</v>
       </c>
-      <c r="G110" s="4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H110" s="1" t="n">
+      <c r="G110" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H110" s="8" t="n">
         <f aca="false">(G110-E110)/F110</f>
         <v>-7547.43099787686</v>
       </c>
-      <c r="I110" s="1" t="n">
+      <c r="I110" s="8" t="n">
         <f aca="false">E110*M110/G110</f>
         <v>2072.4</v>
       </c>
-      <c r="J110" s="1" t="n">
+      <c r="J110" s="8" t="n">
         <f aca="false">I110-M110</f>
         <v>72.4000000000001</v>
       </c>
-      <c r="K110" s="1"/>
-      <c r="L110" s="3" t="s">
+      <c r="K110" s="8"/>
+      <c r="L110" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="M110" s="4" t="n">
+      <c r="M110" s="29" t="n">
         <v>2000</v>
       </c>
-      <c r="N110" s="4" t="n">
+      <c r="N110" s="29" t="n">
         <v>216040</v>
       </c>
-      <c r="O110" s="4" t="n">
+      <c r="O110" s="29" t="n">
         <v>2356</v>
       </c>
-      <c r="P110" s="4" t="n">
+      <c r="P110" s="29" t="n">
         <v>432080145</v>
       </c>
-      <c r="Q110" s="3"/>
-      <c r="R110" s="3" t="s">
+      <c r="R110" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8612,17 +8661,17 @@
       <c r="C113" s="7" t="n">
         <v>0.929</v>
       </c>
-      <c r="D113" s="25" t="n">
+      <c r="D113" s="29" t="n">
         <v>97871</v>
       </c>
-      <c r="E113" s="25" t="n">
+      <c r="E113" s="29" t="n">
         <v>51102</v>
       </c>
       <c r="F113" s="9" t="n">
         <f aca="false">E113/D113</f>
         <v>0.52213628143168</v>
       </c>
-      <c r="G113" s="25" t="n">
+      <c r="G113" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H113" s="8" t="n">
@@ -8641,16 +8690,16 @@
       <c r="L113" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="M113" s="25" t="n">
+      <c r="M113" s="29" t="n">
         <v>15847</v>
       </c>
-      <c r="N113" s="25" t="n">
+      <c r="N113" s="29" t="n">
         <v>97871</v>
       </c>
-      <c r="O113" s="25" t="n">
+      <c r="O113" s="29" t="n">
         <v>1959</v>
       </c>
-      <c r="P113" s="25" t="n">
+      <c r="P113" s="29" t="n">
         <v>1550968370</v>
       </c>
       <c r="Q113" s="6"/>
@@ -9064,7 +9113,7 @@
         <f aca="false">E121/D121</f>
         <v>0.50050539926542</v>
       </c>
-      <c r="G121" s="25" t="n">
+      <c r="G121" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H121" s="8" t="n">
@@ -10383,7 +10432,7 @@
       <c r="AMI126" s="0"/>
       <c r="AMJ126" s="0"/>
     </row>
-    <row r="127" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="n">
         <v>126</v>
       </c>
@@ -10459,7 +10508,7 @@
         <f aca="false">E128/D128</f>
         <v>0.47594970394518</v>
       </c>
-      <c r="G128" s="25" t="n">
+      <c r="G128" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H128" s="8" t="n">
@@ -10490,8 +10539,8 @@
       <c r="P128" s="8" t="n">
         <v>1042384328</v>
       </c>
-      <c r="Q128" s="31"/>
-      <c r="R128" s="31" t="s">
+      <c r="Q128" s="32"/>
+      <c r="R128" s="32" t="s">
         <v>143</v>
       </c>
       <c r="S128" s="0"/>
@@ -12620,58 +12669,58 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6" t="n">
+      <c r="A131" s="24" t="n">
         <v>130</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C131" s="7" t="n">
+      <c r="C131" s="33" t="n">
         <v>0.988</v>
       </c>
-      <c r="D131" s="8" t="n">
+      <c r="D131" s="34" t="n">
         <v>208533</v>
       </c>
-      <c r="E131" s="8" t="n">
+      <c r="E131" s="34" t="n">
         <v>49752</v>
       </c>
-      <c r="F131" s="9" t="n">
+      <c r="F131" s="35" t="n">
         <f aca="false">E131/D131</f>
         <v>0.238580944023248</v>
       </c>
-      <c r="G131" s="25" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H131" s="8" t="n">
+      <c r="G131" s="26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H131" s="34" t="n">
         <f aca="false">(G131-E131)/F131</f>
         <v>1039.47949831163</v>
       </c>
-      <c r="I131" s="8" t="n">
+      <c r="I131" s="34" t="n">
         <f aca="false">E131*M131/G131</f>
         <v>2061.72288</v>
       </c>
-      <c r="J131" s="8" t="n">
+      <c r="J131" s="34" t="n">
         <f aca="false">I131-M131</f>
         <v>-10.2771200000002</v>
       </c>
-      <c r="K131" s="8"/>
-      <c r="L131" s="6" t="s">
+      <c r="K131" s="34"/>
+      <c r="L131" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="M131" s="8" t="n">
+      <c r="M131" s="34" t="n">
         <v>2072</v>
       </c>
-      <c r="N131" s="8" t="n">
+      <c r="N131" s="34" t="n">
         <v>208533</v>
       </c>
-      <c r="O131" s="8" t="n">
+      <c r="O131" s="34" t="n">
         <v>2300</v>
       </c>
-      <c r="P131" s="8" t="n">
+      <c r="P131" s="34" t="n">
         <v>432080145</v>
       </c>
-      <c r="Q131" s="6"/>
-      <c r="R131" s="31" t="s">
+      <c r="Q131" s="24"/>
+      <c r="R131" s="24" t="s">
         <v>143</v>
       </c>
     </row>
@@ -12861,7 +12910,7 @@
         <f aca="false">E135/D135</f>
         <v>0.52195071119679</v>
       </c>
-      <c r="G135" s="25" t="n">
+      <c r="G135" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H135" s="8" t="n">
@@ -12893,7 +12942,7 @@
         <v>877693939</v>
       </c>
       <c r="Q135" s="6"/>
-      <c r="R135" s="31" t="s">
+      <c r="R135" s="32" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13304,7 +13353,7 @@
         <f aca="false">E143/D143</f>
         <v>0.493974832579364</v>
       </c>
-      <c r="G143" s="25" t="n">
+      <c r="G143" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H143" s="8" t="n">
@@ -13335,8 +13384,8 @@
       <c r="P143" s="8" t="n">
         <v>1902547600</v>
       </c>
-      <c r="Q143" s="31"/>
-      <c r="R143" s="31" t="s">
+      <c r="Q143" s="32"/>
+      <c r="R143" s="32" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13525,7 +13574,7 @@
         <f aca="false">E147/D147</f>
         <v>0.361893465984528</v>
       </c>
-      <c r="G147" s="25" t="n">
+      <c r="G147" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H147" s="8" t="n">
@@ -13556,7 +13605,7 @@
       <c r="P147" s="8" t="n">
         <v>2542002423</v>
       </c>
-      <c r="R147" s="31" t="s">
+      <c r="R147" s="32" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13635,7 +13684,7 @@
         <f aca="false">E149/D149</f>
         <v>0.627894128873487</v>
       </c>
-      <c r="G149" s="25" t="n">
+      <c r="G149" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H149" s="8" t="n">
@@ -14135,7 +14184,7 @@
         <f aca="false">E158/D158</f>
         <v>0.553901868127015</v>
       </c>
-      <c r="G158" s="25" t="n">
+      <c r="G158" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H158" s="8" t="n">
@@ -14166,7 +14215,7 @@
       <c r="P158" s="8" t="n">
         <v>773029050</v>
       </c>
-      <c r="Q158" s="31"/>
+      <c r="Q158" s="32"/>
       <c r="R158" s="6" t="s">
         <v>161</v>
       </c>
@@ -14191,7 +14240,7 @@
         <f aca="false">E159/D159</f>
         <v>0.410252202878099</v>
       </c>
-      <c r="G159" s="25" t="n">
+      <c r="G159" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H159" s="8" t="n">
@@ -14222,7 +14271,7 @@
       <c r="P159" s="8" t="n">
         <v>706088154</v>
       </c>
-      <c r="Q159" s="31"/>
+      <c r="Q159" s="32"/>
       <c r="R159" s="6" t="s">
         <v>161</v>
       </c>
@@ -14303,7 +14352,7 @@
         <f aca="false">E161/D161</f>
         <v>0.435589319003317</v>
       </c>
-      <c r="G161" s="25" t="n">
+      <c r="G161" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H161" s="8" t="n">
@@ -14359,7 +14408,7 @@
         <f aca="false">E162/D162</f>
         <v>0.511889400921659</v>
       </c>
-      <c r="G162" s="25" t="n">
+      <c r="G162" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H162" s="8" t="n">
@@ -14414,7 +14463,7 @@
         <f aca="false">E163/D163</f>
         <v>0.440668543341481</v>
       </c>
-      <c r="G163" s="25" t="n">
+      <c r="G163" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H163" s="8" t="n">
@@ -14580,7 +14629,7 @@
         <f aca="false">E166/D166</f>
         <v>0.494648862512364</v>
       </c>
-      <c r="G166" s="25" t="n">
+      <c r="G166" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H166" s="8" t="n">
@@ -14636,7 +14685,7 @@
         <f aca="false">E167/D167</f>
         <v>0.502785767443732</v>
       </c>
-      <c r="G167" s="25" t="n">
+      <c r="G167" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H167" s="8" t="n">
@@ -14672,7 +14721,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>167</v>
       </c>
@@ -14692,7 +14741,7 @@
         <f aca="false">E168/D168</f>
         <v>0.445420259101082</v>
       </c>
-      <c r="G168" s="25" t="n">
+      <c r="G168" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H168" s="8" t="n">
@@ -14723,1016 +14772,10 @@
       <c r="P168" s="8" t="n">
         <v>478908775</v>
       </c>
-      <c r="Q168" s="31"/>
+      <c r="Q168" s="32"/>
       <c r="R168" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="S168" s="0"/>
-      <c r="T168" s="0"/>
-      <c r="U168" s="0"/>
-      <c r="V168" s="0"/>
-      <c r="W168" s="0"/>
-      <c r="X168" s="0"/>
-      <c r="Y168" s="0"/>
-      <c r="Z168" s="0"/>
-      <c r="AA168" s="0"/>
-      <c r="AB168" s="0"/>
-      <c r="AC168" s="0"/>
-      <c r="AD168" s="0"/>
-      <c r="AE168" s="0"/>
-      <c r="AF168" s="0"/>
-      <c r="AG168" s="0"/>
-      <c r="AH168" s="0"/>
-      <c r="AI168" s="0"/>
-      <c r="AJ168" s="0"/>
-      <c r="AK168" s="0"/>
-      <c r="AL168" s="0"/>
-      <c r="AM168" s="0"/>
-      <c r="AN168" s="0"/>
-      <c r="AO168" s="0"/>
-      <c r="AP168" s="0"/>
-      <c r="AQ168" s="0"/>
-      <c r="AR168" s="0"/>
-      <c r="AS168" s="0"/>
-      <c r="AT168" s="0"/>
-      <c r="AU168" s="0"/>
-      <c r="AV168" s="0"/>
-      <c r="AW168" s="0"/>
-      <c r="AX168" s="0"/>
-      <c r="AY168" s="0"/>
-      <c r="AZ168" s="0"/>
-      <c r="BA168" s="0"/>
-      <c r="BB168" s="0"/>
-      <c r="BC168" s="0"/>
-      <c r="BD168" s="0"/>
-      <c r="BE168" s="0"/>
-      <c r="BF168" s="0"/>
-      <c r="BG168" s="0"/>
-      <c r="BH168" s="0"/>
-      <c r="BI168" s="0"/>
-      <c r="BJ168" s="0"/>
-      <c r="BK168" s="0"/>
-      <c r="BL168" s="0"/>
-      <c r="BM168" s="0"/>
-      <c r="BN168" s="0"/>
-      <c r="BO168" s="0"/>
-      <c r="BP168" s="0"/>
-      <c r="BQ168" s="0"/>
-      <c r="BR168" s="0"/>
-      <c r="BS168" s="0"/>
-      <c r="BT168" s="0"/>
-      <c r="BU168" s="0"/>
-      <c r="BV168" s="0"/>
-      <c r="BW168" s="0"/>
-      <c r="BX168" s="0"/>
-      <c r="BY168" s="0"/>
-      <c r="BZ168" s="0"/>
-      <c r="CA168" s="0"/>
-      <c r="CB168" s="0"/>
-      <c r="CC168" s="0"/>
-      <c r="CD168" s="0"/>
-      <c r="CE168" s="0"/>
-      <c r="CF168" s="0"/>
-      <c r="CG168" s="0"/>
-      <c r="CH168" s="0"/>
-      <c r="CI168" s="0"/>
-      <c r="CJ168" s="0"/>
-      <c r="CK168" s="0"/>
-      <c r="CL168" s="0"/>
-      <c r="CM168" s="0"/>
-      <c r="CN168" s="0"/>
-      <c r="CO168" s="0"/>
-      <c r="CP168" s="0"/>
-      <c r="CQ168" s="0"/>
-      <c r="CR168" s="0"/>
-      <c r="CS168" s="0"/>
-      <c r="CT168" s="0"/>
-      <c r="CU168" s="0"/>
-      <c r="CV168" s="0"/>
-      <c r="CW168" s="0"/>
-      <c r="CX168" s="0"/>
-      <c r="CY168" s="0"/>
-      <c r="CZ168" s="0"/>
-      <c r="DA168" s="0"/>
-      <c r="DB168" s="0"/>
-      <c r="DC168" s="0"/>
-      <c r="DD168" s="0"/>
-      <c r="DE168" s="0"/>
-      <c r="DF168" s="0"/>
-      <c r="DG168" s="0"/>
-      <c r="DH168" s="0"/>
-      <c r="DI168" s="0"/>
-      <c r="DJ168" s="0"/>
-      <c r="DK168" s="0"/>
-      <c r="DL168" s="0"/>
-      <c r="DM168" s="0"/>
-      <c r="DN168" s="0"/>
-      <c r="DO168" s="0"/>
-      <c r="DP168" s="0"/>
-      <c r="DQ168" s="0"/>
-      <c r="DR168" s="0"/>
-      <c r="DS168" s="0"/>
-      <c r="DT168" s="0"/>
-      <c r="DU168" s="0"/>
-      <c r="DV168" s="0"/>
-      <c r="DW168" s="0"/>
-      <c r="DX168" s="0"/>
-      <c r="DY168" s="0"/>
-      <c r="DZ168" s="0"/>
-      <c r="EA168" s="0"/>
-      <c r="EB168" s="0"/>
-      <c r="EC168" s="0"/>
-      <c r="ED168" s="0"/>
-      <c r="EE168" s="0"/>
-      <c r="EF168" s="0"/>
-      <c r="EG168" s="0"/>
-      <c r="EH168" s="0"/>
-      <c r="EI168" s="0"/>
-      <c r="EJ168" s="0"/>
-      <c r="EK168" s="0"/>
-      <c r="EL168" s="0"/>
-      <c r="EM168" s="0"/>
-      <c r="EN168" s="0"/>
-      <c r="EO168" s="0"/>
-      <c r="EP168" s="0"/>
-      <c r="EQ168" s="0"/>
-      <c r="ER168" s="0"/>
-      <c r="ES168" s="0"/>
-      <c r="ET168" s="0"/>
-      <c r="EU168" s="0"/>
-      <c r="EV168" s="0"/>
-      <c r="EW168" s="0"/>
-      <c r="EX168" s="0"/>
-      <c r="EY168" s="0"/>
-      <c r="EZ168" s="0"/>
-      <c r="FA168" s="0"/>
-      <c r="FB168" s="0"/>
-      <c r="FC168" s="0"/>
-      <c r="FD168" s="0"/>
-      <c r="FE168" s="0"/>
-      <c r="FF168" s="0"/>
-      <c r="FG168" s="0"/>
-      <c r="FH168" s="0"/>
-      <c r="FI168" s="0"/>
-      <c r="FJ168" s="0"/>
-      <c r="FK168" s="0"/>
-      <c r="FL168" s="0"/>
-      <c r="FM168" s="0"/>
-      <c r="FN168" s="0"/>
-      <c r="FO168" s="0"/>
-      <c r="FP168" s="0"/>
-      <c r="FQ168" s="0"/>
-      <c r="FR168" s="0"/>
-      <c r="FS168" s="0"/>
-      <c r="FT168" s="0"/>
-      <c r="FU168" s="0"/>
-      <c r="FV168" s="0"/>
-      <c r="FW168" s="0"/>
-      <c r="FX168" s="0"/>
-      <c r="FY168" s="0"/>
-      <c r="FZ168" s="0"/>
-      <c r="GA168" s="0"/>
-      <c r="GB168" s="0"/>
-      <c r="GC168" s="0"/>
-      <c r="GD168" s="0"/>
-      <c r="GE168" s="0"/>
-      <c r="GF168" s="0"/>
-      <c r="GG168" s="0"/>
-      <c r="GH168" s="0"/>
-      <c r="GI168" s="0"/>
-      <c r="GJ168" s="0"/>
-      <c r="GK168" s="0"/>
-      <c r="GL168" s="0"/>
-      <c r="GM168" s="0"/>
-      <c r="GN168" s="0"/>
-      <c r="GO168" s="0"/>
-      <c r="GP168" s="0"/>
-      <c r="GQ168" s="0"/>
-      <c r="GR168" s="0"/>
-      <c r="GS168" s="0"/>
-      <c r="GT168" s="0"/>
-      <c r="GU168" s="0"/>
-      <c r="GV168" s="0"/>
-      <c r="GW168" s="0"/>
-      <c r="GX168" s="0"/>
-      <c r="GY168" s="0"/>
-      <c r="GZ168" s="0"/>
-      <c r="HA168" s="0"/>
-      <c r="HB168" s="0"/>
-      <c r="HC168" s="0"/>
-      <c r="HD168" s="0"/>
-      <c r="HE168" s="0"/>
-      <c r="HF168" s="0"/>
-      <c r="HG168" s="0"/>
-      <c r="HH168" s="0"/>
-      <c r="HI168" s="0"/>
-      <c r="HJ168" s="0"/>
-      <c r="HK168" s="0"/>
-      <c r="HL168" s="0"/>
-      <c r="HM168" s="0"/>
-      <c r="HN168" s="0"/>
-      <c r="HO168" s="0"/>
-      <c r="HP168" s="0"/>
-      <c r="HQ168" s="0"/>
-      <c r="HR168" s="0"/>
-      <c r="HS168" s="0"/>
-      <c r="HT168" s="0"/>
-      <c r="HU168" s="0"/>
-      <c r="HV168" s="0"/>
-      <c r="HW168" s="0"/>
-      <c r="HX168" s="0"/>
-      <c r="HY168" s="0"/>
-      <c r="HZ168" s="0"/>
-      <c r="IA168" s="0"/>
-      <c r="IB168" s="0"/>
-      <c r="IC168" s="0"/>
-      <c r="ID168" s="0"/>
-      <c r="IE168" s="0"/>
-      <c r="IF168" s="0"/>
-      <c r="IG168" s="0"/>
-      <c r="IH168" s="0"/>
-      <c r="II168" s="0"/>
-      <c r="IJ168" s="0"/>
-      <c r="IK168" s="0"/>
-      <c r="IL168" s="0"/>
-      <c r="IM168" s="0"/>
-      <c r="IN168" s="0"/>
-      <c r="IO168" s="0"/>
-      <c r="IP168" s="0"/>
-      <c r="IQ168" s="0"/>
-      <c r="IR168" s="0"/>
-      <c r="IS168" s="0"/>
-      <c r="IT168" s="0"/>
-      <c r="IU168" s="0"/>
-      <c r="IV168" s="0"/>
-      <c r="IW168" s="0"/>
-      <c r="IX168" s="0"/>
-      <c r="IY168" s="0"/>
-      <c r="IZ168" s="0"/>
-      <c r="JA168" s="0"/>
-      <c r="JB168" s="0"/>
-      <c r="JC168" s="0"/>
-      <c r="JD168" s="0"/>
-      <c r="JE168" s="0"/>
-      <c r="JF168" s="0"/>
-      <c r="JG168" s="0"/>
-      <c r="JH168" s="0"/>
-      <c r="JI168" s="0"/>
-      <c r="JJ168" s="0"/>
-      <c r="JK168" s="0"/>
-      <c r="JL168" s="0"/>
-      <c r="JM168" s="0"/>
-      <c r="JN168" s="0"/>
-      <c r="JO168" s="0"/>
-      <c r="JP168" s="0"/>
-      <c r="JQ168" s="0"/>
-      <c r="JR168" s="0"/>
-      <c r="JS168" s="0"/>
-      <c r="JT168" s="0"/>
-      <c r="JU168" s="0"/>
-      <c r="JV168" s="0"/>
-      <c r="JW168" s="0"/>
-      <c r="JX168" s="0"/>
-      <c r="JY168" s="0"/>
-      <c r="JZ168" s="0"/>
-      <c r="KA168" s="0"/>
-      <c r="KB168" s="0"/>
-      <c r="KC168" s="0"/>
-      <c r="KD168" s="0"/>
-      <c r="KE168" s="0"/>
-      <c r="KF168" s="0"/>
-      <c r="KG168" s="0"/>
-      <c r="KH168" s="0"/>
-      <c r="KI168" s="0"/>
-      <c r="KJ168" s="0"/>
-      <c r="KK168" s="0"/>
-      <c r="KL168" s="0"/>
-      <c r="KM168" s="0"/>
-      <c r="KN168" s="0"/>
-      <c r="KO168" s="0"/>
-      <c r="KP168" s="0"/>
-      <c r="KQ168" s="0"/>
-      <c r="KR168" s="0"/>
-      <c r="KS168" s="0"/>
-      <c r="KT168" s="0"/>
-      <c r="KU168" s="0"/>
-      <c r="KV168" s="0"/>
-      <c r="KW168" s="0"/>
-      <c r="KX168" s="0"/>
-      <c r="KY168" s="0"/>
-      <c r="KZ168" s="0"/>
-      <c r="LA168" s="0"/>
-      <c r="LB168" s="0"/>
-      <c r="LC168" s="0"/>
-      <c r="LD168" s="0"/>
-      <c r="LE168" s="0"/>
-      <c r="LF168" s="0"/>
-      <c r="LG168" s="0"/>
-      <c r="LH168" s="0"/>
-      <c r="LI168" s="0"/>
-      <c r="LJ168" s="0"/>
-      <c r="LK168" s="0"/>
-      <c r="LL168" s="0"/>
-      <c r="LM168" s="0"/>
-      <c r="LN168" s="0"/>
-      <c r="LO168" s="0"/>
-      <c r="LP168" s="0"/>
-      <c r="LQ168" s="0"/>
-      <c r="LR168" s="0"/>
-      <c r="LS168" s="0"/>
-      <c r="LT168" s="0"/>
-      <c r="LU168" s="0"/>
-      <c r="LV168" s="0"/>
-      <c r="LW168" s="0"/>
-      <c r="LX168" s="0"/>
-      <c r="LY168" s="0"/>
-      <c r="LZ168" s="0"/>
-      <c r="MA168" s="0"/>
-      <c r="MB168" s="0"/>
-      <c r="MC168" s="0"/>
-      <c r="MD168" s="0"/>
-      <c r="ME168" s="0"/>
-      <c r="MF168" s="0"/>
-      <c r="MG168" s="0"/>
-      <c r="MH168" s="0"/>
-      <c r="MI168" s="0"/>
-      <c r="MJ168" s="0"/>
-      <c r="MK168" s="0"/>
-      <c r="ML168" s="0"/>
-      <c r="MM168" s="0"/>
-      <c r="MN168" s="0"/>
-      <c r="MO168" s="0"/>
-      <c r="MP168" s="0"/>
-      <c r="MQ168" s="0"/>
-      <c r="MR168" s="0"/>
-      <c r="MS168" s="0"/>
-      <c r="MT168" s="0"/>
-      <c r="MU168" s="0"/>
-      <c r="MV168" s="0"/>
-      <c r="MW168" s="0"/>
-      <c r="MX168" s="0"/>
-      <c r="MY168" s="0"/>
-      <c r="MZ168" s="0"/>
-      <c r="NA168" s="0"/>
-      <c r="NB168" s="0"/>
-      <c r="NC168" s="0"/>
-      <c r="ND168" s="0"/>
-      <c r="NE168" s="0"/>
-      <c r="NF168" s="0"/>
-      <c r="NG168" s="0"/>
-      <c r="NH168" s="0"/>
-      <c r="NI168" s="0"/>
-      <c r="NJ168" s="0"/>
-      <c r="NK168" s="0"/>
-      <c r="NL168" s="0"/>
-      <c r="NM168" s="0"/>
-      <c r="NN168" s="0"/>
-      <c r="NO168" s="0"/>
-      <c r="NP168" s="0"/>
-      <c r="NQ168" s="0"/>
-      <c r="NR168" s="0"/>
-      <c r="NS168" s="0"/>
-      <c r="NT168" s="0"/>
-      <c r="NU168" s="0"/>
-      <c r="NV168" s="0"/>
-      <c r="NW168" s="0"/>
-      <c r="NX168" s="0"/>
-      <c r="NY168" s="0"/>
-      <c r="NZ168" s="0"/>
-      <c r="OA168" s="0"/>
-      <c r="OB168" s="0"/>
-      <c r="OC168" s="0"/>
-      <c r="OD168" s="0"/>
-      <c r="OE168" s="0"/>
-      <c r="OF168" s="0"/>
-      <c r="OG168" s="0"/>
-      <c r="OH168" s="0"/>
-      <c r="OI168" s="0"/>
-      <c r="OJ168" s="0"/>
-      <c r="OK168" s="0"/>
-      <c r="OL168" s="0"/>
-      <c r="OM168" s="0"/>
-      <c r="ON168" s="0"/>
-      <c r="OO168" s="0"/>
-      <c r="OP168" s="0"/>
-      <c r="OQ168" s="0"/>
-      <c r="OR168" s="0"/>
-      <c r="OS168" s="0"/>
-      <c r="OT168" s="0"/>
-      <c r="OU168" s="0"/>
-      <c r="OV168" s="0"/>
-      <c r="OW168" s="0"/>
-      <c r="OX168" s="0"/>
-      <c r="OY168" s="0"/>
-      <c r="OZ168" s="0"/>
-      <c r="PA168" s="0"/>
-      <c r="PB168" s="0"/>
-      <c r="PC168" s="0"/>
-      <c r="PD168" s="0"/>
-      <c r="PE168" s="0"/>
-      <c r="PF168" s="0"/>
-      <c r="PG168" s="0"/>
-      <c r="PH168" s="0"/>
-      <c r="PI168" s="0"/>
-      <c r="PJ168" s="0"/>
-      <c r="PK168" s="0"/>
-      <c r="PL168" s="0"/>
-      <c r="PM168" s="0"/>
-      <c r="PN168" s="0"/>
-      <c r="PO168" s="0"/>
-      <c r="PP168" s="0"/>
-      <c r="PQ168" s="0"/>
-      <c r="PR168" s="0"/>
-      <c r="PS168" s="0"/>
-      <c r="PT168" s="0"/>
-      <c r="PU168" s="0"/>
-      <c r="PV168" s="0"/>
-      <c r="PW168" s="0"/>
-      <c r="PX168" s="0"/>
-      <c r="PY168" s="0"/>
-      <c r="PZ168" s="0"/>
-      <c r="QA168" s="0"/>
-      <c r="QB168" s="0"/>
-      <c r="QC168" s="0"/>
-      <c r="QD168" s="0"/>
-      <c r="QE168" s="0"/>
-      <c r="QF168" s="0"/>
-      <c r="QG168" s="0"/>
-      <c r="QH168" s="0"/>
-      <c r="QI168" s="0"/>
-      <c r="QJ168" s="0"/>
-      <c r="QK168" s="0"/>
-      <c r="QL168" s="0"/>
-      <c r="QM168" s="0"/>
-      <c r="QN168" s="0"/>
-      <c r="QO168" s="0"/>
-      <c r="QP168" s="0"/>
-      <c r="QQ168" s="0"/>
-      <c r="QR168" s="0"/>
-      <c r="QS168" s="0"/>
-      <c r="QT168" s="0"/>
-      <c r="QU168" s="0"/>
-      <c r="QV168" s="0"/>
-      <c r="QW168" s="0"/>
-      <c r="QX168" s="0"/>
-      <c r="QY168" s="0"/>
-      <c r="QZ168" s="0"/>
-      <c r="RA168" s="0"/>
-      <c r="RB168" s="0"/>
-      <c r="RC168" s="0"/>
-      <c r="RD168" s="0"/>
-      <c r="RE168" s="0"/>
-      <c r="RF168" s="0"/>
-      <c r="RG168" s="0"/>
-      <c r="RH168" s="0"/>
-      <c r="RI168" s="0"/>
-      <c r="RJ168" s="0"/>
-      <c r="RK168" s="0"/>
-      <c r="RL168" s="0"/>
-      <c r="RM168" s="0"/>
-      <c r="RN168" s="0"/>
-      <c r="RO168" s="0"/>
-      <c r="RP168" s="0"/>
-      <c r="RQ168" s="0"/>
-      <c r="RR168" s="0"/>
-      <c r="RS168" s="0"/>
-      <c r="RT168" s="0"/>
-      <c r="RU168" s="0"/>
-      <c r="RV168" s="0"/>
-      <c r="RW168" s="0"/>
-      <c r="RX168" s="0"/>
-      <c r="RY168" s="0"/>
-      <c r="RZ168" s="0"/>
-      <c r="SA168" s="0"/>
-      <c r="SB168" s="0"/>
-      <c r="SC168" s="0"/>
-      <c r="SD168" s="0"/>
-      <c r="SE168" s="0"/>
-      <c r="SF168" s="0"/>
-      <c r="SG168" s="0"/>
-      <c r="SH168" s="0"/>
-      <c r="SI168" s="0"/>
-      <c r="SJ168" s="0"/>
-      <c r="SK168" s="0"/>
-      <c r="SL168" s="0"/>
-      <c r="SM168" s="0"/>
-      <c r="SN168" s="0"/>
-      <c r="SO168" s="0"/>
-      <c r="SP168" s="0"/>
-      <c r="SQ168" s="0"/>
-      <c r="SR168" s="0"/>
-      <c r="SS168" s="0"/>
-      <c r="ST168" s="0"/>
-      <c r="SU168" s="0"/>
-      <c r="SV168" s="0"/>
-      <c r="SW168" s="0"/>
-      <c r="SX168" s="0"/>
-      <c r="SY168" s="0"/>
-      <c r="SZ168" s="0"/>
-      <c r="TA168" s="0"/>
-      <c r="TB168" s="0"/>
-      <c r="TC168" s="0"/>
-      <c r="TD168" s="0"/>
-      <c r="TE168" s="0"/>
-      <c r="TF168" s="0"/>
-      <c r="TG168" s="0"/>
-      <c r="TH168" s="0"/>
-      <c r="TI168" s="0"/>
-      <c r="TJ168" s="0"/>
-      <c r="TK168" s="0"/>
-      <c r="TL168" s="0"/>
-      <c r="TM168" s="0"/>
-      <c r="TN168" s="0"/>
-      <c r="TO168" s="0"/>
-      <c r="TP168" s="0"/>
-      <c r="TQ168" s="0"/>
-      <c r="TR168" s="0"/>
-      <c r="TS168" s="0"/>
-      <c r="TT168" s="0"/>
-      <c r="TU168" s="0"/>
-      <c r="TV168" s="0"/>
-      <c r="TW168" s="0"/>
-      <c r="TX168" s="0"/>
-      <c r="TY168" s="0"/>
-      <c r="TZ168" s="0"/>
-      <c r="UA168" s="0"/>
-      <c r="UB168" s="0"/>
-      <c r="UC168" s="0"/>
-      <c r="UD168" s="0"/>
-      <c r="UE168" s="0"/>
-      <c r="UF168" s="0"/>
-      <c r="UG168" s="0"/>
-      <c r="UH168" s="0"/>
-      <c r="UI168" s="0"/>
-      <c r="UJ168" s="0"/>
-      <c r="UK168" s="0"/>
-      <c r="UL168" s="0"/>
-      <c r="UM168" s="0"/>
-      <c r="UN168" s="0"/>
-      <c r="UO168" s="0"/>
-      <c r="UP168" s="0"/>
-      <c r="UQ168" s="0"/>
-      <c r="UR168" s="0"/>
-      <c r="US168" s="0"/>
-      <c r="UT168" s="0"/>
-      <c r="UU168" s="0"/>
-      <c r="UV168" s="0"/>
-      <c r="UW168" s="0"/>
-      <c r="UX168" s="0"/>
-      <c r="UY168" s="0"/>
-      <c r="UZ168" s="0"/>
-      <c r="VA168" s="0"/>
-      <c r="VB168" s="0"/>
-      <c r="VC168" s="0"/>
-      <c r="VD168" s="0"/>
-      <c r="VE168" s="0"/>
-      <c r="VF168" s="0"/>
-      <c r="VG168" s="0"/>
-      <c r="VH168" s="0"/>
-      <c r="VI168" s="0"/>
-      <c r="VJ168" s="0"/>
-      <c r="VK168" s="0"/>
-      <c r="VL168" s="0"/>
-      <c r="VM168" s="0"/>
-      <c r="VN168" s="0"/>
-      <c r="VO168" s="0"/>
-      <c r="VP168" s="0"/>
-      <c r="VQ168" s="0"/>
-      <c r="VR168" s="0"/>
-      <c r="VS168" s="0"/>
-      <c r="VT168" s="0"/>
-      <c r="VU168" s="0"/>
-      <c r="VV168" s="0"/>
-      <c r="VW168" s="0"/>
-      <c r="VX168" s="0"/>
-      <c r="VY168" s="0"/>
-      <c r="VZ168" s="0"/>
-      <c r="WA168" s="0"/>
-      <c r="WB168" s="0"/>
-      <c r="WC168" s="0"/>
-      <c r="WD168" s="0"/>
-      <c r="WE168" s="0"/>
-      <c r="WF168" s="0"/>
-      <c r="WG168" s="0"/>
-      <c r="WH168" s="0"/>
-      <c r="WI168" s="0"/>
-      <c r="WJ168" s="0"/>
-      <c r="WK168" s="0"/>
-      <c r="WL168" s="0"/>
-      <c r="WM168" s="0"/>
-      <c r="WN168" s="0"/>
-      <c r="WO168" s="0"/>
-      <c r="WP168" s="0"/>
-      <c r="WQ168" s="0"/>
-      <c r="WR168" s="0"/>
-      <c r="WS168" s="0"/>
-      <c r="WT168" s="0"/>
-      <c r="WU168" s="0"/>
-      <c r="WV168" s="0"/>
-      <c r="WW168" s="0"/>
-      <c r="WX168" s="0"/>
-      <c r="WY168" s="0"/>
-      <c r="WZ168" s="0"/>
-      <c r="XA168" s="0"/>
-      <c r="XB168" s="0"/>
-      <c r="XC168" s="0"/>
-      <c r="XD168" s="0"/>
-      <c r="XE168" s="0"/>
-      <c r="XF168" s="0"/>
-      <c r="XG168" s="0"/>
-      <c r="XH168" s="0"/>
-      <c r="XI168" s="0"/>
-      <c r="XJ168" s="0"/>
-      <c r="XK168" s="0"/>
-      <c r="XL168" s="0"/>
-      <c r="XM168" s="0"/>
-      <c r="XN168" s="0"/>
-      <c r="XO168" s="0"/>
-      <c r="XP168" s="0"/>
-      <c r="XQ168" s="0"/>
-      <c r="XR168" s="0"/>
-      <c r="XS168" s="0"/>
-      <c r="XT168" s="0"/>
-      <c r="XU168" s="0"/>
-      <c r="XV168" s="0"/>
-      <c r="XW168" s="0"/>
-      <c r="XX168" s="0"/>
-      <c r="XY168" s="0"/>
-      <c r="XZ168" s="0"/>
-      <c r="YA168" s="0"/>
-      <c r="YB168" s="0"/>
-      <c r="YC168" s="0"/>
-      <c r="YD168" s="0"/>
-      <c r="YE168" s="0"/>
-      <c r="YF168" s="0"/>
-      <c r="YG168" s="0"/>
-      <c r="YH168" s="0"/>
-      <c r="YI168" s="0"/>
-      <c r="YJ168" s="0"/>
-      <c r="YK168" s="0"/>
-      <c r="YL168" s="0"/>
-      <c r="YM168" s="0"/>
-      <c r="YN168" s="0"/>
-      <c r="YO168" s="0"/>
-      <c r="YP168" s="0"/>
-      <c r="YQ168" s="0"/>
-      <c r="YR168" s="0"/>
-      <c r="YS168" s="0"/>
-      <c r="YT168" s="0"/>
-      <c r="YU168" s="0"/>
-      <c r="YV168" s="0"/>
-      <c r="YW168" s="0"/>
-      <c r="YX168" s="0"/>
-      <c r="YY168" s="0"/>
-      <c r="YZ168" s="0"/>
-      <c r="ZA168" s="0"/>
-      <c r="ZB168" s="0"/>
-      <c r="ZC168" s="0"/>
-      <c r="ZD168" s="0"/>
-      <c r="ZE168" s="0"/>
-      <c r="ZF168" s="0"/>
-      <c r="ZG168" s="0"/>
-      <c r="ZH168" s="0"/>
-      <c r="ZI168" s="0"/>
-      <c r="ZJ168" s="0"/>
-      <c r="ZK168" s="0"/>
-      <c r="ZL168" s="0"/>
-      <c r="ZM168" s="0"/>
-      <c r="ZN168" s="0"/>
-      <c r="ZO168" s="0"/>
-      <c r="ZP168" s="0"/>
-      <c r="ZQ168" s="0"/>
-      <c r="ZR168" s="0"/>
-      <c r="ZS168" s="0"/>
-      <c r="ZT168" s="0"/>
-      <c r="ZU168" s="0"/>
-      <c r="ZV168" s="0"/>
-      <c r="ZW168" s="0"/>
-      <c r="ZX168" s="0"/>
-      <c r="ZY168" s="0"/>
-      <c r="ZZ168" s="0"/>
-      <c r="AAA168" s="0"/>
-      <c r="AAB168" s="0"/>
-      <c r="AAC168" s="0"/>
-      <c r="AAD168" s="0"/>
-      <c r="AAE168" s="0"/>
-      <c r="AAF168" s="0"/>
-      <c r="AAG168" s="0"/>
-      <c r="AAH168" s="0"/>
-      <c r="AAI168" s="0"/>
-      <c r="AAJ168" s="0"/>
-      <c r="AAK168" s="0"/>
-      <c r="AAL168" s="0"/>
-      <c r="AAM168" s="0"/>
-      <c r="AAN168" s="0"/>
-      <c r="AAO168" s="0"/>
-      <c r="AAP168" s="0"/>
-      <c r="AAQ168" s="0"/>
-      <c r="AAR168" s="0"/>
-      <c r="AAS168" s="0"/>
-      <c r="AAT168" s="0"/>
-      <c r="AAU168" s="0"/>
-      <c r="AAV168" s="0"/>
-      <c r="AAW168" s="0"/>
-      <c r="AAX168" s="0"/>
-      <c r="AAY168" s="0"/>
-      <c r="AAZ168" s="0"/>
-      <c r="ABA168" s="0"/>
-      <c r="ABB168" s="0"/>
-      <c r="ABC168" s="0"/>
-      <c r="ABD168" s="0"/>
-      <c r="ABE168" s="0"/>
-      <c r="ABF168" s="0"/>
-      <c r="ABG168" s="0"/>
-      <c r="ABH168" s="0"/>
-      <c r="ABI168" s="0"/>
-      <c r="ABJ168" s="0"/>
-      <c r="ABK168" s="0"/>
-      <c r="ABL168" s="0"/>
-      <c r="ABM168" s="0"/>
-      <c r="ABN168" s="0"/>
-      <c r="ABO168" s="0"/>
-      <c r="ABP168" s="0"/>
-      <c r="ABQ168" s="0"/>
-      <c r="ABR168" s="0"/>
-      <c r="ABS168" s="0"/>
-      <c r="ABT168" s="0"/>
-      <c r="ABU168" s="0"/>
-      <c r="ABV168" s="0"/>
-      <c r="ABW168" s="0"/>
-      <c r="ABX168" s="0"/>
-      <c r="ABY168" s="0"/>
-      <c r="ABZ168" s="0"/>
-      <c r="ACA168" s="0"/>
-      <c r="ACB168" s="0"/>
-      <c r="ACC168" s="0"/>
-      <c r="ACD168" s="0"/>
-      <c r="ACE168" s="0"/>
-      <c r="ACF168" s="0"/>
-      <c r="ACG168" s="0"/>
-      <c r="ACH168" s="0"/>
-      <c r="ACI168" s="0"/>
-      <c r="ACJ168" s="0"/>
-      <c r="ACK168" s="0"/>
-      <c r="ACL168" s="0"/>
-      <c r="ACM168" s="0"/>
-      <c r="ACN168" s="0"/>
-      <c r="ACO168" s="0"/>
-      <c r="ACP168" s="0"/>
-      <c r="ACQ168" s="0"/>
-      <c r="ACR168" s="0"/>
-      <c r="ACS168" s="0"/>
-      <c r="ACT168" s="0"/>
-      <c r="ACU168" s="0"/>
-      <c r="ACV168" s="0"/>
-      <c r="ACW168" s="0"/>
-      <c r="ACX168" s="0"/>
-      <c r="ACY168" s="0"/>
-      <c r="ACZ168" s="0"/>
-      <c r="ADA168" s="0"/>
-      <c r="ADB168" s="0"/>
-      <c r="ADC168" s="0"/>
-      <c r="ADD168" s="0"/>
-      <c r="ADE168" s="0"/>
-      <c r="ADF168" s="0"/>
-      <c r="ADG168" s="0"/>
-      <c r="ADH168" s="0"/>
-      <c r="ADI168" s="0"/>
-      <c r="ADJ168" s="0"/>
-      <c r="ADK168" s="0"/>
-      <c r="ADL168" s="0"/>
-      <c r="ADM168" s="0"/>
-      <c r="ADN168" s="0"/>
-      <c r="ADO168" s="0"/>
-      <c r="ADP168" s="0"/>
-      <c r="ADQ168" s="0"/>
-      <c r="ADR168" s="0"/>
-      <c r="ADS168" s="0"/>
-      <c r="ADT168" s="0"/>
-      <c r="ADU168" s="0"/>
-      <c r="ADV168" s="0"/>
-      <c r="ADW168" s="0"/>
-      <c r="ADX168" s="0"/>
-      <c r="ADY168" s="0"/>
-      <c r="ADZ168" s="0"/>
-      <c r="AEA168" s="0"/>
-      <c r="AEB168" s="0"/>
-      <c r="AEC168" s="0"/>
-      <c r="AED168" s="0"/>
-      <c r="AEE168" s="0"/>
-      <c r="AEF168" s="0"/>
-      <c r="AEG168" s="0"/>
-      <c r="AEH168" s="0"/>
-      <c r="AEI168" s="0"/>
-      <c r="AEJ168" s="0"/>
-      <c r="AEK168" s="0"/>
-      <c r="AEL168" s="0"/>
-      <c r="AEM168" s="0"/>
-      <c r="AEN168" s="0"/>
-      <c r="AEO168" s="0"/>
-      <c r="AEP168" s="0"/>
-      <c r="AEQ168" s="0"/>
-      <c r="AER168" s="0"/>
-      <c r="AES168" s="0"/>
-      <c r="AET168" s="0"/>
-      <c r="AEU168" s="0"/>
-      <c r="AEV168" s="0"/>
-      <c r="AEW168" s="0"/>
-      <c r="AEX168" s="0"/>
-      <c r="AEY168" s="0"/>
-      <c r="AEZ168" s="0"/>
-      <c r="AFA168" s="0"/>
-      <c r="AFB168" s="0"/>
-      <c r="AFC168" s="0"/>
-      <c r="AFD168" s="0"/>
-      <c r="AFE168" s="0"/>
-      <c r="AFF168" s="0"/>
-      <c r="AFG168" s="0"/>
-      <c r="AFH168" s="0"/>
-      <c r="AFI168" s="0"/>
-      <c r="AFJ168" s="0"/>
-      <c r="AFK168" s="0"/>
-      <c r="AFL168" s="0"/>
-      <c r="AFM168" s="0"/>
-      <c r="AFN168" s="0"/>
-      <c r="AFO168" s="0"/>
-      <c r="AFP168" s="0"/>
-      <c r="AFQ168" s="0"/>
-      <c r="AFR168" s="0"/>
-      <c r="AFS168" s="0"/>
-      <c r="AFT168" s="0"/>
-      <c r="AFU168" s="0"/>
-      <c r="AFV168" s="0"/>
-      <c r="AFW168" s="0"/>
-      <c r="AFX168" s="0"/>
-      <c r="AFY168" s="0"/>
-      <c r="AFZ168" s="0"/>
-      <c r="AGA168" s="0"/>
-      <c r="AGB168" s="0"/>
-      <c r="AGC168" s="0"/>
-      <c r="AGD168" s="0"/>
-      <c r="AGE168" s="0"/>
-      <c r="AGF168" s="0"/>
-      <c r="AGG168" s="0"/>
-      <c r="AGH168" s="0"/>
-      <c r="AGI168" s="0"/>
-      <c r="AGJ168" s="0"/>
-      <c r="AGK168" s="0"/>
-      <c r="AGL168" s="0"/>
-      <c r="AGM168" s="0"/>
-      <c r="AGN168" s="0"/>
-      <c r="AGO168" s="0"/>
-      <c r="AGP168" s="0"/>
-      <c r="AGQ168" s="0"/>
-      <c r="AGR168" s="0"/>
-      <c r="AGS168" s="0"/>
-      <c r="AGT168" s="0"/>
-      <c r="AGU168" s="0"/>
-      <c r="AGV168" s="0"/>
-      <c r="AGW168" s="0"/>
-      <c r="AGX168" s="0"/>
-      <c r="AGY168" s="0"/>
-      <c r="AGZ168" s="0"/>
-      <c r="AHA168" s="0"/>
-      <c r="AHB168" s="0"/>
-      <c r="AHC168" s="0"/>
-      <c r="AHD168" s="0"/>
-      <c r="AHE168" s="0"/>
-      <c r="AHF168" s="0"/>
-      <c r="AHG168" s="0"/>
-      <c r="AHH168" s="0"/>
-      <c r="AHI168" s="0"/>
-      <c r="AHJ168" s="0"/>
-      <c r="AHK168" s="0"/>
-      <c r="AHL168" s="0"/>
-      <c r="AHM168" s="0"/>
-      <c r="AHN168" s="0"/>
-      <c r="AHO168" s="0"/>
-      <c r="AHP168" s="0"/>
-      <c r="AHQ168" s="0"/>
-      <c r="AHR168" s="0"/>
-      <c r="AHS168" s="0"/>
-      <c r="AHT168" s="0"/>
-      <c r="AHU168" s="0"/>
-      <c r="AHV168" s="0"/>
-      <c r="AHW168" s="0"/>
-      <c r="AHX168" s="0"/>
-      <c r="AHY168" s="0"/>
-      <c r="AHZ168" s="0"/>
-      <c r="AIA168" s="0"/>
-      <c r="AIB168" s="0"/>
-      <c r="AIC168" s="0"/>
-      <c r="AID168" s="0"/>
-      <c r="AIE168" s="0"/>
-      <c r="AIF168" s="0"/>
-      <c r="AIG168" s="0"/>
-      <c r="AIH168" s="0"/>
-      <c r="AII168" s="0"/>
-      <c r="AIJ168" s="0"/>
-      <c r="AIK168" s="0"/>
-      <c r="AIL168" s="0"/>
-      <c r="AIM168" s="0"/>
-      <c r="AIN168" s="0"/>
-      <c r="AIO168" s="0"/>
-      <c r="AIP168" s="0"/>
-      <c r="AIQ168" s="0"/>
-      <c r="AIR168" s="0"/>
-      <c r="AIS168" s="0"/>
-      <c r="AIT168" s="0"/>
-      <c r="AIU168" s="0"/>
-      <c r="AIV168" s="0"/>
-      <c r="AIW168" s="0"/>
-      <c r="AIX168" s="0"/>
-      <c r="AIY168" s="0"/>
-      <c r="AIZ168" s="0"/>
-      <c r="AJA168" s="0"/>
-      <c r="AJB168" s="0"/>
-      <c r="AJC168" s="0"/>
-      <c r="AJD168" s="0"/>
-      <c r="AJE168" s="0"/>
-      <c r="AJF168" s="0"/>
-      <c r="AJG168" s="0"/>
-      <c r="AJH168" s="0"/>
-      <c r="AJI168" s="0"/>
-      <c r="AJJ168" s="0"/>
-      <c r="AJK168" s="0"/>
-      <c r="AJL168" s="0"/>
-      <c r="AJM168" s="0"/>
-      <c r="AJN168" s="0"/>
-      <c r="AJO168" s="0"/>
-      <c r="AJP168" s="0"/>
-      <c r="AJQ168" s="0"/>
-      <c r="AJR168" s="0"/>
-      <c r="AJS168" s="0"/>
-      <c r="AJT168" s="0"/>
-      <c r="AJU168" s="0"/>
-      <c r="AJV168" s="0"/>
-      <c r="AJW168" s="0"/>
-      <c r="AJX168" s="0"/>
-      <c r="AJY168" s="0"/>
-      <c r="AJZ168" s="0"/>
-      <c r="AKA168" s="0"/>
-      <c r="AKB168" s="0"/>
-      <c r="AKC168" s="0"/>
-      <c r="AKD168" s="0"/>
-      <c r="AKE168" s="0"/>
-      <c r="AKF168" s="0"/>
-      <c r="AKG168" s="0"/>
-      <c r="AKH168" s="0"/>
-      <c r="AKI168" s="0"/>
-      <c r="AKJ168" s="0"/>
-      <c r="AKK168" s="0"/>
-      <c r="AKL168" s="0"/>
-      <c r="AKM168" s="0"/>
-      <c r="AKN168" s="0"/>
-      <c r="AKO168" s="0"/>
-      <c r="AKP168" s="0"/>
-      <c r="AKQ168" s="0"/>
-      <c r="AKR168" s="0"/>
-      <c r="AKS168" s="0"/>
-      <c r="AKT168" s="0"/>
-      <c r="AKU168" s="0"/>
-      <c r="AKV168" s="0"/>
-      <c r="AKW168" s="0"/>
-      <c r="AKX168" s="0"/>
-      <c r="AKY168" s="0"/>
-      <c r="AKZ168" s="0"/>
-      <c r="ALA168" s="0"/>
-      <c r="ALB168" s="0"/>
-      <c r="ALC168" s="0"/>
-      <c r="ALD168" s="0"/>
-      <c r="ALE168" s="0"/>
-      <c r="ALF168" s="0"/>
-      <c r="ALG168" s="0"/>
-      <c r="ALH168" s="0"/>
-      <c r="ALI168" s="0"/>
-      <c r="ALJ168" s="0"/>
-      <c r="ALK168" s="0"/>
-      <c r="ALL168" s="0"/>
-      <c r="ALM168" s="0"/>
-      <c r="ALN168" s="0"/>
-      <c r="ALO168" s="0"/>
-      <c r="ALP168" s="0"/>
-      <c r="ALQ168" s="0"/>
-      <c r="ALR168" s="0"/>
-      <c r="ALS168" s="0"/>
-      <c r="ALT168" s="0"/>
-      <c r="ALU168" s="0"/>
-      <c r="ALV168" s="0"/>
-      <c r="ALW168" s="0"/>
-      <c r="ALX168" s="0"/>
-      <c r="ALY168" s="0"/>
-      <c r="ALZ168" s="0"/>
-      <c r="AMA168" s="0"/>
-      <c r="AMB168" s="0"/>
-      <c r="AMC168" s="0"/>
-      <c r="AMD168" s="0"/>
-      <c r="AME168" s="0"/>
-      <c r="AMF168" s="0"/>
-      <c r="AMG168" s="0"/>
-      <c r="AMH168" s="0"/>
-      <c r="AMI168" s="0"/>
-      <c r="AMJ168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="n">
@@ -15911,50 +14954,50 @@
       <c r="B172" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="24" t="n">
+      <c r="C172" s="28" t="n">
         <v>0.396</v>
       </c>
-      <c r="D172" s="25" t="n">
+      <c r="D172" s="29" t="n">
         <v>129611</v>
       </c>
-      <c r="E172" s="25" t="n">
+      <c r="E172" s="29" t="n">
         <v>50991</v>
       </c>
-      <c r="F172" s="26" t="n">
+      <c r="F172" s="30" t="n">
         <f aca="false">E172/D172</f>
         <v>0.393415682310915</v>
       </c>
-      <c r="G172" s="25" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H172" s="25" t="n">
+      <c r="G172" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H172" s="29" t="n">
         <f aca="false">(G172-E172)/F172</f>
         <v>-2518.96415053637</v>
       </c>
-      <c r="I172" s="25" t="n">
+      <c r="I172" s="29" t="n">
         <f aca="false">E172*M172/G172</f>
         <v>16449.6966</v>
       </c>
-      <c r="J172" s="25" t="n">
+      <c r="J172" s="29" t="n">
         <f aca="false">I172-M172</f>
         <v>319.696599999999</v>
       </c>
-      <c r="K172" s="31" t="n">
+      <c r="K172" s="32" t="n">
         <v>331</v>
       </c>
-      <c r="L172" s="31" t="s">
+      <c r="L172" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="M172" s="25" t="n">
+      <c r="M172" s="29" t="n">
         <v>16130</v>
       </c>
-      <c r="N172" s="25" t="n">
+      <c r="N172" s="29" t="n">
         <v>129611</v>
       </c>
-      <c r="O172" s="25" t="n">
+      <c r="O172" s="29" t="n">
         <v>2256</v>
       </c>
-      <c r="P172" s="25" t="n">
+      <c r="P172" s="29" t="n">
         <v>2090624299</v>
       </c>
       <c r="R172" s="6" t="n">
@@ -16018,11 +15061,11 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="174" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="31" t="n">
+    <row r="174" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="32" t="n">
         <v>173</v>
       </c>
-      <c r="B174" s="31" t="s">
+      <c r="B174" s="32" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="7" t="n">
@@ -16053,10 +15096,10 @@
         <f aca="false">I174-M174</f>
         <v>147.61824</v>
       </c>
-      <c r="K174" s="31" t="n">
+      <c r="K174" s="32" t="n">
         <v>340</v>
       </c>
-      <c r="L174" s="31" t="s">
+      <c r="L174" s="32" t="s">
         <v>173</v>
       </c>
       <c r="M174" s="8" t="n">
@@ -16071,12 +15114,12 @@
       <c r="P174" s="8" t="n">
         <v>2187458098</v>
       </c>
-      <c r="Q174" s="31"/>
-      <c r="R174" s="31" t="n">
+      <c r="Q174" s="32"/>
+      <c r="R174" s="32" t="n">
         <v>20220923</v>
       </c>
     </row>
-    <row r="175" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>174</v>
       </c>
@@ -16134,7 +15177,7 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="176" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>175</v>
       </c>
@@ -16191,8 +15234,1014 @@
       <c r="R176" s="0" t="n">
         <v>20220929</v>
       </c>
-    </row>
-    <row r="177" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S176" s="0"/>
+      <c r="T176" s="0"/>
+      <c r="U176" s="0"/>
+      <c r="V176" s="0"/>
+      <c r="W176" s="0"/>
+      <c r="X176" s="0"/>
+      <c r="Y176" s="0"/>
+      <c r="Z176" s="0"/>
+      <c r="AA176" s="0"/>
+      <c r="AB176" s="0"/>
+      <c r="AC176" s="0"/>
+      <c r="AD176" s="0"/>
+      <c r="AE176" s="0"/>
+      <c r="AF176" s="0"/>
+      <c r="AG176" s="0"/>
+      <c r="AH176" s="0"/>
+      <c r="AI176" s="0"/>
+      <c r="AJ176" s="0"/>
+      <c r="AK176" s="0"/>
+      <c r="AL176" s="0"/>
+      <c r="AM176" s="0"/>
+      <c r="AN176" s="0"/>
+      <c r="AO176" s="0"/>
+      <c r="AP176" s="0"/>
+      <c r="AQ176" s="0"/>
+      <c r="AR176" s="0"/>
+      <c r="AS176" s="0"/>
+      <c r="AT176" s="0"/>
+      <c r="AU176" s="0"/>
+      <c r="AV176" s="0"/>
+      <c r="AW176" s="0"/>
+      <c r="AX176" s="0"/>
+      <c r="AY176" s="0"/>
+      <c r="AZ176" s="0"/>
+      <c r="BA176" s="0"/>
+      <c r="BB176" s="0"/>
+      <c r="BC176" s="0"/>
+      <c r="BD176" s="0"/>
+      <c r="BE176" s="0"/>
+      <c r="BF176" s="0"/>
+      <c r="BG176" s="0"/>
+      <c r="BH176" s="0"/>
+      <c r="BI176" s="0"/>
+      <c r="BJ176" s="0"/>
+      <c r="BK176" s="0"/>
+      <c r="BL176" s="0"/>
+      <c r="BM176" s="0"/>
+      <c r="BN176" s="0"/>
+      <c r="BO176" s="0"/>
+      <c r="BP176" s="0"/>
+      <c r="BQ176" s="0"/>
+      <c r="BR176" s="0"/>
+      <c r="BS176" s="0"/>
+      <c r="BT176" s="0"/>
+      <c r="BU176" s="0"/>
+      <c r="BV176" s="0"/>
+      <c r="BW176" s="0"/>
+      <c r="BX176" s="0"/>
+      <c r="BY176" s="0"/>
+      <c r="BZ176" s="0"/>
+      <c r="CA176" s="0"/>
+      <c r="CB176" s="0"/>
+      <c r="CC176" s="0"/>
+      <c r="CD176" s="0"/>
+      <c r="CE176" s="0"/>
+      <c r="CF176" s="0"/>
+      <c r="CG176" s="0"/>
+      <c r="CH176" s="0"/>
+      <c r="CI176" s="0"/>
+      <c r="CJ176" s="0"/>
+      <c r="CK176" s="0"/>
+      <c r="CL176" s="0"/>
+      <c r="CM176" s="0"/>
+      <c r="CN176" s="0"/>
+      <c r="CO176" s="0"/>
+      <c r="CP176" s="0"/>
+      <c r="CQ176" s="0"/>
+      <c r="CR176" s="0"/>
+      <c r="CS176" s="0"/>
+      <c r="CT176" s="0"/>
+      <c r="CU176" s="0"/>
+      <c r="CV176" s="0"/>
+      <c r="CW176" s="0"/>
+      <c r="CX176" s="0"/>
+      <c r="CY176" s="0"/>
+      <c r="CZ176" s="0"/>
+      <c r="DA176" s="0"/>
+      <c r="DB176" s="0"/>
+      <c r="DC176" s="0"/>
+      <c r="DD176" s="0"/>
+      <c r="DE176" s="0"/>
+      <c r="DF176" s="0"/>
+      <c r="DG176" s="0"/>
+      <c r="DH176" s="0"/>
+      <c r="DI176" s="0"/>
+      <c r="DJ176" s="0"/>
+      <c r="DK176" s="0"/>
+      <c r="DL176" s="0"/>
+      <c r="DM176" s="0"/>
+      <c r="DN176" s="0"/>
+      <c r="DO176" s="0"/>
+      <c r="DP176" s="0"/>
+      <c r="DQ176" s="0"/>
+      <c r="DR176" s="0"/>
+      <c r="DS176" s="0"/>
+      <c r="DT176" s="0"/>
+      <c r="DU176" s="0"/>
+      <c r="DV176" s="0"/>
+      <c r="DW176" s="0"/>
+      <c r="DX176" s="0"/>
+      <c r="DY176" s="0"/>
+      <c r="DZ176" s="0"/>
+      <c r="EA176" s="0"/>
+      <c r="EB176" s="0"/>
+      <c r="EC176" s="0"/>
+      <c r="ED176" s="0"/>
+      <c r="EE176" s="0"/>
+      <c r="EF176" s="0"/>
+      <c r="EG176" s="0"/>
+      <c r="EH176" s="0"/>
+      <c r="EI176" s="0"/>
+      <c r="EJ176" s="0"/>
+      <c r="EK176" s="0"/>
+      <c r="EL176" s="0"/>
+      <c r="EM176" s="0"/>
+      <c r="EN176" s="0"/>
+      <c r="EO176" s="0"/>
+      <c r="EP176" s="0"/>
+      <c r="EQ176" s="0"/>
+      <c r="ER176" s="0"/>
+      <c r="ES176" s="0"/>
+      <c r="ET176" s="0"/>
+      <c r="EU176" s="0"/>
+      <c r="EV176" s="0"/>
+      <c r="EW176" s="0"/>
+      <c r="EX176" s="0"/>
+      <c r="EY176" s="0"/>
+      <c r="EZ176" s="0"/>
+      <c r="FA176" s="0"/>
+      <c r="FB176" s="0"/>
+      <c r="FC176" s="0"/>
+      <c r="FD176" s="0"/>
+      <c r="FE176" s="0"/>
+      <c r="FF176" s="0"/>
+      <c r="FG176" s="0"/>
+      <c r="FH176" s="0"/>
+      <c r="FI176" s="0"/>
+      <c r="FJ176" s="0"/>
+      <c r="FK176" s="0"/>
+      <c r="FL176" s="0"/>
+      <c r="FM176" s="0"/>
+      <c r="FN176" s="0"/>
+      <c r="FO176" s="0"/>
+      <c r="FP176" s="0"/>
+      <c r="FQ176" s="0"/>
+      <c r="FR176" s="0"/>
+      <c r="FS176" s="0"/>
+      <c r="FT176" s="0"/>
+      <c r="FU176" s="0"/>
+      <c r="FV176" s="0"/>
+      <c r="FW176" s="0"/>
+      <c r="FX176" s="0"/>
+      <c r="FY176" s="0"/>
+      <c r="FZ176" s="0"/>
+      <c r="GA176" s="0"/>
+      <c r="GB176" s="0"/>
+      <c r="GC176" s="0"/>
+      <c r="GD176" s="0"/>
+      <c r="GE176" s="0"/>
+      <c r="GF176" s="0"/>
+      <c r="GG176" s="0"/>
+      <c r="GH176" s="0"/>
+      <c r="GI176" s="0"/>
+      <c r="GJ176" s="0"/>
+      <c r="GK176" s="0"/>
+      <c r="GL176" s="0"/>
+      <c r="GM176" s="0"/>
+      <c r="GN176" s="0"/>
+      <c r="GO176" s="0"/>
+      <c r="GP176" s="0"/>
+      <c r="GQ176" s="0"/>
+      <c r="GR176" s="0"/>
+      <c r="GS176" s="0"/>
+      <c r="GT176" s="0"/>
+      <c r="GU176" s="0"/>
+      <c r="GV176" s="0"/>
+      <c r="GW176" s="0"/>
+      <c r="GX176" s="0"/>
+      <c r="GY176" s="0"/>
+      <c r="GZ176" s="0"/>
+      <c r="HA176" s="0"/>
+      <c r="HB176" s="0"/>
+      <c r="HC176" s="0"/>
+      <c r="HD176" s="0"/>
+      <c r="HE176" s="0"/>
+      <c r="HF176" s="0"/>
+      <c r="HG176" s="0"/>
+      <c r="HH176" s="0"/>
+      <c r="HI176" s="0"/>
+      <c r="HJ176" s="0"/>
+      <c r="HK176" s="0"/>
+      <c r="HL176" s="0"/>
+      <c r="HM176" s="0"/>
+      <c r="HN176" s="0"/>
+      <c r="HO176" s="0"/>
+      <c r="HP176" s="0"/>
+      <c r="HQ176" s="0"/>
+      <c r="HR176" s="0"/>
+      <c r="HS176" s="0"/>
+      <c r="HT176" s="0"/>
+      <c r="HU176" s="0"/>
+      <c r="HV176" s="0"/>
+      <c r="HW176" s="0"/>
+      <c r="HX176" s="0"/>
+      <c r="HY176" s="0"/>
+      <c r="HZ176" s="0"/>
+      <c r="IA176" s="0"/>
+      <c r="IB176" s="0"/>
+      <c r="IC176" s="0"/>
+      <c r="ID176" s="0"/>
+      <c r="IE176" s="0"/>
+      <c r="IF176" s="0"/>
+      <c r="IG176" s="0"/>
+      <c r="IH176" s="0"/>
+      <c r="II176" s="0"/>
+      <c r="IJ176" s="0"/>
+      <c r="IK176" s="0"/>
+      <c r="IL176" s="0"/>
+      <c r="IM176" s="0"/>
+      <c r="IN176" s="0"/>
+      <c r="IO176" s="0"/>
+      <c r="IP176" s="0"/>
+      <c r="IQ176" s="0"/>
+      <c r="IR176" s="0"/>
+      <c r="IS176" s="0"/>
+      <c r="IT176" s="0"/>
+      <c r="IU176" s="0"/>
+      <c r="IV176" s="0"/>
+      <c r="IW176" s="0"/>
+      <c r="IX176" s="0"/>
+      <c r="IY176" s="0"/>
+      <c r="IZ176" s="0"/>
+      <c r="JA176" s="0"/>
+      <c r="JB176" s="0"/>
+      <c r="JC176" s="0"/>
+      <c r="JD176" s="0"/>
+      <c r="JE176" s="0"/>
+      <c r="JF176" s="0"/>
+      <c r="JG176" s="0"/>
+      <c r="JH176" s="0"/>
+      <c r="JI176" s="0"/>
+      <c r="JJ176" s="0"/>
+      <c r="JK176" s="0"/>
+      <c r="JL176" s="0"/>
+      <c r="JM176" s="0"/>
+      <c r="JN176" s="0"/>
+      <c r="JO176" s="0"/>
+      <c r="JP176" s="0"/>
+      <c r="JQ176" s="0"/>
+      <c r="JR176" s="0"/>
+      <c r="JS176" s="0"/>
+      <c r="JT176" s="0"/>
+      <c r="JU176" s="0"/>
+      <c r="JV176" s="0"/>
+      <c r="JW176" s="0"/>
+      <c r="JX176" s="0"/>
+      <c r="JY176" s="0"/>
+      <c r="JZ176" s="0"/>
+      <c r="KA176" s="0"/>
+      <c r="KB176" s="0"/>
+      <c r="KC176" s="0"/>
+      <c r="KD176" s="0"/>
+      <c r="KE176" s="0"/>
+      <c r="KF176" s="0"/>
+      <c r="KG176" s="0"/>
+      <c r="KH176" s="0"/>
+      <c r="KI176" s="0"/>
+      <c r="KJ176" s="0"/>
+      <c r="KK176" s="0"/>
+      <c r="KL176" s="0"/>
+      <c r="KM176" s="0"/>
+      <c r="KN176" s="0"/>
+      <c r="KO176" s="0"/>
+      <c r="KP176" s="0"/>
+      <c r="KQ176" s="0"/>
+      <c r="KR176" s="0"/>
+      <c r="KS176" s="0"/>
+      <c r="KT176" s="0"/>
+      <c r="KU176" s="0"/>
+      <c r="KV176" s="0"/>
+      <c r="KW176" s="0"/>
+      <c r="KX176" s="0"/>
+      <c r="KY176" s="0"/>
+      <c r="KZ176" s="0"/>
+      <c r="LA176" s="0"/>
+      <c r="LB176" s="0"/>
+      <c r="LC176" s="0"/>
+      <c r="LD176" s="0"/>
+      <c r="LE176" s="0"/>
+      <c r="LF176" s="0"/>
+      <c r="LG176" s="0"/>
+      <c r="LH176" s="0"/>
+      <c r="LI176" s="0"/>
+      <c r="LJ176" s="0"/>
+      <c r="LK176" s="0"/>
+      <c r="LL176" s="0"/>
+      <c r="LM176" s="0"/>
+      <c r="LN176" s="0"/>
+      <c r="LO176" s="0"/>
+      <c r="LP176" s="0"/>
+      <c r="LQ176" s="0"/>
+      <c r="LR176" s="0"/>
+      <c r="LS176" s="0"/>
+      <c r="LT176" s="0"/>
+      <c r="LU176" s="0"/>
+      <c r="LV176" s="0"/>
+      <c r="LW176" s="0"/>
+      <c r="LX176" s="0"/>
+      <c r="LY176" s="0"/>
+      <c r="LZ176" s="0"/>
+      <c r="MA176" s="0"/>
+      <c r="MB176" s="0"/>
+      <c r="MC176" s="0"/>
+      <c r="MD176" s="0"/>
+      <c r="ME176" s="0"/>
+      <c r="MF176" s="0"/>
+      <c r="MG176" s="0"/>
+      <c r="MH176" s="0"/>
+      <c r="MI176" s="0"/>
+      <c r="MJ176" s="0"/>
+      <c r="MK176" s="0"/>
+      <c r="ML176" s="0"/>
+      <c r="MM176" s="0"/>
+      <c r="MN176" s="0"/>
+      <c r="MO176" s="0"/>
+      <c r="MP176" s="0"/>
+      <c r="MQ176" s="0"/>
+      <c r="MR176" s="0"/>
+      <c r="MS176" s="0"/>
+      <c r="MT176" s="0"/>
+      <c r="MU176" s="0"/>
+      <c r="MV176" s="0"/>
+      <c r="MW176" s="0"/>
+      <c r="MX176" s="0"/>
+      <c r="MY176" s="0"/>
+      <c r="MZ176" s="0"/>
+      <c r="NA176" s="0"/>
+      <c r="NB176" s="0"/>
+      <c r="NC176" s="0"/>
+      <c r="ND176" s="0"/>
+      <c r="NE176" s="0"/>
+      <c r="NF176" s="0"/>
+      <c r="NG176" s="0"/>
+      <c r="NH176" s="0"/>
+      <c r="NI176" s="0"/>
+      <c r="NJ176" s="0"/>
+      <c r="NK176" s="0"/>
+      <c r="NL176" s="0"/>
+      <c r="NM176" s="0"/>
+      <c r="NN176" s="0"/>
+      <c r="NO176" s="0"/>
+      <c r="NP176" s="0"/>
+      <c r="NQ176" s="0"/>
+      <c r="NR176" s="0"/>
+      <c r="NS176" s="0"/>
+      <c r="NT176" s="0"/>
+      <c r="NU176" s="0"/>
+      <c r="NV176" s="0"/>
+      <c r="NW176" s="0"/>
+      <c r="NX176" s="0"/>
+      <c r="NY176" s="0"/>
+      <c r="NZ176" s="0"/>
+      <c r="OA176" s="0"/>
+      <c r="OB176" s="0"/>
+      <c r="OC176" s="0"/>
+      <c r="OD176" s="0"/>
+      <c r="OE176" s="0"/>
+      <c r="OF176" s="0"/>
+      <c r="OG176" s="0"/>
+      <c r="OH176" s="0"/>
+      <c r="OI176" s="0"/>
+      <c r="OJ176" s="0"/>
+      <c r="OK176" s="0"/>
+      <c r="OL176" s="0"/>
+      <c r="OM176" s="0"/>
+      <c r="ON176" s="0"/>
+      <c r="OO176" s="0"/>
+      <c r="OP176" s="0"/>
+      <c r="OQ176" s="0"/>
+      <c r="OR176" s="0"/>
+      <c r="OS176" s="0"/>
+      <c r="OT176" s="0"/>
+      <c r="OU176" s="0"/>
+      <c r="OV176" s="0"/>
+      <c r="OW176" s="0"/>
+      <c r="OX176" s="0"/>
+      <c r="OY176" s="0"/>
+      <c r="OZ176" s="0"/>
+      <c r="PA176" s="0"/>
+      <c r="PB176" s="0"/>
+      <c r="PC176" s="0"/>
+      <c r="PD176" s="0"/>
+      <c r="PE176" s="0"/>
+      <c r="PF176" s="0"/>
+      <c r="PG176" s="0"/>
+      <c r="PH176" s="0"/>
+      <c r="PI176" s="0"/>
+      <c r="PJ176" s="0"/>
+      <c r="PK176" s="0"/>
+      <c r="PL176" s="0"/>
+      <c r="PM176" s="0"/>
+      <c r="PN176" s="0"/>
+      <c r="PO176" s="0"/>
+      <c r="PP176" s="0"/>
+      <c r="PQ176" s="0"/>
+      <c r="PR176" s="0"/>
+      <c r="PS176" s="0"/>
+      <c r="PT176" s="0"/>
+      <c r="PU176" s="0"/>
+      <c r="PV176" s="0"/>
+      <c r="PW176" s="0"/>
+      <c r="PX176" s="0"/>
+      <c r="PY176" s="0"/>
+      <c r="PZ176" s="0"/>
+      <c r="QA176" s="0"/>
+      <c r="QB176" s="0"/>
+      <c r="QC176" s="0"/>
+      <c r="QD176" s="0"/>
+      <c r="QE176" s="0"/>
+      <c r="QF176" s="0"/>
+      <c r="QG176" s="0"/>
+      <c r="QH176" s="0"/>
+      <c r="QI176" s="0"/>
+      <c r="QJ176" s="0"/>
+      <c r="QK176" s="0"/>
+      <c r="QL176" s="0"/>
+      <c r="QM176" s="0"/>
+      <c r="QN176" s="0"/>
+      <c r="QO176" s="0"/>
+      <c r="QP176" s="0"/>
+      <c r="QQ176" s="0"/>
+      <c r="QR176" s="0"/>
+      <c r="QS176" s="0"/>
+      <c r="QT176" s="0"/>
+      <c r="QU176" s="0"/>
+      <c r="QV176" s="0"/>
+      <c r="QW176" s="0"/>
+      <c r="QX176" s="0"/>
+      <c r="QY176" s="0"/>
+      <c r="QZ176" s="0"/>
+      <c r="RA176" s="0"/>
+      <c r="RB176" s="0"/>
+      <c r="RC176" s="0"/>
+      <c r="RD176" s="0"/>
+      <c r="RE176" s="0"/>
+      <c r="RF176" s="0"/>
+      <c r="RG176" s="0"/>
+      <c r="RH176" s="0"/>
+      <c r="RI176" s="0"/>
+      <c r="RJ176" s="0"/>
+      <c r="RK176" s="0"/>
+      <c r="RL176" s="0"/>
+      <c r="RM176" s="0"/>
+      <c r="RN176" s="0"/>
+      <c r="RO176" s="0"/>
+      <c r="RP176" s="0"/>
+      <c r="RQ176" s="0"/>
+      <c r="RR176" s="0"/>
+      <c r="RS176" s="0"/>
+      <c r="RT176" s="0"/>
+      <c r="RU176" s="0"/>
+      <c r="RV176" s="0"/>
+      <c r="RW176" s="0"/>
+      <c r="RX176" s="0"/>
+      <c r="RY176" s="0"/>
+      <c r="RZ176" s="0"/>
+      <c r="SA176" s="0"/>
+      <c r="SB176" s="0"/>
+      <c r="SC176" s="0"/>
+      <c r="SD176" s="0"/>
+      <c r="SE176" s="0"/>
+      <c r="SF176" s="0"/>
+      <c r="SG176" s="0"/>
+      <c r="SH176" s="0"/>
+      <c r="SI176" s="0"/>
+      <c r="SJ176" s="0"/>
+      <c r="SK176" s="0"/>
+      <c r="SL176" s="0"/>
+      <c r="SM176" s="0"/>
+      <c r="SN176" s="0"/>
+      <c r="SO176" s="0"/>
+      <c r="SP176" s="0"/>
+      <c r="SQ176" s="0"/>
+      <c r="SR176" s="0"/>
+      <c r="SS176" s="0"/>
+      <c r="ST176" s="0"/>
+      <c r="SU176" s="0"/>
+      <c r="SV176" s="0"/>
+      <c r="SW176" s="0"/>
+      <c r="SX176" s="0"/>
+      <c r="SY176" s="0"/>
+      <c r="SZ176" s="0"/>
+      <c r="TA176" s="0"/>
+      <c r="TB176" s="0"/>
+      <c r="TC176" s="0"/>
+      <c r="TD176" s="0"/>
+      <c r="TE176" s="0"/>
+      <c r="TF176" s="0"/>
+      <c r="TG176" s="0"/>
+      <c r="TH176" s="0"/>
+      <c r="TI176" s="0"/>
+      <c r="TJ176" s="0"/>
+      <c r="TK176" s="0"/>
+      <c r="TL176" s="0"/>
+      <c r="TM176" s="0"/>
+      <c r="TN176" s="0"/>
+      <c r="TO176" s="0"/>
+      <c r="TP176" s="0"/>
+      <c r="TQ176" s="0"/>
+      <c r="TR176" s="0"/>
+      <c r="TS176" s="0"/>
+      <c r="TT176" s="0"/>
+      <c r="TU176" s="0"/>
+      <c r="TV176" s="0"/>
+      <c r="TW176" s="0"/>
+      <c r="TX176" s="0"/>
+      <c r="TY176" s="0"/>
+      <c r="TZ176" s="0"/>
+      <c r="UA176" s="0"/>
+      <c r="UB176" s="0"/>
+      <c r="UC176" s="0"/>
+      <c r="UD176" s="0"/>
+      <c r="UE176" s="0"/>
+      <c r="UF176" s="0"/>
+      <c r="UG176" s="0"/>
+      <c r="UH176" s="0"/>
+      <c r="UI176" s="0"/>
+      <c r="UJ176" s="0"/>
+      <c r="UK176" s="0"/>
+      <c r="UL176" s="0"/>
+      <c r="UM176" s="0"/>
+      <c r="UN176" s="0"/>
+      <c r="UO176" s="0"/>
+      <c r="UP176" s="0"/>
+      <c r="UQ176" s="0"/>
+      <c r="UR176" s="0"/>
+      <c r="US176" s="0"/>
+      <c r="UT176" s="0"/>
+      <c r="UU176" s="0"/>
+      <c r="UV176" s="0"/>
+      <c r="UW176" s="0"/>
+      <c r="UX176" s="0"/>
+      <c r="UY176" s="0"/>
+      <c r="UZ176" s="0"/>
+      <c r="VA176" s="0"/>
+      <c r="VB176" s="0"/>
+      <c r="VC176" s="0"/>
+      <c r="VD176" s="0"/>
+      <c r="VE176" s="0"/>
+      <c r="VF176" s="0"/>
+      <c r="VG176" s="0"/>
+      <c r="VH176" s="0"/>
+      <c r="VI176" s="0"/>
+      <c r="VJ176" s="0"/>
+      <c r="VK176" s="0"/>
+      <c r="VL176" s="0"/>
+      <c r="VM176" s="0"/>
+      <c r="VN176" s="0"/>
+      <c r="VO176" s="0"/>
+      <c r="VP176" s="0"/>
+      <c r="VQ176" s="0"/>
+      <c r="VR176" s="0"/>
+      <c r="VS176" s="0"/>
+      <c r="VT176" s="0"/>
+      <c r="VU176" s="0"/>
+      <c r="VV176" s="0"/>
+      <c r="VW176" s="0"/>
+      <c r="VX176" s="0"/>
+      <c r="VY176" s="0"/>
+      <c r="VZ176" s="0"/>
+      <c r="WA176" s="0"/>
+      <c r="WB176" s="0"/>
+      <c r="WC176" s="0"/>
+      <c r="WD176" s="0"/>
+      <c r="WE176" s="0"/>
+      <c r="WF176" s="0"/>
+      <c r="WG176" s="0"/>
+      <c r="WH176" s="0"/>
+      <c r="WI176" s="0"/>
+      <c r="WJ176" s="0"/>
+      <c r="WK176" s="0"/>
+      <c r="WL176" s="0"/>
+      <c r="WM176" s="0"/>
+      <c r="WN176" s="0"/>
+      <c r="WO176" s="0"/>
+      <c r="WP176" s="0"/>
+      <c r="WQ176" s="0"/>
+      <c r="WR176" s="0"/>
+      <c r="WS176" s="0"/>
+      <c r="WT176" s="0"/>
+      <c r="WU176" s="0"/>
+      <c r="WV176" s="0"/>
+      <c r="WW176" s="0"/>
+      <c r="WX176" s="0"/>
+      <c r="WY176" s="0"/>
+      <c r="WZ176" s="0"/>
+      <c r="XA176" s="0"/>
+      <c r="XB176" s="0"/>
+      <c r="XC176" s="0"/>
+      <c r="XD176" s="0"/>
+      <c r="XE176" s="0"/>
+      <c r="XF176" s="0"/>
+      <c r="XG176" s="0"/>
+      <c r="XH176" s="0"/>
+      <c r="XI176" s="0"/>
+      <c r="XJ176" s="0"/>
+      <c r="XK176" s="0"/>
+      <c r="XL176" s="0"/>
+      <c r="XM176" s="0"/>
+      <c r="XN176" s="0"/>
+      <c r="XO176" s="0"/>
+      <c r="XP176" s="0"/>
+      <c r="XQ176" s="0"/>
+      <c r="XR176" s="0"/>
+      <c r="XS176" s="0"/>
+      <c r="XT176" s="0"/>
+      <c r="XU176" s="0"/>
+      <c r="XV176" s="0"/>
+      <c r="XW176" s="0"/>
+      <c r="XX176" s="0"/>
+      <c r="XY176" s="0"/>
+      <c r="XZ176" s="0"/>
+      <c r="YA176" s="0"/>
+      <c r="YB176" s="0"/>
+      <c r="YC176" s="0"/>
+      <c r="YD176" s="0"/>
+      <c r="YE176" s="0"/>
+      <c r="YF176" s="0"/>
+      <c r="YG176" s="0"/>
+      <c r="YH176" s="0"/>
+      <c r="YI176" s="0"/>
+      <c r="YJ176" s="0"/>
+      <c r="YK176" s="0"/>
+      <c r="YL176" s="0"/>
+      <c r="YM176" s="0"/>
+      <c r="YN176" s="0"/>
+      <c r="YO176" s="0"/>
+      <c r="YP176" s="0"/>
+      <c r="YQ176" s="0"/>
+      <c r="YR176" s="0"/>
+      <c r="YS176" s="0"/>
+      <c r="YT176" s="0"/>
+      <c r="YU176" s="0"/>
+      <c r="YV176" s="0"/>
+      <c r="YW176" s="0"/>
+      <c r="YX176" s="0"/>
+      <c r="YY176" s="0"/>
+      <c r="YZ176" s="0"/>
+      <c r="ZA176" s="0"/>
+      <c r="ZB176" s="0"/>
+      <c r="ZC176" s="0"/>
+      <c r="ZD176" s="0"/>
+      <c r="ZE176" s="0"/>
+      <c r="ZF176" s="0"/>
+      <c r="ZG176" s="0"/>
+      <c r="ZH176" s="0"/>
+      <c r="ZI176" s="0"/>
+      <c r="ZJ176" s="0"/>
+      <c r="ZK176" s="0"/>
+      <c r="ZL176" s="0"/>
+      <c r="ZM176" s="0"/>
+      <c r="ZN176" s="0"/>
+      <c r="ZO176" s="0"/>
+      <c r="ZP176" s="0"/>
+      <c r="ZQ176" s="0"/>
+      <c r="ZR176" s="0"/>
+      <c r="ZS176" s="0"/>
+      <c r="ZT176" s="0"/>
+      <c r="ZU176" s="0"/>
+      <c r="ZV176" s="0"/>
+      <c r="ZW176" s="0"/>
+      <c r="ZX176" s="0"/>
+      <c r="ZY176" s="0"/>
+      <c r="ZZ176" s="0"/>
+      <c r="AAA176" s="0"/>
+      <c r="AAB176" s="0"/>
+      <c r="AAC176" s="0"/>
+      <c r="AAD176" s="0"/>
+      <c r="AAE176" s="0"/>
+      <c r="AAF176" s="0"/>
+      <c r="AAG176" s="0"/>
+      <c r="AAH176" s="0"/>
+      <c r="AAI176" s="0"/>
+      <c r="AAJ176" s="0"/>
+      <c r="AAK176" s="0"/>
+      <c r="AAL176" s="0"/>
+      <c r="AAM176" s="0"/>
+      <c r="AAN176" s="0"/>
+      <c r="AAO176" s="0"/>
+      <c r="AAP176" s="0"/>
+      <c r="AAQ176" s="0"/>
+      <c r="AAR176" s="0"/>
+      <c r="AAS176" s="0"/>
+      <c r="AAT176" s="0"/>
+      <c r="AAU176" s="0"/>
+      <c r="AAV176" s="0"/>
+      <c r="AAW176" s="0"/>
+      <c r="AAX176" s="0"/>
+      <c r="AAY176" s="0"/>
+      <c r="AAZ176" s="0"/>
+      <c r="ABA176" s="0"/>
+      <c r="ABB176" s="0"/>
+      <c r="ABC176" s="0"/>
+      <c r="ABD176" s="0"/>
+      <c r="ABE176" s="0"/>
+      <c r="ABF176" s="0"/>
+      <c r="ABG176" s="0"/>
+      <c r="ABH176" s="0"/>
+      <c r="ABI176" s="0"/>
+      <c r="ABJ176" s="0"/>
+      <c r="ABK176" s="0"/>
+      <c r="ABL176" s="0"/>
+      <c r="ABM176" s="0"/>
+      <c r="ABN176" s="0"/>
+      <c r="ABO176" s="0"/>
+      <c r="ABP176" s="0"/>
+      <c r="ABQ176" s="0"/>
+      <c r="ABR176" s="0"/>
+      <c r="ABS176" s="0"/>
+      <c r="ABT176" s="0"/>
+      <c r="ABU176" s="0"/>
+      <c r="ABV176" s="0"/>
+      <c r="ABW176" s="0"/>
+      <c r="ABX176" s="0"/>
+      <c r="ABY176" s="0"/>
+      <c r="ABZ176" s="0"/>
+      <c r="ACA176" s="0"/>
+      <c r="ACB176" s="0"/>
+      <c r="ACC176" s="0"/>
+      <c r="ACD176" s="0"/>
+      <c r="ACE176" s="0"/>
+      <c r="ACF176" s="0"/>
+      <c r="ACG176" s="0"/>
+      <c r="ACH176" s="0"/>
+      <c r="ACI176" s="0"/>
+      <c r="ACJ176" s="0"/>
+      <c r="ACK176" s="0"/>
+      <c r="ACL176" s="0"/>
+      <c r="ACM176" s="0"/>
+      <c r="ACN176" s="0"/>
+      <c r="ACO176" s="0"/>
+      <c r="ACP176" s="0"/>
+      <c r="ACQ176" s="0"/>
+      <c r="ACR176" s="0"/>
+      <c r="ACS176" s="0"/>
+      <c r="ACT176" s="0"/>
+      <c r="ACU176" s="0"/>
+      <c r="ACV176" s="0"/>
+      <c r="ACW176" s="0"/>
+      <c r="ACX176" s="0"/>
+      <c r="ACY176" s="0"/>
+      <c r="ACZ176" s="0"/>
+      <c r="ADA176" s="0"/>
+      <c r="ADB176" s="0"/>
+      <c r="ADC176" s="0"/>
+      <c r="ADD176" s="0"/>
+      <c r="ADE176" s="0"/>
+      <c r="ADF176" s="0"/>
+      <c r="ADG176" s="0"/>
+      <c r="ADH176" s="0"/>
+      <c r="ADI176" s="0"/>
+      <c r="ADJ176" s="0"/>
+      <c r="ADK176" s="0"/>
+      <c r="ADL176" s="0"/>
+      <c r="ADM176" s="0"/>
+      <c r="ADN176" s="0"/>
+      <c r="ADO176" s="0"/>
+      <c r="ADP176" s="0"/>
+      <c r="ADQ176" s="0"/>
+      <c r="ADR176" s="0"/>
+      <c r="ADS176" s="0"/>
+      <c r="ADT176" s="0"/>
+      <c r="ADU176" s="0"/>
+      <c r="ADV176" s="0"/>
+      <c r="ADW176" s="0"/>
+      <c r="ADX176" s="0"/>
+      <c r="ADY176" s="0"/>
+      <c r="ADZ176" s="0"/>
+      <c r="AEA176" s="0"/>
+      <c r="AEB176" s="0"/>
+      <c r="AEC176" s="0"/>
+      <c r="AED176" s="0"/>
+      <c r="AEE176" s="0"/>
+      <c r="AEF176" s="0"/>
+      <c r="AEG176" s="0"/>
+      <c r="AEH176" s="0"/>
+      <c r="AEI176" s="0"/>
+      <c r="AEJ176" s="0"/>
+      <c r="AEK176" s="0"/>
+      <c r="AEL176" s="0"/>
+      <c r="AEM176" s="0"/>
+      <c r="AEN176" s="0"/>
+      <c r="AEO176" s="0"/>
+      <c r="AEP176" s="0"/>
+      <c r="AEQ176" s="0"/>
+      <c r="AER176" s="0"/>
+      <c r="AES176" s="0"/>
+      <c r="AET176" s="0"/>
+      <c r="AEU176" s="0"/>
+      <c r="AEV176" s="0"/>
+      <c r="AEW176" s="0"/>
+      <c r="AEX176" s="0"/>
+      <c r="AEY176" s="0"/>
+      <c r="AEZ176" s="0"/>
+      <c r="AFA176" s="0"/>
+      <c r="AFB176" s="0"/>
+      <c r="AFC176" s="0"/>
+      <c r="AFD176" s="0"/>
+      <c r="AFE176" s="0"/>
+      <c r="AFF176" s="0"/>
+      <c r="AFG176" s="0"/>
+      <c r="AFH176" s="0"/>
+      <c r="AFI176" s="0"/>
+      <c r="AFJ176" s="0"/>
+      <c r="AFK176" s="0"/>
+      <c r="AFL176" s="0"/>
+      <c r="AFM176" s="0"/>
+      <c r="AFN176" s="0"/>
+      <c r="AFO176" s="0"/>
+      <c r="AFP176" s="0"/>
+      <c r="AFQ176" s="0"/>
+      <c r="AFR176" s="0"/>
+      <c r="AFS176" s="0"/>
+      <c r="AFT176" s="0"/>
+      <c r="AFU176" s="0"/>
+      <c r="AFV176" s="0"/>
+      <c r="AFW176" s="0"/>
+      <c r="AFX176" s="0"/>
+      <c r="AFY176" s="0"/>
+      <c r="AFZ176" s="0"/>
+      <c r="AGA176" s="0"/>
+      <c r="AGB176" s="0"/>
+      <c r="AGC176" s="0"/>
+      <c r="AGD176" s="0"/>
+      <c r="AGE176" s="0"/>
+      <c r="AGF176" s="0"/>
+      <c r="AGG176" s="0"/>
+      <c r="AGH176" s="0"/>
+      <c r="AGI176" s="0"/>
+      <c r="AGJ176" s="0"/>
+      <c r="AGK176" s="0"/>
+      <c r="AGL176" s="0"/>
+      <c r="AGM176" s="0"/>
+      <c r="AGN176" s="0"/>
+      <c r="AGO176" s="0"/>
+      <c r="AGP176" s="0"/>
+      <c r="AGQ176" s="0"/>
+      <c r="AGR176" s="0"/>
+      <c r="AGS176" s="0"/>
+      <c r="AGT176" s="0"/>
+      <c r="AGU176" s="0"/>
+      <c r="AGV176" s="0"/>
+      <c r="AGW176" s="0"/>
+      <c r="AGX176" s="0"/>
+      <c r="AGY176" s="0"/>
+      <c r="AGZ176" s="0"/>
+      <c r="AHA176" s="0"/>
+      <c r="AHB176" s="0"/>
+      <c r="AHC176" s="0"/>
+      <c r="AHD176" s="0"/>
+      <c r="AHE176" s="0"/>
+      <c r="AHF176" s="0"/>
+      <c r="AHG176" s="0"/>
+      <c r="AHH176" s="0"/>
+      <c r="AHI176" s="0"/>
+      <c r="AHJ176" s="0"/>
+      <c r="AHK176" s="0"/>
+      <c r="AHL176" s="0"/>
+      <c r="AHM176" s="0"/>
+      <c r="AHN176" s="0"/>
+      <c r="AHO176" s="0"/>
+      <c r="AHP176" s="0"/>
+      <c r="AHQ176" s="0"/>
+      <c r="AHR176" s="0"/>
+      <c r="AHS176" s="0"/>
+      <c r="AHT176" s="0"/>
+      <c r="AHU176" s="0"/>
+      <c r="AHV176" s="0"/>
+      <c r="AHW176" s="0"/>
+      <c r="AHX176" s="0"/>
+      <c r="AHY176" s="0"/>
+      <c r="AHZ176" s="0"/>
+      <c r="AIA176" s="0"/>
+      <c r="AIB176" s="0"/>
+      <c r="AIC176" s="0"/>
+      <c r="AID176" s="0"/>
+      <c r="AIE176" s="0"/>
+      <c r="AIF176" s="0"/>
+      <c r="AIG176" s="0"/>
+      <c r="AIH176" s="0"/>
+      <c r="AII176" s="0"/>
+      <c r="AIJ176" s="0"/>
+      <c r="AIK176" s="0"/>
+      <c r="AIL176" s="0"/>
+      <c r="AIM176" s="0"/>
+      <c r="AIN176" s="0"/>
+      <c r="AIO176" s="0"/>
+      <c r="AIP176" s="0"/>
+      <c r="AIQ176" s="0"/>
+      <c r="AIR176" s="0"/>
+      <c r="AIS176" s="0"/>
+      <c r="AIT176" s="0"/>
+      <c r="AIU176" s="0"/>
+      <c r="AIV176" s="0"/>
+      <c r="AIW176" s="0"/>
+      <c r="AIX176" s="0"/>
+      <c r="AIY176" s="0"/>
+      <c r="AIZ176" s="0"/>
+      <c r="AJA176" s="0"/>
+      <c r="AJB176" s="0"/>
+      <c r="AJC176" s="0"/>
+      <c r="AJD176" s="0"/>
+      <c r="AJE176" s="0"/>
+      <c r="AJF176" s="0"/>
+      <c r="AJG176" s="0"/>
+      <c r="AJH176" s="0"/>
+      <c r="AJI176" s="0"/>
+      <c r="AJJ176" s="0"/>
+      <c r="AJK176" s="0"/>
+      <c r="AJL176" s="0"/>
+      <c r="AJM176" s="0"/>
+      <c r="AJN176" s="0"/>
+      <c r="AJO176" s="0"/>
+      <c r="AJP176" s="0"/>
+      <c r="AJQ176" s="0"/>
+      <c r="AJR176" s="0"/>
+      <c r="AJS176" s="0"/>
+      <c r="AJT176" s="0"/>
+      <c r="AJU176" s="0"/>
+      <c r="AJV176" s="0"/>
+      <c r="AJW176" s="0"/>
+      <c r="AJX176" s="0"/>
+      <c r="AJY176" s="0"/>
+      <c r="AJZ176" s="0"/>
+      <c r="AKA176" s="0"/>
+      <c r="AKB176" s="0"/>
+      <c r="AKC176" s="0"/>
+      <c r="AKD176" s="0"/>
+      <c r="AKE176" s="0"/>
+      <c r="AKF176" s="0"/>
+      <c r="AKG176" s="0"/>
+      <c r="AKH176" s="0"/>
+      <c r="AKI176" s="0"/>
+      <c r="AKJ176" s="0"/>
+      <c r="AKK176" s="0"/>
+      <c r="AKL176" s="0"/>
+      <c r="AKM176" s="0"/>
+      <c r="AKN176" s="0"/>
+      <c r="AKO176" s="0"/>
+      <c r="AKP176" s="0"/>
+      <c r="AKQ176" s="0"/>
+      <c r="AKR176" s="0"/>
+      <c r="AKS176" s="0"/>
+      <c r="AKT176" s="0"/>
+      <c r="AKU176" s="0"/>
+      <c r="AKV176" s="0"/>
+      <c r="AKW176" s="0"/>
+      <c r="AKX176" s="0"/>
+      <c r="AKY176" s="0"/>
+      <c r="AKZ176" s="0"/>
+      <c r="ALA176" s="0"/>
+      <c r="ALB176" s="0"/>
+      <c r="ALC176" s="0"/>
+      <c r="ALD176" s="0"/>
+      <c r="ALE176" s="0"/>
+      <c r="ALF176" s="0"/>
+      <c r="ALG176" s="0"/>
+      <c r="ALH176" s="0"/>
+      <c r="ALI176" s="0"/>
+      <c r="ALJ176" s="0"/>
+      <c r="ALK176" s="0"/>
+      <c r="ALL176" s="0"/>
+      <c r="ALM176" s="0"/>
+      <c r="ALN176" s="0"/>
+      <c r="ALO176" s="0"/>
+      <c r="ALP176" s="0"/>
+      <c r="ALQ176" s="0"/>
+      <c r="ALR176" s="0"/>
+      <c r="ALS176" s="0"/>
+      <c r="ALT176" s="0"/>
+      <c r="ALU176" s="0"/>
+      <c r="ALV176" s="0"/>
+      <c r="ALW176" s="0"/>
+      <c r="ALX176" s="0"/>
+      <c r="ALY176" s="0"/>
+      <c r="ALZ176" s="0"/>
+      <c r="AMA176" s="0"/>
+      <c r="AMB176" s="0"/>
+      <c r="AMC176" s="0"/>
+      <c r="AMD176" s="0"/>
+      <c r="AME176" s="0"/>
+      <c r="AMF176" s="0"/>
+      <c r="AMG176" s="0"/>
+      <c r="AMH176" s="0"/>
+      <c r="AMI176" s="0"/>
+      <c r="AMJ176" s="0"/>
+    </row>
+    <row r="177" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>176</v>
       </c>
@@ -16250,27 +16299,27 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="178" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="30" t="n">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="31" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="30" t="s">
+      <c r="B178" s="31" t="s">
         <v>180</v>
       </c>
       <c r="C178" s="17" t="n">
         <v>0.418</v>
       </c>
-      <c r="D178" s="28" t="n">
+      <c r="D178" s="38" t="n">
         <v>88333</v>
       </c>
-      <c r="E178" s="28" t="n">
+      <c r="E178" s="38" t="n">
         <v>40017</v>
       </c>
       <c r="F178" s="17" t="n">
         <f aca="false">E178/D178</f>
         <v>0.453024351035287</v>
       </c>
-      <c r="G178" s="28" t="n">
+      <c r="G178" s="38" t="n">
         <v>50000</v>
       </c>
       <c r="H178" s="18" t="n">
@@ -16285,49 +16334,1056 @@
         <f aca="false">I178-M178</f>
         <v>-1916.13702</v>
       </c>
-      <c r="K178" s="30" t="n">
+      <c r="K178" s="31" t="n">
         <v>318</v>
       </c>
-      <c r="L178" s="30" t="s">
+      <c r="L178" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="M178" s="28" t="n">
+      <c r="M178" s="38" t="n">
         <v>9597</v>
       </c>
-      <c r="N178" s="28" t="n">
+      <c r="N178" s="38" t="n">
         <v>88333</v>
       </c>
-      <c r="O178" s="28" t="n">
+      <c r="O178" s="38" t="n">
         <v>3133</v>
       </c>
-      <c r="P178" s="28" t="n">
+      <c r="P178" s="38" t="n">
         <v>847735375</v>
       </c>
-      <c r="R178" s="30" t="n">
+      <c r="Q178" s="31"/>
+      <c r="R178" s="31" t="n">
         <v>20220929</v>
       </c>
-    </row>
-    <row r="179" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="30" t="n">
+      <c r="S178" s="0"/>
+      <c r="T178" s="0"/>
+      <c r="U178" s="0"/>
+      <c r="V178" s="0"/>
+      <c r="W178" s="0"/>
+      <c r="X178" s="0"/>
+      <c r="Y178" s="0"/>
+      <c r="Z178" s="0"/>
+      <c r="AA178" s="0"/>
+      <c r="AB178" s="0"/>
+      <c r="AC178" s="0"/>
+      <c r="AD178" s="0"/>
+      <c r="AE178" s="0"/>
+      <c r="AF178" s="0"/>
+      <c r="AG178" s="0"/>
+      <c r="AH178" s="0"/>
+      <c r="AI178" s="0"/>
+      <c r="AJ178" s="0"/>
+      <c r="AK178" s="0"/>
+      <c r="AL178" s="0"/>
+      <c r="AM178" s="0"/>
+      <c r="AN178" s="0"/>
+      <c r="AO178" s="0"/>
+      <c r="AP178" s="0"/>
+      <c r="AQ178" s="0"/>
+      <c r="AR178" s="0"/>
+      <c r="AS178" s="0"/>
+      <c r="AT178" s="0"/>
+      <c r="AU178" s="0"/>
+      <c r="AV178" s="0"/>
+      <c r="AW178" s="0"/>
+      <c r="AX178" s="0"/>
+      <c r="AY178" s="0"/>
+      <c r="AZ178" s="0"/>
+      <c r="BA178" s="0"/>
+      <c r="BB178" s="0"/>
+      <c r="BC178" s="0"/>
+      <c r="BD178" s="0"/>
+      <c r="BE178" s="0"/>
+      <c r="BF178" s="0"/>
+      <c r="BG178" s="0"/>
+      <c r="BH178" s="0"/>
+      <c r="BI178" s="0"/>
+      <c r="BJ178" s="0"/>
+      <c r="BK178" s="0"/>
+      <c r="BL178" s="0"/>
+      <c r="BM178" s="0"/>
+      <c r="BN178" s="0"/>
+      <c r="BO178" s="0"/>
+      <c r="BP178" s="0"/>
+      <c r="BQ178" s="0"/>
+      <c r="BR178" s="0"/>
+      <c r="BS178" s="0"/>
+      <c r="BT178" s="0"/>
+      <c r="BU178" s="0"/>
+      <c r="BV178" s="0"/>
+      <c r="BW178" s="0"/>
+      <c r="BX178" s="0"/>
+      <c r="BY178" s="0"/>
+      <c r="BZ178" s="0"/>
+      <c r="CA178" s="0"/>
+      <c r="CB178" s="0"/>
+      <c r="CC178" s="0"/>
+      <c r="CD178" s="0"/>
+      <c r="CE178" s="0"/>
+      <c r="CF178" s="0"/>
+      <c r="CG178" s="0"/>
+      <c r="CH178" s="0"/>
+      <c r="CI178" s="0"/>
+      <c r="CJ178" s="0"/>
+      <c r="CK178" s="0"/>
+      <c r="CL178" s="0"/>
+      <c r="CM178" s="0"/>
+      <c r="CN178" s="0"/>
+      <c r="CO178" s="0"/>
+      <c r="CP178" s="0"/>
+      <c r="CQ178" s="0"/>
+      <c r="CR178" s="0"/>
+      <c r="CS178" s="0"/>
+      <c r="CT178" s="0"/>
+      <c r="CU178" s="0"/>
+      <c r="CV178" s="0"/>
+      <c r="CW178" s="0"/>
+      <c r="CX178" s="0"/>
+      <c r="CY178" s="0"/>
+      <c r="CZ178" s="0"/>
+      <c r="DA178" s="0"/>
+      <c r="DB178" s="0"/>
+      <c r="DC178" s="0"/>
+      <c r="DD178" s="0"/>
+      <c r="DE178" s="0"/>
+      <c r="DF178" s="0"/>
+      <c r="DG178" s="0"/>
+      <c r="DH178" s="0"/>
+      <c r="DI178" s="0"/>
+      <c r="DJ178" s="0"/>
+      <c r="DK178" s="0"/>
+      <c r="DL178" s="0"/>
+      <c r="DM178" s="0"/>
+      <c r="DN178" s="0"/>
+      <c r="DO178" s="0"/>
+      <c r="DP178" s="0"/>
+      <c r="DQ178" s="0"/>
+      <c r="DR178" s="0"/>
+      <c r="DS178" s="0"/>
+      <c r="DT178" s="0"/>
+      <c r="DU178" s="0"/>
+      <c r="DV178" s="0"/>
+      <c r="DW178" s="0"/>
+      <c r="DX178" s="0"/>
+      <c r="DY178" s="0"/>
+      <c r="DZ178" s="0"/>
+      <c r="EA178" s="0"/>
+      <c r="EB178" s="0"/>
+      <c r="EC178" s="0"/>
+      <c r="ED178" s="0"/>
+      <c r="EE178" s="0"/>
+      <c r="EF178" s="0"/>
+      <c r="EG178" s="0"/>
+      <c r="EH178" s="0"/>
+      <c r="EI178" s="0"/>
+      <c r="EJ178" s="0"/>
+      <c r="EK178" s="0"/>
+      <c r="EL178" s="0"/>
+      <c r="EM178" s="0"/>
+      <c r="EN178" s="0"/>
+      <c r="EO178" s="0"/>
+      <c r="EP178" s="0"/>
+      <c r="EQ178" s="0"/>
+      <c r="ER178" s="0"/>
+      <c r="ES178" s="0"/>
+      <c r="ET178" s="0"/>
+      <c r="EU178" s="0"/>
+      <c r="EV178" s="0"/>
+      <c r="EW178" s="0"/>
+      <c r="EX178" s="0"/>
+      <c r="EY178" s="0"/>
+      <c r="EZ178" s="0"/>
+      <c r="FA178" s="0"/>
+      <c r="FB178" s="0"/>
+      <c r="FC178" s="0"/>
+      <c r="FD178" s="0"/>
+      <c r="FE178" s="0"/>
+      <c r="FF178" s="0"/>
+      <c r="FG178" s="0"/>
+      <c r="FH178" s="0"/>
+      <c r="FI178" s="0"/>
+      <c r="FJ178" s="0"/>
+      <c r="FK178" s="0"/>
+      <c r="FL178" s="0"/>
+      <c r="FM178" s="0"/>
+      <c r="FN178" s="0"/>
+      <c r="FO178" s="0"/>
+      <c r="FP178" s="0"/>
+      <c r="FQ178" s="0"/>
+      <c r="FR178" s="0"/>
+      <c r="FS178" s="0"/>
+      <c r="FT178" s="0"/>
+      <c r="FU178" s="0"/>
+      <c r="FV178" s="0"/>
+      <c r="FW178" s="0"/>
+      <c r="FX178" s="0"/>
+      <c r="FY178" s="0"/>
+      <c r="FZ178" s="0"/>
+      <c r="GA178" s="0"/>
+      <c r="GB178" s="0"/>
+      <c r="GC178" s="0"/>
+      <c r="GD178" s="0"/>
+      <c r="GE178" s="0"/>
+      <c r="GF178" s="0"/>
+      <c r="GG178" s="0"/>
+      <c r="GH178" s="0"/>
+      <c r="GI178" s="0"/>
+      <c r="GJ178" s="0"/>
+      <c r="GK178" s="0"/>
+      <c r="GL178" s="0"/>
+      <c r="GM178" s="0"/>
+      <c r="GN178" s="0"/>
+      <c r="GO178" s="0"/>
+      <c r="GP178" s="0"/>
+      <c r="GQ178" s="0"/>
+      <c r="GR178" s="0"/>
+      <c r="GS178" s="0"/>
+      <c r="GT178" s="0"/>
+      <c r="GU178" s="0"/>
+      <c r="GV178" s="0"/>
+      <c r="GW178" s="0"/>
+      <c r="GX178" s="0"/>
+      <c r="GY178" s="0"/>
+      <c r="GZ178" s="0"/>
+      <c r="HA178" s="0"/>
+      <c r="HB178" s="0"/>
+      <c r="HC178" s="0"/>
+      <c r="HD178" s="0"/>
+      <c r="HE178" s="0"/>
+      <c r="HF178" s="0"/>
+      <c r="HG178" s="0"/>
+      <c r="HH178" s="0"/>
+      <c r="HI178" s="0"/>
+      <c r="HJ178" s="0"/>
+      <c r="HK178" s="0"/>
+      <c r="HL178" s="0"/>
+      <c r="HM178" s="0"/>
+      <c r="HN178" s="0"/>
+      <c r="HO178" s="0"/>
+      <c r="HP178" s="0"/>
+      <c r="HQ178" s="0"/>
+      <c r="HR178" s="0"/>
+      <c r="HS178" s="0"/>
+      <c r="HT178" s="0"/>
+      <c r="HU178" s="0"/>
+      <c r="HV178" s="0"/>
+      <c r="HW178" s="0"/>
+      <c r="HX178" s="0"/>
+      <c r="HY178" s="0"/>
+      <c r="HZ178" s="0"/>
+      <c r="IA178" s="0"/>
+      <c r="IB178" s="0"/>
+      <c r="IC178" s="0"/>
+      <c r="ID178" s="0"/>
+      <c r="IE178" s="0"/>
+      <c r="IF178" s="0"/>
+      <c r="IG178" s="0"/>
+      <c r="IH178" s="0"/>
+      <c r="II178" s="0"/>
+      <c r="IJ178" s="0"/>
+      <c r="IK178" s="0"/>
+      <c r="IL178" s="0"/>
+      <c r="IM178" s="0"/>
+      <c r="IN178" s="0"/>
+      <c r="IO178" s="0"/>
+      <c r="IP178" s="0"/>
+      <c r="IQ178" s="0"/>
+      <c r="IR178" s="0"/>
+      <c r="IS178" s="0"/>
+      <c r="IT178" s="0"/>
+      <c r="IU178" s="0"/>
+      <c r="IV178" s="0"/>
+      <c r="IW178" s="0"/>
+      <c r="IX178" s="0"/>
+      <c r="IY178" s="0"/>
+      <c r="IZ178" s="0"/>
+      <c r="JA178" s="0"/>
+      <c r="JB178" s="0"/>
+      <c r="JC178" s="0"/>
+      <c r="JD178" s="0"/>
+      <c r="JE178" s="0"/>
+      <c r="JF178" s="0"/>
+      <c r="JG178" s="0"/>
+      <c r="JH178" s="0"/>
+      <c r="JI178" s="0"/>
+      <c r="JJ178" s="0"/>
+      <c r="JK178" s="0"/>
+      <c r="JL178" s="0"/>
+      <c r="JM178" s="0"/>
+      <c r="JN178" s="0"/>
+      <c r="JO178" s="0"/>
+      <c r="JP178" s="0"/>
+      <c r="JQ178" s="0"/>
+      <c r="JR178" s="0"/>
+      <c r="JS178" s="0"/>
+      <c r="JT178" s="0"/>
+      <c r="JU178" s="0"/>
+      <c r="JV178" s="0"/>
+      <c r="JW178" s="0"/>
+      <c r="JX178" s="0"/>
+      <c r="JY178" s="0"/>
+      <c r="JZ178" s="0"/>
+      <c r="KA178" s="0"/>
+      <c r="KB178" s="0"/>
+      <c r="KC178" s="0"/>
+      <c r="KD178" s="0"/>
+      <c r="KE178" s="0"/>
+      <c r="KF178" s="0"/>
+      <c r="KG178" s="0"/>
+      <c r="KH178" s="0"/>
+      <c r="KI178" s="0"/>
+      <c r="KJ178" s="0"/>
+      <c r="KK178" s="0"/>
+      <c r="KL178" s="0"/>
+      <c r="KM178" s="0"/>
+      <c r="KN178" s="0"/>
+      <c r="KO178" s="0"/>
+      <c r="KP178" s="0"/>
+      <c r="KQ178" s="0"/>
+      <c r="KR178" s="0"/>
+      <c r="KS178" s="0"/>
+      <c r="KT178" s="0"/>
+      <c r="KU178" s="0"/>
+      <c r="KV178" s="0"/>
+      <c r="KW178" s="0"/>
+      <c r="KX178" s="0"/>
+      <c r="KY178" s="0"/>
+      <c r="KZ178" s="0"/>
+      <c r="LA178" s="0"/>
+      <c r="LB178" s="0"/>
+      <c r="LC178" s="0"/>
+      <c r="LD178" s="0"/>
+      <c r="LE178" s="0"/>
+      <c r="LF178" s="0"/>
+      <c r="LG178" s="0"/>
+      <c r="LH178" s="0"/>
+      <c r="LI178" s="0"/>
+      <c r="LJ178" s="0"/>
+      <c r="LK178" s="0"/>
+      <c r="LL178" s="0"/>
+      <c r="LM178" s="0"/>
+      <c r="LN178" s="0"/>
+      <c r="LO178" s="0"/>
+      <c r="LP178" s="0"/>
+      <c r="LQ178" s="0"/>
+      <c r="LR178" s="0"/>
+      <c r="LS178" s="0"/>
+      <c r="LT178" s="0"/>
+      <c r="LU178" s="0"/>
+      <c r="LV178" s="0"/>
+      <c r="LW178" s="0"/>
+      <c r="LX178" s="0"/>
+      <c r="LY178" s="0"/>
+      <c r="LZ178" s="0"/>
+      <c r="MA178" s="0"/>
+      <c r="MB178" s="0"/>
+      <c r="MC178" s="0"/>
+      <c r="MD178" s="0"/>
+      <c r="ME178" s="0"/>
+      <c r="MF178" s="0"/>
+      <c r="MG178" s="0"/>
+      <c r="MH178" s="0"/>
+      <c r="MI178" s="0"/>
+      <c r="MJ178" s="0"/>
+      <c r="MK178" s="0"/>
+      <c r="ML178" s="0"/>
+      <c r="MM178" s="0"/>
+      <c r="MN178" s="0"/>
+      <c r="MO178" s="0"/>
+      <c r="MP178" s="0"/>
+      <c r="MQ178" s="0"/>
+      <c r="MR178" s="0"/>
+      <c r="MS178" s="0"/>
+      <c r="MT178" s="0"/>
+      <c r="MU178" s="0"/>
+      <c r="MV178" s="0"/>
+      <c r="MW178" s="0"/>
+      <c r="MX178" s="0"/>
+      <c r="MY178" s="0"/>
+      <c r="MZ178" s="0"/>
+      <c r="NA178" s="0"/>
+      <c r="NB178" s="0"/>
+      <c r="NC178" s="0"/>
+      <c r="ND178" s="0"/>
+      <c r="NE178" s="0"/>
+      <c r="NF178" s="0"/>
+      <c r="NG178" s="0"/>
+      <c r="NH178" s="0"/>
+      <c r="NI178" s="0"/>
+      <c r="NJ178" s="0"/>
+      <c r="NK178" s="0"/>
+      <c r="NL178" s="0"/>
+      <c r="NM178" s="0"/>
+      <c r="NN178" s="0"/>
+      <c r="NO178" s="0"/>
+      <c r="NP178" s="0"/>
+      <c r="NQ178" s="0"/>
+      <c r="NR178" s="0"/>
+      <c r="NS178" s="0"/>
+      <c r="NT178" s="0"/>
+      <c r="NU178" s="0"/>
+      <c r="NV178" s="0"/>
+      <c r="NW178" s="0"/>
+      <c r="NX178" s="0"/>
+      <c r="NY178" s="0"/>
+      <c r="NZ178" s="0"/>
+      <c r="OA178" s="0"/>
+      <c r="OB178" s="0"/>
+      <c r="OC178" s="0"/>
+      <c r="OD178" s="0"/>
+      <c r="OE178" s="0"/>
+      <c r="OF178" s="0"/>
+      <c r="OG178" s="0"/>
+      <c r="OH178" s="0"/>
+      <c r="OI178" s="0"/>
+      <c r="OJ178" s="0"/>
+      <c r="OK178" s="0"/>
+      <c r="OL178" s="0"/>
+      <c r="OM178" s="0"/>
+      <c r="ON178" s="0"/>
+      <c r="OO178" s="0"/>
+      <c r="OP178" s="0"/>
+      <c r="OQ178" s="0"/>
+      <c r="OR178" s="0"/>
+      <c r="OS178" s="0"/>
+      <c r="OT178" s="0"/>
+      <c r="OU178" s="0"/>
+      <c r="OV178" s="0"/>
+      <c r="OW178" s="0"/>
+      <c r="OX178" s="0"/>
+      <c r="OY178" s="0"/>
+      <c r="OZ178" s="0"/>
+      <c r="PA178" s="0"/>
+      <c r="PB178" s="0"/>
+      <c r="PC178" s="0"/>
+      <c r="PD178" s="0"/>
+      <c r="PE178" s="0"/>
+      <c r="PF178" s="0"/>
+      <c r="PG178" s="0"/>
+      <c r="PH178" s="0"/>
+      <c r="PI178" s="0"/>
+      <c r="PJ178" s="0"/>
+      <c r="PK178" s="0"/>
+      <c r="PL178" s="0"/>
+      <c r="PM178" s="0"/>
+      <c r="PN178" s="0"/>
+      <c r="PO178" s="0"/>
+      <c r="PP178" s="0"/>
+      <c r="PQ178" s="0"/>
+      <c r="PR178" s="0"/>
+      <c r="PS178" s="0"/>
+      <c r="PT178" s="0"/>
+      <c r="PU178" s="0"/>
+      <c r="PV178" s="0"/>
+      <c r="PW178" s="0"/>
+      <c r="PX178" s="0"/>
+      <c r="PY178" s="0"/>
+      <c r="PZ178" s="0"/>
+      <c r="QA178" s="0"/>
+      <c r="QB178" s="0"/>
+      <c r="QC178" s="0"/>
+      <c r="QD178" s="0"/>
+      <c r="QE178" s="0"/>
+      <c r="QF178" s="0"/>
+      <c r="QG178" s="0"/>
+      <c r="QH178" s="0"/>
+      <c r="QI178" s="0"/>
+      <c r="QJ178" s="0"/>
+      <c r="QK178" s="0"/>
+      <c r="QL178" s="0"/>
+      <c r="QM178" s="0"/>
+      <c r="QN178" s="0"/>
+      <c r="QO178" s="0"/>
+      <c r="QP178" s="0"/>
+      <c r="QQ178" s="0"/>
+      <c r="QR178" s="0"/>
+      <c r="QS178" s="0"/>
+      <c r="QT178" s="0"/>
+      <c r="QU178" s="0"/>
+      <c r="QV178" s="0"/>
+      <c r="QW178" s="0"/>
+      <c r="QX178" s="0"/>
+      <c r="QY178" s="0"/>
+      <c r="QZ178" s="0"/>
+      <c r="RA178" s="0"/>
+      <c r="RB178" s="0"/>
+      <c r="RC178" s="0"/>
+      <c r="RD178" s="0"/>
+      <c r="RE178" s="0"/>
+      <c r="RF178" s="0"/>
+      <c r="RG178" s="0"/>
+      <c r="RH178" s="0"/>
+      <c r="RI178" s="0"/>
+      <c r="RJ178" s="0"/>
+      <c r="RK178" s="0"/>
+      <c r="RL178" s="0"/>
+      <c r="RM178" s="0"/>
+      <c r="RN178" s="0"/>
+      <c r="RO178" s="0"/>
+      <c r="RP178" s="0"/>
+      <c r="RQ178" s="0"/>
+      <c r="RR178" s="0"/>
+      <c r="RS178" s="0"/>
+      <c r="RT178" s="0"/>
+      <c r="RU178" s="0"/>
+      <c r="RV178" s="0"/>
+      <c r="RW178" s="0"/>
+      <c r="RX178" s="0"/>
+      <c r="RY178" s="0"/>
+      <c r="RZ178" s="0"/>
+      <c r="SA178" s="0"/>
+      <c r="SB178" s="0"/>
+      <c r="SC178" s="0"/>
+      <c r="SD178" s="0"/>
+      <c r="SE178" s="0"/>
+      <c r="SF178" s="0"/>
+      <c r="SG178" s="0"/>
+      <c r="SH178" s="0"/>
+      <c r="SI178" s="0"/>
+      <c r="SJ178" s="0"/>
+      <c r="SK178" s="0"/>
+      <c r="SL178" s="0"/>
+      <c r="SM178" s="0"/>
+      <c r="SN178" s="0"/>
+      <c r="SO178" s="0"/>
+      <c r="SP178" s="0"/>
+      <c r="SQ178" s="0"/>
+      <c r="SR178" s="0"/>
+      <c r="SS178" s="0"/>
+      <c r="ST178" s="0"/>
+      <c r="SU178" s="0"/>
+      <c r="SV178" s="0"/>
+      <c r="SW178" s="0"/>
+      <c r="SX178" s="0"/>
+      <c r="SY178" s="0"/>
+      <c r="SZ178" s="0"/>
+      <c r="TA178" s="0"/>
+      <c r="TB178" s="0"/>
+      <c r="TC178" s="0"/>
+      <c r="TD178" s="0"/>
+      <c r="TE178" s="0"/>
+      <c r="TF178" s="0"/>
+      <c r="TG178" s="0"/>
+      <c r="TH178" s="0"/>
+      <c r="TI178" s="0"/>
+      <c r="TJ178" s="0"/>
+      <c r="TK178" s="0"/>
+      <c r="TL178" s="0"/>
+      <c r="TM178" s="0"/>
+      <c r="TN178" s="0"/>
+      <c r="TO178" s="0"/>
+      <c r="TP178" s="0"/>
+      <c r="TQ178" s="0"/>
+      <c r="TR178" s="0"/>
+      <c r="TS178" s="0"/>
+      <c r="TT178" s="0"/>
+      <c r="TU178" s="0"/>
+      <c r="TV178" s="0"/>
+      <c r="TW178" s="0"/>
+      <c r="TX178" s="0"/>
+      <c r="TY178" s="0"/>
+      <c r="TZ178" s="0"/>
+      <c r="UA178" s="0"/>
+      <c r="UB178" s="0"/>
+      <c r="UC178" s="0"/>
+      <c r="UD178" s="0"/>
+      <c r="UE178" s="0"/>
+      <c r="UF178" s="0"/>
+      <c r="UG178" s="0"/>
+      <c r="UH178" s="0"/>
+      <c r="UI178" s="0"/>
+      <c r="UJ178" s="0"/>
+      <c r="UK178" s="0"/>
+      <c r="UL178" s="0"/>
+      <c r="UM178" s="0"/>
+      <c r="UN178" s="0"/>
+      <c r="UO178" s="0"/>
+      <c r="UP178" s="0"/>
+      <c r="UQ178" s="0"/>
+      <c r="UR178" s="0"/>
+      <c r="US178" s="0"/>
+      <c r="UT178" s="0"/>
+      <c r="UU178" s="0"/>
+      <c r="UV178" s="0"/>
+      <c r="UW178" s="0"/>
+      <c r="UX178" s="0"/>
+      <c r="UY178" s="0"/>
+      <c r="UZ178" s="0"/>
+      <c r="VA178" s="0"/>
+      <c r="VB178" s="0"/>
+      <c r="VC178" s="0"/>
+      <c r="VD178" s="0"/>
+      <c r="VE178" s="0"/>
+      <c r="VF178" s="0"/>
+      <c r="VG178" s="0"/>
+      <c r="VH178" s="0"/>
+      <c r="VI178" s="0"/>
+      <c r="VJ178" s="0"/>
+      <c r="VK178" s="0"/>
+      <c r="VL178" s="0"/>
+      <c r="VM178" s="0"/>
+      <c r="VN178" s="0"/>
+      <c r="VO178" s="0"/>
+      <c r="VP178" s="0"/>
+      <c r="VQ178" s="0"/>
+      <c r="VR178" s="0"/>
+      <c r="VS178" s="0"/>
+      <c r="VT178" s="0"/>
+      <c r="VU178" s="0"/>
+      <c r="VV178" s="0"/>
+      <c r="VW178" s="0"/>
+      <c r="VX178" s="0"/>
+      <c r="VY178" s="0"/>
+      <c r="VZ178" s="0"/>
+      <c r="WA178" s="0"/>
+      <c r="WB178" s="0"/>
+      <c r="WC178" s="0"/>
+      <c r="WD178" s="0"/>
+      <c r="WE178" s="0"/>
+      <c r="WF178" s="0"/>
+      <c r="WG178" s="0"/>
+      <c r="WH178" s="0"/>
+      <c r="WI178" s="0"/>
+      <c r="WJ178" s="0"/>
+      <c r="WK178" s="0"/>
+      <c r="WL178" s="0"/>
+      <c r="WM178" s="0"/>
+      <c r="WN178" s="0"/>
+      <c r="WO178" s="0"/>
+      <c r="WP178" s="0"/>
+      <c r="WQ178" s="0"/>
+      <c r="WR178" s="0"/>
+      <c r="WS178" s="0"/>
+      <c r="WT178" s="0"/>
+      <c r="WU178" s="0"/>
+      <c r="WV178" s="0"/>
+      <c r="WW178" s="0"/>
+      <c r="WX178" s="0"/>
+      <c r="WY178" s="0"/>
+      <c r="WZ178" s="0"/>
+      <c r="XA178" s="0"/>
+      <c r="XB178" s="0"/>
+      <c r="XC178" s="0"/>
+      <c r="XD178" s="0"/>
+      <c r="XE178" s="0"/>
+      <c r="XF178" s="0"/>
+      <c r="XG178" s="0"/>
+      <c r="XH178" s="0"/>
+      <c r="XI178" s="0"/>
+      <c r="XJ178" s="0"/>
+      <c r="XK178" s="0"/>
+      <c r="XL178" s="0"/>
+      <c r="XM178" s="0"/>
+      <c r="XN178" s="0"/>
+      <c r="XO178" s="0"/>
+      <c r="XP178" s="0"/>
+      <c r="XQ178" s="0"/>
+      <c r="XR178" s="0"/>
+      <c r="XS178" s="0"/>
+      <c r="XT178" s="0"/>
+      <c r="XU178" s="0"/>
+      <c r="XV178" s="0"/>
+      <c r="XW178" s="0"/>
+      <c r="XX178" s="0"/>
+      <c r="XY178" s="0"/>
+      <c r="XZ178" s="0"/>
+      <c r="YA178" s="0"/>
+      <c r="YB178" s="0"/>
+      <c r="YC178" s="0"/>
+      <c r="YD178" s="0"/>
+      <c r="YE178" s="0"/>
+      <c r="YF178" s="0"/>
+      <c r="YG178" s="0"/>
+      <c r="YH178" s="0"/>
+      <c r="YI178" s="0"/>
+      <c r="YJ178" s="0"/>
+      <c r="YK178" s="0"/>
+      <c r="YL178" s="0"/>
+      <c r="YM178" s="0"/>
+      <c r="YN178" s="0"/>
+      <c r="YO178" s="0"/>
+      <c r="YP178" s="0"/>
+      <c r="YQ178" s="0"/>
+      <c r="YR178" s="0"/>
+      <c r="YS178" s="0"/>
+      <c r="YT178" s="0"/>
+      <c r="YU178" s="0"/>
+      <c r="YV178" s="0"/>
+      <c r="YW178" s="0"/>
+      <c r="YX178" s="0"/>
+      <c r="YY178" s="0"/>
+      <c r="YZ178" s="0"/>
+      <c r="ZA178" s="0"/>
+      <c r="ZB178" s="0"/>
+      <c r="ZC178" s="0"/>
+      <c r="ZD178" s="0"/>
+      <c r="ZE178" s="0"/>
+      <c r="ZF178" s="0"/>
+      <c r="ZG178" s="0"/>
+      <c r="ZH178" s="0"/>
+      <c r="ZI178" s="0"/>
+      <c r="ZJ178" s="0"/>
+      <c r="ZK178" s="0"/>
+      <c r="ZL178" s="0"/>
+      <c r="ZM178" s="0"/>
+      <c r="ZN178" s="0"/>
+      <c r="ZO178" s="0"/>
+      <c r="ZP178" s="0"/>
+      <c r="ZQ178" s="0"/>
+      <c r="ZR178" s="0"/>
+      <c r="ZS178" s="0"/>
+      <c r="ZT178" s="0"/>
+      <c r="ZU178" s="0"/>
+      <c r="ZV178" s="0"/>
+      <c r="ZW178" s="0"/>
+      <c r="ZX178" s="0"/>
+      <c r="ZY178" s="0"/>
+      <c r="ZZ178" s="0"/>
+      <c r="AAA178" s="0"/>
+      <c r="AAB178" s="0"/>
+      <c r="AAC178" s="0"/>
+      <c r="AAD178" s="0"/>
+      <c r="AAE178" s="0"/>
+      <c r="AAF178" s="0"/>
+      <c r="AAG178" s="0"/>
+      <c r="AAH178" s="0"/>
+      <c r="AAI178" s="0"/>
+      <c r="AAJ178" s="0"/>
+      <c r="AAK178" s="0"/>
+      <c r="AAL178" s="0"/>
+      <c r="AAM178" s="0"/>
+      <c r="AAN178" s="0"/>
+      <c r="AAO178" s="0"/>
+      <c r="AAP178" s="0"/>
+      <c r="AAQ178" s="0"/>
+      <c r="AAR178" s="0"/>
+      <c r="AAS178" s="0"/>
+      <c r="AAT178" s="0"/>
+      <c r="AAU178" s="0"/>
+      <c r="AAV178" s="0"/>
+      <c r="AAW178" s="0"/>
+      <c r="AAX178" s="0"/>
+      <c r="AAY178" s="0"/>
+      <c r="AAZ178" s="0"/>
+      <c r="ABA178" s="0"/>
+      <c r="ABB178" s="0"/>
+      <c r="ABC178" s="0"/>
+      <c r="ABD178" s="0"/>
+      <c r="ABE178" s="0"/>
+      <c r="ABF178" s="0"/>
+      <c r="ABG178" s="0"/>
+      <c r="ABH178" s="0"/>
+      <c r="ABI178" s="0"/>
+      <c r="ABJ178" s="0"/>
+      <c r="ABK178" s="0"/>
+      <c r="ABL178" s="0"/>
+      <c r="ABM178" s="0"/>
+      <c r="ABN178" s="0"/>
+      <c r="ABO178" s="0"/>
+      <c r="ABP178" s="0"/>
+      <c r="ABQ178" s="0"/>
+      <c r="ABR178" s="0"/>
+      <c r="ABS178" s="0"/>
+      <c r="ABT178" s="0"/>
+      <c r="ABU178" s="0"/>
+      <c r="ABV178" s="0"/>
+      <c r="ABW178" s="0"/>
+      <c r="ABX178" s="0"/>
+      <c r="ABY178" s="0"/>
+      <c r="ABZ178" s="0"/>
+      <c r="ACA178" s="0"/>
+      <c r="ACB178" s="0"/>
+      <c r="ACC178" s="0"/>
+      <c r="ACD178" s="0"/>
+      <c r="ACE178" s="0"/>
+      <c r="ACF178" s="0"/>
+      <c r="ACG178" s="0"/>
+      <c r="ACH178" s="0"/>
+      <c r="ACI178" s="0"/>
+      <c r="ACJ178" s="0"/>
+      <c r="ACK178" s="0"/>
+      <c r="ACL178" s="0"/>
+      <c r="ACM178" s="0"/>
+      <c r="ACN178" s="0"/>
+      <c r="ACO178" s="0"/>
+      <c r="ACP178" s="0"/>
+      <c r="ACQ178" s="0"/>
+      <c r="ACR178" s="0"/>
+      <c r="ACS178" s="0"/>
+      <c r="ACT178" s="0"/>
+      <c r="ACU178" s="0"/>
+      <c r="ACV178" s="0"/>
+      <c r="ACW178" s="0"/>
+      <c r="ACX178" s="0"/>
+      <c r="ACY178" s="0"/>
+      <c r="ACZ178" s="0"/>
+      <c r="ADA178" s="0"/>
+      <c r="ADB178" s="0"/>
+      <c r="ADC178" s="0"/>
+      <c r="ADD178" s="0"/>
+      <c r="ADE178" s="0"/>
+      <c r="ADF178" s="0"/>
+      <c r="ADG178" s="0"/>
+      <c r="ADH178" s="0"/>
+      <c r="ADI178" s="0"/>
+      <c r="ADJ178" s="0"/>
+      <c r="ADK178" s="0"/>
+      <c r="ADL178" s="0"/>
+      <c r="ADM178" s="0"/>
+      <c r="ADN178" s="0"/>
+      <c r="ADO178" s="0"/>
+      <c r="ADP178" s="0"/>
+      <c r="ADQ178" s="0"/>
+      <c r="ADR178" s="0"/>
+      <c r="ADS178" s="0"/>
+      <c r="ADT178" s="0"/>
+      <c r="ADU178" s="0"/>
+      <c r="ADV178" s="0"/>
+      <c r="ADW178" s="0"/>
+      <c r="ADX178" s="0"/>
+      <c r="ADY178" s="0"/>
+      <c r="ADZ178" s="0"/>
+      <c r="AEA178" s="0"/>
+      <c r="AEB178" s="0"/>
+      <c r="AEC178" s="0"/>
+      <c r="AED178" s="0"/>
+      <c r="AEE178" s="0"/>
+      <c r="AEF178" s="0"/>
+      <c r="AEG178" s="0"/>
+      <c r="AEH178" s="0"/>
+      <c r="AEI178" s="0"/>
+      <c r="AEJ178" s="0"/>
+      <c r="AEK178" s="0"/>
+      <c r="AEL178" s="0"/>
+      <c r="AEM178" s="0"/>
+      <c r="AEN178" s="0"/>
+      <c r="AEO178" s="0"/>
+      <c r="AEP178" s="0"/>
+      <c r="AEQ178" s="0"/>
+      <c r="AER178" s="0"/>
+      <c r="AES178" s="0"/>
+      <c r="AET178" s="0"/>
+      <c r="AEU178" s="0"/>
+      <c r="AEV178" s="0"/>
+      <c r="AEW178" s="0"/>
+      <c r="AEX178" s="0"/>
+      <c r="AEY178" s="0"/>
+      <c r="AEZ178" s="0"/>
+      <c r="AFA178" s="0"/>
+      <c r="AFB178" s="0"/>
+      <c r="AFC178" s="0"/>
+      <c r="AFD178" s="0"/>
+      <c r="AFE178" s="0"/>
+      <c r="AFF178" s="0"/>
+      <c r="AFG178" s="0"/>
+      <c r="AFH178" s="0"/>
+      <c r="AFI178" s="0"/>
+      <c r="AFJ178" s="0"/>
+      <c r="AFK178" s="0"/>
+      <c r="AFL178" s="0"/>
+      <c r="AFM178" s="0"/>
+      <c r="AFN178" s="0"/>
+      <c r="AFO178" s="0"/>
+      <c r="AFP178" s="0"/>
+      <c r="AFQ178" s="0"/>
+      <c r="AFR178" s="0"/>
+      <c r="AFS178" s="0"/>
+      <c r="AFT178" s="0"/>
+      <c r="AFU178" s="0"/>
+      <c r="AFV178" s="0"/>
+      <c r="AFW178" s="0"/>
+      <c r="AFX178" s="0"/>
+      <c r="AFY178" s="0"/>
+      <c r="AFZ178" s="0"/>
+      <c r="AGA178" s="0"/>
+      <c r="AGB178" s="0"/>
+      <c r="AGC178" s="0"/>
+      <c r="AGD178" s="0"/>
+      <c r="AGE178" s="0"/>
+      <c r="AGF178" s="0"/>
+      <c r="AGG178" s="0"/>
+      <c r="AGH178" s="0"/>
+      <c r="AGI178" s="0"/>
+      <c r="AGJ178" s="0"/>
+      <c r="AGK178" s="0"/>
+      <c r="AGL178" s="0"/>
+      <c r="AGM178" s="0"/>
+      <c r="AGN178" s="0"/>
+      <c r="AGO178" s="0"/>
+      <c r="AGP178" s="0"/>
+      <c r="AGQ178" s="0"/>
+      <c r="AGR178" s="0"/>
+      <c r="AGS178" s="0"/>
+      <c r="AGT178" s="0"/>
+      <c r="AGU178" s="0"/>
+      <c r="AGV178" s="0"/>
+      <c r="AGW178" s="0"/>
+      <c r="AGX178" s="0"/>
+      <c r="AGY178" s="0"/>
+      <c r="AGZ178" s="0"/>
+      <c r="AHA178" s="0"/>
+      <c r="AHB178" s="0"/>
+      <c r="AHC178" s="0"/>
+      <c r="AHD178" s="0"/>
+      <c r="AHE178" s="0"/>
+      <c r="AHF178" s="0"/>
+      <c r="AHG178" s="0"/>
+      <c r="AHH178" s="0"/>
+      <c r="AHI178" s="0"/>
+      <c r="AHJ178" s="0"/>
+      <c r="AHK178" s="0"/>
+      <c r="AHL178" s="0"/>
+      <c r="AHM178" s="0"/>
+      <c r="AHN178" s="0"/>
+      <c r="AHO178" s="0"/>
+      <c r="AHP178" s="0"/>
+      <c r="AHQ178" s="0"/>
+      <c r="AHR178" s="0"/>
+      <c r="AHS178" s="0"/>
+      <c r="AHT178" s="0"/>
+      <c r="AHU178" s="0"/>
+      <c r="AHV178" s="0"/>
+      <c r="AHW178" s="0"/>
+      <c r="AHX178" s="0"/>
+      <c r="AHY178" s="0"/>
+      <c r="AHZ178" s="0"/>
+      <c r="AIA178" s="0"/>
+      <c r="AIB178" s="0"/>
+      <c r="AIC178" s="0"/>
+      <c r="AID178" s="0"/>
+      <c r="AIE178" s="0"/>
+      <c r="AIF178" s="0"/>
+      <c r="AIG178" s="0"/>
+      <c r="AIH178" s="0"/>
+      <c r="AII178" s="0"/>
+      <c r="AIJ178" s="0"/>
+      <c r="AIK178" s="0"/>
+      <c r="AIL178" s="0"/>
+      <c r="AIM178" s="0"/>
+      <c r="AIN178" s="0"/>
+      <c r="AIO178" s="0"/>
+      <c r="AIP178" s="0"/>
+      <c r="AIQ178" s="0"/>
+      <c r="AIR178" s="0"/>
+      <c r="AIS178" s="0"/>
+      <c r="AIT178" s="0"/>
+      <c r="AIU178" s="0"/>
+      <c r="AIV178" s="0"/>
+      <c r="AIW178" s="0"/>
+      <c r="AIX178" s="0"/>
+      <c r="AIY178" s="0"/>
+      <c r="AIZ178" s="0"/>
+      <c r="AJA178" s="0"/>
+      <c r="AJB178" s="0"/>
+      <c r="AJC178" s="0"/>
+      <c r="AJD178" s="0"/>
+      <c r="AJE178" s="0"/>
+      <c r="AJF178" s="0"/>
+      <c r="AJG178" s="0"/>
+      <c r="AJH178" s="0"/>
+      <c r="AJI178" s="0"/>
+      <c r="AJJ178" s="0"/>
+      <c r="AJK178" s="0"/>
+      <c r="AJL178" s="0"/>
+      <c r="AJM178" s="0"/>
+      <c r="AJN178" s="0"/>
+      <c r="AJO178" s="0"/>
+      <c r="AJP178" s="0"/>
+      <c r="AJQ178" s="0"/>
+      <c r="AJR178" s="0"/>
+      <c r="AJS178" s="0"/>
+      <c r="AJT178" s="0"/>
+      <c r="AJU178" s="0"/>
+      <c r="AJV178" s="0"/>
+      <c r="AJW178" s="0"/>
+      <c r="AJX178" s="0"/>
+      <c r="AJY178" s="0"/>
+      <c r="AJZ178" s="0"/>
+      <c r="AKA178" s="0"/>
+      <c r="AKB178" s="0"/>
+      <c r="AKC178" s="0"/>
+      <c r="AKD178" s="0"/>
+      <c r="AKE178" s="0"/>
+      <c r="AKF178" s="0"/>
+      <c r="AKG178" s="0"/>
+      <c r="AKH178" s="0"/>
+      <c r="AKI178" s="0"/>
+      <c r="AKJ178" s="0"/>
+      <c r="AKK178" s="0"/>
+      <c r="AKL178" s="0"/>
+      <c r="AKM178" s="0"/>
+      <c r="AKN178" s="0"/>
+      <c r="AKO178" s="0"/>
+      <c r="AKP178" s="0"/>
+      <c r="AKQ178" s="0"/>
+      <c r="AKR178" s="0"/>
+      <c r="AKS178" s="0"/>
+      <c r="AKT178" s="0"/>
+      <c r="AKU178" s="0"/>
+      <c r="AKV178" s="0"/>
+      <c r="AKW178" s="0"/>
+      <c r="AKX178" s="0"/>
+      <c r="AKY178" s="0"/>
+      <c r="AKZ178" s="0"/>
+      <c r="ALA178" s="0"/>
+      <c r="ALB178" s="0"/>
+      <c r="ALC178" s="0"/>
+      <c r="ALD178" s="0"/>
+      <c r="ALE178" s="0"/>
+      <c r="ALF178" s="0"/>
+      <c r="ALG178" s="0"/>
+      <c r="ALH178" s="0"/>
+      <c r="ALI178" s="0"/>
+      <c r="ALJ178" s="0"/>
+      <c r="ALK178" s="0"/>
+      <c r="ALL178" s="0"/>
+      <c r="ALM178" s="0"/>
+      <c r="ALN178" s="0"/>
+      <c r="ALO178" s="0"/>
+      <c r="ALP178" s="0"/>
+      <c r="ALQ178" s="0"/>
+      <c r="ALR178" s="0"/>
+      <c r="ALS178" s="0"/>
+      <c r="ALT178" s="0"/>
+      <c r="ALU178" s="0"/>
+      <c r="ALV178" s="0"/>
+      <c r="ALW178" s="0"/>
+      <c r="ALX178" s="0"/>
+      <c r="ALY178" s="0"/>
+      <c r="ALZ178" s="0"/>
+      <c r="AMA178" s="0"/>
+      <c r="AMB178" s="0"/>
+      <c r="AMC178" s="0"/>
+      <c r="AMD178" s="0"/>
+      <c r="AME178" s="0"/>
+      <c r="AMF178" s="0"/>
+      <c r="AMG178" s="0"/>
+      <c r="AMH178" s="0"/>
+      <c r="AMI178" s="0"/>
+      <c r="AMJ178" s="0"/>
+    </row>
+    <row r="179" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="31" t="n">
         <v>178</v>
       </c>
-      <c r="B179" s="30" t="s">
+      <c r="B179" s="31" t="s">
         <v>182</v>
       </c>
       <c r="C179" s="17" t="n">
         <v>0.676</v>
       </c>
-      <c r="D179" s="28" t="n">
+      <c r="D179" s="38" t="n">
         <v>73688</v>
       </c>
-      <c r="E179" s="28" t="n">
+      <c r="E179" s="38" t="n">
         <v>24730</v>
       </c>
       <c r="F179" s="17" t="n">
         <f aca="false">E179/D179</f>
         <v>0.335604168928455</v>
       </c>
-      <c r="G179" s="28" t="n">
+      <c r="G179" s="38" t="n">
         <v>50000</v>
       </c>
       <c r="H179" s="18" t="n">
@@ -16342,25 +17398,25 @@
         <f aca="false">I179-M179</f>
         <v>-7094.2998</v>
       </c>
-      <c r="K179" s="30" t="n">
+      <c r="K179" s="31" t="n">
         <v>322</v>
       </c>
-      <c r="L179" s="30" t="s">
+      <c r="L179" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="M179" s="28" t="n">
+      <c r="M179" s="38" t="n">
         <v>14037</v>
       </c>
-      <c r="N179" s="28" t="n">
+      <c r="N179" s="38" t="n">
         <v>73688</v>
       </c>
-      <c r="O179" s="28" t="n">
+      <c r="O179" s="38" t="n">
         <v>2285</v>
       </c>
-      <c r="P179" s="28" t="n">
+      <c r="P179" s="38" t="n">
         <v>1034352102</v>
       </c>
-      <c r="R179" s="30" t="n">
+      <c r="R179" s="31" t="n">
         <v>20220929</v>
       </c>
     </row>
@@ -16422,27 +17478,27 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="181" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="30" t="n">
+    <row r="181" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="31" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="30" t="s">
+      <c r="B181" s="31" t="s">
         <v>186</v>
       </c>
       <c r="C181" s="17" t="n">
         <v>0.479</v>
       </c>
-      <c r="D181" s="28" t="n">
+      <c r="D181" s="38" t="n">
         <v>81644</v>
       </c>
-      <c r="E181" s="28" t="n">
+      <c r="E181" s="38" t="n">
         <v>34944</v>
       </c>
       <c r="F181" s="17" t="n">
         <f aca="false">E181/D181</f>
         <v>0.428004507373475</v>
       </c>
-      <c r="G181" s="28" t="n">
+      <c r="G181" s="38" t="n">
         <v>50000</v>
       </c>
       <c r="H181" s="18" t="n">
@@ -16457,49 +17513,49 @@
         <f aca="false">I181-M181</f>
         <v>-3144.89728</v>
       </c>
-      <c r="K181" s="30" t="n">
+      <c r="K181" s="31" t="n">
         <v>320</v>
       </c>
-      <c r="L181" s="30" t="s">
+      <c r="L181" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="M181" s="28" t="n">
+      <c r="M181" s="38" t="n">
         <v>10444</v>
       </c>
-      <c r="N181" s="28" t="n">
+      <c r="N181" s="38" t="n">
         <v>81644</v>
       </c>
-      <c r="O181" s="28" t="n">
+      <c r="O181" s="38" t="n">
         <v>2771</v>
       </c>
-      <c r="P181" s="28" t="n">
+      <c r="P181" s="38" t="n">
         <v>852690764</v>
       </c>
-      <c r="R181" s="30" t="n">
+      <c r="R181" s="31" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="182" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="30" t="n">
+    <row r="182" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="31" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="30" t="s">
+      <c r="B182" s="31" t="s">
         <v>188</v>
       </c>
       <c r="C182" s="17" t="n">
         <v>0.455</v>
       </c>
-      <c r="D182" s="28" t="n">
+      <c r="D182" s="38" t="n">
         <v>87867</v>
       </c>
-      <c r="E182" s="28" t="n">
+      <c r="E182" s="38" t="n">
         <v>36712</v>
       </c>
       <c r="F182" s="17" t="n">
         <f aca="false">E182/D182</f>
         <v>0.417813285989052</v>
       </c>
-      <c r="G182" s="28" t="n">
+      <c r="G182" s="38" t="n">
         <v>50000</v>
       </c>
       <c r="H182" s="18" t="n">
@@ -16514,26 +17570,26 @@
         <f aca="false">I182-M182</f>
         <v>-3364.78736</v>
       </c>
-      <c r="K182" s="30" t="n">
+      <c r="K182" s="31" t="n">
         <v>319</v>
       </c>
-      <c r="L182" s="30" t="s">
+      <c r="L182" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="M182" s="28" t="n">
+      <c r="M182" s="38" t="n">
         <v>12661</v>
       </c>
-      <c r="N182" s="28" t="n">
+      <c r="N182" s="38" t="n">
         <v>87867</v>
       </c>
-      <c r="O182" s="28" t="n">
+      <c r="O182" s="38" t="n">
         <v>2819</v>
       </c>
-      <c r="P182" s="28" t="n">
+      <c r="P182" s="38" t="n">
         <v>1112489049</v>
       </c>
-      <c r="Q182" s="30"/>
-      <c r="R182" s="30" t="n">
+      <c r="Q182" s="31"/>
+      <c r="R182" s="31" t="n">
         <v>20220929</v>
       </c>
     </row>
@@ -16544,20 +17600,20 @@
       <c r="B183" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C183" s="24" t="n">
+      <c r="C183" s="28" t="n">
         <v>0.852</v>
       </c>
-      <c r="D183" s="25" t="n">
+      <c r="D183" s="29" t="n">
         <v>112309</v>
       </c>
-      <c r="E183" s="25" t="n">
+      <c r="E183" s="29" t="n">
         <v>50088</v>
       </c>
       <c r="F183" s="7" t="n">
         <f aca="false">E183/D183</f>
         <v>0.445983848133275</v>
       </c>
-      <c r="G183" s="25" t="n">
+      <c r="G183" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H183" s="8" t="n">
@@ -16572,108 +17628,108 @@
         <f aca="false">I183-M183</f>
         <v>17.5964800000002</v>
       </c>
-      <c r="K183" s="25" t="n">
+      <c r="K183" s="29" t="n">
         <v>353</v>
       </c>
-      <c r="L183" s="25" t="s">
+      <c r="L183" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="M183" s="25" t="n">
+      <c r="M183" s="29" t="n">
         <v>9998</v>
       </c>
-      <c r="N183" s="25" t="n">
+      <c r="N183" s="29" t="n">
         <v>112309</v>
       </c>
-      <c r="O183" s="25" t="n">
+      <c r="O183" s="29" t="n">
         <v>3582</v>
       </c>
-      <c r="P183" s="25" t="n">
+      <c r="P183" s="29" t="n">
         <v>1122863682</v>
       </c>
-      <c r="Q183" s="25"/>
+      <c r="Q183" s="29"/>
       <c r="R183" s="6" t="n">
         <v>20221005</v>
       </c>
     </row>
-    <row r="184" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10" t="n">
+    <row r="184" s="39" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="3" t="n">
         <v>183</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C184" s="34" t="n">
+      <c r="C184" s="22" t="n">
         <v>0.799</v>
       </c>
-      <c r="D184" s="12" t="n">
+      <c r="D184" s="4" t="n">
         <v>180491</v>
       </c>
-      <c r="E184" s="12" t="n">
+      <c r="E184" s="4" t="n">
         <v>53466</v>
       </c>
-      <c r="F184" s="11" t="n">
+      <c r="F184" s="5" t="n">
         <f aca="false">E184/D184</f>
         <v>0.296225296552183</v>
       </c>
-      <c r="G184" s="12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H184" s="14" t="n">
+      <c r="G184" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H184" s="1" t="n">
         <f aca="false">(G184-E184)/F184</f>
         <v>-11700.553735084</v>
       </c>
-      <c r="I184" s="14" t="n">
+      <c r="I184" s="1" t="n">
         <f aca="false">E184*M184/G184</f>
         <v>23217.07584</v>
       </c>
-      <c r="J184" s="14" t="n">
+      <c r="J184" s="1" t="n">
         <f aca="false">I184-M184</f>
         <v>1505.07584</v>
       </c>
-      <c r="K184" s="12" t="n">
+      <c r="K184" s="4" t="n">
         <v>325</v>
       </c>
-      <c r="L184" s="12" t="s">
+      <c r="L184" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M184" s="12" t="n">
+      <c r="M184" s="4" t="n">
         <v>21712</v>
       </c>
-      <c r="N184" s="12" t="n">
+      <c r="N184" s="4" t="n">
         <v>180491</v>
       </c>
-      <c r="O184" s="12" t="n">
+      <c r="O184" s="4" t="n">
         <v>2910</v>
       </c>
-      <c r="P184" s="12" t="n">
+      <c r="P184" s="4" t="n">
         <v>3918820996</v>
       </c>
-      <c r="Q184" s="12"/>
-      <c r="R184" s="10" t="n">
+      <c r="Q184" s="4"/>
+      <c r="R184" s="3" t="n">
         <v>20221005</v>
       </c>
     </row>
-    <row r="185" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" s="39" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C185" s="24" t="n">
+      <c r="C185" s="28" t="n">
         <v>0.967</v>
       </c>
-      <c r="D185" s="25" t="n">
+      <c r="D185" s="29" t="n">
         <v>225283</v>
       </c>
-      <c r="E185" s="25" t="n">
+      <c r="E185" s="29" t="n">
         <v>44146</v>
       </c>
       <c r="F185" s="7" t="n">
         <f aca="false">E185/D185</f>
         <v>0.195957972860802</v>
       </c>
-      <c r="G185" s="25" t="n">
+      <c r="G185" s="29" t="n">
         <v>50000</v>
       </c>
       <c r="H185" s="8" t="n">
@@ -16688,37 +17744,318 @@
         <f aca="false">I185-M185</f>
         <v>-547.46608</v>
       </c>
-      <c r="K185" s="25" t="n">
+      <c r="K185" s="29" t="n">
         <v>354</v>
       </c>
-      <c r="L185" s="25" t="s">
+      <c r="L185" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="M185" s="25" t="n">
+      <c r="M185" s="29" t="n">
         <v>4676</v>
       </c>
-      <c r="N185" s="25" t="n">
+      <c r="N185" s="29" t="n">
         <v>225283</v>
       </c>
-      <c r="O185" s="25" t="n">
+      <c r="O185" s="29" t="n">
         <v>3220</v>
       </c>
-      <c r="P185" s="25" t="n">
+      <c r="P185" s="29" t="n">
         <v>1053424567</v>
       </c>
-      <c r="Q185" s="25"/>
+      <c r="Q185" s="29"/>
       <c r="R185" s="6" t="n">
         <v>20221005</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="0"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="0"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="0"/>
+    <row r="186" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="15" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C186" s="11" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="D186" s="14" t="n">
+        <v>168791</v>
+      </c>
+      <c r="E186" s="14" t="n">
+        <v>55045</v>
+      </c>
+      <c r="F186" s="11" t="n">
+        <f aca="false">E186/D186</f>
+        <v>0.326113359124598</v>
+      </c>
+      <c r="G186" s="12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H186" s="14" t="n">
+        <f aca="false">(G186-E186)/F186</f>
+        <v>-15470.0807521119</v>
+      </c>
+      <c r="I186" s="14" t="n">
+        <f aca="false">E186*M186/G186</f>
+        <v>25559.5953</v>
+      </c>
+      <c r="J186" s="14" t="n">
+        <f aca="false">I186-M186</f>
+        <v>2342.5953</v>
+      </c>
+      <c r="K186" s="15" t="n">
+        <v>355</v>
+      </c>
+      <c r="L186" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="M186" s="14" t="n">
+        <v>23217</v>
+      </c>
+      <c r="N186" s="14" t="n">
+        <v>168791</v>
+      </c>
+      <c r="O186" s="14" t="n">
+        <v>2857</v>
+      </c>
+      <c r="P186" s="14" t="n">
+        <v>3918820996</v>
+      </c>
+      <c r="Q186" s="15"/>
+      <c r="R186" s="15" t="n">
+        <v>20221010</v>
+      </c>
+    </row>
+    <row r="187" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C187" s="5" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="D187" s="1" t="n">
+        <v>59560</v>
+      </c>
+      <c r="E187" s="1" t="n">
+        <v>24976</v>
+      </c>
+      <c r="F187" s="5" t="n">
+        <f aca="false">E187/D187</f>
+        <v>0.419341840161182</v>
+      </c>
+      <c r="G187" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H187" s="1" t="n">
+        <f aca="false">(G187-E187)/F187</f>
+        <v>59674.465086483</v>
+      </c>
+      <c r="I187" s="1" t="n">
+        <f aca="false">E187*M187/G187</f>
+        <v>5049.64768</v>
+      </c>
+      <c r="J187" s="1" t="n">
+        <f aca="false">I187-M187</f>
+        <v>-5059.35232</v>
+      </c>
+      <c r="K187" s="0" t="n">
+        <v>314</v>
+      </c>
+      <c r="L187" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="M187" s="1" t="n">
+        <v>10109</v>
+      </c>
+      <c r="N187" s="1" t="n">
+        <v>59560</v>
+      </c>
+      <c r="O187" s="1" t="n">
+        <v>2163</v>
+      </c>
+      <c r="P187" s="1" t="n">
+        <v>602093503</v>
+      </c>
+      <c r="Q187" s="0"/>
+      <c r="R187" s="0" t="n">
+        <v>20221010</v>
+      </c>
+    </row>
+    <row r="188" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="15" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C188" s="11" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="D188" s="14" t="n">
+        <v>109410</v>
+      </c>
+      <c r="E188" s="14" t="n">
+        <v>45857</v>
+      </c>
+      <c r="F188" s="11" t="n">
+        <f aca="false">E188/D188</f>
+        <v>0.4191298784389</v>
+      </c>
+      <c r="G188" s="12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H188" s="14" t="n">
+        <f aca="false">(G188-E188)/F188</f>
+        <v>9884.7641581438</v>
+      </c>
+      <c r="I188" s="14" t="n">
+        <f aca="false">E188*M188/G188</f>
+        <v>9402.51928</v>
+      </c>
+      <c r="J188" s="14" t="n">
+        <f aca="false">I188-M188</f>
+        <v>-849.48072</v>
+      </c>
+      <c r="K188" s="15" t="n">
+        <v>335</v>
+      </c>
+      <c r="L188" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="M188" s="14" t="n">
+        <v>10252</v>
+      </c>
+      <c r="N188" s="14" t="n">
+        <v>109410</v>
+      </c>
+      <c r="O188" s="14" t="n">
+        <v>2358</v>
+      </c>
+      <c r="P188" s="14" t="n">
+        <v>1121674816</v>
+      </c>
+      <c r="Q188" s="15"/>
+      <c r="R188" s="15" t="n">
+        <v>20221010</v>
+      </c>
+    </row>
+    <row r="189" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="15" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C189" s="11" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="D189" s="14" t="n">
+        <v>116512</v>
+      </c>
+      <c r="E189" s="14" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F189" s="11" t="n">
+        <f aca="false">E189/D189</f>
+        <v>0.383162249382038</v>
+      </c>
+      <c r="G189" s="12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H189" s="14" t="n">
+        <f aca="false">(G189-E189)/F189</f>
+        <v>13981.0224223282</v>
+      </c>
+      <c r="I189" s="14" t="n">
+        <f aca="false">E189*M189/G189</f>
+        <v>18367.91592</v>
+      </c>
+      <c r="J189" s="14" t="n">
+        <f aca="false">I189-M189</f>
+        <v>-2204.08408</v>
+      </c>
+      <c r="K189" s="15" t="n">
+        <v>337</v>
+      </c>
+      <c r="L189" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="M189" s="14" t="n">
+        <v>20572</v>
+      </c>
+      <c r="N189" s="14" t="n">
+        <v>116512</v>
+      </c>
+      <c r="O189" s="14" t="n">
+        <v>1632</v>
+      </c>
+      <c r="P189" s="14" t="n">
+        <v>2396877802</v>
+      </c>
+      <c r="Q189" s="15"/>
+      <c r="R189" s="15" t="n">
+        <v>20221010</v>
+      </c>
+    </row>
+    <row r="190" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C190" s="5" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="D190" s="1" t="n">
+        <v>89988</v>
+      </c>
+      <c r="E190" s="1" t="n">
+        <v>34135</v>
+      </c>
+      <c r="F190" s="5" t="n">
+        <f aca="false">E190/D190</f>
+        <v>0.379328354891763</v>
+      </c>
+      <c r="G190" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H190" s="1" t="n">
+        <f aca="false">(G190-E190)/F190</f>
+        <v>41823.9232459353</v>
+      </c>
+      <c r="I190" s="1" t="n">
+        <f aca="false">E190*M190/G190</f>
+        <v>13211.6104</v>
+      </c>
+      <c r="J190" s="1" t="n">
+        <f aca="false">I190-M190</f>
+        <v>-6140.3896</v>
+      </c>
+      <c r="K190" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="L190" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="M190" s="1" t="n">
+        <v>19352</v>
+      </c>
+      <c r="N190" s="1" t="n">
+        <v>89988</v>
+      </c>
+      <c r="O190" s="1" t="n">
+        <v>1663</v>
+      </c>
+      <c r="P190" s="1" t="n">
+        <v>1741441818</v>
+      </c>
+      <c r="Q190" s="0"/>
+      <c r="R190" s="0" t="n">
+        <v>20221010</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C191" s="0"/>
@@ -16731,23 +18068,24 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C194" s="0"/>
+      <c r="F194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C195" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R185"/>
-  <conditionalFormatting sqref="H190:H198 H2:H187">
+  <autoFilter ref="A1:R190"/>
+  <conditionalFormatting sqref="H2:H198">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F190:F198 F2:F187">
+  <conditionalFormatting sqref="F195:F198 F2:F185 F187:F193">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>30%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J190:J198 J2:J187">
+  <conditionalFormatting sqref="J2:J198">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>50</formula>
     </cfRule>
@@ -16757,6 +18095,11 @@
     <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
       <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F186:F190">
+    <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>30%</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16781,7 +18124,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.39"/>
@@ -16814,7 +18157,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>96</v>
@@ -17434,7 +18777,7 @@
         <f aca="false">E14/D14</f>
         <v>0.336224045534027</v>
       </c>
-      <c r="G14" s="28" t="n">
+      <c r="G14" s="38" t="n">
         <v>50000</v>
       </c>
       <c r="H14" s="18" t="n">
@@ -17897,7 +19240,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.58"/>
@@ -17932,7 +19275,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>
@@ -19069,7 +20412,7 @@
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.29"/>
@@ -19105,7 +20448,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>

--- a/AggrFiles/STARR.xlsx
+++ b/AggrFiles/STARR.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Final_22_2nd" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$190</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$193</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="213">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -645,6 +645,24 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_083_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_073_3_combine_force25760)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_3_combine_force25760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_081_2_combine_force9353)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_081_2_combine_force9353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_083_2_combine_force18268)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_083_2_combine_force18268</t>
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
@@ -761,7 +779,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -858,22 +876,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -894,6 +896,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -902,23 +924,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1100,7 +1110,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3044,14 +3054,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ195"/>
+  <dimension ref="A1:AMJ201"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D158" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A158" activeCellId="0" sqref="A158"/>
-      <selection pane="bottomRight" activeCell="B193" activeCellId="0" sqref="B193"/>
+      <selection pane="bottomRight" activeCell="J192" activeCellId="0" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3063,7 +3073,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="3" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="7.6"/>
@@ -3222,7 +3232,7 @@
         <v>1270199026</v>
       </c>
     </row>
-    <row r="4" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -3257,8 +3267,6 @@
         <f aca="false">I4-M4</f>
         <v>4425.3774</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
       <c r="M4" s="4" t="n">
         <v>7795</v>
       </c>
@@ -3271,8 +3279,6 @@
       <c r="P4" s="4" t="n">
         <v>1301343516</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
     </row>
     <row r="5" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
@@ -3326,7 +3332,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -3361,8 +3367,6 @@
         <f aca="false">I6-M6</f>
         <v>504.56</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
       <c r="M6" s="4" t="n">
         <v>7000</v>
       </c>
@@ -3375,8 +3379,6 @@
       <c r="P6" s="4" t="n">
         <v>589206059</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
     </row>
     <row r="7" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
@@ -4115,56 +4117,56 @@
       </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="n">
+      <c r="A22" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="22" t="n">
         <v>0.054</v>
       </c>
-      <c r="D22" s="26" t="n">
+      <c r="D22" s="4" t="n">
         <v>216040</v>
       </c>
-      <c r="E22" s="26" t="n">
+      <c r="E22" s="4" t="n">
         <v>51810</v>
       </c>
-      <c r="F22" s="27" t="n">
+      <c r="F22" s="23" t="n">
         <f aca="false">E22/D22</f>
         <v>0.239816700610998</v>
       </c>
-      <c r="G22" s="26" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H22" s="26" t="n">
+      <c r="G22" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H22" s="4" t="n">
         <f aca="false">(G22-E22)/F22</f>
         <v>-7547.43099787686</v>
       </c>
-      <c r="I22" s="26" t="n">
+      <c r="I22" s="4" t="n">
         <f aca="false">E22*M22/G22</f>
         <v>2072.4</v>
       </c>
-      <c r="J22" s="26" t="n">
+      <c r="J22" s="4" t="n">
         <f aca="false">I22-M22</f>
         <v>72.4000000000001</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26" t="n">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="N22" s="26" t="n">
+      <c r="N22" s="4" t="n">
         <v>216040</v>
       </c>
-      <c r="O22" s="26" t="n">
+      <c r="O22" s="4" t="n">
         <v>2356</v>
       </c>
-      <c r="P22" s="26" t="n">
+      <c r="P22" s="4" t="n">
         <v>432080145</v>
       </c>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
@@ -4273,46 +4275,46 @@
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="28" t="n">
+      <c r="C25" s="24" t="n">
         <v>0.037</v>
       </c>
-      <c r="D25" s="29" t="n">
+      <c r="D25" s="25" t="n">
         <v>222245</v>
       </c>
-      <c r="E25" s="29" t="n">
+      <c r="E25" s="25" t="n">
         <v>75201</v>
       </c>
-      <c r="F25" s="30" t="n">
+      <c r="F25" s="26" t="n">
         <f aca="false">E25/D25</f>
         <v>0.338369817093748</v>
       </c>
-      <c r="G25" s="29" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H25" s="29" t="n">
+      <c r="G25" s="25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H25" s="25" t="n">
         <f aca="false">(G25-E25)/F25</f>
         <v>-74477.6830760229</v>
       </c>
-      <c r="I25" s="29" t="n">
+      <c r="I25" s="25" t="n">
         <f aca="false">E25*M25/G25</f>
         <v>3008.04</v>
       </c>
-      <c r="J25" s="29" t="n">
+      <c r="J25" s="25" t="n">
         <f aca="false">I25-M25</f>
         <v>1008.04</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29" t="n">
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25" t="n">
         <v>2000</v>
       </c>
-      <c r="N25" s="29" t="n">
+      <c r="N25" s="25" t="n">
         <v>222245</v>
       </c>
-      <c r="O25" s="29" t="n">
+      <c r="O25" s="25" t="n">
         <v>2010</v>
       </c>
-      <c r="P25" s="29" t="n">
+      <c r="P25" s="25" t="n">
         <v>444489382</v>
       </c>
       <c r="Q25" s="6"/>
@@ -4425,46 +4427,46 @@
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="28" t="n">
+      <c r="C28" s="24" t="n">
         <v>0.018</v>
       </c>
-      <c r="D28" s="29" t="n">
+      <c r="D28" s="25" t="n">
         <v>479310</v>
       </c>
-      <c r="E28" s="29" t="n">
+      <c r="E28" s="25" t="n">
         <v>152280</v>
       </c>
-      <c r="F28" s="30" t="n">
+      <c r="F28" s="26" t="n">
         <f aca="false">E28/D28</f>
         <v>0.317706703386118</v>
       </c>
-      <c r="G28" s="29" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H28" s="29" t="n">
+      <c r="G28" s="25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H28" s="25" t="n">
         <f aca="false">(G28-E28)/F28</f>
         <v>-321932.143420016</v>
       </c>
-      <c r="I28" s="29" t="n">
+      <c r="I28" s="25" t="n">
         <f aca="false">E28*M28/G28</f>
         <v>4568.4</v>
       </c>
-      <c r="J28" s="29" t="n">
+      <c r="J28" s="25" t="n">
         <f aca="false">I28-M28</f>
         <v>3068.4</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29" t="n">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25" t="n">
         <v>1500</v>
       </c>
-      <c r="N28" s="29" t="n">
+      <c r="N28" s="25" t="n">
         <v>479310</v>
       </c>
-      <c r="O28" s="29" t="n">
+      <c r="O28" s="25" t="n">
         <v>1818</v>
       </c>
-      <c r="P28" s="29" t="n">
+      <c r="P28" s="25" t="n">
         <v>718965036</v>
       </c>
     </row>
@@ -8228,7 +8230,7 @@
         <f aca="false">E105/D105</f>
         <v>0.486312164370768</v>
       </c>
-      <c r="G105" s="29" t="n">
+      <c r="G105" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H105" s="8" t="n">
@@ -8394,7 +8396,7 @@
         <f aca="false">E108/D108</f>
         <v>0.469974234074966</v>
       </c>
-      <c r="G108" s="29" t="n">
+      <c r="G108" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H108" s="8" t="n">
@@ -8450,7 +8452,7 @@
         <f aca="false">E109/D109</f>
         <v>0.515599463647442</v>
       </c>
-      <c r="G109" s="29" t="n">
+      <c r="G109" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H109" s="8" t="n">
@@ -8496,17 +8498,17 @@
       <c r="C110" s="7" t="n">
         <v>0.917</v>
       </c>
-      <c r="D110" s="29" t="n">
+      <c r="D110" s="25" t="n">
         <v>216040</v>
       </c>
-      <c r="E110" s="29" t="n">
+      <c r="E110" s="25" t="n">
         <v>51810</v>
       </c>
       <c r="F110" s="9" t="n">
         <f aca="false">E110/D110</f>
         <v>0.239816700610998</v>
       </c>
-      <c r="G110" s="29" t="n">
+      <c r="G110" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H110" s="8" t="n">
@@ -8525,16 +8527,16 @@
       <c r="L110" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="M110" s="29" t="n">
+      <c r="M110" s="25" t="n">
         <v>2000</v>
       </c>
-      <c r="N110" s="29" t="n">
+      <c r="N110" s="25" t="n">
         <v>216040</v>
       </c>
-      <c r="O110" s="29" t="n">
+      <c r="O110" s="25" t="n">
         <v>2356</v>
       </c>
-      <c r="P110" s="29" t="n">
+      <c r="P110" s="25" t="n">
         <v>432080145</v>
       </c>
       <c r="R110" s="6" t="s">
@@ -8661,17 +8663,17 @@
       <c r="C113" s="7" t="n">
         <v>0.929</v>
       </c>
-      <c r="D113" s="29" t="n">
+      <c r="D113" s="25" t="n">
         <v>97871</v>
       </c>
-      <c r="E113" s="29" t="n">
+      <c r="E113" s="25" t="n">
         <v>51102</v>
       </c>
       <c r="F113" s="9" t="n">
         <f aca="false">E113/D113</f>
         <v>0.52213628143168</v>
       </c>
-      <c r="G113" s="29" t="n">
+      <c r="G113" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H113" s="8" t="n">
@@ -8690,16 +8692,16 @@
       <c r="L113" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="M113" s="29" t="n">
+      <c r="M113" s="25" t="n">
         <v>15847</v>
       </c>
-      <c r="N113" s="29" t="n">
+      <c r="N113" s="25" t="n">
         <v>97871</v>
       </c>
-      <c r="O113" s="29" t="n">
+      <c r="O113" s="25" t="n">
         <v>1959</v>
       </c>
-      <c r="P113" s="29" t="n">
+      <c r="P113" s="25" t="n">
         <v>1550968370</v>
       </c>
       <c r="Q113" s="6"/>
@@ -9113,7 +9115,7 @@
         <f aca="false">E121/D121</f>
         <v>0.50050539926542</v>
       </c>
-      <c r="G121" s="29" t="n">
+      <c r="G121" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H121" s="8" t="n">
@@ -10432,7 +10434,7 @@
       <c r="AMI126" s="0"/>
       <c r="AMJ126" s="0"/>
     </row>
-    <row r="127" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="n">
         <v>126</v>
       </c>
@@ -10508,7 +10510,7 @@
         <f aca="false">E128/D128</f>
         <v>0.47594970394518</v>
       </c>
-      <c r="G128" s="29" t="n">
+      <c r="G128" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H128" s="8" t="n">
@@ -10539,8 +10541,8 @@
       <c r="P128" s="8" t="n">
         <v>1042384328</v>
       </c>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="32" t="s">
+      <c r="Q128" s="28"/>
+      <c r="R128" s="28" t="s">
         <v>143</v>
       </c>
       <c r="S128" s="0"/>
@@ -12612,7 +12614,7 @@
       <c r="AMI129" s="0"/>
       <c r="AMJ129" s="0"/>
     </row>
-    <row r="130" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="n">
         <v>129</v>
       </c>
@@ -12668,59 +12670,59 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="24" t="n">
+    <row r="131" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="n">
         <v>130</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="B131" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C131" s="33" t="n">
+      <c r="C131" s="5" t="n">
         <v>0.988</v>
       </c>
-      <c r="D131" s="34" t="n">
+      <c r="D131" s="1" t="n">
         <v>208533</v>
       </c>
-      <c r="E131" s="34" t="n">
+      <c r="E131" s="1" t="n">
         <v>49752</v>
       </c>
-      <c r="F131" s="35" t="n">
+      <c r="F131" s="2" t="n">
         <f aca="false">E131/D131</f>
         <v>0.238580944023248</v>
       </c>
-      <c r="G131" s="26" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H131" s="34" t="n">
+      <c r="G131" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H131" s="1" t="n">
         <f aca="false">(G131-E131)/F131</f>
         <v>1039.47949831163</v>
       </c>
-      <c r="I131" s="34" t="n">
+      <c r="I131" s="1" t="n">
         <f aca="false">E131*M131/G131</f>
         <v>2061.72288</v>
       </c>
-      <c r="J131" s="34" t="n">
+      <c r="J131" s="1" t="n">
         <f aca="false">I131-M131</f>
         <v>-10.2771200000002</v>
       </c>
-      <c r="K131" s="34"/>
-      <c r="L131" s="24" t="s">
+      <c r="K131" s="1"/>
+      <c r="L131" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M131" s="34" t="n">
+      <c r="M131" s="1" t="n">
         <v>2072</v>
       </c>
-      <c r="N131" s="34" t="n">
+      <c r="N131" s="1" t="n">
         <v>208533</v>
       </c>
-      <c r="O131" s="34" t="n">
+      <c r="O131" s="1" t="n">
         <v>2300</v>
       </c>
-      <c r="P131" s="34" t="n">
+      <c r="P131" s="1" t="n">
         <v>432080145</v>
       </c>
-      <c r="Q131" s="24"/>
-      <c r="R131" s="24" t="s">
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -12910,7 +12912,7 @@
         <f aca="false">E135/D135</f>
         <v>0.52195071119679</v>
       </c>
-      <c r="G135" s="29" t="n">
+      <c r="G135" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H135" s="8" t="n">
@@ -12942,7 +12944,7 @@
         <v>877693939</v>
       </c>
       <c r="Q135" s="6"/>
-      <c r="R135" s="32" t="s">
+      <c r="R135" s="28" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13353,7 +13355,7 @@
         <f aca="false">E143/D143</f>
         <v>0.493974832579364</v>
       </c>
-      <c r="G143" s="29" t="n">
+      <c r="G143" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H143" s="8" t="n">
@@ -13384,8 +13386,8 @@
       <c r="P143" s="8" t="n">
         <v>1902547600</v>
       </c>
-      <c r="Q143" s="32"/>
-      <c r="R143" s="32" t="s">
+      <c r="Q143" s="28"/>
+      <c r="R143" s="28" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13574,7 +13576,7 @@
         <f aca="false">E147/D147</f>
         <v>0.361893465984528</v>
       </c>
-      <c r="G147" s="29" t="n">
+      <c r="G147" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H147" s="8" t="n">
@@ -13605,7 +13607,7 @@
       <c r="P147" s="8" t="n">
         <v>2542002423</v>
       </c>
-      <c r="R147" s="32" t="s">
+      <c r="R147" s="28" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13684,7 +13686,7 @@
         <f aca="false">E149/D149</f>
         <v>0.627894128873487</v>
       </c>
-      <c r="G149" s="29" t="n">
+      <c r="G149" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H149" s="8" t="n">
@@ -14184,7 +14186,7 @@
         <f aca="false">E158/D158</f>
         <v>0.553901868127015</v>
       </c>
-      <c r="G158" s="29" t="n">
+      <c r="G158" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H158" s="8" t="n">
@@ -14215,7 +14217,7 @@
       <c r="P158" s="8" t="n">
         <v>773029050</v>
       </c>
-      <c r="Q158" s="32"/>
+      <c r="Q158" s="28"/>
       <c r="R158" s="6" t="s">
         <v>161</v>
       </c>
@@ -14240,7 +14242,7 @@
         <f aca="false">E159/D159</f>
         <v>0.410252202878099</v>
       </c>
-      <c r="G159" s="29" t="n">
+      <c r="G159" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H159" s="8" t="n">
@@ -14271,7 +14273,7 @@
       <c r="P159" s="8" t="n">
         <v>706088154</v>
       </c>
-      <c r="Q159" s="32"/>
+      <c r="Q159" s="28"/>
       <c r="R159" s="6" t="s">
         <v>161</v>
       </c>
@@ -14352,7 +14354,7 @@
         <f aca="false">E161/D161</f>
         <v>0.435589319003317</v>
       </c>
-      <c r="G161" s="29" t="n">
+      <c r="G161" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H161" s="8" t="n">
@@ -14408,7 +14410,7 @@
         <f aca="false">E162/D162</f>
         <v>0.511889400921659</v>
       </c>
-      <c r="G162" s="29" t="n">
+      <c r="G162" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H162" s="8" t="n">
@@ -14463,7 +14465,7 @@
         <f aca="false">E163/D163</f>
         <v>0.440668543341481</v>
       </c>
-      <c r="G163" s="29" t="n">
+      <c r="G163" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H163" s="8" t="n">
@@ -14629,7 +14631,7 @@
         <f aca="false">E166/D166</f>
         <v>0.494648862512364</v>
       </c>
-      <c r="G166" s="29" t="n">
+      <c r="G166" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H166" s="8" t="n">
@@ -14685,7 +14687,7 @@
         <f aca="false">E167/D167</f>
         <v>0.502785767443732</v>
       </c>
-      <c r="G167" s="29" t="n">
+      <c r="G167" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H167" s="8" t="n">
@@ -14741,7 +14743,7 @@
         <f aca="false">E168/D168</f>
         <v>0.445420259101082</v>
       </c>
-      <c r="G168" s="29" t="n">
+      <c r="G168" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H168" s="8" t="n">
@@ -14772,12 +14774,12 @@
       <c r="P168" s="8" t="n">
         <v>478908775</v>
       </c>
-      <c r="Q168" s="32"/>
+      <c r="Q168" s="28"/>
       <c r="R168" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="n">
         <v>168</v>
       </c>
@@ -14833,7 +14835,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="n">
         <v>169</v>
       </c>
@@ -14886,6 +14888,7 @@
       <c r="P170" s="4" t="n">
         <v>2187458098</v>
       </c>
+      <c r="Q170" s="3"/>
       <c r="R170" s="3" t="n">
         <v>20220919</v>
       </c>
@@ -14954,50 +14957,50 @@
       <c r="B172" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="28" t="n">
+      <c r="C172" s="24" t="n">
         <v>0.396</v>
       </c>
-      <c r="D172" s="29" t="n">
+      <c r="D172" s="25" t="n">
         <v>129611</v>
       </c>
-      <c r="E172" s="29" t="n">
+      <c r="E172" s="25" t="n">
         <v>50991</v>
       </c>
-      <c r="F172" s="30" t="n">
+      <c r="F172" s="26" t="n">
         <f aca="false">E172/D172</f>
         <v>0.393415682310915</v>
       </c>
-      <c r="G172" s="29" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H172" s="29" t="n">
+      <c r="G172" s="25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H172" s="25" t="n">
         <f aca="false">(G172-E172)/F172</f>
         <v>-2518.96415053637</v>
       </c>
-      <c r="I172" s="29" t="n">
+      <c r="I172" s="25" t="n">
         <f aca="false">E172*M172/G172</f>
         <v>16449.6966</v>
       </c>
-      <c r="J172" s="29" t="n">
+      <c r="J172" s="25" t="n">
         <f aca="false">I172-M172</f>
         <v>319.696599999999</v>
       </c>
-      <c r="K172" s="32" t="n">
+      <c r="K172" s="28" t="n">
         <v>331</v>
       </c>
-      <c r="L172" s="32" t="s">
+      <c r="L172" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="M172" s="29" t="n">
+      <c r="M172" s="25" t="n">
         <v>16130</v>
       </c>
-      <c r="N172" s="29" t="n">
+      <c r="N172" s="25" t="n">
         <v>129611</v>
       </c>
-      <c r="O172" s="29" t="n">
+      <c r="O172" s="25" t="n">
         <v>2256</v>
       </c>
-      <c r="P172" s="29" t="n">
+      <c r="P172" s="25" t="n">
         <v>2090624299</v>
       </c>
       <c r="R172" s="6" t="n">
@@ -15061,11 +15064,11 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="174" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="32" t="n">
+    <row r="174" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="28" t="n">
         <v>173</v>
       </c>
-      <c r="B174" s="32" t="s">
+      <c r="B174" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="7" t="n">
@@ -15096,10 +15099,10 @@
         <f aca="false">I174-M174</f>
         <v>147.61824</v>
       </c>
-      <c r="K174" s="32" t="n">
+      <c r="K174" s="28" t="n">
         <v>340</v>
       </c>
-      <c r="L174" s="32" t="s">
+      <c r="L174" s="28" t="s">
         <v>173</v>
       </c>
       <c r="M174" s="8" t="n">
@@ -15114,8 +15117,8 @@
       <c r="P174" s="8" t="n">
         <v>2187458098</v>
       </c>
-      <c r="Q174" s="32"/>
-      <c r="R174" s="32" t="n">
+      <c r="Q174" s="28"/>
+      <c r="R174" s="28" t="n">
         <v>20220923</v>
       </c>
     </row>
@@ -16241,7 +16244,7 @@
       <c r="AMI176" s="0"/>
       <c r="AMJ176" s="0"/>
     </row>
-    <row r="177" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>176</v>
       </c>
@@ -16299,27 +16302,27 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="31" t="n">
+    <row r="178" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="27" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="31" t="s">
+      <c r="B178" s="27" t="s">
         <v>180</v>
       </c>
       <c r="C178" s="17" t="n">
         <v>0.418</v>
       </c>
-      <c r="D178" s="38" t="n">
+      <c r="D178" s="31" t="n">
         <v>88333</v>
       </c>
-      <c r="E178" s="38" t="n">
+      <c r="E178" s="31" t="n">
         <v>40017</v>
       </c>
       <c r="F178" s="17" t="n">
         <f aca="false">E178/D178</f>
         <v>0.453024351035287</v>
       </c>
-      <c r="G178" s="38" t="n">
+      <c r="G178" s="31" t="n">
         <v>50000</v>
       </c>
       <c r="H178" s="18" t="n">
@@ -16334,1056 +16337,50 @@
         <f aca="false">I178-M178</f>
         <v>-1916.13702</v>
       </c>
-      <c r="K178" s="31" t="n">
+      <c r="K178" s="27" t="n">
         <v>318</v>
       </c>
-      <c r="L178" s="31" t="s">
+      <c r="L178" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="M178" s="38" t="n">
+      <c r="M178" s="31" t="n">
         <v>9597</v>
       </c>
-      <c r="N178" s="38" t="n">
+      <c r="N178" s="31" t="n">
         <v>88333</v>
       </c>
-      <c r="O178" s="38" t="n">
+      <c r="O178" s="31" t="n">
         <v>3133</v>
       </c>
-      <c r="P178" s="38" t="n">
+      <c r="P178" s="31" t="n">
         <v>847735375</v>
       </c>
-      <c r="Q178" s="31"/>
-      <c r="R178" s="31" t="n">
+      <c r="Q178" s="27"/>
+      <c r="R178" s="27" t="n">
         <v>20220929</v>
       </c>
-      <c r="S178" s="0"/>
-      <c r="T178" s="0"/>
-      <c r="U178" s="0"/>
-      <c r="V178" s="0"/>
-      <c r="W178" s="0"/>
-      <c r="X178" s="0"/>
-      <c r="Y178" s="0"/>
-      <c r="Z178" s="0"/>
-      <c r="AA178" s="0"/>
-      <c r="AB178" s="0"/>
-      <c r="AC178" s="0"/>
-      <c r="AD178" s="0"/>
-      <c r="AE178" s="0"/>
-      <c r="AF178" s="0"/>
-      <c r="AG178" s="0"/>
-      <c r="AH178" s="0"/>
-      <c r="AI178" s="0"/>
-      <c r="AJ178" s="0"/>
-      <c r="AK178" s="0"/>
-      <c r="AL178" s="0"/>
-      <c r="AM178" s="0"/>
-      <c r="AN178" s="0"/>
-      <c r="AO178" s="0"/>
-      <c r="AP178" s="0"/>
-      <c r="AQ178" s="0"/>
-      <c r="AR178" s="0"/>
-      <c r="AS178" s="0"/>
-      <c r="AT178" s="0"/>
-      <c r="AU178" s="0"/>
-      <c r="AV178" s="0"/>
-      <c r="AW178" s="0"/>
-      <c r="AX178" s="0"/>
-      <c r="AY178" s="0"/>
-      <c r="AZ178" s="0"/>
-      <c r="BA178" s="0"/>
-      <c r="BB178" s="0"/>
-      <c r="BC178" s="0"/>
-      <c r="BD178" s="0"/>
-      <c r="BE178" s="0"/>
-      <c r="BF178" s="0"/>
-      <c r="BG178" s="0"/>
-      <c r="BH178" s="0"/>
-      <c r="BI178" s="0"/>
-      <c r="BJ178" s="0"/>
-      <c r="BK178" s="0"/>
-      <c r="BL178" s="0"/>
-      <c r="BM178" s="0"/>
-      <c r="BN178" s="0"/>
-      <c r="BO178" s="0"/>
-      <c r="BP178" s="0"/>
-      <c r="BQ178" s="0"/>
-      <c r="BR178" s="0"/>
-      <c r="BS178" s="0"/>
-      <c r="BT178" s="0"/>
-      <c r="BU178" s="0"/>
-      <c r="BV178" s="0"/>
-      <c r="BW178" s="0"/>
-      <c r="BX178" s="0"/>
-      <c r="BY178" s="0"/>
-      <c r="BZ178" s="0"/>
-      <c r="CA178" s="0"/>
-      <c r="CB178" s="0"/>
-      <c r="CC178" s="0"/>
-      <c r="CD178" s="0"/>
-      <c r="CE178" s="0"/>
-      <c r="CF178" s="0"/>
-      <c r="CG178" s="0"/>
-      <c r="CH178" s="0"/>
-      <c r="CI178" s="0"/>
-      <c r="CJ178" s="0"/>
-      <c r="CK178" s="0"/>
-      <c r="CL178" s="0"/>
-      <c r="CM178" s="0"/>
-      <c r="CN178" s="0"/>
-      <c r="CO178" s="0"/>
-      <c r="CP178" s="0"/>
-      <c r="CQ178" s="0"/>
-      <c r="CR178" s="0"/>
-      <c r="CS178" s="0"/>
-      <c r="CT178" s="0"/>
-      <c r="CU178" s="0"/>
-      <c r="CV178" s="0"/>
-      <c r="CW178" s="0"/>
-      <c r="CX178" s="0"/>
-      <c r="CY178" s="0"/>
-      <c r="CZ178" s="0"/>
-      <c r="DA178" s="0"/>
-      <c r="DB178" s="0"/>
-      <c r="DC178" s="0"/>
-      <c r="DD178" s="0"/>
-      <c r="DE178" s="0"/>
-      <c r="DF178" s="0"/>
-      <c r="DG178" s="0"/>
-      <c r="DH178" s="0"/>
-      <c r="DI178" s="0"/>
-      <c r="DJ178" s="0"/>
-      <c r="DK178" s="0"/>
-      <c r="DL178" s="0"/>
-      <c r="DM178" s="0"/>
-      <c r="DN178" s="0"/>
-      <c r="DO178" s="0"/>
-      <c r="DP178" s="0"/>
-      <c r="DQ178" s="0"/>
-      <c r="DR178" s="0"/>
-      <c r="DS178" s="0"/>
-      <c r="DT178" s="0"/>
-      <c r="DU178" s="0"/>
-      <c r="DV178" s="0"/>
-      <c r="DW178" s="0"/>
-      <c r="DX178" s="0"/>
-      <c r="DY178" s="0"/>
-      <c r="DZ178" s="0"/>
-      <c r="EA178" s="0"/>
-      <c r="EB178" s="0"/>
-      <c r="EC178" s="0"/>
-      <c r="ED178" s="0"/>
-      <c r="EE178" s="0"/>
-      <c r="EF178" s="0"/>
-      <c r="EG178" s="0"/>
-      <c r="EH178" s="0"/>
-      <c r="EI178" s="0"/>
-      <c r="EJ178" s="0"/>
-      <c r="EK178" s="0"/>
-      <c r="EL178" s="0"/>
-      <c r="EM178" s="0"/>
-      <c r="EN178" s="0"/>
-      <c r="EO178" s="0"/>
-      <c r="EP178" s="0"/>
-      <c r="EQ178" s="0"/>
-      <c r="ER178" s="0"/>
-      <c r="ES178" s="0"/>
-      <c r="ET178" s="0"/>
-      <c r="EU178" s="0"/>
-      <c r="EV178" s="0"/>
-      <c r="EW178" s="0"/>
-      <c r="EX178" s="0"/>
-      <c r="EY178" s="0"/>
-      <c r="EZ178" s="0"/>
-      <c r="FA178" s="0"/>
-      <c r="FB178" s="0"/>
-      <c r="FC178" s="0"/>
-      <c r="FD178" s="0"/>
-      <c r="FE178" s="0"/>
-      <c r="FF178" s="0"/>
-      <c r="FG178" s="0"/>
-      <c r="FH178" s="0"/>
-      <c r="FI178" s="0"/>
-      <c r="FJ178" s="0"/>
-      <c r="FK178" s="0"/>
-      <c r="FL178" s="0"/>
-      <c r="FM178" s="0"/>
-      <c r="FN178" s="0"/>
-      <c r="FO178" s="0"/>
-      <c r="FP178" s="0"/>
-      <c r="FQ178" s="0"/>
-      <c r="FR178" s="0"/>
-      <c r="FS178" s="0"/>
-      <c r="FT178" s="0"/>
-      <c r="FU178" s="0"/>
-      <c r="FV178" s="0"/>
-      <c r="FW178" s="0"/>
-      <c r="FX178" s="0"/>
-      <c r="FY178" s="0"/>
-      <c r="FZ178" s="0"/>
-      <c r="GA178" s="0"/>
-      <c r="GB178" s="0"/>
-      <c r="GC178" s="0"/>
-      <c r="GD178" s="0"/>
-      <c r="GE178" s="0"/>
-      <c r="GF178" s="0"/>
-      <c r="GG178" s="0"/>
-      <c r="GH178" s="0"/>
-      <c r="GI178" s="0"/>
-      <c r="GJ178" s="0"/>
-      <c r="GK178" s="0"/>
-      <c r="GL178" s="0"/>
-      <c r="GM178" s="0"/>
-      <c r="GN178" s="0"/>
-      <c r="GO178" s="0"/>
-      <c r="GP178" s="0"/>
-      <c r="GQ178" s="0"/>
-      <c r="GR178" s="0"/>
-      <c r="GS178" s="0"/>
-      <c r="GT178" s="0"/>
-      <c r="GU178" s="0"/>
-      <c r="GV178" s="0"/>
-      <c r="GW178" s="0"/>
-      <c r="GX178" s="0"/>
-      <c r="GY178" s="0"/>
-      <c r="GZ178" s="0"/>
-      <c r="HA178" s="0"/>
-      <c r="HB178" s="0"/>
-      <c r="HC178" s="0"/>
-      <c r="HD178" s="0"/>
-      <c r="HE178" s="0"/>
-      <c r="HF178" s="0"/>
-      <c r="HG178" s="0"/>
-      <c r="HH178" s="0"/>
-      <c r="HI178" s="0"/>
-      <c r="HJ178" s="0"/>
-      <c r="HK178" s="0"/>
-      <c r="HL178" s="0"/>
-      <c r="HM178" s="0"/>
-      <c r="HN178" s="0"/>
-      <c r="HO178" s="0"/>
-      <c r="HP178" s="0"/>
-      <c r="HQ178" s="0"/>
-      <c r="HR178" s="0"/>
-      <c r="HS178" s="0"/>
-      <c r="HT178" s="0"/>
-      <c r="HU178" s="0"/>
-      <c r="HV178" s="0"/>
-      <c r="HW178" s="0"/>
-      <c r="HX178" s="0"/>
-      <c r="HY178" s="0"/>
-      <c r="HZ178" s="0"/>
-      <c r="IA178" s="0"/>
-      <c r="IB178" s="0"/>
-      <c r="IC178" s="0"/>
-      <c r="ID178" s="0"/>
-      <c r="IE178" s="0"/>
-      <c r="IF178" s="0"/>
-      <c r="IG178" s="0"/>
-      <c r="IH178" s="0"/>
-      <c r="II178" s="0"/>
-      <c r="IJ178" s="0"/>
-      <c r="IK178" s="0"/>
-      <c r="IL178" s="0"/>
-      <c r="IM178" s="0"/>
-      <c r="IN178" s="0"/>
-      <c r="IO178" s="0"/>
-      <c r="IP178" s="0"/>
-      <c r="IQ178" s="0"/>
-      <c r="IR178" s="0"/>
-      <c r="IS178" s="0"/>
-      <c r="IT178" s="0"/>
-      <c r="IU178" s="0"/>
-      <c r="IV178" s="0"/>
-      <c r="IW178" s="0"/>
-      <c r="IX178" s="0"/>
-      <c r="IY178" s="0"/>
-      <c r="IZ178" s="0"/>
-      <c r="JA178" s="0"/>
-      <c r="JB178" s="0"/>
-      <c r="JC178" s="0"/>
-      <c r="JD178" s="0"/>
-      <c r="JE178" s="0"/>
-      <c r="JF178" s="0"/>
-      <c r="JG178" s="0"/>
-      <c r="JH178" s="0"/>
-      <c r="JI178" s="0"/>
-      <c r="JJ178" s="0"/>
-      <c r="JK178" s="0"/>
-      <c r="JL178" s="0"/>
-      <c r="JM178" s="0"/>
-      <c r="JN178" s="0"/>
-      <c r="JO178" s="0"/>
-      <c r="JP178" s="0"/>
-      <c r="JQ178" s="0"/>
-      <c r="JR178" s="0"/>
-      <c r="JS178" s="0"/>
-      <c r="JT178" s="0"/>
-      <c r="JU178" s="0"/>
-      <c r="JV178" s="0"/>
-      <c r="JW178" s="0"/>
-      <c r="JX178" s="0"/>
-      <c r="JY178" s="0"/>
-      <c r="JZ178" s="0"/>
-      <c r="KA178" s="0"/>
-      <c r="KB178" s="0"/>
-      <c r="KC178" s="0"/>
-      <c r="KD178" s="0"/>
-      <c r="KE178" s="0"/>
-      <c r="KF178" s="0"/>
-      <c r="KG178" s="0"/>
-      <c r="KH178" s="0"/>
-      <c r="KI178" s="0"/>
-      <c r="KJ178" s="0"/>
-      <c r="KK178" s="0"/>
-      <c r="KL178" s="0"/>
-      <c r="KM178" s="0"/>
-      <c r="KN178" s="0"/>
-      <c r="KO178" s="0"/>
-      <c r="KP178" s="0"/>
-      <c r="KQ178" s="0"/>
-      <c r="KR178" s="0"/>
-      <c r="KS178" s="0"/>
-      <c r="KT178" s="0"/>
-      <c r="KU178" s="0"/>
-      <c r="KV178" s="0"/>
-      <c r="KW178" s="0"/>
-      <c r="KX178" s="0"/>
-      <c r="KY178" s="0"/>
-      <c r="KZ178" s="0"/>
-      <c r="LA178" s="0"/>
-      <c r="LB178" s="0"/>
-      <c r="LC178" s="0"/>
-      <c r="LD178" s="0"/>
-      <c r="LE178" s="0"/>
-      <c r="LF178" s="0"/>
-      <c r="LG178" s="0"/>
-      <c r="LH178" s="0"/>
-      <c r="LI178" s="0"/>
-      <c r="LJ178" s="0"/>
-      <c r="LK178" s="0"/>
-      <c r="LL178" s="0"/>
-      <c r="LM178" s="0"/>
-      <c r="LN178" s="0"/>
-      <c r="LO178" s="0"/>
-      <c r="LP178" s="0"/>
-      <c r="LQ178" s="0"/>
-      <c r="LR178" s="0"/>
-      <c r="LS178" s="0"/>
-      <c r="LT178" s="0"/>
-      <c r="LU178" s="0"/>
-      <c r="LV178" s="0"/>
-      <c r="LW178" s="0"/>
-      <c r="LX178" s="0"/>
-      <c r="LY178" s="0"/>
-      <c r="LZ178" s="0"/>
-      <c r="MA178" s="0"/>
-      <c r="MB178" s="0"/>
-      <c r="MC178" s="0"/>
-      <c r="MD178" s="0"/>
-      <c r="ME178" s="0"/>
-      <c r="MF178" s="0"/>
-      <c r="MG178" s="0"/>
-      <c r="MH178" s="0"/>
-      <c r="MI178" s="0"/>
-      <c r="MJ178" s="0"/>
-      <c r="MK178" s="0"/>
-      <c r="ML178" s="0"/>
-      <c r="MM178" s="0"/>
-      <c r="MN178" s="0"/>
-      <c r="MO178" s="0"/>
-      <c r="MP178" s="0"/>
-      <c r="MQ178" s="0"/>
-      <c r="MR178" s="0"/>
-      <c r="MS178" s="0"/>
-      <c r="MT178" s="0"/>
-      <c r="MU178" s="0"/>
-      <c r="MV178" s="0"/>
-      <c r="MW178" s="0"/>
-      <c r="MX178" s="0"/>
-      <c r="MY178" s="0"/>
-      <c r="MZ178" s="0"/>
-      <c r="NA178" s="0"/>
-      <c r="NB178" s="0"/>
-      <c r="NC178" s="0"/>
-      <c r="ND178" s="0"/>
-      <c r="NE178" s="0"/>
-      <c r="NF178" s="0"/>
-      <c r="NG178" s="0"/>
-      <c r="NH178" s="0"/>
-      <c r="NI178" s="0"/>
-      <c r="NJ178" s="0"/>
-      <c r="NK178" s="0"/>
-      <c r="NL178" s="0"/>
-      <c r="NM178" s="0"/>
-      <c r="NN178" s="0"/>
-      <c r="NO178" s="0"/>
-      <c r="NP178" s="0"/>
-      <c r="NQ178" s="0"/>
-      <c r="NR178" s="0"/>
-      <c r="NS178" s="0"/>
-      <c r="NT178" s="0"/>
-      <c r="NU178" s="0"/>
-      <c r="NV178" s="0"/>
-      <c r="NW178" s="0"/>
-      <c r="NX178" s="0"/>
-      <c r="NY178" s="0"/>
-      <c r="NZ178" s="0"/>
-      <c r="OA178" s="0"/>
-      <c r="OB178" s="0"/>
-      <c r="OC178" s="0"/>
-      <c r="OD178" s="0"/>
-      <c r="OE178" s="0"/>
-      <c r="OF178" s="0"/>
-      <c r="OG178" s="0"/>
-      <c r="OH178" s="0"/>
-      <c r="OI178" s="0"/>
-      <c r="OJ178" s="0"/>
-      <c r="OK178" s="0"/>
-      <c r="OL178" s="0"/>
-      <c r="OM178" s="0"/>
-      <c r="ON178" s="0"/>
-      <c r="OO178" s="0"/>
-      <c r="OP178" s="0"/>
-      <c r="OQ178" s="0"/>
-      <c r="OR178" s="0"/>
-      <c r="OS178" s="0"/>
-      <c r="OT178" s="0"/>
-      <c r="OU178" s="0"/>
-      <c r="OV178" s="0"/>
-      <c r="OW178" s="0"/>
-      <c r="OX178" s="0"/>
-      <c r="OY178" s="0"/>
-      <c r="OZ178" s="0"/>
-      <c r="PA178" s="0"/>
-      <c r="PB178" s="0"/>
-      <c r="PC178" s="0"/>
-      <c r="PD178" s="0"/>
-      <c r="PE178" s="0"/>
-      <c r="PF178" s="0"/>
-      <c r="PG178" s="0"/>
-      <c r="PH178" s="0"/>
-      <c r="PI178" s="0"/>
-      <c r="PJ178" s="0"/>
-      <c r="PK178" s="0"/>
-      <c r="PL178" s="0"/>
-      <c r="PM178" s="0"/>
-      <c r="PN178" s="0"/>
-      <c r="PO178" s="0"/>
-      <c r="PP178" s="0"/>
-      <c r="PQ178" s="0"/>
-      <c r="PR178" s="0"/>
-      <c r="PS178" s="0"/>
-      <c r="PT178" s="0"/>
-      <c r="PU178" s="0"/>
-      <c r="PV178" s="0"/>
-      <c r="PW178" s="0"/>
-      <c r="PX178" s="0"/>
-      <c r="PY178" s="0"/>
-      <c r="PZ178" s="0"/>
-      <c r="QA178" s="0"/>
-      <c r="QB178" s="0"/>
-      <c r="QC178" s="0"/>
-      <c r="QD178" s="0"/>
-      <c r="QE178" s="0"/>
-      <c r="QF178" s="0"/>
-      <c r="QG178" s="0"/>
-      <c r="QH178" s="0"/>
-      <c r="QI178" s="0"/>
-      <c r="QJ178" s="0"/>
-      <c r="QK178" s="0"/>
-      <c r="QL178" s="0"/>
-      <c r="QM178" s="0"/>
-      <c r="QN178" s="0"/>
-      <c r="QO178" s="0"/>
-      <c r="QP178" s="0"/>
-      <c r="QQ178" s="0"/>
-      <c r="QR178" s="0"/>
-      <c r="QS178" s="0"/>
-      <c r="QT178" s="0"/>
-      <c r="QU178" s="0"/>
-      <c r="QV178" s="0"/>
-      <c r="QW178" s="0"/>
-      <c r="QX178" s="0"/>
-      <c r="QY178" s="0"/>
-      <c r="QZ178" s="0"/>
-      <c r="RA178" s="0"/>
-      <c r="RB178" s="0"/>
-      <c r="RC178" s="0"/>
-      <c r="RD178" s="0"/>
-      <c r="RE178" s="0"/>
-      <c r="RF178" s="0"/>
-      <c r="RG178" s="0"/>
-      <c r="RH178" s="0"/>
-      <c r="RI178" s="0"/>
-      <c r="RJ178" s="0"/>
-      <c r="RK178" s="0"/>
-      <c r="RL178" s="0"/>
-      <c r="RM178" s="0"/>
-      <c r="RN178" s="0"/>
-      <c r="RO178" s="0"/>
-      <c r="RP178" s="0"/>
-      <c r="RQ178" s="0"/>
-      <c r="RR178" s="0"/>
-      <c r="RS178" s="0"/>
-      <c r="RT178" s="0"/>
-      <c r="RU178" s="0"/>
-      <c r="RV178" s="0"/>
-      <c r="RW178" s="0"/>
-      <c r="RX178" s="0"/>
-      <c r="RY178" s="0"/>
-      <c r="RZ178" s="0"/>
-      <c r="SA178" s="0"/>
-      <c r="SB178" s="0"/>
-      <c r="SC178" s="0"/>
-      <c r="SD178" s="0"/>
-      <c r="SE178" s="0"/>
-      <c r="SF178" s="0"/>
-      <c r="SG178" s="0"/>
-      <c r="SH178" s="0"/>
-      <c r="SI178" s="0"/>
-      <c r="SJ178" s="0"/>
-      <c r="SK178" s="0"/>
-      <c r="SL178" s="0"/>
-      <c r="SM178" s="0"/>
-      <c r="SN178" s="0"/>
-      <c r="SO178" s="0"/>
-      <c r="SP178" s="0"/>
-      <c r="SQ178" s="0"/>
-      <c r="SR178" s="0"/>
-      <c r="SS178" s="0"/>
-      <c r="ST178" s="0"/>
-      <c r="SU178" s="0"/>
-      <c r="SV178" s="0"/>
-      <c r="SW178" s="0"/>
-      <c r="SX178" s="0"/>
-      <c r="SY178" s="0"/>
-      <c r="SZ178" s="0"/>
-      <c r="TA178" s="0"/>
-      <c r="TB178" s="0"/>
-      <c r="TC178" s="0"/>
-      <c r="TD178" s="0"/>
-      <c r="TE178" s="0"/>
-      <c r="TF178" s="0"/>
-      <c r="TG178" s="0"/>
-      <c r="TH178" s="0"/>
-      <c r="TI178" s="0"/>
-      <c r="TJ178" s="0"/>
-      <c r="TK178" s="0"/>
-      <c r="TL178" s="0"/>
-      <c r="TM178" s="0"/>
-      <c r="TN178" s="0"/>
-      <c r="TO178" s="0"/>
-      <c r="TP178" s="0"/>
-      <c r="TQ178" s="0"/>
-      <c r="TR178" s="0"/>
-      <c r="TS178" s="0"/>
-      <c r="TT178" s="0"/>
-      <c r="TU178" s="0"/>
-      <c r="TV178" s="0"/>
-      <c r="TW178" s="0"/>
-      <c r="TX178" s="0"/>
-      <c r="TY178" s="0"/>
-      <c r="TZ178" s="0"/>
-      <c r="UA178" s="0"/>
-      <c r="UB178" s="0"/>
-      <c r="UC178" s="0"/>
-      <c r="UD178" s="0"/>
-      <c r="UE178" s="0"/>
-      <c r="UF178" s="0"/>
-      <c r="UG178" s="0"/>
-      <c r="UH178" s="0"/>
-      <c r="UI178" s="0"/>
-      <c r="UJ178" s="0"/>
-      <c r="UK178" s="0"/>
-      <c r="UL178" s="0"/>
-      <c r="UM178" s="0"/>
-      <c r="UN178" s="0"/>
-      <c r="UO178" s="0"/>
-      <c r="UP178" s="0"/>
-      <c r="UQ178" s="0"/>
-      <c r="UR178" s="0"/>
-      <c r="US178" s="0"/>
-      <c r="UT178" s="0"/>
-      <c r="UU178" s="0"/>
-      <c r="UV178" s="0"/>
-      <c r="UW178" s="0"/>
-      <c r="UX178" s="0"/>
-      <c r="UY178" s="0"/>
-      <c r="UZ178" s="0"/>
-      <c r="VA178" s="0"/>
-      <c r="VB178" s="0"/>
-      <c r="VC178" s="0"/>
-      <c r="VD178" s="0"/>
-      <c r="VE178" s="0"/>
-      <c r="VF178" s="0"/>
-      <c r="VG178" s="0"/>
-      <c r="VH178" s="0"/>
-      <c r="VI178" s="0"/>
-      <c r="VJ178" s="0"/>
-      <c r="VK178" s="0"/>
-      <c r="VL178" s="0"/>
-      <c r="VM178" s="0"/>
-      <c r="VN178" s="0"/>
-      <c r="VO178" s="0"/>
-      <c r="VP178" s="0"/>
-      <c r="VQ178" s="0"/>
-      <c r="VR178" s="0"/>
-      <c r="VS178" s="0"/>
-      <c r="VT178" s="0"/>
-      <c r="VU178" s="0"/>
-      <c r="VV178" s="0"/>
-      <c r="VW178" s="0"/>
-      <c r="VX178" s="0"/>
-      <c r="VY178" s="0"/>
-      <c r="VZ178" s="0"/>
-      <c r="WA178" s="0"/>
-      <c r="WB178" s="0"/>
-      <c r="WC178" s="0"/>
-      <c r="WD178" s="0"/>
-      <c r="WE178" s="0"/>
-      <c r="WF178" s="0"/>
-      <c r="WG178" s="0"/>
-      <c r="WH178" s="0"/>
-      <c r="WI178" s="0"/>
-      <c r="WJ178" s="0"/>
-      <c r="WK178" s="0"/>
-      <c r="WL178" s="0"/>
-      <c r="WM178" s="0"/>
-      <c r="WN178" s="0"/>
-      <c r="WO178" s="0"/>
-      <c r="WP178" s="0"/>
-      <c r="WQ178" s="0"/>
-      <c r="WR178" s="0"/>
-      <c r="WS178" s="0"/>
-      <c r="WT178" s="0"/>
-      <c r="WU178" s="0"/>
-      <c r="WV178" s="0"/>
-      <c r="WW178" s="0"/>
-      <c r="WX178" s="0"/>
-      <c r="WY178" s="0"/>
-      <c r="WZ178" s="0"/>
-      <c r="XA178" s="0"/>
-      <c r="XB178" s="0"/>
-      <c r="XC178" s="0"/>
-      <c r="XD178" s="0"/>
-      <c r="XE178" s="0"/>
-      <c r="XF178" s="0"/>
-      <c r="XG178" s="0"/>
-      <c r="XH178" s="0"/>
-      <c r="XI178" s="0"/>
-      <c r="XJ178" s="0"/>
-      <c r="XK178" s="0"/>
-      <c r="XL178" s="0"/>
-      <c r="XM178" s="0"/>
-      <c r="XN178" s="0"/>
-      <c r="XO178" s="0"/>
-      <c r="XP178" s="0"/>
-      <c r="XQ178" s="0"/>
-      <c r="XR178" s="0"/>
-      <c r="XS178" s="0"/>
-      <c r="XT178" s="0"/>
-      <c r="XU178" s="0"/>
-      <c r="XV178" s="0"/>
-      <c r="XW178" s="0"/>
-      <c r="XX178" s="0"/>
-      <c r="XY178" s="0"/>
-      <c r="XZ178" s="0"/>
-      <c r="YA178" s="0"/>
-      <c r="YB178" s="0"/>
-      <c r="YC178" s="0"/>
-      <c r="YD178" s="0"/>
-      <c r="YE178" s="0"/>
-      <c r="YF178" s="0"/>
-      <c r="YG178" s="0"/>
-      <c r="YH178" s="0"/>
-      <c r="YI178" s="0"/>
-      <c r="YJ178" s="0"/>
-      <c r="YK178" s="0"/>
-      <c r="YL178" s="0"/>
-      <c r="YM178" s="0"/>
-      <c r="YN178" s="0"/>
-      <c r="YO178" s="0"/>
-      <c r="YP178" s="0"/>
-      <c r="YQ178" s="0"/>
-      <c r="YR178" s="0"/>
-      <c r="YS178" s="0"/>
-      <c r="YT178" s="0"/>
-      <c r="YU178" s="0"/>
-      <c r="YV178" s="0"/>
-      <c r="YW178" s="0"/>
-      <c r="YX178" s="0"/>
-      <c r="YY178" s="0"/>
-      <c r="YZ178" s="0"/>
-      <c r="ZA178" s="0"/>
-      <c r="ZB178" s="0"/>
-      <c r="ZC178" s="0"/>
-      <c r="ZD178" s="0"/>
-      <c r="ZE178" s="0"/>
-      <c r="ZF178" s="0"/>
-      <c r="ZG178" s="0"/>
-      <c r="ZH178" s="0"/>
-      <c r="ZI178" s="0"/>
-      <c r="ZJ178" s="0"/>
-      <c r="ZK178" s="0"/>
-      <c r="ZL178" s="0"/>
-      <c r="ZM178" s="0"/>
-      <c r="ZN178" s="0"/>
-      <c r="ZO178" s="0"/>
-      <c r="ZP178" s="0"/>
-      <c r="ZQ178" s="0"/>
-      <c r="ZR178" s="0"/>
-      <c r="ZS178" s="0"/>
-      <c r="ZT178" s="0"/>
-      <c r="ZU178" s="0"/>
-      <c r="ZV178" s="0"/>
-      <c r="ZW178" s="0"/>
-      <c r="ZX178" s="0"/>
-      <c r="ZY178" s="0"/>
-      <c r="ZZ178" s="0"/>
-      <c r="AAA178" s="0"/>
-      <c r="AAB178" s="0"/>
-      <c r="AAC178" s="0"/>
-      <c r="AAD178" s="0"/>
-      <c r="AAE178" s="0"/>
-      <c r="AAF178" s="0"/>
-      <c r="AAG178" s="0"/>
-      <c r="AAH178" s="0"/>
-      <c r="AAI178" s="0"/>
-      <c r="AAJ178" s="0"/>
-      <c r="AAK178" s="0"/>
-      <c r="AAL178" s="0"/>
-      <c r="AAM178" s="0"/>
-      <c r="AAN178" s="0"/>
-      <c r="AAO178" s="0"/>
-      <c r="AAP178" s="0"/>
-      <c r="AAQ178" s="0"/>
-      <c r="AAR178" s="0"/>
-      <c r="AAS178" s="0"/>
-      <c r="AAT178" s="0"/>
-      <c r="AAU178" s="0"/>
-      <c r="AAV178" s="0"/>
-      <c r="AAW178" s="0"/>
-      <c r="AAX178" s="0"/>
-      <c r="AAY178" s="0"/>
-      <c r="AAZ178" s="0"/>
-      <c r="ABA178" s="0"/>
-      <c r="ABB178" s="0"/>
-      <c r="ABC178" s="0"/>
-      <c r="ABD178" s="0"/>
-      <c r="ABE178" s="0"/>
-      <c r="ABF178" s="0"/>
-      <c r="ABG178" s="0"/>
-      <c r="ABH178" s="0"/>
-      <c r="ABI178" s="0"/>
-      <c r="ABJ178" s="0"/>
-      <c r="ABK178" s="0"/>
-      <c r="ABL178" s="0"/>
-      <c r="ABM178" s="0"/>
-      <c r="ABN178" s="0"/>
-      <c r="ABO178" s="0"/>
-      <c r="ABP178" s="0"/>
-      <c r="ABQ178" s="0"/>
-      <c r="ABR178" s="0"/>
-      <c r="ABS178" s="0"/>
-      <c r="ABT178" s="0"/>
-      <c r="ABU178" s="0"/>
-      <c r="ABV178" s="0"/>
-      <c r="ABW178" s="0"/>
-      <c r="ABX178" s="0"/>
-      <c r="ABY178" s="0"/>
-      <c r="ABZ178" s="0"/>
-      <c r="ACA178" s="0"/>
-      <c r="ACB178" s="0"/>
-      <c r="ACC178" s="0"/>
-      <c r="ACD178" s="0"/>
-      <c r="ACE178" s="0"/>
-      <c r="ACF178" s="0"/>
-      <c r="ACG178" s="0"/>
-      <c r="ACH178" s="0"/>
-      <c r="ACI178" s="0"/>
-      <c r="ACJ178" s="0"/>
-      <c r="ACK178" s="0"/>
-      <c r="ACL178" s="0"/>
-      <c r="ACM178" s="0"/>
-      <c r="ACN178" s="0"/>
-      <c r="ACO178" s="0"/>
-      <c r="ACP178" s="0"/>
-      <c r="ACQ178" s="0"/>
-      <c r="ACR178" s="0"/>
-      <c r="ACS178" s="0"/>
-      <c r="ACT178" s="0"/>
-      <c r="ACU178" s="0"/>
-      <c r="ACV178" s="0"/>
-      <c r="ACW178" s="0"/>
-      <c r="ACX178" s="0"/>
-      <c r="ACY178" s="0"/>
-      <c r="ACZ178" s="0"/>
-      <c r="ADA178" s="0"/>
-      <c r="ADB178" s="0"/>
-      <c r="ADC178" s="0"/>
-      <c r="ADD178" s="0"/>
-      <c r="ADE178" s="0"/>
-      <c r="ADF178" s="0"/>
-      <c r="ADG178" s="0"/>
-      <c r="ADH178" s="0"/>
-      <c r="ADI178" s="0"/>
-      <c r="ADJ178" s="0"/>
-      <c r="ADK178" s="0"/>
-      <c r="ADL178" s="0"/>
-      <c r="ADM178" s="0"/>
-      <c r="ADN178" s="0"/>
-      <c r="ADO178" s="0"/>
-      <c r="ADP178" s="0"/>
-      <c r="ADQ178" s="0"/>
-      <c r="ADR178" s="0"/>
-      <c r="ADS178" s="0"/>
-      <c r="ADT178" s="0"/>
-      <c r="ADU178" s="0"/>
-      <c r="ADV178" s="0"/>
-      <c r="ADW178" s="0"/>
-      <c r="ADX178" s="0"/>
-      <c r="ADY178" s="0"/>
-      <c r="ADZ178" s="0"/>
-      <c r="AEA178" s="0"/>
-      <c r="AEB178" s="0"/>
-      <c r="AEC178" s="0"/>
-      <c r="AED178" s="0"/>
-      <c r="AEE178" s="0"/>
-      <c r="AEF178" s="0"/>
-      <c r="AEG178" s="0"/>
-      <c r="AEH178" s="0"/>
-      <c r="AEI178" s="0"/>
-      <c r="AEJ178" s="0"/>
-      <c r="AEK178" s="0"/>
-      <c r="AEL178" s="0"/>
-      <c r="AEM178" s="0"/>
-      <c r="AEN178" s="0"/>
-      <c r="AEO178" s="0"/>
-      <c r="AEP178" s="0"/>
-      <c r="AEQ178" s="0"/>
-      <c r="AER178" s="0"/>
-      <c r="AES178" s="0"/>
-      <c r="AET178" s="0"/>
-      <c r="AEU178" s="0"/>
-      <c r="AEV178" s="0"/>
-      <c r="AEW178" s="0"/>
-      <c r="AEX178" s="0"/>
-      <c r="AEY178" s="0"/>
-      <c r="AEZ178" s="0"/>
-      <c r="AFA178" s="0"/>
-      <c r="AFB178" s="0"/>
-      <c r="AFC178" s="0"/>
-      <c r="AFD178" s="0"/>
-      <c r="AFE178" s="0"/>
-      <c r="AFF178" s="0"/>
-      <c r="AFG178" s="0"/>
-      <c r="AFH178" s="0"/>
-      <c r="AFI178" s="0"/>
-      <c r="AFJ178" s="0"/>
-      <c r="AFK178" s="0"/>
-      <c r="AFL178" s="0"/>
-      <c r="AFM178" s="0"/>
-      <c r="AFN178" s="0"/>
-      <c r="AFO178" s="0"/>
-      <c r="AFP178" s="0"/>
-      <c r="AFQ178" s="0"/>
-      <c r="AFR178" s="0"/>
-      <c r="AFS178" s="0"/>
-      <c r="AFT178" s="0"/>
-      <c r="AFU178" s="0"/>
-      <c r="AFV178" s="0"/>
-      <c r="AFW178" s="0"/>
-      <c r="AFX178" s="0"/>
-      <c r="AFY178" s="0"/>
-      <c r="AFZ178" s="0"/>
-      <c r="AGA178" s="0"/>
-      <c r="AGB178" s="0"/>
-      <c r="AGC178" s="0"/>
-      <c r="AGD178" s="0"/>
-      <c r="AGE178" s="0"/>
-      <c r="AGF178" s="0"/>
-      <c r="AGG178" s="0"/>
-      <c r="AGH178" s="0"/>
-      <c r="AGI178" s="0"/>
-      <c r="AGJ178" s="0"/>
-      <c r="AGK178" s="0"/>
-      <c r="AGL178" s="0"/>
-      <c r="AGM178" s="0"/>
-      <c r="AGN178" s="0"/>
-      <c r="AGO178" s="0"/>
-      <c r="AGP178" s="0"/>
-      <c r="AGQ178" s="0"/>
-      <c r="AGR178" s="0"/>
-      <c r="AGS178" s="0"/>
-      <c r="AGT178" s="0"/>
-      <c r="AGU178" s="0"/>
-      <c r="AGV178" s="0"/>
-      <c r="AGW178" s="0"/>
-      <c r="AGX178" s="0"/>
-      <c r="AGY178" s="0"/>
-      <c r="AGZ178" s="0"/>
-      <c r="AHA178" s="0"/>
-      <c r="AHB178" s="0"/>
-      <c r="AHC178" s="0"/>
-      <c r="AHD178" s="0"/>
-      <c r="AHE178" s="0"/>
-      <c r="AHF178" s="0"/>
-      <c r="AHG178" s="0"/>
-      <c r="AHH178" s="0"/>
-      <c r="AHI178" s="0"/>
-      <c r="AHJ178" s="0"/>
-      <c r="AHK178" s="0"/>
-      <c r="AHL178" s="0"/>
-      <c r="AHM178" s="0"/>
-      <c r="AHN178" s="0"/>
-      <c r="AHO178" s="0"/>
-      <c r="AHP178" s="0"/>
-      <c r="AHQ178" s="0"/>
-      <c r="AHR178" s="0"/>
-      <c r="AHS178" s="0"/>
-      <c r="AHT178" s="0"/>
-      <c r="AHU178" s="0"/>
-      <c r="AHV178" s="0"/>
-      <c r="AHW178" s="0"/>
-      <c r="AHX178" s="0"/>
-      <c r="AHY178" s="0"/>
-      <c r="AHZ178" s="0"/>
-      <c r="AIA178" s="0"/>
-      <c r="AIB178" s="0"/>
-      <c r="AIC178" s="0"/>
-      <c r="AID178" s="0"/>
-      <c r="AIE178" s="0"/>
-      <c r="AIF178" s="0"/>
-      <c r="AIG178" s="0"/>
-      <c r="AIH178" s="0"/>
-      <c r="AII178" s="0"/>
-      <c r="AIJ178" s="0"/>
-      <c r="AIK178" s="0"/>
-      <c r="AIL178" s="0"/>
-      <c r="AIM178" s="0"/>
-      <c r="AIN178" s="0"/>
-      <c r="AIO178" s="0"/>
-      <c r="AIP178" s="0"/>
-      <c r="AIQ178" s="0"/>
-      <c r="AIR178" s="0"/>
-      <c r="AIS178" s="0"/>
-      <c r="AIT178" s="0"/>
-      <c r="AIU178" s="0"/>
-      <c r="AIV178" s="0"/>
-      <c r="AIW178" s="0"/>
-      <c r="AIX178" s="0"/>
-      <c r="AIY178" s="0"/>
-      <c r="AIZ178" s="0"/>
-      <c r="AJA178" s="0"/>
-      <c r="AJB178" s="0"/>
-      <c r="AJC178" s="0"/>
-      <c r="AJD178" s="0"/>
-      <c r="AJE178" s="0"/>
-      <c r="AJF178" s="0"/>
-      <c r="AJG178" s="0"/>
-      <c r="AJH178" s="0"/>
-      <c r="AJI178" s="0"/>
-      <c r="AJJ178" s="0"/>
-      <c r="AJK178" s="0"/>
-      <c r="AJL178" s="0"/>
-      <c r="AJM178" s="0"/>
-      <c r="AJN178" s="0"/>
-      <c r="AJO178" s="0"/>
-      <c r="AJP178" s="0"/>
-      <c r="AJQ178" s="0"/>
-      <c r="AJR178" s="0"/>
-      <c r="AJS178" s="0"/>
-      <c r="AJT178" s="0"/>
-      <c r="AJU178" s="0"/>
-      <c r="AJV178" s="0"/>
-      <c r="AJW178" s="0"/>
-      <c r="AJX178" s="0"/>
-      <c r="AJY178" s="0"/>
-      <c r="AJZ178" s="0"/>
-      <c r="AKA178" s="0"/>
-      <c r="AKB178" s="0"/>
-      <c r="AKC178" s="0"/>
-      <c r="AKD178" s="0"/>
-      <c r="AKE178" s="0"/>
-      <c r="AKF178" s="0"/>
-      <c r="AKG178" s="0"/>
-      <c r="AKH178" s="0"/>
-      <c r="AKI178" s="0"/>
-      <c r="AKJ178" s="0"/>
-      <c r="AKK178" s="0"/>
-      <c r="AKL178" s="0"/>
-      <c r="AKM178" s="0"/>
-      <c r="AKN178" s="0"/>
-      <c r="AKO178" s="0"/>
-      <c r="AKP178" s="0"/>
-      <c r="AKQ178" s="0"/>
-      <c r="AKR178" s="0"/>
-      <c r="AKS178" s="0"/>
-      <c r="AKT178" s="0"/>
-      <c r="AKU178" s="0"/>
-      <c r="AKV178" s="0"/>
-      <c r="AKW178" s="0"/>
-      <c r="AKX178" s="0"/>
-      <c r="AKY178" s="0"/>
-      <c r="AKZ178" s="0"/>
-      <c r="ALA178" s="0"/>
-      <c r="ALB178" s="0"/>
-      <c r="ALC178" s="0"/>
-      <c r="ALD178" s="0"/>
-      <c r="ALE178" s="0"/>
-      <c r="ALF178" s="0"/>
-      <c r="ALG178" s="0"/>
-      <c r="ALH178" s="0"/>
-      <c r="ALI178" s="0"/>
-      <c r="ALJ178" s="0"/>
-      <c r="ALK178" s="0"/>
-      <c r="ALL178" s="0"/>
-      <c r="ALM178" s="0"/>
-      <c r="ALN178" s="0"/>
-      <c r="ALO178" s="0"/>
-      <c r="ALP178" s="0"/>
-      <c r="ALQ178" s="0"/>
-      <c r="ALR178" s="0"/>
-      <c r="ALS178" s="0"/>
-      <c r="ALT178" s="0"/>
-      <c r="ALU178" s="0"/>
-      <c r="ALV178" s="0"/>
-      <c r="ALW178" s="0"/>
-      <c r="ALX178" s="0"/>
-      <c r="ALY178" s="0"/>
-      <c r="ALZ178" s="0"/>
-      <c r="AMA178" s="0"/>
-      <c r="AMB178" s="0"/>
-      <c r="AMC178" s="0"/>
-      <c r="AMD178" s="0"/>
-      <c r="AME178" s="0"/>
-      <c r="AMF178" s="0"/>
-      <c r="AMG178" s="0"/>
-      <c r="AMH178" s="0"/>
-      <c r="AMI178" s="0"/>
-      <c r="AMJ178" s="0"/>
-    </row>
-    <row r="179" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="31" t="n">
+    </row>
+    <row r="179" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="27" t="n">
         <v>178</v>
       </c>
-      <c r="B179" s="31" t="s">
+      <c r="B179" s="27" t="s">
         <v>182</v>
       </c>
       <c r="C179" s="17" t="n">
         <v>0.676</v>
       </c>
-      <c r="D179" s="38" t="n">
+      <c r="D179" s="31" t="n">
         <v>73688</v>
       </c>
-      <c r="E179" s="38" t="n">
+      <c r="E179" s="31" t="n">
         <v>24730</v>
       </c>
       <c r="F179" s="17" t="n">
         <f aca="false">E179/D179</f>
         <v>0.335604168928455</v>
       </c>
-      <c r="G179" s="38" t="n">
+      <c r="G179" s="31" t="n">
         <v>50000</v>
       </c>
       <c r="H179" s="18" t="n">
@@ -17398,25 +16395,25 @@
         <f aca="false">I179-M179</f>
         <v>-7094.2998</v>
       </c>
-      <c r="K179" s="31" t="n">
+      <c r="K179" s="27" t="n">
         <v>322</v>
       </c>
-      <c r="L179" s="31" t="s">
+      <c r="L179" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="M179" s="38" t="n">
+      <c r="M179" s="31" t="n">
         <v>14037</v>
       </c>
-      <c r="N179" s="38" t="n">
+      <c r="N179" s="31" t="n">
         <v>73688</v>
       </c>
-      <c r="O179" s="38" t="n">
+      <c r="O179" s="31" t="n">
         <v>2285</v>
       </c>
-      <c r="P179" s="38" t="n">
+      <c r="P179" s="31" t="n">
         <v>1034352102</v>
       </c>
-      <c r="R179" s="31" t="n">
+      <c r="R179" s="27" t="n">
         <v>20220929</v>
       </c>
     </row>
@@ -17478,27 +16475,27 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="181" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="31" t="n">
+    <row r="181" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="27" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="31" t="s">
+      <c r="B181" s="27" t="s">
         <v>186</v>
       </c>
       <c r="C181" s="17" t="n">
         <v>0.479</v>
       </c>
-      <c r="D181" s="38" t="n">
+      <c r="D181" s="31" t="n">
         <v>81644</v>
       </c>
-      <c r="E181" s="38" t="n">
+      <c r="E181" s="31" t="n">
         <v>34944</v>
       </c>
       <c r="F181" s="17" t="n">
         <f aca="false">E181/D181</f>
         <v>0.428004507373475</v>
       </c>
-      <c r="G181" s="38" t="n">
+      <c r="G181" s="31" t="n">
         <v>50000</v>
       </c>
       <c r="H181" s="18" t="n">
@@ -17513,49 +16510,49 @@
         <f aca="false">I181-M181</f>
         <v>-3144.89728</v>
       </c>
-      <c r="K181" s="31" t="n">
+      <c r="K181" s="27" t="n">
         <v>320</v>
       </c>
-      <c r="L181" s="31" t="s">
+      <c r="L181" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="M181" s="38" t="n">
+      <c r="M181" s="31" t="n">
         <v>10444</v>
       </c>
-      <c r="N181" s="38" t="n">
+      <c r="N181" s="31" t="n">
         <v>81644</v>
       </c>
-      <c r="O181" s="38" t="n">
+      <c r="O181" s="31" t="n">
         <v>2771</v>
       </c>
-      <c r="P181" s="38" t="n">
+      <c r="P181" s="31" t="n">
         <v>852690764</v>
       </c>
-      <c r="R181" s="31" t="n">
+      <c r="R181" s="27" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="182" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="31" t="n">
+    <row r="182" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="27" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="31" t="s">
+      <c r="B182" s="27" t="s">
         <v>188</v>
       </c>
       <c r="C182" s="17" t="n">
         <v>0.455</v>
       </c>
-      <c r="D182" s="38" t="n">
+      <c r="D182" s="31" t="n">
         <v>87867</v>
       </c>
-      <c r="E182" s="38" t="n">
+      <c r="E182" s="31" t="n">
         <v>36712</v>
       </c>
       <c r="F182" s="17" t="n">
         <f aca="false">E182/D182</f>
         <v>0.417813285989052</v>
       </c>
-      <c r="G182" s="38" t="n">
+      <c r="G182" s="31" t="n">
         <v>50000</v>
       </c>
       <c r="H182" s="18" t="n">
@@ -17570,26 +16567,26 @@
         <f aca="false">I182-M182</f>
         <v>-3364.78736</v>
       </c>
-      <c r="K182" s="31" t="n">
+      <c r="K182" s="27" t="n">
         <v>319</v>
       </c>
-      <c r="L182" s="31" t="s">
+      <c r="L182" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="M182" s="38" t="n">
+      <c r="M182" s="31" t="n">
         <v>12661</v>
       </c>
-      <c r="N182" s="38" t="n">
+      <c r="N182" s="31" t="n">
         <v>87867</v>
       </c>
-      <c r="O182" s="38" t="n">
+      <c r="O182" s="31" t="n">
         <v>2819</v>
       </c>
-      <c r="P182" s="38" t="n">
+      <c r="P182" s="31" t="n">
         <v>1112489049</v>
       </c>
-      <c r="Q182" s="31"/>
-      <c r="R182" s="31" t="n">
+      <c r="Q182" s="27"/>
+      <c r="R182" s="27" t="n">
         <v>20220929</v>
       </c>
     </row>
@@ -17600,20 +16597,20 @@
       <c r="B183" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C183" s="28" t="n">
+      <c r="C183" s="24" t="n">
         <v>0.852</v>
       </c>
-      <c r="D183" s="29" t="n">
+      <c r="D183" s="25" t="n">
         <v>112309</v>
       </c>
-      <c r="E183" s="29" t="n">
+      <c r="E183" s="25" t="n">
         <v>50088</v>
       </c>
       <c r="F183" s="7" t="n">
         <f aca="false">E183/D183</f>
         <v>0.445983848133275</v>
       </c>
-      <c r="G183" s="29" t="n">
+      <c r="G183" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H183" s="8" t="n">
@@ -17628,30 +16625,30 @@
         <f aca="false">I183-M183</f>
         <v>17.5964800000002</v>
       </c>
-      <c r="K183" s="29" t="n">
+      <c r="K183" s="25" t="n">
         <v>353</v>
       </c>
-      <c r="L183" s="29" t="s">
+      <c r="L183" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="M183" s="29" t="n">
+      <c r="M183" s="25" t="n">
         <v>9998</v>
       </c>
-      <c r="N183" s="29" t="n">
+      <c r="N183" s="25" t="n">
         <v>112309</v>
       </c>
-      <c r="O183" s="29" t="n">
+      <c r="O183" s="25" t="n">
         <v>3582</v>
       </c>
-      <c r="P183" s="29" t="n">
+      <c r="P183" s="25" t="n">
         <v>1122863682</v>
       </c>
-      <c r="Q183" s="29"/>
+      <c r="Q183" s="25"/>
       <c r="R183" s="6" t="n">
         <v>20221005</v>
       </c>
     </row>
-    <row r="184" s="39" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="n">
         <v>183</v>
       </c>
@@ -17709,27 +16706,27 @@
         <v>20221005</v>
       </c>
     </row>
-    <row r="185" s="39" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C185" s="28" t="n">
+      <c r="C185" s="24" t="n">
         <v>0.967</v>
       </c>
-      <c r="D185" s="29" t="n">
+      <c r="D185" s="25" t="n">
         <v>225283</v>
       </c>
-      <c r="E185" s="29" t="n">
+      <c r="E185" s="25" t="n">
         <v>44146</v>
       </c>
       <c r="F185" s="7" t="n">
         <f aca="false">E185/D185</f>
         <v>0.195957972860802</v>
       </c>
-      <c r="G185" s="29" t="n">
+      <c r="G185" s="25" t="n">
         <v>50000</v>
       </c>
       <c r="H185" s="8" t="n">
@@ -17744,84 +16741,84 @@
         <f aca="false">I185-M185</f>
         <v>-547.46608</v>
       </c>
-      <c r="K185" s="29" t="n">
+      <c r="K185" s="25" t="n">
         <v>354</v>
       </c>
-      <c r="L185" s="29" t="s">
+      <c r="L185" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="M185" s="29" t="n">
+      <c r="M185" s="25" t="n">
         <v>4676</v>
       </c>
-      <c r="N185" s="29" t="n">
+      <c r="N185" s="25" t="n">
         <v>225283</v>
       </c>
-      <c r="O185" s="29" t="n">
+      <c r="O185" s="25" t="n">
         <v>3220</v>
       </c>
-      <c r="P185" s="29" t="n">
+      <c r="P185" s="25" t="n">
         <v>1053424567</v>
       </c>
-      <c r="Q185" s="29"/>
+      <c r="Q185" s="25"/>
       <c r="R185" s="6" t="n">
         <v>20221005</v>
       </c>
     </row>
     <row r="186" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="15" t="n">
+      <c r="A186" s="32" t="n">
         <v>185</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C186" s="11" t="n">
+      <c r="C186" s="34" t="n">
         <v>0.315</v>
       </c>
-      <c r="D186" s="14" t="n">
+      <c r="D186" s="35" t="n">
         <v>168791</v>
       </c>
-      <c r="E186" s="14" t="n">
+      <c r="E186" s="35" t="n">
         <v>55045</v>
       </c>
-      <c r="F186" s="11" t="n">
+      <c r="F186" s="34" t="n">
         <f aca="false">E186/D186</f>
         <v>0.326113359124598</v>
       </c>
-      <c r="G186" s="12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H186" s="14" t="n">
+      <c r="G186" s="36" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H186" s="35" t="n">
         <f aca="false">(G186-E186)/F186</f>
         <v>-15470.0807521119</v>
       </c>
-      <c r="I186" s="14" t="n">
+      <c r="I186" s="35" t="n">
         <f aca="false">E186*M186/G186</f>
         <v>25559.5953</v>
       </c>
-      <c r="J186" s="14" t="n">
+      <c r="J186" s="35" t="n">
         <f aca="false">I186-M186</f>
         <v>2342.5953</v>
       </c>
-      <c r="K186" s="15" t="n">
+      <c r="K186" s="32" t="n">
         <v>355</v>
       </c>
-      <c r="L186" s="15" t="s">
+      <c r="L186" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="M186" s="14" t="n">
+      <c r="M186" s="35" t="n">
         <v>23217</v>
       </c>
-      <c r="N186" s="14" t="n">
+      <c r="N186" s="35" t="n">
         <v>168791</v>
       </c>
-      <c r="O186" s="14" t="n">
+      <c r="O186" s="35" t="n">
         <v>2857</v>
       </c>
-      <c r="P186" s="14" t="n">
+      <c r="P186" s="35" t="n">
         <v>3918820996</v>
       </c>
-      <c r="Q186" s="15"/>
-      <c r="R186" s="15" t="n">
+      <c r="Q186" s="32"/>
+      <c r="R186" s="32" t="n">
         <v>20221010</v>
       </c>
     </row>
@@ -17884,118 +16881,118 @@
       </c>
     </row>
     <row r="188" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="15" t="n">
+      <c r="A188" s="32" t="n">
         <v>187</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="C188" s="11" t="n">
+      <c r="C188" s="34" t="n">
         <v>0.378</v>
       </c>
-      <c r="D188" s="14" t="n">
+      <c r="D188" s="35" t="n">
         <v>109410</v>
       </c>
-      <c r="E188" s="14" t="n">
+      <c r="E188" s="35" t="n">
         <v>45857</v>
       </c>
-      <c r="F188" s="11" t="n">
+      <c r="F188" s="34" t="n">
         <f aca="false">E188/D188</f>
         <v>0.4191298784389</v>
       </c>
-      <c r="G188" s="12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H188" s="14" t="n">
+      <c r="G188" s="36" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H188" s="35" t="n">
         <f aca="false">(G188-E188)/F188</f>
         <v>9884.7641581438</v>
       </c>
-      <c r="I188" s="14" t="n">
+      <c r="I188" s="35" t="n">
         <f aca="false">E188*M188/G188</f>
         <v>9402.51928</v>
       </c>
-      <c r="J188" s="14" t="n">
+      <c r="J188" s="35" t="n">
         <f aca="false">I188-M188</f>
         <v>-849.48072</v>
       </c>
-      <c r="K188" s="15" t="n">
+      <c r="K188" s="32" t="n">
         <v>335</v>
       </c>
-      <c r="L188" s="15" t="s">
+      <c r="L188" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="M188" s="14" t="n">
+      <c r="M188" s="35" t="n">
         <v>10252</v>
       </c>
-      <c r="N188" s="14" t="n">
+      <c r="N188" s="35" t="n">
         <v>109410</v>
       </c>
-      <c r="O188" s="14" t="n">
+      <c r="O188" s="35" t="n">
         <v>2358</v>
       </c>
-      <c r="P188" s="14" t="n">
+      <c r="P188" s="35" t="n">
         <v>1121674816</v>
       </c>
-      <c r="Q188" s="15"/>
-      <c r="R188" s="15" t="n">
+      <c r="Q188" s="32"/>
+      <c r="R188" s="32" t="n">
         <v>20221010</v>
       </c>
     </row>
     <row r="189" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="15" t="n">
+      <c r="A189" s="32" t="n">
         <v>188</v>
       </c>
-      <c r="B189" s="15" t="s">
+      <c r="B189" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="C189" s="11" t="n">
+      <c r="C189" s="34" t="n">
         <v>0.388</v>
       </c>
-      <c r="D189" s="14" t="n">
+      <c r="D189" s="35" t="n">
         <v>116512</v>
       </c>
-      <c r="E189" s="14" t="n">
+      <c r="E189" s="35" t="n">
         <v>44643</v>
       </c>
-      <c r="F189" s="11" t="n">
+      <c r="F189" s="34" t="n">
         <f aca="false">E189/D189</f>
         <v>0.383162249382038</v>
       </c>
-      <c r="G189" s="12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H189" s="14" t="n">
+      <c r="G189" s="36" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H189" s="35" t="n">
         <f aca="false">(G189-E189)/F189</f>
         <v>13981.0224223282</v>
       </c>
-      <c r="I189" s="14" t="n">
+      <c r="I189" s="35" t="n">
         <f aca="false">E189*M189/G189</f>
         <v>18367.91592</v>
       </c>
-      <c r="J189" s="14" t="n">
+      <c r="J189" s="35" t="n">
         <f aca="false">I189-M189</f>
         <v>-2204.08408</v>
       </c>
-      <c r="K189" s="15" t="n">
+      <c r="K189" s="32" t="n">
         <v>337</v>
       </c>
-      <c r="L189" s="15" t="s">
+      <c r="L189" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="M189" s="14" t="n">
+      <c r="M189" s="35" t="n">
         <v>20572</v>
       </c>
-      <c r="N189" s="14" t="n">
+      <c r="N189" s="35" t="n">
         <v>116512</v>
       </c>
-      <c r="O189" s="14" t="n">
+      <c r="O189" s="35" t="n">
         <v>1632</v>
       </c>
-      <c r="P189" s="14" t="n">
+      <c r="P189" s="35" t="n">
         <v>2396877802</v>
       </c>
-      <c r="Q189" s="15"/>
-      <c r="R189" s="15" t="n">
+      <c r="Q189" s="32"/>
+      <c r="R189" s="32" t="n">
         <v>20221010</v>
       </c>
     </row>
@@ -18057,35 +17054,228 @@
         <v>20221010</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="0"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="0"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="0"/>
+    <row r="191" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="10" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C191" s="11" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="D191" s="14" t="n">
+        <v>152128</v>
+      </c>
+      <c r="E191" s="14" t="n">
+        <v>52488</v>
+      </c>
+      <c r="F191" s="11" t="n">
+        <f aca="false">E191/D191</f>
+        <v>0.345025241901557</v>
+      </c>
+      <c r="G191" s="12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H191" s="14" t="n">
+        <f aca="false">(G191-E191)/F191</f>
+        <v>-7211.06660570035</v>
+      </c>
+      <c r="I191" s="14" t="n">
+        <f aca="false">E191*M191/G191</f>
+        <v>27041.8176</v>
+      </c>
+      <c r="J191" s="14" t="n">
+        <f aca="false">I191-M191</f>
+        <v>1281.8176</v>
+      </c>
+      <c r="K191" s="12" t="n">
+        <v>356</v>
+      </c>
+      <c r="L191" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="M191" s="14" t="n">
+        <v>25760</v>
+      </c>
+      <c r="N191" s="14" t="n">
+        <v>152128</v>
+      </c>
+      <c r="O191" s="14" t="n">
+        <v>2776</v>
+      </c>
+      <c r="P191" s="14" t="n">
+        <v>3918820996</v>
+      </c>
+      <c r="Q191" s="10"/>
+      <c r="R191" s="10" t="n">
+        <v>20221011</v>
+      </c>
+    </row>
+    <row r="192" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="10" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C192" s="11" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="D192" s="14" t="n">
+        <v>119927</v>
+      </c>
+      <c r="E192" s="14" t="n">
+        <v>49458</v>
+      </c>
+      <c r="F192" s="11" t="n">
+        <f aca="false">E192/D192</f>
+        <v>0.412400877200297</v>
+      </c>
+      <c r="G192" s="12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H192" s="14" t="n">
+        <f aca="false">(G192-E192)/F192</f>
+        <v>1314.25520643779</v>
+      </c>
+      <c r="I192" s="14" t="n">
+        <f aca="false">E192*M192/G192</f>
+        <v>9251.61348</v>
+      </c>
+      <c r="J192" s="14" t="n">
+        <f aca="false">I192-M192</f>
+        <v>-101.38652</v>
+      </c>
+      <c r="K192" s="12" t="n">
+        <v>357</v>
+      </c>
+      <c r="L192" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="M192" s="14" t="n">
+        <v>9353</v>
+      </c>
+      <c r="N192" s="14" t="n">
+        <v>119927</v>
+      </c>
+      <c r="O192" s="14" t="n">
+        <v>2442</v>
+      </c>
+      <c r="P192" s="14" t="n">
+        <v>1121674816</v>
+      </c>
+      <c r="Q192" s="10"/>
+      <c r="R192" s="10" t="n">
+        <v>20221011</v>
+      </c>
+    </row>
+    <row r="193" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="6" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C193" s="7" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="D193" s="8" t="n">
+        <v>131206</v>
+      </c>
+      <c r="E193" s="8" t="n">
+        <v>49964</v>
+      </c>
+      <c r="F193" s="7" t="n">
+        <f aca="false">E193/D193</f>
+        <v>0.380805755834337</v>
+      </c>
+      <c r="G193" s="25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H193" s="8" t="n">
+        <f aca="false">(G193-E193)/F193</f>
+        <v>94.5363861980626</v>
+      </c>
+      <c r="I193" s="8" t="n">
+        <f aca="false">E193*M193/G193</f>
+        <v>18254.84704</v>
+      </c>
+      <c r="J193" s="8" t="n">
+        <f aca="false">I193-M193</f>
+        <v>-13.1529599999994</v>
+      </c>
+      <c r="K193" s="25" t="n">
+        <v>358</v>
+      </c>
+      <c r="L193" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="M193" s="8" t="n">
+        <v>18268</v>
+      </c>
+      <c r="N193" s="8" t="n">
+        <v>131206</v>
+      </c>
+      <c r="O193" s="8" t="n">
+        <v>1906</v>
+      </c>
+      <c r="P193" s="8" t="n">
+        <v>2396877802</v>
+      </c>
+      <c r="Q193" s="6"/>
+      <c r="R193" s="6" t="n">
+        <v>20221011</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C194" s="0"/>
-      <c r="F194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="0"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="0"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="0"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="0"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C199" s="0"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="0"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R190"/>
-  <conditionalFormatting sqref="H2:H198">
+  <autoFilter ref="A1:R193"/>
+  <conditionalFormatting sqref="H2:H197">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F195:F198 F2:F185 F187:F193">
+  <conditionalFormatting sqref="F2:F185 F187:F197">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>30%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J198">
+  <conditionalFormatting sqref="J2:J197">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>50</formula>
     </cfRule>
@@ -18097,7 +17287,7 @@
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F186:F190">
+  <conditionalFormatting sqref="F186:F193 F195">
     <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>30%</formula>
     </cfRule>
@@ -18124,7 +17314,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.39"/>
@@ -18157,7 +17347,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>96</v>
@@ -18777,7 +17967,7 @@
         <f aca="false">E14/D14</f>
         <v>0.336224045534027</v>
       </c>
-      <c r="G14" s="38" t="n">
+      <c r="G14" s="31" t="n">
         <v>50000</v>
       </c>
       <c r="H14" s="18" t="n">
@@ -19240,7 +18430,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.58"/>
@@ -19275,7 +18465,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>
@@ -20412,7 +19602,7 @@
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.29"/>
@@ -20448,7 +19638,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>

--- a/AggrFiles/STARR.xlsx
+++ b/AggrFiles/STARR.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Final_22_2nd" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$193</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$195</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="217">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -665,6 +665,18 @@
     <t xml:space="preserve">STARR_083_2_combine_force18268</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_073_3_combine_force27242)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_3_combine_force27242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_081_2_combine_force9252)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_081_2_combine_force9252</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample_id_ori</t>
   </si>
 </sst>
@@ -779,7 +791,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -908,11 +920,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -925,10 +937,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1110,7 +1118,7 @@
       <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3057,11 +3065,11 @@
   <dimension ref="A1:AMJ201"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C182" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A158" activeCellId="0" sqref="A158"/>
-      <selection pane="bottomRight" activeCell="J192" activeCellId="0" sqref="J192"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A182" activeCellId="0" sqref="A182"/>
+      <selection pane="bottomRight" activeCell="R171" activeCellId="0" sqref="R171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12614,7 +12622,7 @@
       <c r="AMI129" s="0"/>
       <c r="AMJ129" s="0"/>
     </row>
-    <row r="130" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="n">
         <v>129</v>
       </c>
@@ -12665,12 +12673,11 @@
       <c r="P130" s="1" t="n">
         <v>561385615</v>
       </c>
-      <c r="Q130" s="3"/>
       <c r="R130" s="0" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="131" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="n">
         <v>130</v>
       </c>
@@ -12726,7 +12733,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="n">
         <v>131</v>
       </c>
@@ -12777,6 +12784,7 @@
       <c r="P132" s="1" t="n">
         <v>444489382</v>
       </c>
+      <c r="Q132" s="3"/>
       <c r="R132" s="3" t="s">
         <v>143</v>
       </c>
@@ -14835,7 +14843,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="170" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="n">
         <v>169</v>
       </c>
@@ -14893,7 +14901,7 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="n">
         <v>170</v>
       </c>
@@ -14946,6 +14954,7 @@
       <c r="P171" s="4" t="n">
         <v>780110560</v>
       </c>
+      <c r="Q171" s="3"/>
       <c r="R171" s="3" t="n">
         <v>20220919</v>
       </c>
@@ -16302,7 +16311,7 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="178" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="27" t="n">
         <v>177</v>
       </c>
@@ -16359,6 +16368,1012 @@
       <c r="R178" s="27" t="n">
         <v>20220929</v>
       </c>
+      <c r="S178" s="0"/>
+      <c r="T178" s="0"/>
+      <c r="U178" s="0"/>
+      <c r="V178" s="0"/>
+      <c r="W178" s="0"/>
+      <c r="X178" s="0"/>
+      <c r="Y178" s="0"/>
+      <c r="Z178" s="0"/>
+      <c r="AA178" s="0"/>
+      <c r="AB178" s="0"/>
+      <c r="AC178" s="0"/>
+      <c r="AD178" s="0"/>
+      <c r="AE178" s="0"/>
+      <c r="AF178" s="0"/>
+      <c r="AG178" s="0"/>
+      <c r="AH178" s="0"/>
+      <c r="AI178" s="0"/>
+      <c r="AJ178" s="0"/>
+      <c r="AK178" s="0"/>
+      <c r="AL178" s="0"/>
+      <c r="AM178" s="0"/>
+      <c r="AN178" s="0"/>
+      <c r="AO178" s="0"/>
+      <c r="AP178" s="0"/>
+      <c r="AQ178" s="0"/>
+      <c r="AR178" s="0"/>
+      <c r="AS178" s="0"/>
+      <c r="AT178" s="0"/>
+      <c r="AU178" s="0"/>
+      <c r="AV178" s="0"/>
+      <c r="AW178" s="0"/>
+      <c r="AX178" s="0"/>
+      <c r="AY178" s="0"/>
+      <c r="AZ178" s="0"/>
+      <c r="BA178" s="0"/>
+      <c r="BB178" s="0"/>
+      <c r="BC178" s="0"/>
+      <c r="BD178" s="0"/>
+      <c r="BE178" s="0"/>
+      <c r="BF178" s="0"/>
+      <c r="BG178" s="0"/>
+      <c r="BH178" s="0"/>
+      <c r="BI178" s="0"/>
+      <c r="BJ178" s="0"/>
+      <c r="BK178" s="0"/>
+      <c r="BL178" s="0"/>
+      <c r="BM178" s="0"/>
+      <c r="BN178" s="0"/>
+      <c r="BO178" s="0"/>
+      <c r="BP178" s="0"/>
+      <c r="BQ178" s="0"/>
+      <c r="BR178" s="0"/>
+      <c r="BS178" s="0"/>
+      <c r="BT178" s="0"/>
+      <c r="BU178" s="0"/>
+      <c r="BV178" s="0"/>
+      <c r="BW178" s="0"/>
+      <c r="BX178" s="0"/>
+      <c r="BY178" s="0"/>
+      <c r="BZ178" s="0"/>
+      <c r="CA178" s="0"/>
+      <c r="CB178" s="0"/>
+      <c r="CC178" s="0"/>
+      <c r="CD178" s="0"/>
+      <c r="CE178" s="0"/>
+      <c r="CF178" s="0"/>
+      <c r="CG178" s="0"/>
+      <c r="CH178" s="0"/>
+      <c r="CI178" s="0"/>
+      <c r="CJ178" s="0"/>
+      <c r="CK178" s="0"/>
+      <c r="CL178" s="0"/>
+      <c r="CM178" s="0"/>
+      <c r="CN178" s="0"/>
+      <c r="CO178" s="0"/>
+      <c r="CP178" s="0"/>
+      <c r="CQ178" s="0"/>
+      <c r="CR178" s="0"/>
+      <c r="CS178" s="0"/>
+      <c r="CT178" s="0"/>
+      <c r="CU178" s="0"/>
+      <c r="CV178" s="0"/>
+      <c r="CW178" s="0"/>
+      <c r="CX178" s="0"/>
+      <c r="CY178" s="0"/>
+      <c r="CZ178" s="0"/>
+      <c r="DA178" s="0"/>
+      <c r="DB178" s="0"/>
+      <c r="DC178" s="0"/>
+      <c r="DD178" s="0"/>
+      <c r="DE178" s="0"/>
+      <c r="DF178" s="0"/>
+      <c r="DG178" s="0"/>
+      <c r="DH178" s="0"/>
+      <c r="DI178" s="0"/>
+      <c r="DJ178" s="0"/>
+      <c r="DK178" s="0"/>
+      <c r="DL178" s="0"/>
+      <c r="DM178" s="0"/>
+      <c r="DN178" s="0"/>
+      <c r="DO178" s="0"/>
+      <c r="DP178" s="0"/>
+      <c r="DQ178" s="0"/>
+      <c r="DR178" s="0"/>
+      <c r="DS178" s="0"/>
+      <c r="DT178" s="0"/>
+      <c r="DU178" s="0"/>
+      <c r="DV178" s="0"/>
+      <c r="DW178" s="0"/>
+      <c r="DX178" s="0"/>
+      <c r="DY178" s="0"/>
+      <c r="DZ178" s="0"/>
+      <c r="EA178" s="0"/>
+      <c r="EB178" s="0"/>
+      <c r="EC178" s="0"/>
+      <c r="ED178" s="0"/>
+      <c r="EE178" s="0"/>
+      <c r="EF178" s="0"/>
+      <c r="EG178" s="0"/>
+      <c r="EH178" s="0"/>
+      <c r="EI178" s="0"/>
+      <c r="EJ178" s="0"/>
+      <c r="EK178" s="0"/>
+      <c r="EL178" s="0"/>
+      <c r="EM178" s="0"/>
+      <c r="EN178" s="0"/>
+      <c r="EO178" s="0"/>
+      <c r="EP178" s="0"/>
+      <c r="EQ178" s="0"/>
+      <c r="ER178" s="0"/>
+      <c r="ES178" s="0"/>
+      <c r="ET178" s="0"/>
+      <c r="EU178" s="0"/>
+      <c r="EV178" s="0"/>
+      <c r="EW178" s="0"/>
+      <c r="EX178" s="0"/>
+      <c r="EY178" s="0"/>
+      <c r="EZ178" s="0"/>
+      <c r="FA178" s="0"/>
+      <c r="FB178" s="0"/>
+      <c r="FC178" s="0"/>
+      <c r="FD178" s="0"/>
+      <c r="FE178" s="0"/>
+      <c r="FF178" s="0"/>
+      <c r="FG178" s="0"/>
+      <c r="FH178" s="0"/>
+      <c r="FI178" s="0"/>
+      <c r="FJ178" s="0"/>
+      <c r="FK178" s="0"/>
+      <c r="FL178" s="0"/>
+      <c r="FM178" s="0"/>
+      <c r="FN178" s="0"/>
+      <c r="FO178" s="0"/>
+      <c r="FP178" s="0"/>
+      <c r="FQ178" s="0"/>
+      <c r="FR178" s="0"/>
+      <c r="FS178" s="0"/>
+      <c r="FT178" s="0"/>
+      <c r="FU178" s="0"/>
+      <c r="FV178" s="0"/>
+      <c r="FW178" s="0"/>
+      <c r="FX178" s="0"/>
+      <c r="FY178" s="0"/>
+      <c r="FZ178" s="0"/>
+      <c r="GA178" s="0"/>
+      <c r="GB178" s="0"/>
+      <c r="GC178" s="0"/>
+      <c r="GD178" s="0"/>
+      <c r="GE178" s="0"/>
+      <c r="GF178" s="0"/>
+      <c r="GG178" s="0"/>
+      <c r="GH178" s="0"/>
+      <c r="GI178" s="0"/>
+      <c r="GJ178" s="0"/>
+      <c r="GK178" s="0"/>
+      <c r="GL178" s="0"/>
+      <c r="GM178" s="0"/>
+      <c r="GN178" s="0"/>
+      <c r="GO178" s="0"/>
+      <c r="GP178" s="0"/>
+      <c r="GQ178" s="0"/>
+      <c r="GR178" s="0"/>
+      <c r="GS178" s="0"/>
+      <c r="GT178" s="0"/>
+      <c r="GU178" s="0"/>
+      <c r="GV178" s="0"/>
+      <c r="GW178" s="0"/>
+      <c r="GX178" s="0"/>
+      <c r="GY178" s="0"/>
+      <c r="GZ178" s="0"/>
+      <c r="HA178" s="0"/>
+      <c r="HB178" s="0"/>
+      <c r="HC178" s="0"/>
+      <c r="HD178" s="0"/>
+      <c r="HE178" s="0"/>
+      <c r="HF178" s="0"/>
+      <c r="HG178" s="0"/>
+      <c r="HH178" s="0"/>
+      <c r="HI178" s="0"/>
+      <c r="HJ178" s="0"/>
+      <c r="HK178" s="0"/>
+      <c r="HL178" s="0"/>
+      <c r="HM178" s="0"/>
+      <c r="HN178" s="0"/>
+      <c r="HO178" s="0"/>
+      <c r="HP178" s="0"/>
+      <c r="HQ178" s="0"/>
+      <c r="HR178" s="0"/>
+      <c r="HS178" s="0"/>
+      <c r="HT178" s="0"/>
+      <c r="HU178" s="0"/>
+      <c r="HV178" s="0"/>
+      <c r="HW178" s="0"/>
+      <c r="HX178" s="0"/>
+      <c r="HY178" s="0"/>
+      <c r="HZ178" s="0"/>
+      <c r="IA178" s="0"/>
+      <c r="IB178" s="0"/>
+      <c r="IC178" s="0"/>
+      <c r="ID178" s="0"/>
+      <c r="IE178" s="0"/>
+      <c r="IF178" s="0"/>
+      <c r="IG178" s="0"/>
+      <c r="IH178" s="0"/>
+      <c r="II178" s="0"/>
+      <c r="IJ178" s="0"/>
+      <c r="IK178" s="0"/>
+      <c r="IL178" s="0"/>
+      <c r="IM178" s="0"/>
+      <c r="IN178" s="0"/>
+      <c r="IO178" s="0"/>
+      <c r="IP178" s="0"/>
+      <c r="IQ178" s="0"/>
+      <c r="IR178" s="0"/>
+      <c r="IS178" s="0"/>
+      <c r="IT178" s="0"/>
+      <c r="IU178" s="0"/>
+      <c r="IV178" s="0"/>
+      <c r="IW178" s="0"/>
+      <c r="IX178" s="0"/>
+      <c r="IY178" s="0"/>
+      <c r="IZ178" s="0"/>
+      <c r="JA178" s="0"/>
+      <c r="JB178" s="0"/>
+      <c r="JC178" s="0"/>
+      <c r="JD178" s="0"/>
+      <c r="JE178" s="0"/>
+      <c r="JF178" s="0"/>
+      <c r="JG178" s="0"/>
+      <c r="JH178" s="0"/>
+      <c r="JI178" s="0"/>
+      <c r="JJ178" s="0"/>
+      <c r="JK178" s="0"/>
+      <c r="JL178" s="0"/>
+      <c r="JM178" s="0"/>
+      <c r="JN178" s="0"/>
+      <c r="JO178" s="0"/>
+      <c r="JP178" s="0"/>
+      <c r="JQ178" s="0"/>
+      <c r="JR178" s="0"/>
+      <c r="JS178" s="0"/>
+      <c r="JT178" s="0"/>
+      <c r="JU178" s="0"/>
+      <c r="JV178" s="0"/>
+      <c r="JW178" s="0"/>
+      <c r="JX178" s="0"/>
+      <c r="JY178" s="0"/>
+      <c r="JZ178" s="0"/>
+      <c r="KA178" s="0"/>
+      <c r="KB178" s="0"/>
+      <c r="KC178" s="0"/>
+      <c r="KD178" s="0"/>
+      <c r="KE178" s="0"/>
+      <c r="KF178" s="0"/>
+      <c r="KG178" s="0"/>
+      <c r="KH178" s="0"/>
+      <c r="KI178" s="0"/>
+      <c r="KJ178" s="0"/>
+      <c r="KK178" s="0"/>
+      <c r="KL178" s="0"/>
+      <c r="KM178" s="0"/>
+      <c r="KN178" s="0"/>
+      <c r="KO178" s="0"/>
+      <c r="KP178" s="0"/>
+      <c r="KQ178" s="0"/>
+      <c r="KR178" s="0"/>
+      <c r="KS178" s="0"/>
+      <c r="KT178" s="0"/>
+      <c r="KU178" s="0"/>
+      <c r="KV178" s="0"/>
+      <c r="KW178" s="0"/>
+      <c r="KX178" s="0"/>
+      <c r="KY178" s="0"/>
+      <c r="KZ178" s="0"/>
+      <c r="LA178" s="0"/>
+      <c r="LB178" s="0"/>
+      <c r="LC178" s="0"/>
+      <c r="LD178" s="0"/>
+      <c r="LE178" s="0"/>
+      <c r="LF178" s="0"/>
+      <c r="LG178" s="0"/>
+      <c r="LH178" s="0"/>
+      <c r="LI178" s="0"/>
+      <c r="LJ178" s="0"/>
+      <c r="LK178" s="0"/>
+      <c r="LL178" s="0"/>
+      <c r="LM178" s="0"/>
+      <c r="LN178" s="0"/>
+      <c r="LO178" s="0"/>
+      <c r="LP178" s="0"/>
+      <c r="LQ178" s="0"/>
+      <c r="LR178" s="0"/>
+      <c r="LS178" s="0"/>
+      <c r="LT178" s="0"/>
+      <c r="LU178" s="0"/>
+      <c r="LV178" s="0"/>
+      <c r="LW178" s="0"/>
+      <c r="LX178" s="0"/>
+      <c r="LY178" s="0"/>
+      <c r="LZ178" s="0"/>
+      <c r="MA178" s="0"/>
+      <c r="MB178" s="0"/>
+      <c r="MC178" s="0"/>
+      <c r="MD178" s="0"/>
+      <c r="ME178" s="0"/>
+      <c r="MF178" s="0"/>
+      <c r="MG178" s="0"/>
+      <c r="MH178" s="0"/>
+      <c r="MI178" s="0"/>
+      <c r="MJ178" s="0"/>
+      <c r="MK178" s="0"/>
+      <c r="ML178" s="0"/>
+      <c r="MM178" s="0"/>
+      <c r="MN178" s="0"/>
+      <c r="MO178" s="0"/>
+      <c r="MP178" s="0"/>
+      <c r="MQ178" s="0"/>
+      <c r="MR178" s="0"/>
+      <c r="MS178" s="0"/>
+      <c r="MT178" s="0"/>
+      <c r="MU178" s="0"/>
+      <c r="MV178" s="0"/>
+      <c r="MW178" s="0"/>
+      <c r="MX178" s="0"/>
+      <c r="MY178" s="0"/>
+      <c r="MZ178" s="0"/>
+      <c r="NA178" s="0"/>
+      <c r="NB178" s="0"/>
+      <c r="NC178" s="0"/>
+      <c r="ND178" s="0"/>
+      <c r="NE178" s="0"/>
+      <c r="NF178" s="0"/>
+      <c r="NG178" s="0"/>
+      <c r="NH178" s="0"/>
+      <c r="NI178" s="0"/>
+      <c r="NJ178" s="0"/>
+      <c r="NK178" s="0"/>
+      <c r="NL178" s="0"/>
+      <c r="NM178" s="0"/>
+      <c r="NN178" s="0"/>
+      <c r="NO178" s="0"/>
+      <c r="NP178" s="0"/>
+      <c r="NQ178" s="0"/>
+      <c r="NR178" s="0"/>
+      <c r="NS178" s="0"/>
+      <c r="NT178" s="0"/>
+      <c r="NU178" s="0"/>
+      <c r="NV178" s="0"/>
+      <c r="NW178" s="0"/>
+      <c r="NX178" s="0"/>
+      <c r="NY178" s="0"/>
+      <c r="NZ178" s="0"/>
+      <c r="OA178" s="0"/>
+      <c r="OB178" s="0"/>
+      <c r="OC178" s="0"/>
+      <c r="OD178" s="0"/>
+      <c r="OE178" s="0"/>
+      <c r="OF178" s="0"/>
+      <c r="OG178" s="0"/>
+      <c r="OH178" s="0"/>
+      <c r="OI178" s="0"/>
+      <c r="OJ178" s="0"/>
+      <c r="OK178" s="0"/>
+      <c r="OL178" s="0"/>
+      <c r="OM178" s="0"/>
+      <c r="ON178" s="0"/>
+      <c r="OO178" s="0"/>
+      <c r="OP178" s="0"/>
+      <c r="OQ178" s="0"/>
+      <c r="OR178" s="0"/>
+      <c r="OS178" s="0"/>
+      <c r="OT178" s="0"/>
+      <c r="OU178" s="0"/>
+      <c r="OV178" s="0"/>
+      <c r="OW178" s="0"/>
+      <c r="OX178" s="0"/>
+      <c r="OY178" s="0"/>
+      <c r="OZ178" s="0"/>
+      <c r="PA178" s="0"/>
+      <c r="PB178" s="0"/>
+      <c r="PC178" s="0"/>
+      <c r="PD178" s="0"/>
+      <c r="PE178" s="0"/>
+      <c r="PF178" s="0"/>
+      <c r="PG178" s="0"/>
+      <c r="PH178" s="0"/>
+      <c r="PI178" s="0"/>
+      <c r="PJ178" s="0"/>
+      <c r="PK178" s="0"/>
+      <c r="PL178" s="0"/>
+      <c r="PM178" s="0"/>
+      <c r="PN178" s="0"/>
+      <c r="PO178" s="0"/>
+      <c r="PP178" s="0"/>
+      <c r="PQ178" s="0"/>
+      <c r="PR178" s="0"/>
+      <c r="PS178" s="0"/>
+      <c r="PT178" s="0"/>
+      <c r="PU178" s="0"/>
+      <c r="PV178" s="0"/>
+      <c r="PW178" s="0"/>
+      <c r="PX178" s="0"/>
+      <c r="PY178" s="0"/>
+      <c r="PZ178" s="0"/>
+      <c r="QA178" s="0"/>
+      <c r="QB178" s="0"/>
+      <c r="QC178" s="0"/>
+      <c r="QD178" s="0"/>
+      <c r="QE178" s="0"/>
+      <c r="QF178" s="0"/>
+      <c r="QG178" s="0"/>
+      <c r="QH178" s="0"/>
+      <c r="QI178" s="0"/>
+      <c r="QJ178" s="0"/>
+      <c r="QK178" s="0"/>
+      <c r="QL178" s="0"/>
+      <c r="QM178" s="0"/>
+      <c r="QN178" s="0"/>
+      <c r="QO178" s="0"/>
+      <c r="QP178" s="0"/>
+      <c r="QQ178" s="0"/>
+      <c r="QR178" s="0"/>
+      <c r="QS178" s="0"/>
+      <c r="QT178" s="0"/>
+      <c r="QU178" s="0"/>
+      <c r="QV178" s="0"/>
+      <c r="QW178" s="0"/>
+      <c r="QX178" s="0"/>
+      <c r="QY178" s="0"/>
+      <c r="QZ178" s="0"/>
+      <c r="RA178" s="0"/>
+      <c r="RB178" s="0"/>
+      <c r="RC178" s="0"/>
+      <c r="RD178" s="0"/>
+      <c r="RE178" s="0"/>
+      <c r="RF178" s="0"/>
+      <c r="RG178" s="0"/>
+      <c r="RH178" s="0"/>
+      <c r="RI178" s="0"/>
+      <c r="RJ178" s="0"/>
+      <c r="RK178" s="0"/>
+      <c r="RL178" s="0"/>
+      <c r="RM178" s="0"/>
+      <c r="RN178" s="0"/>
+      <c r="RO178" s="0"/>
+      <c r="RP178" s="0"/>
+      <c r="RQ178" s="0"/>
+      <c r="RR178" s="0"/>
+      <c r="RS178" s="0"/>
+      <c r="RT178" s="0"/>
+      <c r="RU178" s="0"/>
+      <c r="RV178" s="0"/>
+      <c r="RW178" s="0"/>
+      <c r="RX178" s="0"/>
+      <c r="RY178" s="0"/>
+      <c r="RZ178" s="0"/>
+      <c r="SA178" s="0"/>
+      <c r="SB178" s="0"/>
+      <c r="SC178" s="0"/>
+      <c r="SD178" s="0"/>
+      <c r="SE178" s="0"/>
+      <c r="SF178" s="0"/>
+      <c r="SG178" s="0"/>
+      <c r="SH178" s="0"/>
+      <c r="SI178" s="0"/>
+      <c r="SJ178" s="0"/>
+      <c r="SK178" s="0"/>
+      <c r="SL178" s="0"/>
+      <c r="SM178" s="0"/>
+      <c r="SN178" s="0"/>
+      <c r="SO178" s="0"/>
+      <c r="SP178" s="0"/>
+      <c r="SQ178" s="0"/>
+      <c r="SR178" s="0"/>
+      <c r="SS178" s="0"/>
+      <c r="ST178" s="0"/>
+      <c r="SU178" s="0"/>
+      <c r="SV178" s="0"/>
+      <c r="SW178" s="0"/>
+      <c r="SX178" s="0"/>
+      <c r="SY178" s="0"/>
+      <c r="SZ178" s="0"/>
+      <c r="TA178" s="0"/>
+      <c r="TB178" s="0"/>
+      <c r="TC178" s="0"/>
+      <c r="TD178" s="0"/>
+      <c r="TE178" s="0"/>
+      <c r="TF178" s="0"/>
+      <c r="TG178" s="0"/>
+      <c r="TH178" s="0"/>
+      <c r="TI178" s="0"/>
+      <c r="TJ178" s="0"/>
+      <c r="TK178" s="0"/>
+      <c r="TL178" s="0"/>
+      <c r="TM178" s="0"/>
+      <c r="TN178" s="0"/>
+      <c r="TO178" s="0"/>
+      <c r="TP178" s="0"/>
+      <c r="TQ178" s="0"/>
+      <c r="TR178" s="0"/>
+      <c r="TS178" s="0"/>
+      <c r="TT178" s="0"/>
+      <c r="TU178" s="0"/>
+      <c r="TV178" s="0"/>
+      <c r="TW178" s="0"/>
+      <c r="TX178" s="0"/>
+      <c r="TY178" s="0"/>
+      <c r="TZ178" s="0"/>
+      <c r="UA178" s="0"/>
+      <c r="UB178" s="0"/>
+      <c r="UC178" s="0"/>
+      <c r="UD178" s="0"/>
+      <c r="UE178" s="0"/>
+      <c r="UF178" s="0"/>
+      <c r="UG178" s="0"/>
+      <c r="UH178" s="0"/>
+      <c r="UI178" s="0"/>
+      <c r="UJ178" s="0"/>
+      <c r="UK178" s="0"/>
+      <c r="UL178" s="0"/>
+      <c r="UM178" s="0"/>
+      <c r="UN178" s="0"/>
+      <c r="UO178" s="0"/>
+      <c r="UP178" s="0"/>
+      <c r="UQ178" s="0"/>
+      <c r="UR178" s="0"/>
+      <c r="US178" s="0"/>
+      <c r="UT178" s="0"/>
+      <c r="UU178" s="0"/>
+      <c r="UV178" s="0"/>
+      <c r="UW178" s="0"/>
+      <c r="UX178" s="0"/>
+      <c r="UY178" s="0"/>
+      <c r="UZ178" s="0"/>
+      <c r="VA178" s="0"/>
+      <c r="VB178" s="0"/>
+      <c r="VC178" s="0"/>
+      <c r="VD178" s="0"/>
+      <c r="VE178" s="0"/>
+      <c r="VF178" s="0"/>
+      <c r="VG178" s="0"/>
+      <c r="VH178" s="0"/>
+      <c r="VI178" s="0"/>
+      <c r="VJ178" s="0"/>
+      <c r="VK178" s="0"/>
+      <c r="VL178" s="0"/>
+      <c r="VM178" s="0"/>
+      <c r="VN178" s="0"/>
+      <c r="VO178" s="0"/>
+      <c r="VP178" s="0"/>
+      <c r="VQ178" s="0"/>
+      <c r="VR178" s="0"/>
+      <c r="VS178" s="0"/>
+      <c r="VT178" s="0"/>
+      <c r="VU178" s="0"/>
+      <c r="VV178" s="0"/>
+      <c r="VW178" s="0"/>
+      <c r="VX178" s="0"/>
+      <c r="VY178" s="0"/>
+      <c r="VZ178" s="0"/>
+      <c r="WA178" s="0"/>
+      <c r="WB178" s="0"/>
+      <c r="WC178" s="0"/>
+      <c r="WD178" s="0"/>
+      <c r="WE178" s="0"/>
+      <c r="WF178" s="0"/>
+      <c r="WG178" s="0"/>
+      <c r="WH178" s="0"/>
+      <c r="WI178" s="0"/>
+      <c r="WJ178" s="0"/>
+      <c r="WK178" s="0"/>
+      <c r="WL178" s="0"/>
+      <c r="WM178" s="0"/>
+      <c r="WN178" s="0"/>
+      <c r="WO178" s="0"/>
+      <c r="WP178" s="0"/>
+      <c r="WQ178" s="0"/>
+      <c r="WR178" s="0"/>
+      <c r="WS178" s="0"/>
+      <c r="WT178" s="0"/>
+      <c r="WU178" s="0"/>
+      <c r="WV178" s="0"/>
+      <c r="WW178" s="0"/>
+      <c r="WX178" s="0"/>
+      <c r="WY178" s="0"/>
+      <c r="WZ178" s="0"/>
+      <c r="XA178" s="0"/>
+      <c r="XB178" s="0"/>
+      <c r="XC178" s="0"/>
+      <c r="XD178" s="0"/>
+      <c r="XE178" s="0"/>
+      <c r="XF178" s="0"/>
+      <c r="XG178" s="0"/>
+      <c r="XH178" s="0"/>
+      <c r="XI178" s="0"/>
+      <c r="XJ178" s="0"/>
+      <c r="XK178" s="0"/>
+      <c r="XL178" s="0"/>
+      <c r="XM178" s="0"/>
+      <c r="XN178" s="0"/>
+      <c r="XO178" s="0"/>
+      <c r="XP178" s="0"/>
+      <c r="XQ178" s="0"/>
+      <c r="XR178" s="0"/>
+      <c r="XS178" s="0"/>
+      <c r="XT178" s="0"/>
+      <c r="XU178" s="0"/>
+      <c r="XV178" s="0"/>
+      <c r="XW178" s="0"/>
+      <c r="XX178" s="0"/>
+      <c r="XY178" s="0"/>
+      <c r="XZ178" s="0"/>
+      <c r="YA178" s="0"/>
+      <c r="YB178" s="0"/>
+      <c r="YC178" s="0"/>
+      <c r="YD178" s="0"/>
+      <c r="YE178" s="0"/>
+      <c r="YF178" s="0"/>
+      <c r="YG178" s="0"/>
+      <c r="YH178" s="0"/>
+      <c r="YI178" s="0"/>
+      <c r="YJ178" s="0"/>
+      <c r="YK178" s="0"/>
+      <c r="YL178" s="0"/>
+      <c r="YM178" s="0"/>
+      <c r="YN178" s="0"/>
+      <c r="YO178" s="0"/>
+      <c r="YP178" s="0"/>
+      <c r="YQ178" s="0"/>
+      <c r="YR178" s="0"/>
+      <c r="YS178" s="0"/>
+      <c r="YT178" s="0"/>
+      <c r="YU178" s="0"/>
+      <c r="YV178" s="0"/>
+      <c r="YW178" s="0"/>
+      <c r="YX178" s="0"/>
+      <c r="YY178" s="0"/>
+      <c r="YZ178" s="0"/>
+      <c r="ZA178" s="0"/>
+      <c r="ZB178" s="0"/>
+      <c r="ZC178" s="0"/>
+      <c r="ZD178" s="0"/>
+      <c r="ZE178" s="0"/>
+      <c r="ZF178" s="0"/>
+      <c r="ZG178" s="0"/>
+      <c r="ZH178" s="0"/>
+      <c r="ZI178" s="0"/>
+      <c r="ZJ178" s="0"/>
+      <c r="ZK178" s="0"/>
+      <c r="ZL178" s="0"/>
+      <c r="ZM178" s="0"/>
+      <c r="ZN178" s="0"/>
+      <c r="ZO178" s="0"/>
+      <c r="ZP178" s="0"/>
+      <c r="ZQ178" s="0"/>
+      <c r="ZR178" s="0"/>
+      <c r="ZS178" s="0"/>
+      <c r="ZT178" s="0"/>
+      <c r="ZU178" s="0"/>
+      <c r="ZV178" s="0"/>
+      <c r="ZW178" s="0"/>
+      <c r="ZX178" s="0"/>
+      <c r="ZY178" s="0"/>
+      <c r="ZZ178" s="0"/>
+      <c r="AAA178" s="0"/>
+      <c r="AAB178" s="0"/>
+      <c r="AAC178" s="0"/>
+      <c r="AAD178" s="0"/>
+      <c r="AAE178" s="0"/>
+      <c r="AAF178" s="0"/>
+      <c r="AAG178" s="0"/>
+      <c r="AAH178" s="0"/>
+      <c r="AAI178" s="0"/>
+      <c r="AAJ178" s="0"/>
+      <c r="AAK178" s="0"/>
+      <c r="AAL178" s="0"/>
+      <c r="AAM178" s="0"/>
+      <c r="AAN178" s="0"/>
+      <c r="AAO178" s="0"/>
+      <c r="AAP178" s="0"/>
+      <c r="AAQ178" s="0"/>
+      <c r="AAR178" s="0"/>
+      <c r="AAS178" s="0"/>
+      <c r="AAT178" s="0"/>
+      <c r="AAU178" s="0"/>
+      <c r="AAV178" s="0"/>
+      <c r="AAW178" s="0"/>
+      <c r="AAX178" s="0"/>
+      <c r="AAY178" s="0"/>
+      <c r="AAZ178" s="0"/>
+      <c r="ABA178" s="0"/>
+      <c r="ABB178" s="0"/>
+      <c r="ABC178" s="0"/>
+      <c r="ABD178" s="0"/>
+      <c r="ABE178" s="0"/>
+      <c r="ABF178" s="0"/>
+      <c r="ABG178" s="0"/>
+      <c r="ABH178" s="0"/>
+      <c r="ABI178" s="0"/>
+      <c r="ABJ178" s="0"/>
+      <c r="ABK178" s="0"/>
+      <c r="ABL178" s="0"/>
+      <c r="ABM178" s="0"/>
+      <c r="ABN178" s="0"/>
+      <c r="ABO178" s="0"/>
+      <c r="ABP178" s="0"/>
+      <c r="ABQ178" s="0"/>
+      <c r="ABR178" s="0"/>
+      <c r="ABS178" s="0"/>
+      <c r="ABT178" s="0"/>
+      <c r="ABU178" s="0"/>
+      <c r="ABV178" s="0"/>
+      <c r="ABW178" s="0"/>
+      <c r="ABX178" s="0"/>
+      <c r="ABY178" s="0"/>
+      <c r="ABZ178" s="0"/>
+      <c r="ACA178" s="0"/>
+      <c r="ACB178" s="0"/>
+      <c r="ACC178" s="0"/>
+      <c r="ACD178" s="0"/>
+      <c r="ACE178" s="0"/>
+      <c r="ACF178" s="0"/>
+      <c r="ACG178" s="0"/>
+      <c r="ACH178" s="0"/>
+      <c r="ACI178" s="0"/>
+      <c r="ACJ178" s="0"/>
+      <c r="ACK178" s="0"/>
+      <c r="ACL178" s="0"/>
+      <c r="ACM178" s="0"/>
+      <c r="ACN178" s="0"/>
+      <c r="ACO178" s="0"/>
+      <c r="ACP178" s="0"/>
+      <c r="ACQ178" s="0"/>
+      <c r="ACR178" s="0"/>
+      <c r="ACS178" s="0"/>
+      <c r="ACT178" s="0"/>
+      <c r="ACU178" s="0"/>
+      <c r="ACV178" s="0"/>
+      <c r="ACW178" s="0"/>
+      <c r="ACX178" s="0"/>
+      <c r="ACY178" s="0"/>
+      <c r="ACZ178" s="0"/>
+      <c r="ADA178" s="0"/>
+      <c r="ADB178" s="0"/>
+      <c r="ADC178" s="0"/>
+      <c r="ADD178" s="0"/>
+      <c r="ADE178" s="0"/>
+      <c r="ADF178" s="0"/>
+      <c r="ADG178" s="0"/>
+      <c r="ADH178" s="0"/>
+      <c r="ADI178" s="0"/>
+      <c r="ADJ178" s="0"/>
+      <c r="ADK178" s="0"/>
+      <c r="ADL178" s="0"/>
+      <c r="ADM178" s="0"/>
+      <c r="ADN178" s="0"/>
+      <c r="ADO178" s="0"/>
+      <c r="ADP178" s="0"/>
+      <c r="ADQ178" s="0"/>
+      <c r="ADR178" s="0"/>
+      <c r="ADS178" s="0"/>
+      <c r="ADT178" s="0"/>
+      <c r="ADU178" s="0"/>
+      <c r="ADV178" s="0"/>
+      <c r="ADW178" s="0"/>
+      <c r="ADX178" s="0"/>
+      <c r="ADY178" s="0"/>
+      <c r="ADZ178" s="0"/>
+      <c r="AEA178" s="0"/>
+      <c r="AEB178" s="0"/>
+      <c r="AEC178" s="0"/>
+      <c r="AED178" s="0"/>
+      <c r="AEE178" s="0"/>
+      <c r="AEF178" s="0"/>
+      <c r="AEG178" s="0"/>
+      <c r="AEH178" s="0"/>
+      <c r="AEI178" s="0"/>
+      <c r="AEJ178" s="0"/>
+      <c r="AEK178" s="0"/>
+      <c r="AEL178" s="0"/>
+      <c r="AEM178" s="0"/>
+      <c r="AEN178" s="0"/>
+      <c r="AEO178" s="0"/>
+      <c r="AEP178" s="0"/>
+      <c r="AEQ178" s="0"/>
+      <c r="AER178" s="0"/>
+      <c r="AES178" s="0"/>
+      <c r="AET178" s="0"/>
+      <c r="AEU178" s="0"/>
+      <c r="AEV178" s="0"/>
+      <c r="AEW178" s="0"/>
+      <c r="AEX178" s="0"/>
+      <c r="AEY178" s="0"/>
+      <c r="AEZ178" s="0"/>
+      <c r="AFA178" s="0"/>
+      <c r="AFB178" s="0"/>
+      <c r="AFC178" s="0"/>
+      <c r="AFD178" s="0"/>
+      <c r="AFE178" s="0"/>
+      <c r="AFF178" s="0"/>
+      <c r="AFG178" s="0"/>
+      <c r="AFH178" s="0"/>
+      <c r="AFI178" s="0"/>
+      <c r="AFJ178" s="0"/>
+      <c r="AFK178" s="0"/>
+      <c r="AFL178" s="0"/>
+      <c r="AFM178" s="0"/>
+      <c r="AFN178" s="0"/>
+      <c r="AFO178" s="0"/>
+      <c r="AFP178" s="0"/>
+      <c r="AFQ178" s="0"/>
+      <c r="AFR178" s="0"/>
+      <c r="AFS178" s="0"/>
+      <c r="AFT178" s="0"/>
+      <c r="AFU178" s="0"/>
+      <c r="AFV178" s="0"/>
+      <c r="AFW178" s="0"/>
+      <c r="AFX178" s="0"/>
+      <c r="AFY178" s="0"/>
+      <c r="AFZ178" s="0"/>
+      <c r="AGA178" s="0"/>
+      <c r="AGB178" s="0"/>
+      <c r="AGC178" s="0"/>
+      <c r="AGD178" s="0"/>
+      <c r="AGE178" s="0"/>
+      <c r="AGF178" s="0"/>
+      <c r="AGG178" s="0"/>
+      <c r="AGH178" s="0"/>
+      <c r="AGI178" s="0"/>
+      <c r="AGJ178" s="0"/>
+      <c r="AGK178" s="0"/>
+      <c r="AGL178" s="0"/>
+      <c r="AGM178" s="0"/>
+      <c r="AGN178" s="0"/>
+      <c r="AGO178" s="0"/>
+      <c r="AGP178" s="0"/>
+      <c r="AGQ178" s="0"/>
+      <c r="AGR178" s="0"/>
+      <c r="AGS178" s="0"/>
+      <c r="AGT178" s="0"/>
+      <c r="AGU178" s="0"/>
+      <c r="AGV178" s="0"/>
+      <c r="AGW178" s="0"/>
+      <c r="AGX178" s="0"/>
+      <c r="AGY178" s="0"/>
+      <c r="AGZ178" s="0"/>
+      <c r="AHA178" s="0"/>
+      <c r="AHB178" s="0"/>
+      <c r="AHC178" s="0"/>
+      <c r="AHD178" s="0"/>
+      <c r="AHE178" s="0"/>
+      <c r="AHF178" s="0"/>
+      <c r="AHG178" s="0"/>
+      <c r="AHH178" s="0"/>
+      <c r="AHI178" s="0"/>
+      <c r="AHJ178" s="0"/>
+      <c r="AHK178" s="0"/>
+      <c r="AHL178" s="0"/>
+      <c r="AHM178" s="0"/>
+      <c r="AHN178" s="0"/>
+      <c r="AHO178" s="0"/>
+      <c r="AHP178" s="0"/>
+      <c r="AHQ178" s="0"/>
+      <c r="AHR178" s="0"/>
+      <c r="AHS178" s="0"/>
+      <c r="AHT178" s="0"/>
+      <c r="AHU178" s="0"/>
+      <c r="AHV178" s="0"/>
+      <c r="AHW178" s="0"/>
+      <c r="AHX178" s="0"/>
+      <c r="AHY178" s="0"/>
+      <c r="AHZ178" s="0"/>
+      <c r="AIA178" s="0"/>
+      <c r="AIB178" s="0"/>
+      <c r="AIC178" s="0"/>
+      <c r="AID178" s="0"/>
+      <c r="AIE178" s="0"/>
+      <c r="AIF178" s="0"/>
+      <c r="AIG178" s="0"/>
+      <c r="AIH178" s="0"/>
+      <c r="AII178" s="0"/>
+      <c r="AIJ178" s="0"/>
+      <c r="AIK178" s="0"/>
+      <c r="AIL178" s="0"/>
+      <c r="AIM178" s="0"/>
+      <c r="AIN178" s="0"/>
+      <c r="AIO178" s="0"/>
+      <c r="AIP178" s="0"/>
+      <c r="AIQ178" s="0"/>
+      <c r="AIR178" s="0"/>
+      <c r="AIS178" s="0"/>
+      <c r="AIT178" s="0"/>
+      <c r="AIU178" s="0"/>
+      <c r="AIV178" s="0"/>
+      <c r="AIW178" s="0"/>
+      <c r="AIX178" s="0"/>
+      <c r="AIY178" s="0"/>
+      <c r="AIZ178" s="0"/>
+      <c r="AJA178" s="0"/>
+      <c r="AJB178" s="0"/>
+      <c r="AJC178" s="0"/>
+      <c r="AJD178" s="0"/>
+      <c r="AJE178" s="0"/>
+      <c r="AJF178" s="0"/>
+      <c r="AJG178" s="0"/>
+      <c r="AJH178" s="0"/>
+      <c r="AJI178" s="0"/>
+      <c r="AJJ178" s="0"/>
+      <c r="AJK178" s="0"/>
+      <c r="AJL178" s="0"/>
+      <c r="AJM178" s="0"/>
+      <c r="AJN178" s="0"/>
+      <c r="AJO178" s="0"/>
+      <c r="AJP178" s="0"/>
+      <c r="AJQ178" s="0"/>
+      <c r="AJR178" s="0"/>
+      <c r="AJS178" s="0"/>
+      <c r="AJT178" s="0"/>
+      <c r="AJU178" s="0"/>
+      <c r="AJV178" s="0"/>
+      <c r="AJW178" s="0"/>
+      <c r="AJX178" s="0"/>
+      <c r="AJY178" s="0"/>
+      <c r="AJZ178" s="0"/>
+      <c r="AKA178" s="0"/>
+      <c r="AKB178" s="0"/>
+      <c r="AKC178" s="0"/>
+      <c r="AKD178" s="0"/>
+      <c r="AKE178" s="0"/>
+      <c r="AKF178" s="0"/>
+      <c r="AKG178" s="0"/>
+      <c r="AKH178" s="0"/>
+      <c r="AKI178" s="0"/>
+      <c r="AKJ178" s="0"/>
+      <c r="AKK178" s="0"/>
+      <c r="AKL178" s="0"/>
+      <c r="AKM178" s="0"/>
+      <c r="AKN178" s="0"/>
+      <c r="AKO178" s="0"/>
+      <c r="AKP178" s="0"/>
+      <c r="AKQ178" s="0"/>
+      <c r="AKR178" s="0"/>
+      <c r="AKS178" s="0"/>
+      <c r="AKT178" s="0"/>
+      <c r="AKU178" s="0"/>
+      <c r="AKV178" s="0"/>
+      <c r="AKW178" s="0"/>
+      <c r="AKX178" s="0"/>
+      <c r="AKY178" s="0"/>
+      <c r="AKZ178" s="0"/>
+      <c r="ALA178" s="0"/>
+      <c r="ALB178" s="0"/>
+      <c r="ALC178" s="0"/>
+      <c r="ALD178" s="0"/>
+      <c r="ALE178" s="0"/>
+      <c r="ALF178" s="0"/>
+      <c r="ALG178" s="0"/>
+      <c r="ALH178" s="0"/>
+      <c r="ALI178" s="0"/>
+      <c r="ALJ178" s="0"/>
+      <c r="ALK178" s="0"/>
+      <c r="ALL178" s="0"/>
+      <c r="ALM178" s="0"/>
+      <c r="ALN178" s="0"/>
+      <c r="ALO178" s="0"/>
+      <c r="ALP178" s="0"/>
+      <c r="ALQ178" s="0"/>
+      <c r="ALR178" s="0"/>
+      <c r="ALS178" s="0"/>
+      <c r="ALT178" s="0"/>
+      <c r="ALU178" s="0"/>
+      <c r="ALV178" s="0"/>
+      <c r="ALW178" s="0"/>
+      <c r="ALX178" s="0"/>
+      <c r="ALY178" s="0"/>
+      <c r="ALZ178" s="0"/>
+      <c r="AMA178" s="0"/>
+      <c r="AMB178" s="0"/>
+      <c r="AMC178" s="0"/>
+      <c r="AMD178" s="0"/>
+      <c r="AME178" s="0"/>
+      <c r="AMF178" s="0"/>
+      <c r="AMG178" s="0"/>
+      <c r="AMH178" s="0"/>
+      <c r="AMI178" s="0"/>
+      <c r="AMJ178" s="0"/>
     </row>
     <row r="179" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="27" t="n">
@@ -16648,7 +17663,7 @@
         <v>20221005</v>
       </c>
     </row>
-    <row r="184" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="n">
         <v>183</v>
       </c>
@@ -16706,7 +17721,7 @@
         <v>20221005</v>
       </c>
     </row>
-    <row r="185" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
         <v>184</v>
       </c>
@@ -16764,65 +17779,65 @@
         <v>20221005</v>
       </c>
     </row>
-    <row r="186" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="32" t="n">
+    <row r="186" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="B186" s="32" t="s">
+      <c r="B186" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C186" s="34" t="n">
+      <c r="C186" s="5" t="n">
         <v>0.315</v>
       </c>
-      <c r="D186" s="35" t="n">
+      <c r="D186" s="1" t="n">
         <v>168791</v>
       </c>
-      <c r="E186" s="35" t="n">
+      <c r="E186" s="1" t="n">
         <v>55045</v>
       </c>
-      <c r="F186" s="34" t="n">
+      <c r="F186" s="5" t="n">
         <f aca="false">E186/D186</f>
         <v>0.326113359124598</v>
       </c>
-      <c r="G186" s="36" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H186" s="35" t="n">
+      <c r="G186" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H186" s="1" t="n">
         <f aca="false">(G186-E186)/F186</f>
         <v>-15470.0807521119</v>
       </c>
-      <c r="I186" s="35" t="n">
+      <c r="I186" s="1" t="n">
         <f aca="false">E186*M186/G186</f>
         <v>25559.5953</v>
       </c>
-      <c r="J186" s="35" t="n">
+      <c r="J186" s="1" t="n">
         <f aca="false">I186-M186</f>
         <v>2342.5953</v>
       </c>
-      <c r="K186" s="32" t="n">
+      <c r="K186" s="0" t="n">
         <v>355</v>
       </c>
-      <c r="L186" s="32" t="s">
+      <c r="L186" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="M186" s="35" t="n">
+      <c r="M186" s="1" t="n">
         <v>23217</v>
       </c>
-      <c r="N186" s="35" t="n">
+      <c r="N186" s="1" t="n">
         <v>168791</v>
       </c>
-      <c r="O186" s="35" t="n">
+      <c r="O186" s="1" t="n">
         <v>2857</v>
       </c>
-      <c r="P186" s="35" t="n">
+      <c r="P186" s="1" t="n">
         <v>3918820996</v>
       </c>
-      <c r="Q186" s="32"/>
-      <c r="R186" s="32" t="n">
+      <c r="Q186" s="0"/>
+      <c r="R186" s="0" t="n">
         <v>20221010</v>
       </c>
     </row>
-    <row r="187" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
         <v>186</v>
       </c>
@@ -16880,123 +17895,123 @@
         <v>20221010</v>
       </c>
     </row>
-    <row r="188" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="32" t="n">
+    <row r="188" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="B188" s="32" t="s">
+      <c r="B188" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C188" s="34" t="n">
+      <c r="C188" s="5" t="n">
         <v>0.378</v>
       </c>
-      <c r="D188" s="35" t="n">
+      <c r="D188" s="1" t="n">
         <v>109410</v>
       </c>
-      <c r="E188" s="35" t="n">
+      <c r="E188" s="1" t="n">
         <v>45857</v>
       </c>
-      <c r="F188" s="34" t="n">
+      <c r="F188" s="5" t="n">
         <f aca="false">E188/D188</f>
         <v>0.4191298784389</v>
       </c>
-      <c r="G188" s="36" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H188" s="35" t="n">
+      <c r="G188" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H188" s="1" t="n">
         <f aca="false">(G188-E188)/F188</f>
         <v>9884.7641581438</v>
       </c>
-      <c r="I188" s="35" t="n">
+      <c r="I188" s="1" t="n">
         <f aca="false">E188*M188/G188</f>
         <v>9402.51928</v>
       </c>
-      <c r="J188" s="35" t="n">
+      <c r="J188" s="1" t="n">
         <f aca="false">I188-M188</f>
         <v>-849.48072</v>
       </c>
-      <c r="K188" s="32" t="n">
+      <c r="K188" s="0" t="n">
         <v>335</v>
       </c>
-      <c r="L188" s="32" t="s">
+      <c r="L188" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="M188" s="35" t="n">
+      <c r="M188" s="1" t="n">
         <v>10252</v>
       </c>
-      <c r="N188" s="35" t="n">
+      <c r="N188" s="1" t="n">
         <v>109410</v>
       </c>
-      <c r="O188" s="35" t="n">
+      <c r="O188" s="1" t="n">
         <v>2358</v>
       </c>
-      <c r="P188" s="35" t="n">
+      <c r="P188" s="1" t="n">
         <v>1121674816</v>
       </c>
-      <c r="Q188" s="32"/>
-      <c r="R188" s="32" t="n">
+      <c r="Q188" s="0"/>
+      <c r="R188" s="0" t="n">
         <v>20221010</v>
       </c>
     </row>
-    <row r="189" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="32" t="n">
+    <row r="189" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="B189" s="32" t="s">
+      <c r="B189" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C189" s="34" t="n">
+      <c r="C189" s="5" t="n">
         <v>0.388</v>
       </c>
-      <c r="D189" s="35" t="n">
+      <c r="D189" s="1" t="n">
         <v>116512</v>
       </c>
-      <c r="E189" s="35" t="n">
+      <c r="E189" s="1" t="n">
         <v>44643</v>
       </c>
-      <c r="F189" s="34" t="n">
+      <c r="F189" s="5" t="n">
         <f aca="false">E189/D189</f>
         <v>0.383162249382038</v>
       </c>
-      <c r="G189" s="36" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H189" s="35" t="n">
+      <c r="G189" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H189" s="1" t="n">
         <f aca="false">(G189-E189)/F189</f>
         <v>13981.0224223282</v>
       </c>
-      <c r="I189" s="35" t="n">
+      <c r="I189" s="1" t="n">
         <f aca="false">E189*M189/G189</f>
         <v>18367.91592</v>
       </c>
-      <c r="J189" s="35" t="n">
+      <c r="J189" s="1" t="n">
         <f aca="false">I189-M189</f>
         <v>-2204.08408</v>
       </c>
-      <c r="K189" s="32" t="n">
+      <c r="K189" s="0" t="n">
         <v>337</v>
       </c>
-      <c r="L189" s="32" t="s">
+      <c r="L189" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="M189" s="35" t="n">
+      <c r="M189" s="1" t="n">
         <v>20572</v>
       </c>
-      <c r="N189" s="35" t="n">
+      <c r="N189" s="1" t="n">
         <v>116512</v>
       </c>
-      <c r="O189" s="35" t="n">
+      <c r="O189" s="1" t="n">
         <v>1632</v>
       </c>
-      <c r="P189" s="35" t="n">
+      <c r="P189" s="1" t="n">
         <v>2396877802</v>
       </c>
-      <c r="Q189" s="32"/>
-      <c r="R189" s="32" t="n">
+      <c r="Q189" s="0"/>
+      <c r="R189" s="0" t="n">
         <v>20221010</v>
       </c>
     </row>
-    <row r="190" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
         <v>189</v>
       </c>
@@ -17054,123 +18069,123 @@
         <v>20221010</v>
       </c>
     </row>
-    <row r="191" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10" t="n">
+    <row r="191" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="29" t="n">
         <v>190</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="C191" s="11" t="n">
+      <c r="C191" s="34" t="n">
         <v>0.841</v>
       </c>
-      <c r="D191" s="14" t="n">
+      <c r="D191" s="35" t="n">
         <v>152128</v>
       </c>
-      <c r="E191" s="14" t="n">
+      <c r="E191" s="35" t="n">
         <v>52488</v>
       </c>
-      <c r="F191" s="11" t="n">
+      <c r="F191" s="34" t="n">
         <f aca="false">E191/D191</f>
         <v>0.345025241901557</v>
       </c>
-      <c r="G191" s="12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H191" s="14" t="n">
+      <c r="G191" s="36" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H191" s="35" t="n">
         <f aca="false">(G191-E191)/F191</f>
         <v>-7211.06660570035</v>
       </c>
-      <c r="I191" s="14" t="n">
+      <c r="I191" s="35" t="n">
         <f aca="false">E191*M191/G191</f>
         <v>27041.8176</v>
       </c>
-      <c r="J191" s="14" t="n">
+      <c r="J191" s="35" t="n">
         <f aca="false">I191-M191</f>
         <v>1281.8176</v>
       </c>
-      <c r="K191" s="12" t="n">
+      <c r="K191" s="36" t="n">
         <v>356</v>
       </c>
-      <c r="L191" s="12" t="s">
+      <c r="L191" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="M191" s="14" t="n">
+      <c r="M191" s="35" t="n">
         <v>25760</v>
       </c>
-      <c r="N191" s="14" t="n">
+      <c r="N191" s="35" t="n">
         <v>152128</v>
       </c>
-      <c r="O191" s="14" t="n">
+      <c r="O191" s="35" t="n">
         <v>2776</v>
       </c>
-      <c r="P191" s="14" t="n">
+      <c r="P191" s="35" t="n">
         <v>3918820996</v>
       </c>
-      <c r="Q191" s="10"/>
-      <c r="R191" s="10" t="n">
+      <c r="Q191" s="29"/>
+      <c r="R191" s="29" t="n">
         <v>20221011</v>
       </c>
     </row>
-    <row r="192" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10" t="n">
+    <row r="192" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="29" t="n">
         <v>191</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C192" s="11" t="n">
+      <c r="C192" s="34" t="n">
         <v>0.893</v>
       </c>
-      <c r="D192" s="14" t="n">
+      <c r="D192" s="35" t="n">
         <v>119927</v>
       </c>
-      <c r="E192" s="14" t="n">
+      <c r="E192" s="35" t="n">
         <v>49458</v>
       </c>
-      <c r="F192" s="11" t="n">
+      <c r="F192" s="34" t="n">
         <f aca="false">E192/D192</f>
         <v>0.412400877200297</v>
       </c>
-      <c r="G192" s="12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H192" s="14" t="n">
+      <c r="G192" s="36" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H192" s="35" t="n">
         <f aca="false">(G192-E192)/F192</f>
         <v>1314.25520643779</v>
       </c>
-      <c r="I192" s="14" t="n">
+      <c r="I192" s="35" t="n">
         <f aca="false">E192*M192/G192</f>
         <v>9251.61348</v>
       </c>
-      <c r="J192" s="14" t="n">
+      <c r="J192" s="35" t="n">
         <f aca="false">I192-M192</f>
         <v>-101.38652</v>
       </c>
-      <c r="K192" s="12" t="n">
+      <c r="K192" s="36" t="n">
         <v>357</v>
       </c>
-      <c r="L192" s="12" t="s">
+      <c r="L192" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="M192" s="14" t="n">
+      <c r="M192" s="35" t="n">
         <v>9353</v>
       </c>
-      <c r="N192" s="14" t="n">
+      <c r="N192" s="35" t="n">
         <v>119927</v>
       </c>
-      <c r="O192" s="14" t="n">
+      <c r="O192" s="35" t="n">
         <v>2442</v>
       </c>
-      <c r="P192" s="14" t="n">
+      <c r="P192" s="35" t="n">
         <v>1121674816</v>
       </c>
-      <c r="Q192" s="10"/>
-      <c r="R192" s="10" t="n">
+      <c r="Q192" s="29"/>
+      <c r="R192" s="29" t="n">
         <v>20221011</v>
       </c>
     </row>
-    <row r="193" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="n">
         <v>192</v>
       </c>
@@ -17228,22 +18243,121 @@
         <v>20221011</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="0"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="5"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
+    <row r="194" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="6" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C194" s="7" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="D194" s="8" t="n">
+        <v>143852</v>
+      </c>
+      <c r="E194" s="8" t="n">
+        <v>51147</v>
+      </c>
+      <c r="F194" s="7" t="n">
+        <f aca="false">E194/D194</f>
+        <v>0.355552929399661</v>
+      </c>
+      <c r="G194" s="25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H194" s="8" t="n">
+        <f aca="false">(G194-E194)/F194</f>
+        <v>-3225.96132715506</v>
+      </c>
+      <c r="I194" s="8" t="n">
+        <f aca="false">E194*M194/G194</f>
+        <v>27866.93148</v>
+      </c>
+      <c r="J194" s="8" t="n">
+        <f aca="false">I194-M194</f>
+        <v>624.931479999999</v>
+      </c>
+      <c r="K194" s="25" t="n">
+        <v>360</v>
+      </c>
+      <c r="L194" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M194" s="8" t="n">
+        <v>27242</v>
+      </c>
+      <c r="N194" s="8" t="n">
+        <v>143852</v>
+      </c>
+      <c r="O194" s="8" t="n">
+        <v>2732</v>
+      </c>
+      <c r="P194" s="8" t="n">
+        <v>3918820996</v>
+      </c>
+      <c r="Q194" s="6"/>
+      <c r="R194" s="6" t="n">
+        <v>20221013</v>
+      </c>
+    </row>
+    <row r="195" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="6" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C195" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" s="8" t="n">
+        <v>121236</v>
+      </c>
+      <c r="E195" s="8" t="n">
+        <v>49817</v>
+      </c>
+      <c r="F195" s="7" t="n">
+        <f aca="false">E195/D195</f>
+        <v>0.410909300867729</v>
+      </c>
+      <c r="G195" s="25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H195" s="8" t="n">
+        <f aca="false">(G195-E195)/F195</f>
+        <v>445.353754742357</v>
+      </c>
+      <c r="I195" s="8" t="n">
+        <f aca="false">E195*M195/G195</f>
+        <v>9218.13768</v>
+      </c>
+      <c r="J195" s="8" t="n">
+        <f aca="false">I195-M195</f>
+        <v>-33.8623200000002</v>
+      </c>
+      <c r="K195" s="25" t="n">
+        <v>361</v>
+      </c>
+      <c r="L195" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M195" s="8" t="n">
+        <v>9252</v>
+      </c>
+      <c r="N195" s="8" t="n">
+        <v>121236</v>
+      </c>
+      <c r="O195" s="8" t="n">
+        <v>2451</v>
+      </c>
+      <c r="P195" s="8" t="n">
+        <v>1121674816</v>
+      </c>
+      <c r="Q195" s="6"/>
+      <c r="R195" s="6" t="n">
+        <v>20221013</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C196" s="0"/>
@@ -17264,7 +18378,7 @@
       <c r="C201" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R193"/>
+  <autoFilter ref="A1:R195"/>
   <conditionalFormatting sqref="H2:H197">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
@@ -17287,7 +18401,7 @@
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F186:F193 F195">
+  <conditionalFormatting sqref="F186:F195">
     <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>30%</formula>
     </cfRule>
@@ -17314,7 +18428,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.39"/>
@@ -17347,7 +18461,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>96</v>
@@ -18430,7 +19544,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.58"/>
@@ -18465,7 +19579,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>
@@ -19602,7 +20716,7 @@
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.29"/>
@@ -19638,7 +20752,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>

--- a/AggrFiles/STARR.xlsx
+++ b/AggrFiles/STARR.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Final_22_2nd" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$195</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All!$A$1:$R$210</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="247">
   <si>
     <t xml:space="preserve">Fraction of Reads Kept</t>
   </si>
@@ -675,6 +675,96 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_081_2_combine_force9252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_078)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_084)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_087_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_087_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_087_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_087_2_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_093_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_093_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_093_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_093_2_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_095)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_096)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_098_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_098_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_098_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_098_2_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_099_2nd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_099_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_099_2_combine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_099_2_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_101)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_104)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Reads Kept (STARR_105)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_105</t>
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
@@ -719,7 +809,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,13 +825,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
@@ -754,6 +844,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
         <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -791,7 +899,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -908,11 +1016,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -920,23 +1072,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1073,11 +1237,11 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFD8CE"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD8CE"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
@@ -1115,10 +1279,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="1" sqref="201:201 E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
@@ -3062,14 +3226,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ201"/>
+  <dimension ref="A1:AMJ240"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C182" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C170" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A182" activeCellId="0" sqref="A182"/>
-      <selection pane="bottomRight" activeCell="R171" activeCellId="0" sqref="R171"/>
+      <selection pane="bottomLeft" activeCell="A170" activeCellId="0" sqref="A170"/>
+      <selection pane="bottomRight" activeCell="A201" activeCellId="0" sqref="201:201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3081,7 +3245,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="3" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="28.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="32.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="7.6"/>
@@ -12677,7 +12841,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="n">
         <v>130</v>
       </c>
@@ -12728,7 +12892,6 @@
       <c r="P131" s="1" t="n">
         <v>432080145</v>
       </c>
-      <c r="Q131" s="3"/>
       <c r="R131" s="3" t="s">
         <v>143</v>
       </c>
@@ -14118,7 +14281,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="n">
         <v>156</v>
       </c>
@@ -14901,7 +15064,7 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="171" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="n">
         <v>170</v>
       </c>
@@ -14954,7 +15117,6 @@
       <c r="P171" s="4" t="n">
         <v>780110560</v>
       </c>
-      <c r="Q171" s="3"/>
       <c r="R171" s="3" t="n">
         <v>20220919</v>
       </c>
@@ -15073,7 +15235,7 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="174" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="28" t="n">
         <v>173</v>
       </c>
@@ -16311,1124 +16473,117 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="27" t="n">
+    <row r="178" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="30" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="27" t="s">
+      <c r="B178" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C178" s="17" t="n">
+      <c r="C178" s="31" t="n">
         <v>0.418</v>
       </c>
-      <c r="D178" s="31" t="n">
+      <c r="D178" s="32" t="n">
         <v>88333</v>
       </c>
-      <c r="E178" s="31" t="n">
+      <c r="E178" s="32" t="n">
         <v>40017</v>
       </c>
-      <c r="F178" s="17" t="n">
+      <c r="F178" s="31" t="n">
         <f aca="false">E178/D178</f>
         <v>0.453024351035287</v>
       </c>
-      <c r="G178" s="31" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H178" s="18" t="n">
+      <c r="G178" s="32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H178" s="33" t="n">
         <f aca="false">(G178-E178)/F178</f>
         <v>22036.3430292126</v>
       </c>
-      <c r="I178" s="18" t="n">
+      <c r="I178" s="33" t="n">
         <f aca="false">E178*M178/G178</f>
         <v>7680.86298</v>
       </c>
-      <c r="J178" s="18" t="n">
+      <c r="J178" s="33" t="n">
         <f aca="false">I178-M178</f>
         <v>-1916.13702</v>
       </c>
-      <c r="K178" s="27" t="n">
+      <c r="K178" s="30" t="n">
         <v>318</v>
       </c>
-      <c r="L178" s="27" t="s">
+      <c r="L178" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="M178" s="31" t="n">
+      <c r="M178" s="32" t="n">
         <v>9597</v>
       </c>
-      <c r="N178" s="31" t="n">
+      <c r="N178" s="32" t="n">
         <v>88333</v>
       </c>
-      <c r="O178" s="31" t="n">
+      <c r="O178" s="32" t="n">
         <v>3133</v>
       </c>
-      <c r="P178" s="31" t="n">
+      <c r="P178" s="32" t="n">
         <v>847735375</v>
       </c>
-      <c r="Q178" s="27"/>
-      <c r="R178" s="27" t="n">
+      <c r="R178" s="30" t="n">
         <v>20220929</v>
       </c>
-      <c r="S178" s="0"/>
-      <c r="T178" s="0"/>
-      <c r="U178" s="0"/>
-      <c r="V178" s="0"/>
-      <c r="W178" s="0"/>
-      <c r="X178" s="0"/>
-      <c r="Y178" s="0"/>
-      <c r="Z178" s="0"/>
-      <c r="AA178" s="0"/>
-      <c r="AB178" s="0"/>
-      <c r="AC178" s="0"/>
-      <c r="AD178" s="0"/>
-      <c r="AE178" s="0"/>
-      <c r="AF178" s="0"/>
-      <c r="AG178" s="0"/>
-      <c r="AH178" s="0"/>
-      <c r="AI178" s="0"/>
-      <c r="AJ178" s="0"/>
-      <c r="AK178" s="0"/>
-      <c r="AL178" s="0"/>
-      <c r="AM178" s="0"/>
-      <c r="AN178" s="0"/>
-      <c r="AO178" s="0"/>
-      <c r="AP178" s="0"/>
-      <c r="AQ178" s="0"/>
-      <c r="AR178" s="0"/>
-      <c r="AS178" s="0"/>
-      <c r="AT178" s="0"/>
-      <c r="AU178" s="0"/>
-      <c r="AV178" s="0"/>
-      <c r="AW178" s="0"/>
-      <c r="AX178" s="0"/>
-      <c r="AY178" s="0"/>
-      <c r="AZ178" s="0"/>
-      <c r="BA178" s="0"/>
-      <c r="BB178" s="0"/>
-      <c r="BC178" s="0"/>
-      <c r="BD178" s="0"/>
-      <c r="BE178" s="0"/>
-      <c r="BF178" s="0"/>
-      <c r="BG178" s="0"/>
-      <c r="BH178" s="0"/>
-      <c r="BI178" s="0"/>
-      <c r="BJ178" s="0"/>
-      <c r="BK178" s="0"/>
-      <c r="BL178" s="0"/>
-      <c r="BM178" s="0"/>
-      <c r="BN178" s="0"/>
-      <c r="BO178" s="0"/>
-      <c r="BP178" s="0"/>
-      <c r="BQ178" s="0"/>
-      <c r="BR178" s="0"/>
-      <c r="BS178" s="0"/>
-      <c r="BT178" s="0"/>
-      <c r="BU178" s="0"/>
-      <c r="BV178" s="0"/>
-      <c r="BW178" s="0"/>
-      <c r="BX178" s="0"/>
-      <c r="BY178" s="0"/>
-      <c r="BZ178" s="0"/>
-      <c r="CA178" s="0"/>
-      <c r="CB178" s="0"/>
-      <c r="CC178" s="0"/>
-      <c r="CD178" s="0"/>
-      <c r="CE178" s="0"/>
-      <c r="CF178" s="0"/>
-      <c r="CG178" s="0"/>
-      <c r="CH178" s="0"/>
-      <c r="CI178" s="0"/>
-      <c r="CJ178" s="0"/>
-      <c r="CK178" s="0"/>
-      <c r="CL178" s="0"/>
-      <c r="CM178" s="0"/>
-      <c r="CN178" s="0"/>
-      <c r="CO178" s="0"/>
-      <c r="CP178" s="0"/>
-      <c r="CQ178" s="0"/>
-      <c r="CR178" s="0"/>
-      <c r="CS178" s="0"/>
-      <c r="CT178" s="0"/>
-      <c r="CU178" s="0"/>
-      <c r="CV178" s="0"/>
-      <c r="CW178" s="0"/>
-      <c r="CX178" s="0"/>
-      <c r="CY178" s="0"/>
-      <c r="CZ178" s="0"/>
-      <c r="DA178" s="0"/>
-      <c r="DB178" s="0"/>
-      <c r="DC178" s="0"/>
-      <c r="DD178" s="0"/>
-      <c r="DE178" s="0"/>
-      <c r="DF178" s="0"/>
-      <c r="DG178" s="0"/>
-      <c r="DH178" s="0"/>
-      <c r="DI178" s="0"/>
-      <c r="DJ178" s="0"/>
-      <c r="DK178" s="0"/>
-      <c r="DL178" s="0"/>
-      <c r="DM178" s="0"/>
-      <c r="DN178" s="0"/>
-      <c r="DO178" s="0"/>
-      <c r="DP178" s="0"/>
-      <c r="DQ178" s="0"/>
-      <c r="DR178" s="0"/>
-      <c r="DS178" s="0"/>
-      <c r="DT178" s="0"/>
-      <c r="DU178" s="0"/>
-      <c r="DV178" s="0"/>
-      <c r="DW178" s="0"/>
-      <c r="DX178" s="0"/>
-      <c r="DY178" s="0"/>
-      <c r="DZ178" s="0"/>
-      <c r="EA178" s="0"/>
-      <c r="EB178" s="0"/>
-      <c r="EC178" s="0"/>
-      <c r="ED178" s="0"/>
-      <c r="EE178" s="0"/>
-      <c r="EF178" s="0"/>
-      <c r="EG178" s="0"/>
-      <c r="EH178" s="0"/>
-      <c r="EI178" s="0"/>
-      <c r="EJ178" s="0"/>
-      <c r="EK178" s="0"/>
-      <c r="EL178" s="0"/>
-      <c r="EM178" s="0"/>
-      <c r="EN178" s="0"/>
-      <c r="EO178" s="0"/>
-      <c r="EP178" s="0"/>
-      <c r="EQ178" s="0"/>
-      <c r="ER178" s="0"/>
-      <c r="ES178" s="0"/>
-      <c r="ET178" s="0"/>
-      <c r="EU178" s="0"/>
-      <c r="EV178" s="0"/>
-      <c r="EW178" s="0"/>
-      <c r="EX178" s="0"/>
-      <c r="EY178" s="0"/>
-      <c r="EZ178" s="0"/>
-      <c r="FA178" s="0"/>
-      <c r="FB178" s="0"/>
-      <c r="FC178" s="0"/>
-      <c r="FD178" s="0"/>
-      <c r="FE178" s="0"/>
-      <c r="FF178" s="0"/>
-      <c r="FG178" s="0"/>
-      <c r="FH178" s="0"/>
-      <c r="FI178" s="0"/>
-      <c r="FJ178" s="0"/>
-      <c r="FK178" s="0"/>
-      <c r="FL178" s="0"/>
-      <c r="FM178" s="0"/>
-      <c r="FN178" s="0"/>
-      <c r="FO178" s="0"/>
-      <c r="FP178" s="0"/>
-      <c r="FQ178" s="0"/>
-      <c r="FR178" s="0"/>
-      <c r="FS178" s="0"/>
-      <c r="FT178" s="0"/>
-      <c r="FU178" s="0"/>
-      <c r="FV178" s="0"/>
-      <c r="FW178" s="0"/>
-      <c r="FX178" s="0"/>
-      <c r="FY178" s="0"/>
-      <c r="FZ178" s="0"/>
-      <c r="GA178" s="0"/>
-      <c r="GB178" s="0"/>
-      <c r="GC178" s="0"/>
-      <c r="GD178" s="0"/>
-      <c r="GE178" s="0"/>
-      <c r="GF178" s="0"/>
-      <c r="GG178" s="0"/>
-      <c r="GH178" s="0"/>
-      <c r="GI178" s="0"/>
-      <c r="GJ178" s="0"/>
-      <c r="GK178" s="0"/>
-      <c r="GL178" s="0"/>
-      <c r="GM178" s="0"/>
-      <c r="GN178" s="0"/>
-      <c r="GO178" s="0"/>
-      <c r="GP178" s="0"/>
-      <c r="GQ178" s="0"/>
-      <c r="GR178" s="0"/>
-      <c r="GS178" s="0"/>
-      <c r="GT178" s="0"/>
-      <c r="GU178" s="0"/>
-      <c r="GV178" s="0"/>
-      <c r="GW178" s="0"/>
-      <c r="GX178" s="0"/>
-      <c r="GY178" s="0"/>
-      <c r="GZ178" s="0"/>
-      <c r="HA178" s="0"/>
-      <c r="HB178" s="0"/>
-      <c r="HC178" s="0"/>
-      <c r="HD178" s="0"/>
-      <c r="HE178" s="0"/>
-      <c r="HF178" s="0"/>
-      <c r="HG178" s="0"/>
-      <c r="HH178" s="0"/>
-      <c r="HI178" s="0"/>
-      <c r="HJ178" s="0"/>
-      <c r="HK178" s="0"/>
-      <c r="HL178" s="0"/>
-      <c r="HM178" s="0"/>
-      <c r="HN178" s="0"/>
-      <c r="HO178" s="0"/>
-      <c r="HP178" s="0"/>
-      <c r="HQ178" s="0"/>
-      <c r="HR178" s="0"/>
-      <c r="HS178" s="0"/>
-      <c r="HT178" s="0"/>
-      <c r="HU178" s="0"/>
-      <c r="HV178" s="0"/>
-      <c r="HW178" s="0"/>
-      <c r="HX178" s="0"/>
-      <c r="HY178" s="0"/>
-      <c r="HZ178" s="0"/>
-      <c r="IA178" s="0"/>
-      <c r="IB178" s="0"/>
-      <c r="IC178" s="0"/>
-      <c r="ID178" s="0"/>
-      <c r="IE178" s="0"/>
-      <c r="IF178" s="0"/>
-      <c r="IG178" s="0"/>
-      <c r="IH178" s="0"/>
-      <c r="II178" s="0"/>
-      <c r="IJ178" s="0"/>
-      <c r="IK178" s="0"/>
-      <c r="IL178" s="0"/>
-      <c r="IM178" s="0"/>
-      <c r="IN178" s="0"/>
-      <c r="IO178" s="0"/>
-      <c r="IP178" s="0"/>
-      <c r="IQ178" s="0"/>
-      <c r="IR178" s="0"/>
-      <c r="IS178" s="0"/>
-      <c r="IT178" s="0"/>
-      <c r="IU178" s="0"/>
-      <c r="IV178" s="0"/>
-      <c r="IW178" s="0"/>
-      <c r="IX178" s="0"/>
-      <c r="IY178" s="0"/>
-      <c r="IZ178" s="0"/>
-      <c r="JA178" s="0"/>
-      <c r="JB178" s="0"/>
-      <c r="JC178" s="0"/>
-      <c r="JD178" s="0"/>
-      <c r="JE178" s="0"/>
-      <c r="JF178" s="0"/>
-      <c r="JG178" s="0"/>
-      <c r="JH178" s="0"/>
-      <c r="JI178" s="0"/>
-      <c r="JJ178" s="0"/>
-      <c r="JK178" s="0"/>
-      <c r="JL178" s="0"/>
-      <c r="JM178" s="0"/>
-      <c r="JN178" s="0"/>
-      <c r="JO178" s="0"/>
-      <c r="JP178" s="0"/>
-      <c r="JQ178" s="0"/>
-      <c r="JR178" s="0"/>
-      <c r="JS178" s="0"/>
-      <c r="JT178" s="0"/>
-      <c r="JU178" s="0"/>
-      <c r="JV178" s="0"/>
-      <c r="JW178" s="0"/>
-      <c r="JX178" s="0"/>
-      <c r="JY178" s="0"/>
-      <c r="JZ178" s="0"/>
-      <c r="KA178" s="0"/>
-      <c r="KB178" s="0"/>
-      <c r="KC178" s="0"/>
-      <c r="KD178" s="0"/>
-      <c r="KE178" s="0"/>
-      <c r="KF178" s="0"/>
-      <c r="KG178" s="0"/>
-      <c r="KH178" s="0"/>
-      <c r="KI178" s="0"/>
-      <c r="KJ178" s="0"/>
-      <c r="KK178" s="0"/>
-      <c r="KL178" s="0"/>
-      <c r="KM178" s="0"/>
-      <c r="KN178" s="0"/>
-      <c r="KO178" s="0"/>
-      <c r="KP178" s="0"/>
-      <c r="KQ178" s="0"/>
-      <c r="KR178" s="0"/>
-      <c r="KS178" s="0"/>
-      <c r="KT178" s="0"/>
-      <c r="KU178" s="0"/>
-      <c r="KV178" s="0"/>
-      <c r="KW178" s="0"/>
-      <c r="KX178" s="0"/>
-      <c r="KY178" s="0"/>
-      <c r="KZ178" s="0"/>
-      <c r="LA178" s="0"/>
-      <c r="LB178" s="0"/>
-      <c r="LC178" s="0"/>
-      <c r="LD178" s="0"/>
-      <c r="LE178" s="0"/>
-      <c r="LF178" s="0"/>
-      <c r="LG178" s="0"/>
-      <c r="LH178" s="0"/>
-      <c r="LI178" s="0"/>
-      <c r="LJ178" s="0"/>
-      <c r="LK178" s="0"/>
-      <c r="LL178" s="0"/>
-      <c r="LM178" s="0"/>
-      <c r="LN178" s="0"/>
-      <c r="LO178" s="0"/>
-      <c r="LP178" s="0"/>
-      <c r="LQ178" s="0"/>
-      <c r="LR178" s="0"/>
-      <c r="LS178" s="0"/>
-      <c r="LT178" s="0"/>
-      <c r="LU178" s="0"/>
-      <c r="LV178" s="0"/>
-      <c r="LW178" s="0"/>
-      <c r="LX178" s="0"/>
-      <c r="LY178" s="0"/>
-      <c r="LZ178" s="0"/>
-      <c r="MA178" s="0"/>
-      <c r="MB178" s="0"/>
-      <c r="MC178" s="0"/>
-      <c r="MD178" s="0"/>
-      <c r="ME178" s="0"/>
-      <c r="MF178" s="0"/>
-      <c r="MG178" s="0"/>
-      <c r="MH178" s="0"/>
-      <c r="MI178" s="0"/>
-      <c r="MJ178" s="0"/>
-      <c r="MK178" s="0"/>
-      <c r="ML178" s="0"/>
-      <c r="MM178" s="0"/>
-      <c r="MN178" s="0"/>
-      <c r="MO178" s="0"/>
-      <c r="MP178" s="0"/>
-      <c r="MQ178" s="0"/>
-      <c r="MR178" s="0"/>
-      <c r="MS178" s="0"/>
-      <c r="MT178" s="0"/>
-      <c r="MU178" s="0"/>
-      <c r="MV178" s="0"/>
-      <c r="MW178" s="0"/>
-      <c r="MX178" s="0"/>
-      <c r="MY178" s="0"/>
-      <c r="MZ178" s="0"/>
-      <c r="NA178" s="0"/>
-      <c r="NB178" s="0"/>
-      <c r="NC178" s="0"/>
-      <c r="ND178" s="0"/>
-      <c r="NE178" s="0"/>
-      <c r="NF178" s="0"/>
-      <c r="NG178" s="0"/>
-      <c r="NH178" s="0"/>
-      <c r="NI178" s="0"/>
-      <c r="NJ178" s="0"/>
-      <c r="NK178" s="0"/>
-      <c r="NL178" s="0"/>
-      <c r="NM178" s="0"/>
-      <c r="NN178" s="0"/>
-      <c r="NO178" s="0"/>
-      <c r="NP178" s="0"/>
-      <c r="NQ178" s="0"/>
-      <c r="NR178" s="0"/>
-      <c r="NS178" s="0"/>
-      <c r="NT178" s="0"/>
-      <c r="NU178" s="0"/>
-      <c r="NV178" s="0"/>
-      <c r="NW178" s="0"/>
-      <c r="NX178" s="0"/>
-      <c r="NY178" s="0"/>
-      <c r="NZ178" s="0"/>
-      <c r="OA178" s="0"/>
-      <c r="OB178" s="0"/>
-      <c r="OC178" s="0"/>
-      <c r="OD178" s="0"/>
-      <c r="OE178" s="0"/>
-      <c r="OF178" s="0"/>
-      <c r="OG178" s="0"/>
-      <c r="OH178" s="0"/>
-      <c r="OI178" s="0"/>
-      <c r="OJ178" s="0"/>
-      <c r="OK178" s="0"/>
-      <c r="OL178" s="0"/>
-      <c r="OM178" s="0"/>
-      <c r="ON178" s="0"/>
-      <c r="OO178" s="0"/>
-      <c r="OP178" s="0"/>
-      <c r="OQ178" s="0"/>
-      <c r="OR178" s="0"/>
-      <c r="OS178" s="0"/>
-      <c r="OT178" s="0"/>
-      <c r="OU178" s="0"/>
-      <c r="OV178" s="0"/>
-      <c r="OW178" s="0"/>
-      <c r="OX178" s="0"/>
-      <c r="OY178" s="0"/>
-      <c r="OZ178" s="0"/>
-      <c r="PA178" s="0"/>
-      <c r="PB178" s="0"/>
-      <c r="PC178" s="0"/>
-      <c r="PD178" s="0"/>
-      <c r="PE178" s="0"/>
-      <c r="PF178" s="0"/>
-      <c r="PG178" s="0"/>
-      <c r="PH178" s="0"/>
-      <c r="PI178" s="0"/>
-      <c r="PJ178" s="0"/>
-      <c r="PK178" s="0"/>
-      <c r="PL178" s="0"/>
-      <c r="PM178" s="0"/>
-      <c r="PN178" s="0"/>
-      <c r="PO178" s="0"/>
-      <c r="PP178" s="0"/>
-      <c r="PQ178" s="0"/>
-      <c r="PR178" s="0"/>
-      <c r="PS178" s="0"/>
-      <c r="PT178" s="0"/>
-      <c r="PU178" s="0"/>
-      <c r="PV178" s="0"/>
-      <c r="PW178" s="0"/>
-      <c r="PX178" s="0"/>
-      <c r="PY178" s="0"/>
-      <c r="PZ178" s="0"/>
-      <c r="QA178" s="0"/>
-      <c r="QB178" s="0"/>
-      <c r="QC178" s="0"/>
-      <c r="QD178" s="0"/>
-      <c r="QE178" s="0"/>
-      <c r="QF178" s="0"/>
-      <c r="QG178" s="0"/>
-      <c r="QH178" s="0"/>
-      <c r="QI178" s="0"/>
-      <c r="QJ178" s="0"/>
-      <c r="QK178" s="0"/>
-      <c r="QL178" s="0"/>
-      <c r="QM178" s="0"/>
-      <c r="QN178" s="0"/>
-      <c r="QO178" s="0"/>
-      <c r="QP178" s="0"/>
-      <c r="QQ178" s="0"/>
-      <c r="QR178" s="0"/>
-      <c r="QS178" s="0"/>
-      <c r="QT178" s="0"/>
-      <c r="QU178" s="0"/>
-      <c r="QV178" s="0"/>
-      <c r="QW178" s="0"/>
-      <c r="QX178" s="0"/>
-      <c r="QY178" s="0"/>
-      <c r="QZ178" s="0"/>
-      <c r="RA178" s="0"/>
-      <c r="RB178" s="0"/>
-      <c r="RC178" s="0"/>
-      <c r="RD178" s="0"/>
-      <c r="RE178" s="0"/>
-      <c r="RF178" s="0"/>
-      <c r="RG178" s="0"/>
-      <c r="RH178" s="0"/>
-      <c r="RI178" s="0"/>
-      <c r="RJ178" s="0"/>
-      <c r="RK178" s="0"/>
-      <c r="RL178" s="0"/>
-      <c r="RM178" s="0"/>
-      <c r="RN178" s="0"/>
-      <c r="RO178" s="0"/>
-      <c r="RP178" s="0"/>
-      <c r="RQ178" s="0"/>
-      <c r="RR178" s="0"/>
-      <c r="RS178" s="0"/>
-      <c r="RT178" s="0"/>
-      <c r="RU178" s="0"/>
-      <c r="RV178" s="0"/>
-      <c r="RW178" s="0"/>
-      <c r="RX178" s="0"/>
-      <c r="RY178" s="0"/>
-      <c r="RZ178" s="0"/>
-      <c r="SA178" s="0"/>
-      <c r="SB178" s="0"/>
-      <c r="SC178" s="0"/>
-      <c r="SD178" s="0"/>
-      <c r="SE178" s="0"/>
-      <c r="SF178" s="0"/>
-      <c r="SG178" s="0"/>
-      <c r="SH178" s="0"/>
-      <c r="SI178" s="0"/>
-      <c r="SJ178" s="0"/>
-      <c r="SK178" s="0"/>
-      <c r="SL178" s="0"/>
-      <c r="SM178" s="0"/>
-      <c r="SN178" s="0"/>
-      <c r="SO178" s="0"/>
-      <c r="SP178" s="0"/>
-      <c r="SQ178" s="0"/>
-      <c r="SR178" s="0"/>
-      <c r="SS178" s="0"/>
-      <c r="ST178" s="0"/>
-      <c r="SU178" s="0"/>
-      <c r="SV178" s="0"/>
-      <c r="SW178" s="0"/>
-      <c r="SX178" s="0"/>
-      <c r="SY178" s="0"/>
-      <c r="SZ178" s="0"/>
-      <c r="TA178" s="0"/>
-      <c r="TB178" s="0"/>
-      <c r="TC178" s="0"/>
-      <c r="TD178" s="0"/>
-      <c r="TE178" s="0"/>
-      <c r="TF178" s="0"/>
-      <c r="TG178" s="0"/>
-      <c r="TH178" s="0"/>
-      <c r="TI178" s="0"/>
-      <c r="TJ178" s="0"/>
-      <c r="TK178" s="0"/>
-      <c r="TL178" s="0"/>
-      <c r="TM178" s="0"/>
-      <c r="TN178" s="0"/>
-      <c r="TO178" s="0"/>
-      <c r="TP178" s="0"/>
-      <c r="TQ178" s="0"/>
-      <c r="TR178" s="0"/>
-      <c r="TS178" s="0"/>
-      <c r="TT178" s="0"/>
-      <c r="TU178" s="0"/>
-      <c r="TV178" s="0"/>
-      <c r="TW178" s="0"/>
-      <c r="TX178" s="0"/>
-      <c r="TY178" s="0"/>
-      <c r="TZ178" s="0"/>
-      <c r="UA178" s="0"/>
-      <c r="UB178" s="0"/>
-      <c r="UC178" s="0"/>
-      <c r="UD178" s="0"/>
-      <c r="UE178" s="0"/>
-      <c r="UF178" s="0"/>
-      <c r="UG178" s="0"/>
-      <c r="UH178" s="0"/>
-      <c r="UI178" s="0"/>
-      <c r="UJ178" s="0"/>
-      <c r="UK178" s="0"/>
-      <c r="UL178" s="0"/>
-      <c r="UM178" s="0"/>
-      <c r="UN178" s="0"/>
-      <c r="UO178" s="0"/>
-      <c r="UP178" s="0"/>
-      <c r="UQ178" s="0"/>
-      <c r="UR178" s="0"/>
-      <c r="US178" s="0"/>
-      <c r="UT178" s="0"/>
-      <c r="UU178" s="0"/>
-      <c r="UV178" s="0"/>
-      <c r="UW178" s="0"/>
-      <c r="UX178" s="0"/>
-      <c r="UY178" s="0"/>
-      <c r="UZ178" s="0"/>
-      <c r="VA178" s="0"/>
-      <c r="VB178" s="0"/>
-      <c r="VC178" s="0"/>
-      <c r="VD178" s="0"/>
-      <c r="VE178" s="0"/>
-      <c r="VF178" s="0"/>
-      <c r="VG178" s="0"/>
-      <c r="VH178" s="0"/>
-      <c r="VI178" s="0"/>
-      <c r="VJ178" s="0"/>
-      <c r="VK178" s="0"/>
-      <c r="VL178" s="0"/>
-      <c r="VM178" s="0"/>
-      <c r="VN178" s="0"/>
-      <c r="VO178" s="0"/>
-      <c r="VP178" s="0"/>
-      <c r="VQ178" s="0"/>
-      <c r="VR178" s="0"/>
-      <c r="VS178" s="0"/>
-      <c r="VT178" s="0"/>
-      <c r="VU178" s="0"/>
-      <c r="VV178" s="0"/>
-      <c r="VW178" s="0"/>
-      <c r="VX178" s="0"/>
-      <c r="VY178" s="0"/>
-      <c r="VZ178" s="0"/>
-      <c r="WA178" s="0"/>
-      <c r="WB178" s="0"/>
-      <c r="WC178" s="0"/>
-      <c r="WD178" s="0"/>
-      <c r="WE178" s="0"/>
-      <c r="WF178" s="0"/>
-      <c r="WG178" s="0"/>
-      <c r="WH178" s="0"/>
-      <c r="WI178" s="0"/>
-      <c r="WJ178" s="0"/>
-      <c r="WK178" s="0"/>
-      <c r="WL178" s="0"/>
-      <c r="WM178" s="0"/>
-      <c r="WN178" s="0"/>
-      <c r="WO178" s="0"/>
-      <c r="WP178" s="0"/>
-      <c r="WQ178" s="0"/>
-      <c r="WR178" s="0"/>
-      <c r="WS178" s="0"/>
-      <c r="WT178" s="0"/>
-      <c r="WU178" s="0"/>
-      <c r="WV178" s="0"/>
-      <c r="WW178" s="0"/>
-      <c r="WX178" s="0"/>
-      <c r="WY178" s="0"/>
-      <c r="WZ178" s="0"/>
-      <c r="XA178" s="0"/>
-      <c r="XB178" s="0"/>
-      <c r="XC178" s="0"/>
-      <c r="XD178" s="0"/>
-      <c r="XE178" s="0"/>
-      <c r="XF178" s="0"/>
-      <c r="XG178" s="0"/>
-      <c r="XH178" s="0"/>
-      <c r="XI178" s="0"/>
-      <c r="XJ178" s="0"/>
-      <c r="XK178" s="0"/>
-      <c r="XL178" s="0"/>
-      <c r="XM178" s="0"/>
-      <c r="XN178" s="0"/>
-      <c r="XO178" s="0"/>
-      <c r="XP178" s="0"/>
-      <c r="XQ178" s="0"/>
-      <c r="XR178" s="0"/>
-      <c r="XS178" s="0"/>
-      <c r="XT178" s="0"/>
-      <c r="XU178" s="0"/>
-      <c r="XV178" s="0"/>
-      <c r="XW178" s="0"/>
-      <c r="XX178" s="0"/>
-      <c r="XY178" s="0"/>
-      <c r="XZ178" s="0"/>
-      <c r="YA178" s="0"/>
-      <c r="YB178" s="0"/>
-      <c r="YC178" s="0"/>
-      <c r="YD178" s="0"/>
-      <c r="YE178" s="0"/>
-      <c r="YF178" s="0"/>
-      <c r="YG178" s="0"/>
-      <c r="YH178" s="0"/>
-      <c r="YI178" s="0"/>
-      <c r="YJ178" s="0"/>
-      <c r="YK178" s="0"/>
-      <c r="YL178" s="0"/>
-      <c r="YM178" s="0"/>
-      <c r="YN178" s="0"/>
-      <c r="YO178" s="0"/>
-      <c r="YP178" s="0"/>
-      <c r="YQ178" s="0"/>
-      <c r="YR178" s="0"/>
-      <c r="YS178" s="0"/>
-      <c r="YT178" s="0"/>
-      <c r="YU178" s="0"/>
-      <c r="YV178" s="0"/>
-      <c r="YW178" s="0"/>
-      <c r="YX178" s="0"/>
-      <c r="YY178" s="0"/>
-      <c r="YZ178" s="0"/>
-      <c r="ZA178" s="0"/>
-      <c r="ZB178" s="0"/>
-      <c r="ZC178" s="0"/>
-      <c r="ZD178" s="0"/>
-      <c r="ZE178" s="0"/>
-      <c r="ZF178" s="0"/>
-      <c r="ZG178" s="0"/>
-      <c r="ZH178" s="0"/>
-      <c r="ZI178" s="0"/>
-      <c r="ZJ178" s="0"/>
-      <c r="ZK178" s="0"/>
-      <c r="ZL178" s="0"/>
-      <c r="ZM178" s="0"/>
-      <c r="ZN178" s="0"/>
-      <c r="ZO178" s="0"/>
-      <c r="ZP178" s="0"/>
-      <c r="ZQ178" s="0"/>
-      <c r="ZR178" s="0"/>
-      <c r="ZS178" s="0"/>
-      <c r="ZT178" s="0"/>
-      <c r="ZU178" s="0"/>
-      <c r="ZV178" s="0"/>
-      <c r="ZW178" s="0"/>
-      <c r="ZX178" s="0"/>
-      <c r="ZY178" s="0"/>
-      <c r="ZZ178" s="0"/>
-      <c r="AAA178" s="0"/>
-      <c r="AAB178" s="0"/>
-      <c r="AAC178" s="0"/>
-      <c r="AAD178" s="0"/>
-      <c r="AAE178" s="0"/>
-      <c r="AAF178" s="0"/>
-      <c r="AAG178" s="0"/>
-      <c r="AAH178" s="0"/>
-      <c r="AAI178" s="0"/>
-      <c r="AAJ178" s="0"/>
-      <c r="AAK178" s="0"/>
-      <c r="AAL178" s="0"/>
-      <c r="AAM178" s="0"/>
-      <c r="AAN178" s="0"/>
-      <c r="AAO178" s="0"/>
-      <c r="AAP178" s="0"/>
-      <c r="AAQ178" s="0"/>
-      <c r="AAR178" s="0"/>
-      <c r="AAS178" s="0"/>
-      <c r="AAT178" s="0"/>
-      <c r="AAU178" s="0"/>
-      <c r="AAV178" s="0"/>
-      <c r="AAW178" s="0"/>
-      <c r="AAX178" s="0"/>
-      <c r="AAY178" s="0"/>
-      <c r="AAZ178" s="0"/>
-      <c r="ABA178" s="0"/>
-      <c r="ABB178" s="0"/>
-      <c r="ABC178" s="0"/>
-      <c r="ABD178" s="0"/>
-      <c r="ABE178" s="0"/>
-      <c r="ABF178" s="0"/>
-      <c r="ABG178" s="0"/>
-      <c r="ABH178" s="0"/>
-      <c r="ABI178" s="0"/>
-      <c r="ABJ178" s="0"/>
-      <c r="ABK178" s="0"/>
-      <c r="ABL178" s="0"/>
-      <c r="ABM178" s="0"/>
-      <c r="ABN178" s="0"/>
-      <c r="ABO178" s="0"/>
-      <c r="ABP178" s="0"/>
-      <c r="ABQ178" s="0"/>
-      <c r="ABR178" s="0"/>
-      <c r="ABS178" s="0"/>
-      <c r="ABT178" s="0"/>
-      <c r="ABU178" s="0"/>
-      <c r="ABV178" s="0"/>
-      <c r="ABW178" s="0"/>
-      <c r="ABX178" s="0"/>
-      <c r="ABY178" s="0"/>
-      <c r="ABZ178" s="0"/>
-      <c r="ACA178" s="0"/>
-      <c r="ACB178" s="0"/>
-      <c r="ACC178" s="0"/>
-      <c r="ACD178" s="0"/>
-      <c r="ACE178" s="0"/>
-      <c r="ACF178" s="0"/>
-      <c r="ACG178" s="0"/>
-      <c r="ACH178" s="0"/>
-      <c r="ACI178" s="0"/>
-      <c r="ACJ178" s="0"/>
-      <c r="ACK178" s="0"/>
-      <c r="ACL178" s="0"/>
-      <c r="ACM178" s="0"/>
-      <c r="ACN178" s="0"/>
-      <c r="ACO178" s="0"/>
-      <c r="ACP178" s="0"/>
-      <c r="ACQ178" s="0"/>
-      <c r="ACR178" s="0"/>
-      <c r="ACS178" s="0"/>
-      <c r="ACT178" s="0"/>
-      <c r="ACU178" s="0"/>
-      <c r="ACV178" s="0"/>
-      <c r="ACW178" s="0"/>
-      <c r="ACX178" s="0"/>
-      <c r="ACY178" s="0"/>
-      <c r="ACZ178" s="0"/>
-      <c r="ADA178" s="0"/>
-      <c r="ADB178" s="0"/>
-      <c r="ADC178" s="0"/>
-      <c r="ADD178" s="0"/>
-      <c r="ADE178" s="0"/>
-      <c r="ADF178" s="0"/>
-      <c r="ADG178" s="0"/>
-      <c r="ADH178" s="0"/>
-      <c r="ADI178" s="0"/>
-      <c r="ADJ178" s="0"/>
-      <c r="ADK178" s="0"/>
-      <c r="ADL178" s="0"/>
-      <c r="ADM178" s="0"/>
-      <c r="ADN178" s="0"/>
-      <c r="ADO178" s="0"/>
-      <c r="ADP178" s="0"/>
-      <c r="ADQ178" s="0"/>
-      <c r="ADR178" s="0"/>
-      <c r="ADS178" s="0"/>
-      <c r="ADT178" s="0"/>
-      <c r="ADU178" s="0"/>
-      <c r="ADV178" s="0"/>
-      <c r="ADW178" s="0"/>
-      <c r="ADX178" s="0"/>
-      <c r="ADY178" s="0"/>
-      <c r="ADZ178" s="0"/>
-      <c r="AEA178" s="0"/>
-      <c r="AEB178" s="0"/>
-      <c r="AEC178" s="0"/>
-      <c r="AED178" s="0"/>
-      <c r="AEE178" s="0"/>
-      <c r="AEF178" s="0"/>
-      <c r="AEG178" s="0"/>
-      <c r="AEH178" s="0"/>
-      <c r="AEI178" s="0"/>
-      <c r="AEJ178" s="0"/>
-      <c r="AEK178" s="0"/>
-      <c r="AEL178" s="0"/>
-      <c r="AEM178" s="0"/>
-      <c r="AEN178" s="0"/>
-      <c r="AEO178" s="0"/>
-      <c r="AEP178" s="0"/>
-      <c r="AEQ178" s="0"/>
-      <c r="AER178" s="0"/>
-      <c r="AES178" s="0"/>
-      <c r="AET178" s="0"/>
-      <c r="AEU178" s="0"/>
-      <c r="AEV178" s="0"/>
-      <c r="AEW178" s="0"/>
-      <c r="AEX178" s="0"/>
-      <c r="AEY178" s="0"/>
-      <c r="AEZ178" s="0"/>
-      <c r="AFA178" s="0"/>
-      <c r="AFB178" s="0"/>
-      <c r="AFC178" s="0"/>
-      <c r="AFD178" s="0"/>
-      <c r="AFE178" s="0"/>
-      <c r="AFF178" s="0"/>
-      <c r="AFG178" s="0"/>
-      <c r="AFH178" s="0"/>
-      <c r="AFI178" s="0"/>
-      <c r="AFJ178" s="0"/>
-      <c r="AFK178" s="0"/>
-      <c r="AFL178" s="0"/>
-      <c r="AFM178" s="0"/>
-      <c r="AFN178" s="0"/>
-      <c r="AFO178" s="0"/>
-      <c r="AFP178" s="0"/>
-      <c r="AFQ178" s="0"/>
-      <c r="AFR178" s="0"/>
-      <c r="AFS178" s="0"/>
-      <c r="AFT178" s="0"/>
-      <c r="AFU178" s="0"/>
-      <c r="AFV178" s="0"/>
-      <c r="AFW178" s="0"/>
-      <c r="AFX178" s="0"/>
-      <c r="AFY178" s="0"/>
-      <c r="AFZ178" s="0"/>
-      <c r="AGA178" s="0"/>
-      <c r="AGB178" s="0"/>
-      <c r="AGC178" s="0"/>
-      <c r="AGD178" s="0"/>
-      <c r="AGE178" s="0"/>
-      <c r="AGF178" s="0"/>
-      <c r="AGG178" s="0"/>
-      <c r="AGH178" s="0"/>
-      <c r="AGI178" s="0"/>
-      <c r="AGJ178" s="0"/>
-      <c r="AGK178" s="0"/>
-      <c r="AGL178" s="0"/>
-      <c r="AGM178" s="0"/>
-      <c r="AGN178" s="0"/>
-      <c r="AGO178" s="0"/>
-      <c r="AGP178" s="0"/>
-      <c r="AGQ178" s="0"/>
-      <c r="AGR178" s="0"/>
-      <c r="AGS178" s="0"/>
-      <c r="AGT178" s="0"/>
-      <c r="AGU178" s="0"/>
-      <c r="AGV178" s="0"/>
-      <c r="AGW178" s="0"/>
-      <c r="AGX178" s="0"/>
-      <c r="AGY178" s="0"/>
-      <c r="AGZ178" s="0"/>
-      <c r="AHA178" s="0"/>
-      <c r="AHB178" s="0"/>
-      <c r="AHC178" s="0"/>
-      <c r="AHD178" s="0"/>
-      <c r="AHE178" s="0"/>
-      <c r="AHF178" s="0"/>
-      <c r="AHG178" s="0"/>
-      <c r="AHH178" s="0"/>
-      <c r="AHI178" s="0"/>
-      <c r="AHJ178" s="0"/>
-      <c r="AHK178" s="0"/>
-      <c r="AHL178" s="0"/>
-      <c r="AHM178" s="0"/>
-      <c r="AHN178" s="0"/>
-      <c r="AHO178" s="0"/>
-      <c r="AHP178" s="0"/>
-      <c r="AHQ178" s="0"/>
-      <c r="AHR178" s="0"/>
-      <c r="AHS178" s="0"/>
-      <c r="AHT178" s="0"/>
-      <c r="AHU178" s="0"/>
-      <c r="AHV178" s="0"/>
-      <c r="AHW178" s="0"/>
-      <c r="AHX178" s="0"/>
-      <c r="AHY178" s="0"/>
-      <c r="AHZ178" s="0"/>
-      <c r="AIA178" s="0"/>
-      <c r="AIB178" s="0"/>
-      <c r="AIC178" s="0"/>
-      <c r="AID178" s="0"/>
-      <c r="AIE178" s="0"/>
-      <c r="AIF178" s="0"/>
-      <c r="AIG178" s="0"/>
-      <c r="AIH178" s="0"/>
-      <c r="AII178" s="0"/>
-      <c r="AIJ178" s="0"/>
-      <c r="AIK178" s="0"/>
-      <c r="AIL178" s="0"/>
-      <c r="AIM178" s="0"/>
-      <c r="AIN178" s="0"/>
-      <c r="AIO178" s="0"/>
-      <c r="AIP178" s="0"/>
-      <c r="AIQ178" s="0"/>
-      <c r="AIR178" s="0"/>
-      <c r="AIS178" s="0"/>
-      <c r="AIT178" s="0"/>
-      <c r="AIU178" s="0"/>
-      <c r="AIV178" s="0"/>
-      <c r="AIW178" s="0"/>
-      <c r="AIX178" s="0"/>
-      <c r="AIY178" s="0"/>
-      <c r="AIZ178" s="0"/>
-      <c r="AJA178" s="0"/>
-      <c r="AJB178" s="0"/>
-      <c r="AJC178" s="0"/>
-      <c r="AJD178" s="0"/>
-      <c r="AJE178" s="0"/>
-      <c r="AJF178" s="0"/>
-      <c r="AJG178" s="0"/>
-      <c r="AJH178" s="0"/>
-      <c r="AJI178" s="0"/>
-      <c r="AJJ178" s="0"/>
-      <c r="AJK178" s="0"/>
-      <c r="AJL178" s="0"/>
-      <c r="AJM178" s="0"/>
-      <c r="AJN178" s="0"/>
-      <c r="AJO178" s="0"/>
-      <c r="AJP178" s="0"/>
-      <c r="AJQ178" s="0"/>
-      <c r="AJR178" s="0"/>
-      <c r="AJS178" s="0"/>
-      <c r="AJT178" s="0"/>
-      <c r="AJU178" s="0"/>
-      <c r="AJV178" s="0"/>
-      <c r="AJW178" s="0"/>
-      <c r="AJX178" s="0"/>
-      <c r="AJY178" s="0"/>
-      <c r="AJZ178" s="0"/>
-      <c r="AKA178" s="0"/>
-      <c r="AKB178" s="0"/>
-      <c r="AKC178" s="0"/>
-      <c r="AKD178" s="0"/>
-      <c r="AKE178" s="0"/>
-      <c r="AKF178" s="0"/>
-      <c r="AKG178" s="0"/>
-      <c r="AKH178" s="0"/>
-      <c r="AKI178" s="0"/>
-      <c r="AKJ178" s="0"/>
-      <c r="AKK178" s="0"/>
-      <c r="AKL178" s="0"/>
-      <c r="AKM178" s="0"/>
-      <c r="AKN178" s="0"/>
-      <c r="AKO178" s="0"/>
-      <c r="AKP178" s="0"/>
-      <c r="AKQ178" s="0"/>
-      <c r="AKR178" s="0"/>
-      <c r="AKS178" s="0"/>
-      <c r="AKT178" s="0"/>
-      <c r="AKU178" s="0"/>
-      <c r="AKV178" s="0"/>
-      <c r="AKW178" s="0"/>
-      <c r="AKX178" s="0"/>
-      <c r="AKY178" s="0"/>
-      <c r="AKZ178" s="0"/>
-      <c r="ALA178" s="0"/>
-      <c r="ALB178" s="0"/>
-      <c r="ALC178" s="0"/>
-      <c r="ALD178" s="0"/>
-      <c r="ALE178" s="0"/>
-      <c r="ALF178" s="0"/>
-      <c r="ALG178" s="0"/>
-      <c r="ALH178" s="0"/>
-      <c r="ALI178" s="0"/>
-      <c r="ALJ178" s="0"/>
-      <c r="ALK178" s="0"/>
-      <c r="ALL178" s="0"/>
-      <c r="ALM178" s="0"/>
-      <c r="ALN178" s="0"/>
-      <c r="ALO178" s="0"/>
-      <c r="ALP178" s="0"/>
-      <c r="ALQ178" s="0"/>
-      <c r="ALR178" s="0"/>
-      <c r="ALS178" s="0"/>
-      <c r="ALT178" s="0"/>
-      <c r="ALU178" s="0"/>
-      <c r="ALV178" s="0"/>
-      <c r="ALW178" s="0"/>
-      <c r="ALX178" s="0"/>
-      <c r="ALY178" s="0"/>
-      <c r="ALZ178" s="0"/>
-      <c r="AMA178" s="0"/>
-      <c r="AMB178" s="0"/>
-      <c r="AMC178" s="0"/>
-      <c r="AMD178" s="0"/>
-      <c r="AME178" s="0"/>
-      <c r="AMF178" s="0"/>
-      <c r="AMG178" s="0"/>
-      <c r="AMH178" s="0"/>
-      <c r="AMI178" s="0"/>
-      <c r="AMJ178" s="0"/>
-    </row>
-    <row r="179" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="27" t="n">
+    </row>
+    <row r="179" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="30" t="n">
         <v>178</v>
       </c>
-      <c r="B179" s="27" t="s">
+      <c r="B179" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C179" s="17" t="n">
+      <c r="C179" s="31" t="n">
         <v>0.676</v>
       </c>
-      <c r="D179" s="31" t="n">
+      <c r="D179" s="32" t="n">
         <v>73688</v>
       </c>
-      <c r="E179" s="31" t="n">
+      <c r="E179" s="32" t="n">
         <v>24730</v>
       </c>
-      <c r="F179" s="17" t="n">
+      <c r="F179" s="31" t="n">
         <f aca="false">E179/D179</f>
         <v>0.335604168928455</v>
       </c>
-      <c r="G179" s="31" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H179" s="18" t="n">
+      <c r="G179" s="32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H179" s="33" t="n">
         <f aca="false">(G179-E179)/F179</f>
         <v>75297.0384148807</v>
       </c>
-      <c r="I179" s="18" t="n">
+      <c r="I179" s="33" t="n">
         <f aca="false">E179*M179/G179</f>
         <v>6942.7002</v>
       </c>
-      <c r="J179" s="18" t="n">
+      <c r="J179" s="33" t="n">
         <f aca="false">I179-M179</f>
         <v>-7094.2998</v>
       </c>
-      <c r="K179" s="27" t="n">
+      <c r="K179" s="30" t="n">
         <v>322</v>
       </c>
-      <c r="L179" s="27" t="s">
+      <c r="L179" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="M179" s="31" t="n">
+      <c r="M179" s="32" t="n">
         <v>14037</v>
       </c>
-      <c r="N179" s="31" t="n">
+      <c r="N179" s="32" t="n">
         <v>73688</v>
       </c>
-      <c r="O179" s="31" t="n">
+      <c r="O179" s="32" t="n">
         <v>2285</v>
       </c>
-      <c r="P179" s="31" t="n">
+      <c r="P179" s="32" t="n">
         <v>1034352102</v>
       </c>
-      <c r="R179" s="27" t="n">
+      <c r="R179" s="30" t="n">
         <v>20220929</v>
       </c>
     </row>
@@ -17490,118 +16645,117 @@
         <v>20220929</v>
       </c>
     </row>
-    <row r="181" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="27" t="n">
+    <row r="181" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="30" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="27" t="s">
+      <c r="B181" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C181" s="17" t="n">
+      <c r="C181" s="31" t="n">
         <v>0.479</v>
       </c>
-      <c r="D181" s="31" t="n">
+      <c r="D181" s="32" t="n">
         <v>81644</v>
       </c>
-      <c r="E181" s="31" t="n">
+      <c r="E181" s="32" t="n">
         <v>34944</v>
       </c>
-      <c r="F181" s="17" t="n">
+      <c r="F181" s="31" t="n">
         <f aca="false">E181/D181</f>
         <v>0.428004507373475</v>
       </c>
-      <c r="G181" s="31" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H181" s="18" t="n">
+      <c r="G181" s="32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H181" s="33" t="n">
         <f aca="false">(G181-E181)/F181</f>
         <v>35177.1996336996</v>
       </c>
-      <c r="I181" s="18" t="n">
+      <c r="I181" s="33" t="n">
         <f aca="false">E181*M181/G181</f>
         <v>7299.10272</v>
       </c>
-      <c r="J181" s="18" t="n">
+      <c r="J181" s="33" t="n">
         <f aca="false">I181-M181</f>
         <v>-3144.89728</v>
       </c>
-      <c r="K181" s="27" t="n">
+      <c r="K181" s="30" t="n">
         <v>320</v>
       </c>
-      <c r="L181" s="27" t="s">
+      <c r="L181" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="M181" s="31" t="n">
+      <c r="M181" s="32" t="n">
         <v>10444</v>
       </c>
-      <c r="N181" s="31" t="n">
+      <c r="N181" s="32" t="n">
         <v>81644</v>
       </c>
-      <c r="O181" s="31" t="n">
+      <c r="O181" s="32" t="n">
         <v>2771</v>
       </c>
-      <c r="P181" s="31" t="n">
+      <c r="P181" s="32" t="n">
         <v>852690764</v>
       </c>
-      <c r="R181" s="27" t="n">
+      <c r="R181" s="30" t="n">
         <v>20220929</v>
       </c>
     </row>
-    <row r="182" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="27" t="n">
+    <row r="182" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="30" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="27" t="s">
+      <c r="B182" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="C182" s="17" t="n">
+      <c r="C182" s="31" t="n">
         <v>0.455</v>
       </c>
-      <c r="D182" s="31" t="n">
+      <c r="D182" s="32" t="n">
         <v>87867</v>
       </c>
-      <c r="E182" s="31" t="n">
+      <c r="E182" s="32" t="n">
         <v>36712</v>
       </c>
-      <c r="F182" s="17" t="n">
+      <c r="F182" s="31" t="n">
         <f aca="false">E182/D182</f>
         <v>0.417813285989052</v>
       </c>
-      <c r="G182" s="31" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H182" s="18" t="n">
+      <c r="G182" s="32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H182" s="33" t="n">
         <f aca="false">(G182-E182)/F182</f>
         <v>31803.6798866855</v>
       </c>
-      <c r="I182" s="18" t="n">
+      <c r="I182" s="33" t="n">
         <f aca="false">E182*M182/G182</f>
         <v>9296.21264</v>
       </c>
-      <c r="J182" s="18" t="n">
+      <c r="J182" s="33" t="n">
         <f aca="false">I182-M182</f>
         <v>-3364.78736</v>
       </c>
-      <c r="K182" s="27" t="n">
+      <c r="K182" s="30" t="n">
         <v>319</v>
       </c>
-      <c r="L182" s="27" t="s">
+      <c r="L182" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="M182" s="31" t="n">
+      <c r="M182" s="32" t="n">
         <v>12661</v>
       </c>
-      <c r="N182" s="31" t="n">
+      <c r="N182" s="32" t="n">
         <v>87867</v>
       </c>
-      <c r="O182" s="31" t="n">
+      <c r="O182" s="32" t="n">
         <v>2819</v>
       </c>
-      <c r="P182" s="31" t="n">
+      <c r="P182" s="32" t="n">
         <v>1112489049</v>
       </c>
-      <c r="Q182" s="27"/>
-      <c r="R182" s="27" t="n">
+      <c r="R182" s="30" t="n">
         <v>20220929</v>
       </c>
     </row>
@@ -17663,7 +16817,7 @@
         <v>20221005</v>
       </c>
     </row>
-    <row r="184" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="n">
         <v>183</v>
       </c>
@@ -17721,65 +16875,65 @@
         <v>20221005</v>
       </c>
     </row>
-    <row r="185" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="6" t="n">
+    <row r="185" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="35" t="n">
         <v>184</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C185" s="24" t="n">
+      <c r="C185" s="36" t="n">
         <v>0.967</v>
       </c>
-      <c r="D185" s="25" t="n">
+      <c r="D185" s="37" t="n">
         <v>225283</v>
       </c>
-      <c r="E185" s="25" t="n">
+      <c r="E185" s="37" t="n">
         <v>44146</v>
       </c>
-      <c r="F185" s="7" t="n">
+      <c r="F185" s="38" t="n">
         <f aca="false">E185/D185</f>
         <v>0.195957972860802</v>
       </c>
-      <c r="G185" s="25" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H185" s="8" t="n">
+      <c r="G185" s="37" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H185" s="39" t="n">
         <f aca="false">(G185-E185)/F185</f>
         <v>29873.7525936665</v>
       </c>
-      <c r="I185" s="8" t="n">
+      <c r="I185" s="39" t="n">
         <f aca="false">E185*M185/G185</f>
         <v>4128.53392</v>
       </c>
-      <c r="J185" s="8" t="n">
+      <c r="J185" s="39" t="n">
         <f aca="false">I185-M185</f>
         <v>-547.46608</v>
       </c>
-      <c r="K185" s="25" t="n">
+      <c r="K185" s="37" t="n">
         <v>354</v>
       </c>
-      <c r="L185" s="25" t="s">
+      <c r="L185" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="M185" s="25" t="n">
+      <c r="M185" s="37" t="n">
         <v>4676</v>
       </c>
-      <c r="N185" s="25" t="n">
+      <c r="N185" s="37" t="n">
         <v>225283</v>
       </c>
-      <c r="O185" s="25" t="n">
+      <c r="O185" s="37" t="n">
         <v>3220</v>
       </c>
-      <c r="P185" s="25" t="n">
+      <c r="P185" s="37" t="n">
         <v>1053424567</v>
       </c>
-      <c r="Q185" s="25"/>
-      <c r="R185" s="6" t="n">
+      <c r="Q185" s="37"/>
+      <c r="R185" s="35" t="n">
         <v>20221005</v>
       </c>
     </row>
-    <row r="186" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
         <v>185</v>
       </c>
@@ -17837,7 +16991,7 @@
         <v>20221010</v>
       </c>
     </row>
-    <row r="187" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
         <v>186</v>
       </c>
@@ -17895,7 +17049,7 @@
         <v>20221010</v>
       </c>
     </row>
-    <row r="188" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
         <v>187</v>
       </c>
@@ -17953,7 +17107,7 @@
         <v>20221010</v>
       </c>
     </row>
-    <row r="189" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
         <v>188</v>
       </c>
@@ -18011,7 +17165,7 @@
         <v>20221010</v>
       </c>
     </row>
-    <row r="190" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
         <v>189</v>
       </c>
@@ -18069,123 +17223,123 @@
         <v>20221010</v>
       </c>
     </row>
-    <row r="191" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="29" t="n">
+    <row r="191" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="B191" s="29" t="s">
+      <c r="B191" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C191" s="34" t="n">
+      <c r="C191" s="5" t="n">
         <v>0.841</v>
       </c>
-      <c r="D191" s="35" t="n">
+      <c r="D191" s="1" t="n">
         <v>152128</v>
       </c>
-      <c r="E191" s="35" t="n">
+      <c r="E191" s="1" t="n">
         <v>52488</v>
       </c>
-      <c r="F191" s="34" t="n">
+      <c r="F191" s="5" t="n">
         <f aca="false">E191/D191</f>
         <v>0.345025241901557</v>
       </c>
-      <c r="G191" s="36" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H191" s="35" t="n">
+      <c r="G191" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H191" s="1" t="n">
         <f aca="false">(G191-E191)/F191</f>
         <v>-7211.06660570035</v>
       </c>
-      <c r="I191" s="35" t="n">
+      <c r="I191" s="1" t="n">
         <f aca="false">E191*M191/G191</f>
         <v>27041.8176</v>
       </c>
-      <c r="J191" s="35" t="n">
+      <c r="J191" s="1" t="n">
         <f aca="false">I191-M191</f>
         <v>1281.8176</v>
       </c>
-      <c r="K191" s="36" t="n">
+      <c r="K191" s="4" t="n">
         <v>356</v>
       </c>
-      <c r="L191" s="36" t="s">
+      <c r="L191" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="M191" s="35" t="n">
+      <c r="M191" s="1" t="n">
         <v>25760</v>
       </c>
-      <c r="N191" s="35" t="n">
+      <c r="N191" s="1" t="n">
         <v>152128</v>
       </c>
-      <c r="O191" s="35" t="n">
+      <c r="O191" s="1" t="n">
         <v>2776</v>
       </c>
-      <c r="P191" s="35" t="n">
+      <c r="P191" s="1" t="n">
         <v>3918820996</v>
       </c>
-      <c r="Q191" s="29"/>
-      <c r="R191" s="29" t="n">
+      <c r="Q191" s="3"/>
+      <c r="R191" s="3" t="n">
         <v>20221011</v>
       </c>
     </row>
-    <row r="192" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="29" t="n">
+    <row r="192" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="3" t="n">
         <v>191</v>
       </c>
-      <c r="B192" s="29" t="s">
+      <c r="B192" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C192" s="34" t="n">
+      <c r="C192" s="5" t="n">
         <v>0.893</v>
       </c>
-      <c r="D192" s="35" t="n">
+      <c r="D192" s="1" t="n">
         <v>119927</v>
       </c>
-      <c r="E192" s="35" t="n">
+      <c r="E192" s="1" t="n">
         <v>49458</v>
       </c>
-      <c r="F192" s="34" t="n">
+      <c r="F192" s="5" t="n">
         <f aca="false">E192/D192</f>
         <v>0.412400877200297</v>
       </c>
-      <c r="G192" s="36" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H192" s="35" t="n">
+      <c r="G192" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H192" s="1" t="n">
         <f aca="false">(G192-E192)/F192</f>
         <v>1314.25520643779</v>
       </c>
-      <c r="I192" s="35" t="n">
+      <c r="I192" s="1" t="n">
         <f aca="false">E192*M192/G192</f>
         <v>9251.61348</v>
       </c>
-      <c r="J192" s="35" t="n">
+      <c r="J192" s="1" t="n">
         <f aca="false">I192-M192</f>
         <v>-101.38652</v>
       </c>
-      <c r="K192" s="36" t="n">
+      <c r="K192" s="4" t="n">
         <v>357</v>
       </c>
-      <c r="L192" s="36" t="s">
+      <c r="L192" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="M192" s="35" t="n">
+      <c r="M192" s="1" t="n">
         <v>9353</v>
       </c>
-      <c r="N192" s="35" t="n">
+      <c r="N192" s="1" t="n">
         <v>119927</v>
       </c>
-      <c r="O192" s="35" t="n">
+      <c r="O192" s="1" t="n">
         <v>2442</v>
       </c>
-      <c r="P192" s="35" t="n">
+      <c r="P192" s="1" t="n">
         <v>1121674816</v>
       </c>
-      <c r="Q192" s="29"/>
-      <c r="R192" s="29" t="n">
+      <c r="Q192" s="3"/>
+      <c r="R192" s="3" t="n">
         <v>20221011</v>
       </c>
     </row>
-    <row r="193" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="n">
         <v>192</v>
       </c>
@@ -18243,7 +17397,7 @@
         <v>20221011</v>
       </c>
     </row>
-    <row r="194" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="n">
         <v>193</v>
       </c>
@@ -18301,7 +17455,7 @@
         <v>20221013</v>
       </c>
     </row>
-    <row r="195" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="n">
         <v>194</v>
       </c>
@@ -18359,37 +17513,974 @@
         <v>20221013</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="0"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="0"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="0"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="0"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="0"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="0"/>
+    <row r="196" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="16" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C196" s="17" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="D196" s="42" t="n">
+        <v>87228</v>
+      </c>
+      <c r="E196" s="42" t="n">
+        <v>35239</v>
+      </c>
+      <c r="F196" s="17" t="n">
+        <f aca="false">E196/D196</f>
+        <v>0.403987251799881</v>
+      </c>
+      <c r="G196" s="42" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H196" s="18" t="n">
+        <f aca="false">(G196-E196)/F196</f>
+        <v>36538.2816765515</v>
+      </c>
+      <c r="I196" s="18" t="n">
+        <f aca="false">E196*M196/G196</f>
+        <v>6823.67996</v>
+      </c>
+      <c r="J196" s="18" t="n">
+        <f aca="false">I196-M196</f>
+        <v>-2858.32004</v>
+      </c>
+      <c r="K196" s="42" t="n">
+        <v>364</v>
+      </c>
+      <c r="L196" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="M196" s="42" t="n">
+        <v>9682</v>
+      </c>
+      <c r="N196" s="42" t="n">
+        <v>87228</v>
+      </c>
+      <c r="O196" s="42" t="n">
+        <v>2416</v>
+      </c>
+      <c r="P196" s="42" t="n">
+        <v>844537322</v>
+      </c>
+      <c r="Q196" s="16"/>
+      <c r="R196" s="16" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="197" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="16" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C197" s="17" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="D197" s="42" t="n">
+        <v>41956</v>
+      </c>
+      <c r="E197" s="42" t="n">
+        <v>21245</v>
+      </c>
+      <c r="F197" s="17" t="n">
+        <f aca="false">E197/D197</f>
+        <v>0.506363809705406</v>
+      </c>
+      <c r="G197" s="42" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H197" s="18" t="n">
+        <f aca="false">(G197-E197)/F197</f>
+        <v>56787.2337020475</v>
+      </c>
+      <c r="I197" s="18" t="n">
+        <f aca="false">E197*M197/G197</f>
+        <v>6450.8318</v>
+      </c>
+      <c r="J197" s="18" t="n">
+        <f aca="false">I197-M197</f>
+        <v>-8731.1682</v>
+      </c>
+      <c r="K197" s="42" t="n">
+        <v>372</v>
+      </c>
+      <c r="L197" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="M197" s="42" t="n">
+        <v>15182</v>
+      </c>
+      <c r="N197" s="42" t="n">
+        <v>41956</v>
+      </c>
+      <c r="O197" s="42" t="n">
+        <v>2544</v>
+      </c>
+      <c r="P197" s="42" t="n">
+        <v>636982469</v>
+      </c>
+      <c r="Q197" s="16"/>
+      <c r="R197" s="16" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="198" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="44" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C198" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" s="32" t="n">
+        <v>23909</v>
+      </c>
+      <c r="E198" s="32" t="n">
+        <v>10869</v>
+      </c>
+      <c r="F198" s="31" t="n">
+        <f aca="false">E198/D198</f>
+        <v>0.454598686687022</v>
+      </c>
+      <c r="G198" s="32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H198" s="33" t="n">
+        <f aca="false">(G198-E198)/F198</f>
+        <v>86078.1193302052</v>
+      </c>
+      <c r="I198" s="33" t="n">
+        <f aca="false">E198*M198/G198</f>
+        <v>1832.29602</v>
+      </c>
+      <c r="J198" s="33" t="n">
+        <f aca="false">I198-M198</f>
+        <v>-6596.70398</v>
+      </c>
+      <c r="K198" s="32" t="n">
+        <v>370</v>
+      </c>
+      <c r="L198" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="M198" s="32" t="n">
+        <v>8429</v>
+      </c>
+      <c r="N198" s="32" t="n">
+        <v>23909</v>
+      </c>
+      <c r="O198" s="32" t="n">
+        <v>2272</v>
+      </c>
+      <c r="P198" s="32" t="n">
+        <v>201526382</v>
+      </c>
+      <c r="Q198" s="44"/>
+      <c r="R198" s="44" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="199" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C199" s="45" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="D199" s="46" t="n">
+        <v>108049</v>
+      </c>
+      <c r="E199" s="46" t="n">
+        <v>49053</v>
+      </c>
+      <c r="F199" s="45" t="n">
+        <f aca="false">E199/D199</f>
+        <v>0.453988468194986</v>
+      </c>
+      <c r="G199" s="46" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H199" s="47" t="n">
+        <f aca="false">(G199-E199)/F199</f>
+        <v>2085.95606792653</v>
+      </c>
+      <c r="I199" s="47" t="n">
+        <f aca="false">E199*M199/G199</f>
+        <v>9527.07366</v>
+      </c>
+      <c r="J199" s="47" t="n">
+        <f aca="false">I199-M199</f>
+        <v>-183.92634</v>
+      </c>
+      <c r="K199" s="46" t="n">
+        <v>375</v>
+      </c>
+      <c r="L199" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="M199" s="46" t="n">
+        <v>9711</v>
+      </c>
+      <c r="N199" s="46" t="n">
+        <v>108049</v>
+      </c>
+      <c r="O199" s="46" t="n">
+        <v>3240</v>
+      </c>
+      <c r="P199" s="46" t="n">
+        <v>1049261757</v>
+      </c>
+      <c r="Q199" s="41"/>
+      <c r="R199" s="41" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="200" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="3" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C200" s="5" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="D200" s="4" t="n">
+        <v>92281</v>
+      </c>
+      <c r="E200" s="4" t="n">
+        <v>31132</v>
+      </c>
+      <c r="F200" s="5" t="n">
+        <f aca="false">E200/D200</f>
+        <v>0.337360886856449</v>
+      </c>
+      <c r="G200" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H200" s="1" t="n">
+        <f aca="false">(G200-E200)/F200</f>
+        <v>55928.2380830014</v>
+      </c>
+      <c r="I200" s="1" t="n">
+        <f aca="false">E200*M200/G200</f>
+        <v>8895.03504</v>
+      </c>
+      <c r="J200" s="1" t="n">
+        <f aca="false">I200-M200</f>
+        <v>-5390.96496</v>
+      </c>
+      <c r="K200" s="4" t="n">
+        <v>373</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M200" s="4" t="n">
+        <v>14286</v>
+      </c>
+      <c r="N200" s="4" t="n">
+        <v>92281</v>
+      </c>
+      <c r="O200" s="4" t="n">
+        <v>2408</v>
+      </c>
+      <c r="P200" s="4" t="n">
+        <v>1318327629</v>
+      </c>
+      <c r="Q200" s="3"/>
+      <c r="R200" s="3" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="201" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="41" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C201" s="48" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="D201" s="46" t="n">
+        <v>143701</v>
+      </c>
+      <c r="E201" s="46" t="n">
+        <v>48890</v>
+      </c>
+      <c r="F201" s="45" t="n">
+        <f aca="false">E201/D201</f>
+        <v>0.340220318578159</v>
+      </c>
+      <c r="G201" s="46" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H201" s="47" t="n">
+        <f aca="false">(G201-E201)/F201</f>
+        <v>3262.59173655144</v>
+      </c>
+      <c r="I201" s="47" t="n">
+        <f aca="false">E201*M201/G201</f>
+        <v>16008.5416</v>
+      </c>
+      <c r="J201" s="47" t="n">
+        <f aca="false">I201-M201</f>
+        <v>-363.4584</v>
+      </c>
+      <c r="K201" s="46" t="n">
+        <v>377</v>
+      </c>
+      <c r="L201" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="M201" s="46" t="n">
+        <v>16372</v>
+      </c>
+      <c r="N201" s="46" t="n">
+        <v>143701</v>
+      </c>
+      <c r="O201" s="46" t="n">
+        <v>2496</v>
+      </c>
+      <c r="P201" s="46" t="n">
+        <v>2352679731</v>
+      </c>
+      <c r="Q201" s="41"/>
+      <c r="R201" s="41" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="202" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="10" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C202" s="49" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="D202" s="12" t="n">
+        <v>156404</v>
+      </c>
+      <c r="E202" s="12" t="n">
+        <v>45711</v>
+      </c>
+      <c r="F202" s="11" t="n">
+        <f aca="false">E202/D202</f>
+        <v>0.292262346231554</v>
+      </c>
+      <c r="G202" s="12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H202" s="14" t="n">
+        <f aca="false">(G202-E202)/F202</f>
+        <v>14675.1713154383</v>
+      </c>
+      <c r="I202" s="14" t="n">
+        <f aca="false">E202*M202/G202</f>
+        <v>5902.20432</v>
+      </c>
+      <c r="J202" s="14" t="n">
+        <f aca="false">I202-M202</f>
+        <v>-553.79568</v>
+      </c>
+      <c r="K202" s="12" t="n">
+        <v>368</v>
+      </c>
+      <c r="L202" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="M202" s="12" t="n">
+        <v>6456</v>
+      </c>
+      <c r="N202" s="12" t="n">
+        <v>156404</v>
+      </c>
+      <c r="O202" s="12" t="n">
+        <v>2384</v>
+      </c>
+      <c r="P202" s="12" t="n">
+        <v>1009746408</v>
+      </c>
+      <c r="Q202" s="10"/>
+      <c r="R202" s="10" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="203" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="16" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C203" s="50" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="D203" s="42" t="n">
+        <v>89990</v>
+      </c>
+      <c r="E203" s="42" t="n">
+        <v>23420</v>
+      </c>
+      <c r="F203" s="17" t="n">
+        <f aca="false">E203/D203</f>
+        <v>0.260251139015446</v>
+      </c>
+      <c r="G203" s="42" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H203" s="18" t="n">
+        <f aca="false">(G203-E203)/F203</f>
+        <v>102132.117847993</v>
+      </c>
+      <c r="I203" s="18" t="n">
+        <f aca="false">E203*M203/G203</f>
+        <v>4224.0312</v>
+      </c>
+      <c r="J203" s="18" t="n">
+        <f aca="false">I203-M203</f>
+        <v>-4793.9688</v>
+      </c>
+      <c r="K203" s="42" t="n">
+        <v>369</v>
+      </c>
+      <c r="L203" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="M203" s="42" t="n">
+        <v>9018</v>
+      </c>
+      <c r="N203" s="42" t="n">
+        <v>89990</v>
+      </c>
+      <c r="O203" s="42" t="n">
+        <v>2715</v>
+      </c>
+      <c r="P203" s="42" t="n">
+        <v>811530457</v>
+      </c>
+      <c r="R203" s="16" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="3" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C204" s="22" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="D204" s="4" t="n">
+        <v>34074</v>
+      </c>
+      <c r="E204" s="4" t="n">
+        <v>14605</v>
+      </c>
+      <c r="F204" s="5" t="n">
+        <f aca="false">E204/D204</f>
+        <v>0.428625931795504</v>
+      </c>
+      <c r="G204" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H204" s="1" t="n">
+        <f aca="false">(G204-E204)/F204</f>
+        <v>82577.8315645327</v>
+      </c>
+      <c r="I204" s="1" t="n">
+        <f aca="false">E204*M204/G204</f>
+        <v>2653.7285</v>
+      </c>
+      <c r="J204" s="1" t="n">
+        <f aca="false">I204-M204</f>
+        <v>-6431.2715</v>
+      </c>
+      <c r="K204" s="4" t="n">
+        <v>374</v>
+      </c>
+      <c r="L204" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M204" s="4" t="n">
+        <v>9085</v>
+      </c>
+      <c r="N204" s="4" t="n">
+        <v>34074</v>
+      </c>
+      <c r="O204" s="4" t="n">
+        <v>2304</v>
+      </c>
+      <c r="P204" s="4" t="n">
+        <v>309563315</v>
+      </c>
+      <c r="R204" s="3" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="205" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="16" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C205" s="50" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="D205" s="42" t="n">
+        <v>107061</v>
+      </c>
+      <c r="E205" s="42" t="n">
+        <v>45943</v>
+      </c>
+      <c r="F205" s="17" t="n">
+        <f aca="false">E205/D205</f>
+        <v>0.429129188032991</v>
+      </c>
+      <c r="G205" s="42" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H205" s="18" t="n">
+        <f aca="false">(G205-E205)/F205</f>
+        <v>9454.0294930675</v>
+      </c>
+      <c r="I205" s="18" t="n">
+        <f aca="false">E205*M205/G205</f>
+        <v>9975.14416</v>
+      </c>
+      <c r="J205" s="18" t="n">
+        <f aca="false">I205-M205</f>
+        <v>-880.85584</v>
+      </c>
+      <c r="K205" s="42" t="n">
+        <v>378</v>
+      </c>
+      <c r="L205" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="M205" s="42" t="n">
+        <v>10856</v>
+      </c>
+      <c r="N205" s="42" t="n">
+        <v>107061</v>
+      </c>
+      <c r="O205" s="42" t="n">
+        <v>2852</v>
+      </c>
+      <c r="P205" s="42" t="n">
+        <v>1162254079</v>
+      </c>
+      <c r="Q205" s="16"/>
+      <c r="R205" s="16" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="206" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="3" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C206" s="22" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D206" s="4" t="n">
+        <v>42150</v>
+      </c>
+      <c r="E206" s="4" t="n">
+        <v>17695</v>
+      </c>
+      <c r="F206" s="5" t="n">
+        <f aca="false">E206/D206</f>
+        <v>0.419810201660735</v>
+      </c>
+      <c r="G206" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H206" s="1" t="n">
+        <f aca="false">(G206-E206)/F206</f>
+        <v>76951.4410850523</v>
+      </c>
+      <c r="I206" s="1" t="n">
+        <f aca="false">E206*M206/G206</f>
+        <v>4157.2633</v>
+      </c>
+      <c r="J206" s="1" t="n">
+        <f aca="false">I206-M206</f>
+        <v>-7589.7367</v>
+      </c>
+      <c r="K206" s="4" t="n">
+        <v>371</v>
+      </c>
+      <c r="L206" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M206" s="4" t="n">
+        <v>11747</v>
+      </c>
+      <c r="N206" s="4" t="n">
+        <v>42150</v>
+      </c>
+      <c r="O206" s="4" t="n">
+        <v>2413</v>
+      </c>
+      <c r="P206" s="4" t="n">
+        <v>495137553</v>
+      </c>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="207" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="41" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C207" s="48" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D207" s="46" t="n">
+        <v>117422</v>
+      </c>
+      <c r="E207" s="46" t="n">
+        <v>49405</v>
+      </c>
+      <c r="F207" s="45" t="n">
+        <f aca="false">E207/D207</f>
+        <v>0.420747389756604</v>
+      </c>
+      <c r="G207" s="46" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H207" s="47" t="n">
+        <f aca="false">(G207-E207)/F207</f>
+        <v>1414.15018722801</v>
+      </c>
+      <c r="I207" s="47" t="n">
+        <f aca="false">E207*M207/G207</f>
+        <v>13528.0771</v>
+      </c>
+      <c r="J207" s="47" t="n">
+        <f aca="false">I207-M207</f>
+        <v>-162.9229</v>
+      </c>
+      <c r="K207" s="46" t="n">
+        <v>376</v>
+      </c>
+      <c r="L207" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="M207" s="46" t="n">
+        <v>13691</v>
+      </c>
+      <c r="N207" s="46" t="n">
+        <v>117422</v>
+      </c>
+      <c r="O207" s="46" t="n">
+        <v>2891</v>
+      </c>
+      <c r="P207" s="46" t="n">
+        <v>1607626602</v>
+      </c>
+      <c r="Q207" s="41"/>
+      <c r="R207" s="41" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="208" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="16" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C208" s="50" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="D208" s="42" t="n">
+        <v>121815</v>
+      </c>
+      <c r="E208" s="42" t="n">
+        <v>48563</v>
+      </c>
+      <c r="F208" s="17" t="n">
+        <f aca="false">E208/D208</f>
+        <v>0.398661905348274</v>
+      </c>
+      <c r="G208" s="42" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H208" s="18" t="n">
+        <f aca="false">(G208-E208)/F208</f>
+        <v>3604.5580997879</v>
+      </c>
+      <c r="I208" s="18" t="n">
+        <f aca="false">E208*M208/G208</f>
+        <v>9655.29566</v>
+      </c>
+      <c r="J208" s="18" t="n">
+        <f aca="false">I208-M208</f>
+        <v>-285.70434</v>
+      </c>
+      <c r="K208" s="42" t="n">
+        <v>367</v>
+      </c>
+      <c r="L208" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="M208" s="42" t="n">
+        <v>9941</v>
+      </c>
+      <c r="N208" s="42" t="n">
+        <v>121815</v>
+      </c>
+      <c r="O208" s="42" t="n">
+        <v>3061</v>
+      </c>
+      <c r="P208" s="42" t="n">
+        <v>1210965212</v>
+      </c>
+      <c r="R208" s="16" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="209" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="10" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C209" s="49" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="D209" s="12" t="n">
+        <v>234090</v>
+      </c>
+      <c r="E209" s="12" t="n">
+        <v>74950</v>
+      </c>
+      <c r="F209" s="11" t="n">
+        <f aca="false">E209/D209</f>
+        <v>0.320176000683498</v>
+      </c>
+      <c r="G209" s="12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H209" s="14" t="n">
+        <f aca="false">(G209-E209)/F209</f>
+        <v>-77925.8905937292</v>
+      </c>
+      <c r="I209" s="14" t="n">
+        <f aca="false">E209*M209/G209</f>
+        <v>6790.47</v>
+      </c>
+      <c r="J209" s="14" t="n">
+        <f aca="false">I209-M209</f>
+        <v>2260.47</v>
+      </c>
+      <c r="K209" s="12" t="n">
+        <v>366</v>
+      </c>
+      <c r="L209" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="M209" s="12" t="n">
+        <v>4530</v>
+      </c>
+      <c r="N209" s="12" t="n">
+        <v>234090</v>
+      </c>
+      <c r="O209" s="12" t="n">
+        <v>3910</v>
+      </c>
+      <c r="P209" s="12" t="n">
+        <v>1060428353</v>
+      </c>
+      <c r="R209" s="10" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="210" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="35" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C210" s="36" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="D210" s="37" t="n">
+        <v>78208</v>
+      </c>
+      <c r="E210" s="37" t="n">
+        <v>23253</v>
+      </c>
+      <c r="F210" s="38" t="n">
+        <f aca="false">E210/D210</f>
+        <v>0.297322524549918</v>
+      </c>
+      <c r="G210" s="37" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H210" s="39" t="n">
+        <f aca="false">(G210-E210)/F210</f>
+        <v>89959.5482733411</v>
+      </c>
+      <c r="I210" s="39" t="n">
+        <f aca="false">E210*M210/G210</f>
+        <v>6630.36042</v>
+      </c>
+      <c r="J210" s="39" t="n">
+        <f aca="false">I210-M210</f>
+        <v>-7626.63958</v>
+      </c>
+      <c r="K210" s="37" t="n">
+        <v>365</v>
+      </c>
+      <c r="L210" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="M210" s="37" t="n">
+        <v>14257</v>
+      </c>
+      <c r="N210" s="37" t="n">
+        <v>78208</v>
+      </c>
+      <c r="O210" s="37" t="n">
+        <v>2495</v>
+      </c>
+      <c r="P210" s="37" t="n">
+        <v>1115010578</v>
+      </c>
+      <c r="R210" s="35" t="n">
+        <v>20230111</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C211" s="0"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="0"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C213" s="0"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C214" s="0"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C215" s="0"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C216" s="0"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C217" s="0"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="0"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C219" s="0"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C220" s="0"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C221" s="0"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C222" s="0"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C223" s="0"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="0"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="0"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C226" s="0"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C227" s="0"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C228" s="0"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C229" s="0"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C230" s="0"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C231" s="0"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C232" s="0"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C233" s="0"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C234" s="0"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C235" s="0"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="0"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C237" s="0"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C238" s="0"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C239" s="0"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C240" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R195"/>
-  <conditionalFormatting sqref="H2:H197">
+  <autoFilter ref="A1:R210"/>
+  <conditionalFormatting sqref="H2:H210">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F185 F187:F197">
+  <conditionalFormatting sqref="F2:F185 F187:F210">
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>30%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J197">
+  <conditionalFormatting sqref="J2:J210">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>50</formula>
     </cfRule>
@@ -18401,7 +18492,7 @@
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F186:F195">
+  <conditionalFormatting sqref="F186:F210">
     <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>30%</formula>
     </cfRule>
@@ -18425,10 +18516,10 @@
   <dimension ref="B1:P22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="201:201 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.39"/>
@@ -18461,7 +18552,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>96</v>
@@ -19081,7 +19172,7 @@
         <f aca="false">E14/D14</f>
         <v>0.336224045534027</v>
       </c>
-      <c r="G14" s="31" t="n">
+      <c r="G14" s="42" t="n">
         <v>50000</v>
       </c>
       <c r="H14" s="18" t="n">
@@ -19541,10 +19632,10 @@
   <dimension ref="B1:P23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="201:201 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.58"/>
@@ -19579,7 +19670,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>
@@ -20713,10 +20804,10 @@
   <dimension ref="B1:P23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
+      <selection pane="topLeft" activeCell="P23" activeCellId="1" sqref="201:201 P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.29"/>
@@ -20752,7 +20843,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="0" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>96</v>
